--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5863" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -582,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1168"/>
+  <dimension ref="A1:AC1178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -51854,7 +51854,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>5207404</v>
+        <v>5207932</v>
       </c>
       <c r="C577" t="s">
         <v>28</v>
@@ -51866,10 +51866,10 @@
         <v>44779.375</v>
       </c>
       <c r="F577" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G577" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H577">
         <v>0</v>
@@ -51881,40 +51881,40 @@
         <v>68</v>
       </c>
       <c r="K577">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L577">
+        <v>3.5</v>
+      </c>
+      <c r="M577">
+        <v>1.909</v>
+      </c>
+      <c r="N577">
         <v>3.3</v>
       </c>
-      <c r="M577">
-        <v>2.55</v>
-      </c>
-      <c r="N577">
-        <v>2.1</v>
-      </c>
       <c r="O577">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P577">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q577">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R577">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S577">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T577">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U577">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V577">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W577">
         <v>-1</v>
@@ -51923,19 +51923,19 @@
         <v>-1</v>
       </c>
       <c r="Y577">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="Z577">
         <v>-1</v>
       </c>
       <c r="AA577">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB577">
         <v>-1</v>
       </c>
       <c r="AC577">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="578" spans="1:29">
@@ -51943,7 +51943,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>5207932</v>
+        <v>5212739</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51955,40 +51955,40 @@
         <v>44779.375</v>
       </c>
       <c r="F578" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G578" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H578">
+        <v>1</v>
+      </c>
+      <c r="I578">
         <v>0</v>
       </c>
-      <c r="I578">
-        <v>2</v>
-      </c>
       <c r="J578" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K578">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="L578">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M578">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N578">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O578">
         <v>3.3</v>
       </c>
       <c r="P578">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q578">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R578">
         <v>2.025</v>
@@ -52006,19 +52006,19 @@
         <v>1.975</v>
       </c>
       <c r="W578">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X578">
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z578">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA578">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB578">
         <v>-1</v>
@@ -52032,7 +52032,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>5212739</v>
+        <v>5207404</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52044,76 +52044,76 @@
         <v>44779.375</v>
       </c>
       <c r="F579" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G579" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J579" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K579">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L579">
         <v>3.3</v>
       </c>
       <c r="M579">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N579">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O579">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P579">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q579">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R579">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S579">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T579">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U579">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V579">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W579">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X579">
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z579">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA579">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB579">
         <v>-1</v>
       </c>
       <c r="AC579">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -53189,7 +53189,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>5207258</v>
+        <v>5212741</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53201,58 +53201,58 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F592" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G592" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H592">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J592" t="s">
         <v>67</v>
       </c>
       <c r="K592">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L592">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M592">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N592">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O592">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P592">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q592">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R592">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S592">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T592">
         <v>2.75</v>
       </c>
       <c r="U592">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V592">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W592">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X592">
         <v>-1</v>
@@ -53261,16 +53261,16 @@
         <v>-1</v>
       </c>
       <c r="Z592">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA592">
         <v>-1</v>
       </c>
       <c r="AB592">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC592">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53278,7 +53278,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>5212741</v>
+        <v>5207258</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53290,58 +53290,58 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F593" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G593" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H593">
+        <v>4</v>
+      </c>
+      <c r="I593">
         <v>1</v>
-      </c>
-      <c r="I593">
-        <v>0</v>
       </c>
       <c r="J593" t="s">
         <v>67</v>
       </c>
       <c r="K593">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L593">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M593">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N593">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O593">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P593">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q593">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R593">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S593">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T593">
         <v>2.75</v>
       </c>
       <c r="U593">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V593">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W593">
-        <v>0.833</v>
+        <v>0.7</v>
       </c>
       <c r="X593">
         <v>-1</v>
@@ -53350,16 +53350,16 @@
         <v>-1</v>
       </c>
       <c r="Z593">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA593">
         <v>-1</v>
       </c>
       <c r="AB593">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC593">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -60576,7 +60576,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>5212480</v>
+        <v>5207430</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60588,10 +60588,10 @@
         <v>44849.375</v>
       </c>
       <c r="F675" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G675" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H675">
         <v>0</v>
@@ -60603,40 +60603,40 @@
         <v>68</v>
       </c>
       <c r="K675">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L675">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M675">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N675">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O675">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P675">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q675">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R675">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S675">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T675">
         <v>3</v>
       </c>
       <c r="U675">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V675">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W675">
         <v>-1</v>
@@ -60645,19 +60645,19 @@
         <v>-1</v>
       </c>
       <c r="Y675">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z675">
         <v>-1</v>
       </c>
       <c r="AA675">
+        <v>1</v>
+      </c>
+      <c r="AB675">
+        <v>-1</v>
+      </c>
+      <c r="AC675">
         <v>0.925</v>
-      </c>
-      <c r="AB675">
-        <v>-1</v>
-      </c>
-      <c r="AC675">
-        <v>0.825</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -60665,7 +60665,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5207430</v>
+        <v>5212680</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60677,76 +60677,76 @@
         <v>44849.375</v>
       </c>
       <c r="F676" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G676" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H676">
+        <v>3</v>
+      </c>
+      <c r="I676">
+        <v>2</v>
+      </c>
+      <c r="J676" t="s">
+        <v>67</v>
+      </c>
+      <c r="K676">
+        <v>2.7</v>
+      </c>
+      <c r="L676">
+        <v>3.4</v>
+      </c>
+      <c r="M676">
+        <v>2.4</v>
+      </c>
+      <c r="N676">
+        <v>2.625</v>
+      </c>
+      <c r="O676">
+        <v>3.3</v>
+      </c>
+      <c r="P676">
+        <v>2.5</v>
+      </c>
+      <c r="Q676">
         <v>0</v>
       </c>
-      <c r="I676">
-        <v>2</v>
-      </c>
-      <c r="J676" t="s">
-        <v>68</v>
-      </c>
-      <c r="K676">
-        <v>3.6</v>
-      </c>
-      <c r="L676">
-        <v>3.6</v>
-      </c>
-      <c r="M676">
-        <v>1.909</v>
-      </c>
-      <c r="N676">
-        <v>4</v>
-      </c>
-      <c r="O676">
-        <v>3.8</v>
-      </c>
-      <c r="P676">
-        <v>1.75</v>
-      </c>
-      <c r="Q676">
-        <v>0.75</v>
-      </c>
       <c r="R676">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S676">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T676">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U676">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V676">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W676">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X676">
         <v>-1</v>
       </c>
       <c r="Y676">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z676">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA676">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB676">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC676">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60754,7 +60754,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5212680</v>
+        <v>5207429</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60766,34 +60766,34 @@
         <v>44849.375</v>
       </c>
       <c r="F677" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G677" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H677">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I677">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J677" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K677">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L677">
         <v>3.4</v>
       </c>
       <c r="M677">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N677">
         <v>2.625</v>
       </c>
       <c r="O677">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P677">
         <v>2.5</v>
@@ -60802,40 +60802,40 @@
         <v>0</v>
       </c>
       <c r="R677">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S677">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T677">
         <v>2.5</v>
       </c>
       <c r="U677">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V677">
         <v>1.825</v>
       </c>
       <c r="W677">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X677">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y677">
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA677">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB677">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC677">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60843,7 +60843,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>5207429</v>
+        <v>5212481</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60855,76 +60855,76 @@
         <v>44849.375</v>
       </c>
       <c r="F678" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G678" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I678">
         <v>1</v>
       </c>
       <c r="J678" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K678">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="L678">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M678">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N678">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="O678">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P678">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q678">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R678">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S678">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T678">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U678">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V678">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W678">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X678">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y678">
         <v>-1</v>
       </c>
       <c r="Z678">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA678">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB678">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC678">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60932,7 +60932,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5212481</v>
+        <v>5212679</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60944,58 +60944,58 @@
         <v>44849.375</v>
       </c>
       <c r="F679" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G679" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H679">
         <v>3</v>
       </c>
       <c r="I679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J679" t="s">
         <v>67</v>
       </c>
       <c r="K679">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L679">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M679">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N679">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O679">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P679">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q679">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R679">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S679">
         <v>2.025</v>
       </c>
       <c r="T679">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U679">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V679">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W679">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="X679">
         <v>-1</v>
@@ -61004,13 +61004,13 @@
         <v>-1</v>
       </c>
       <c r="Z679">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA679">
         <v>-1</v>
       </c>
       <c r="AB679">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC679">
         <v>-1</v>
@@ -61021,7 +61021,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5212679</v>
+        <v>5212480</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -61033,76 +61033,76 @@
         <v>44849.375</v>
       </c>
       <c r="F680" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G680" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H680">
+        <v>0</v>
+      </c>
+      <c r="I680">
+        <v>2</v>
+      </c>
+      <c r="J680" t="s">
+        <v>68</v>
+      </c>
+      <c r="K680">
+        <v>2.15</v>
+      </c>
+      <c r="L680">
+        <v>3.5</v>
+      </c>
+      <c r="M680">
         <v>3</v>
       </c>
-      <c r="I680">
-        <v>2</v>
-      </c>
-      <c r="J680" t="s">
-        <v>67</v>
-      </c>
-      <c r="K680">
-        <v>1.75</v>
-      </c>
-      <c r="L680">
-        <v>3.6</v>
-      </c>
-      <c r="M680">
-        <v>4.333</v>
-      </c>
       <c r="N680">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O680">
+        <v>3.75</v>
+      </c>
+      <c r="P680">
         <v>3.5</v>
-      </c>
-      <c r="P680">
-        <v>4.333</v>
       </c>
       <c r="Q680">
         <v>-0.5</v>
       </c>
       <c r="R680">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S680">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T680">
+        <v>3</v>
+      </c>
+      <c r="U680">
+        <v>1.975</v>
+      </c>
+      <c r="V680">
+        <v>1.825</v>
+      </c>
+      <c r="W680">
+        <v>-1</v>
+      </c>
+      <c r="X680">
+        <v>-1</v>
+      </c>
+      <c r="Y680">
         <v>2.5</v>
       </c>
-      <c r="U680">
-        <v>1.95</v>
-      </c>
-      <c r="V680">
-        <v>1.85</v>
-      </c>
-      <c r="W680">
-        <v>0.8</v>
-      </c>
-      <c r="X680">
-        <v>-1</v>
-      </c>
-      <c r="Y680">
-        <v>-1</v>
-      </c>
       <c r="Z680">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA680">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB680">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC680">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -62623,7 +62623,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>5207941</v>
+        <v>5212484</v>
       </c>
       <c r="C698" t="s">
         <v>28</v>
@@ -62635,76 +62635,76 @@
         <v>44863.375</v>
       </c>
       <c r="F698" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G698" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J698" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K698">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L698">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M698">
+        <v>4</v>
+      </c>
+      <c r="N698">
+        <v>1.85</v>
+      </c>
+      <c r="O698">
+        <v>3.6</v>
+      </c>
+      <c r="P698">
+        <v>3.6</v>
+      </c>
+      <c r="Q698">
+        <v>-0.75</v>
+      </c>
+      <c r="R698">
+        <v>2.025</v>
+      </c>
+      <c r="S698">
+        <v>1.825</v>
+      </c>
+      <c r="T698">
         <v>2.75</v>
       </c>
-      <c r="N698">
-        <v>2.4</v>
-      </c>
-      <c r="O698">
-        <v>3.25</v>
-      </c>
-      <c r="P698">
-        <v>2.7</v>
-      </c>
-      <c r="Q698">
-        <v>0</v>
-      </c>
-      <c r="R698">
-        <v>1.75</v>
-      </c>
-      <c r="S698">
-        <v>2.05</v>
-      </c>
-      <c r="T698">
-        <v>2.25</v>
-      </c>
       <c r="U698">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V698">
         <v>2.025</v>
       </c>
       <c r="W698">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X698">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y698">
         <v>-1</v>
       </c>
       <c r="Z698">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA698">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB698">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC698">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="699" spans="1:29">
@@ -62801,7 +62801,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>5212484</v>
+        <v>5207941</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62813,76 +62813,76 @@
         <v>44863.375</v>
       </c>
       <c r="F700" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G700" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H700">
+        <v>2</v>
+      </c>
+      <c r="I700">
+        <v>1</v>
+      </c>
+      <c r="J700" t="s">
+        <v>67</v>
+      </c>
+      <c r="K700">
+        <v>2.375</v>
+      </c>
+      <c r="L700">
+        <v>3.3</v>
+      </c>
+      <c r="M700">
+        <v>2.75</v>
+      </c>
+      <c r="N700">
+        <v>2.4</v>
+      </c>
+      <c r="O700">
+        <v>3.25</v>
+      </c>
+      <c r="P700">
+        <v>2.7</v>
+      </c>
+      <c r="Q700">
         <v>0</v>
       </c>
-      <c r="I700">
-        <v>0</v>
-      </c>
-      <c r="J700" t="s">
-        <v>66</v>
-      </c>
-      <c r="K700">
+      <c r="R700">
         <v>1.75</v>
       </c>
-      <c r="L700">
-        <v>3.6</v>
-      </c>
-      <c r="M700">
-        <v>4</v>
-      </c>
-      <c r="N700">
-        <v>1.85</v>
-      </c>
-      <c r="O700">
-        <v>3.6</v>
-      </c>
-      <c r="P700">
-        <v>3.6</v>
-      </c>
-      <c r="Q700">
-        <v>-0.75</v>
-      </c>
-      <c r="R700">
-        <v>2.025</v>
-      </c>
       <c r="S700">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T700">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U700">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V700">
         <v>2.025</v>
       </c>
       <c r="W700">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X700">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y700">
         <v>-1</v>
       </c>
       <c r="Z700">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA700">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB700">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC700">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -63246,7 +63246,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>5207439</v>
+        <v>5207246</v>
       </c>
       <c r="C705" t="s">
         <v>28</v>
@@ -63258,76 +63258,76 @@
         <v>44870.41666666666</v>
       </c>
       <c r="F705" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G705" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H705">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I705">
         <v>1</v>
       </c>
       <c r="J705" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K705">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L705">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M705">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N705">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O705">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P705">
         <v>4.75</v>
       </c>
       <c r="Q705">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R705">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S705">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T705">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U705">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V705">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W705">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X705">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y705">
         <v>-1</v>
       </c>
       <c r="Z705">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA705">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB705">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC705">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="706" spans="1:29">
@@ -63335,7 +63335,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>5207246</v>
+        <v>5207439</v>
       </c>
       <c r="C706" t="s">
         <v>28</v>
@@ -63347,76 +63347,76 @@
         <v>44870.41666666666</v>
       </c>
       <c r="F706" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G706" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I706">
         <v>1</v>
       </c>
       <c r="J706" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K706">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L706">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M706">
+        <v>6</v>
+      </c>
+      <c r="N706">
+        <v>1.571</v>
+      </c>
+      <c r="O706">
         <v>4</v>
-      </c>
-      <c r="N706">
-        <v>1.615</v>
-      </c>
-      <c r="O706">
-        <v>3.8</v>
       </c>
       <c r="P706">
         <v>4.75</v>
       </c>
       <c r="Q706">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R706">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S706">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T706">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U706">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V706">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W706">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X706">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y706">
         <v>-1</v>
       </c>
       <c r="Z706">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA706">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB706">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC706">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="707" spans="1:29">
@@ -65115,7 +65115,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>5212691</v>
+        <v>5212690</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65127,76 +65127,76 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F726" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G726" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H726">
         <v>1</v>
       </c>
       <c r="I726">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J726" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K726">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L726">
         <v>3.4</v>
       </c>
       <c r="M726">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N726">
         <v>3</v>
       </c>
       <c r="O726">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P726">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q726">
         <v>0.25</v>
       </c>
       <c r="R726">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S726">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T726">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U726">
         <v>1.925</v>
       </c>
       <c r="V726">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W726">
         <v>-1</v>
       </c>
       <c r="X726">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y726">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z726">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA726">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB726">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC726">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="727" spans="1:29">
@@ -65204,7 +65204,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>5207444</v>
+        <v>5212691</v>
       </c>
       <c r="C727" t="s">
         <v>28</v>
@@ -65216,43 +65216,43 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F727" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G727" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H727">
+        <v>1</v>
+      </c>
+      <c r="I727">
+        <v>1</v>
+      </c>
+      <c r="J727" t="s">
+        <v>66</v>
+      </c>
+      <c r="K727">
+        <v>2.75</v>
+      </c>
+      <c r="L727">
+        <v>3.4</v>
+      </c>
+      <c r="M727">
+        <v>2.25</v>
+      </c>
+      <c r="N727">
         <v>3</v>
       </c>
-      <c r="I727">
-        <v>0</v>
-      </c>
-      <c r="J727" t="s">
-        <v>67</v>
-      </c>
-      <c r="K727">
-        <v>1.8</v>
-      </c>
-      <c r="L727">
-        <v>3.6</v>
-      </c>
-      <c r="M727">
-        <v>3.8</v>
-      </c>
-      <c r="N727">
-        <v>1.666</v>
-      </c>
       <c r="O727">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P727">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q727">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R727">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S727">
         <v>1.9</v>
@@ -65261,31 +65261,31 @@
         <v>2.75</v>
       </c>
       <c r="U727">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V727">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W727">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X727">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y727">
         <v>-1</v>
       </c>
       <c r="Z727">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA727">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB727">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC727">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="728" spans="1:29">
@@ -65293,7 +65293,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>5207944</v>
+        <v>5207444</v>
       </c>
       <c r="C728" t="s">
         <v>28</v>
@@ -65305,76 +65305,76 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F728" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G728" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I728">
         <v>0</v>
       </c>
       <c r="J728" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K728">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L728">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M728">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N728">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O728">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P728">
         <v>4</v>
       </c>
       <c r="Q728">
+        <v>-0.75</v>
+      </c>
+      <c r="R728">
+        <v>1.9</v>
+      </c>
+      <c r="S728">
+        <v>1.9</v>
+      </c>
+      <c r="T728">
+        <v>2.75</v>
+      </c>
+      <c r="U728">
+        <v>1.9</v>
+      </c>
+      <c r="V728">
+        <v>1.9</v>
+      </c>
+      <c r="W728">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X728">
+        <v>-1</v>
+      </c>
+      <c r="Y728">
+        <v>-1</v>
+      </c>
+      <c r="Z728">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA728">
+        <v>-1</v>
+      </c>
+      <c r="AB728">
+        <v>0.45</v>
+      </c>
+      <c r="AC728">
         <v>-0.5</v>
-      </c>
-      <c r="R728">
-        <v>1.8</v>
-      </c>
-      <c r="S728">
-        <v>2</v>
-      </c>
-      <c r="T728">
-        <v>2.5</v>
-      </c>
-      <c r="U728">
-        <v>2</v>
-      </c>
-      <c r="V728">
-        <v>1.8</v>
-      </c>
-      <c r="W728">
-        <v>-1</v>
-      </c>
-      <c r="X728">
-        <v>2.6</v>
-      </c>
-      <c r="Y728">
-        <v>-1</v>
-      </c>
-      <c r="Z728">
-        <v>-1</v>
-      </c>
-      <c r="AA728">
-        <v>1</v>
-      </c>
-      <c r="AB728">
-        <v>-1</v>
-      </c>
-      <c r="AC728">
-        <v>0.8</v>
       </c>
     </row>
     <row r="729" spans="1:29">
@@ -65382,7 +65382,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>5212488</v>
+        <v>5207944</v>
       </c>
       <c r="C729" t="s">
         <v>28</v>
@@ -65394,76 +65394,76 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F729" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G729" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H729">
         <v>0</v>
       </c>
       <c r="I729">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J729" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K729">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="L729">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M729">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N729">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O729">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P729">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q729">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R729">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S729">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T729">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U729">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V729">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W729">
         <v>-1</v>
       </c>
       <c r="X729">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y729">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z729">
         <v>-1</v>
       </c>
       <c r="AA729">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB729">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC729">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="730" spans="1:29">
@@ -65471,7 +65471,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>5212690</v>
+        <v>5212488</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65483,34 +65483,34 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F730" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G730" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J730" t="s">
         <v>68</v>
       </c>
       <c r="K730">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L730">
+        <v>3.25</v>
+      </c>
+      <c r="M730">
+        <v>2.3</v>
+      </c>
+      <c r="N730">
+        <v>2.8</v>
+      </c>
+      <c r="O730">
         <v>3.4</v>
-      </c>
-      <c r="M730">
-        <v>2.15</v>
-      </c>
-      <c r="N730">
-        <v>3</v>
-      </c>
-      <c r="O730">
-        <v>3.3</v>
       </c>
       <c r="P730">
         <v>2.2</v>
@@ -65525,13 +65525,13 @@
         <v>1.975</v>
       </c>
       <c r="T730">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U730">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V730">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W730">
         <v>-1</v>
@@ -65549,10 +65549,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB730">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC730">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -66005,7 +66005,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5212760</v>
+        <v>5207445</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -66017,58 +66017,58 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F736" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G736" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H736">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I736">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J736" t="s">
         <v>67</v>
       </c>
       <c r="K736">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L736">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M736">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N736">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O736">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P736">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q736">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R736">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S736">
+        <v>1.85</v>
+      </c>
+      <c r="T736">
+        <v>3</v>
+      </c>
+      <c r="U736">
+        <v>2.025</v>
+      </c>
+      <c r="V736">
         <v>1.825</v>
       </c>
-      <c r="T736">
-        <v>2.75</v>
-      </c>
-      <c r="U736">
-        <v>1.925</v>
-      </c>
-      <c r="V736">
-        <v>1.875</v>
-      </c>
       <c r="W736">
-        <v>0.909</v>
+        <v>1.75</v>
       </c>
       <c r="X736">
         <v>-1</v>
@@ -66077,16 +66077,16 @@
         <v>-1</v>
       </c>
       <c r="Z736">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA736">
         <v>-1</v>
       </c>
       <c r="AB736">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC736">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="737" spans="1:29">
@@ -66094,7 +66094,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>5207446</v>
+        <v>5212760</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66106,76 +66106,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F737" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G737" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I737">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J737" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K737">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L737">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M737">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N737">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O737">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P737">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q737">
         <v>-0.5</v>
       </c>
       <c r="R737">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S737">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T737">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U737">
+        <v>1.925</v>
+      </c>
+      <c r="V737">
         <v>1.875</v>
       </c>
-      <c r="V737">
-        <v>1.975</v>
-      </c>
       <c r="W737">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X737">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y737">
         <v>-1</v>
       </c>
       <c r="Z737">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA737">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB737">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC737">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66183,7 +66183,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5212489</v>
+        <v>5212692</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66195,73 +66195,73 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F738" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G738" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H738">
+        <v>2</v>
+      </c>
+      <c r="I738">
         <v>3</v>
       </c>
-      <c r="I738">
-        <v>1</v>
-      </c>
       <c r="J738" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K738">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L738">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M738">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N738">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O738">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P738">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q738">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R738">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S738">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T738">
         <v>2.5</v>
       </c>
       <c r="U738">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V738">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W738">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z738">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA738">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB738">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC738">
         <v>-1</v>
@@ -66272,7 +66272,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5207445</v>
+        <v>5212489</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66284,58 +66284,58 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F739" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G739" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H739">
+        <v>3</v>
+      </c>
+      <c r="I739">
         <v>1</v>
-      </c>
-      <c r="I739">
-        <v>0</v>
       </c>
       <c r="J739" t="s">
         <v>67</v>
       </c>
       <c r="K739">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L739">
         <v>3.4</v>
       </c>
       <c r="M739">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N739">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O739">
         <v>3.3</v>
       </c>
       <c r="P739">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q739">
         <v>0</v>
       </c>
       <c r="R739">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S739">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T739">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U739">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V739">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W739">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66344,16 +66344,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA739">
         <v>-1</v>
       </c>
       <c r="AB739">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC739">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66361,7 +66361,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5212692</v>
+        <v>5207446</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66373,28 +66373,28 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F740" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G740" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J740" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K740">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L740">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M740">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N740">
         <v>1.8</v>
@@ -66403,46 +66403,46 @@
         <v>3.5</v>
       </c>
       <c r="P740">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q740">
         <v>-0.5</v>
       </c>
       <c r="R740">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S740">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T740">
         <v>2.5</v>
       </c>
       <c r="U740">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V740">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W740">
         <v>-1</v>
       </c>
       <c r="X740">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y740">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z740">
         <v>-1</v>
       </c>
       <c r="AA740">
+        <v>1</v>
+      </c>
+      <c r="AB740">
+        <v>-1</v>
+      </c>
+      <c r="AC740">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB740">
-        <v>0.8</v>
-      </c>
-      <c r="AC740">
-        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66895,7 +66895,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>5207242</v>
+        <v>5212490</v>
       </c>
       <c r="C746" t="s">
         <v>28</v>
@@ -66907,58 +66907,58 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F746" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G746" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H746">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I746">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J746" t="s">
         <v>67</v>
       </c>
       <c r="K746">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L746">
         <v>3.6</v>
       </c>
       <c r="M746">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N746">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O746">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P746">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q746">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R746">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S746">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T746">
         <v>2.5</v>
       </c>
       <c r="U746">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V746">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W746">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X746">
         <v>-1</v>
@@ -66967,13 +66967,13 @@
         <v>-1</v>
       </c>
       <c r="Z746">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA746">
         <v>-1</v>
       </c>
       <c r="AB746">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC746">
         <v>-1</v>
@@ -66984,7 +66984,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>5207449</v>
+        <v>5207450</v>
       </c>
       <c r="C747" t="s">
         <v>28</v>
@@ -66996,76 +66996,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F747" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G747" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H747">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I747">
+        <v>1</v>
+      </c>
+      <c r="J747" t="s">
+        <v>66</v>
+      </c>
+      <c r="K747">
+        <v>2.25</v>
+      </c>
+      <c r="L747">
+        <v>3.3</v>
+      </c>
+      <c r="M747">
+        <v>2.9</v>
+      </c>
+      <c r="N747">
+        <v>2.2</v>
+      </c>
+      <c r="O747">
+        <v>3.3</v>
+      </c>
+      <c r="P747">
         <v>3</v>
       </c>
-      <c r="J747" t="s">
-        <v>67</v>
-      </c>
-      <c r="K747">
-        <v>2.1</v>
-      </c>
-      <c r="L747">
-        <v>3.4</v>
-      </c>
-      <c r="M747">
-        <v>3.1</v>
-      </c>
-      <c r="N747">
-        <v>1.8</v>
-      </c>
-      <c r="O747">
-        <v>3.6</v>
-      </c>
-      <c r="P747">
-        <v>3.8</v>
-      </c>
       <c r="Q747">
+        <v>-0.25</v>
+      </c>
+      <c r="R747">
+        <v>1.925</v>
+      </c>
+      <c r="S747">
+        <v>1.875</v>
+      </c>
+      <c r="T747">
+        <v>2.5</v>
+      </c>
+      <c r="U747">
+        <v>1.825</v>
+      </c>
+      <c r="V747">
+        <v>1.975</v>
+      </c>
+      <c r="W747">
+        <v>-1</v>
+      </c>
+      <c r="X747">
+        <v>2.3</v>
+      </c>
+      <c r="Y747">
+        <v>-1</v>
+      </c>
+      <c r="Z747">
         <v>-0.5</v>
       </c>
-      <c r="R747">
-        <v>1.825</v>
-      </c>
-      <c r="S747">
-        <v>1.975</v>
-      </c>
-      <c r="T747">
-        <v>2.75</v>
-      </c>
-      <c r="U747">
-        <v>1.9</v>
-      </c>
-      <c r="V747">
-        <v>1.9</v>
-      </c>
-      <c r="W747">
-        <v>0.8</v>
-      </c>
-      <c r="X747">
-        <v>-1</v>
-      </c>
-      <c r="Y747">
-        <v>-1</v>
-      </c>
-      <c r="Z747">
-        <v>0.825</v>
-      </c>
       <c r="AA747">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB747">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC747">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="748" spans="1:29">
@@ -67073,7 +67073,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5207450</v>
+        <v>5207242</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67085,76 +67085,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F748" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G748" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I748">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J748" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K748">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L748">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M748">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N748">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O748">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P748">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q748">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R748">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S748">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T748">
         <v>2.5</v>
       </c>
       <c r="U748">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V748">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W748">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X748">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y748">
         <v>-1</v>
       </c>
       <c r="Z748">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA748">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB748">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC748">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="749" spans="1:29">
@@ -67162,7 +67162,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>5212490</v>
+        <v>5207449</v>
       </c>
       <c r="C749" t="s">
         <v>28</v>
@@ -67174,58 +67174,58 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F749" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G749" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H749">
+        <v>4</v>
+      </c>
+      <c r="I749">
         <v>3</v>
-      </c>
-      <c r="I749">
-        <v>1</v>
       </c>
       <c r="J749" t="s">
         <v>67</v>
       </c>
       <c r="K749">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L749">
+        <v>3.4</v>
+      </c>
+      <c r="M749">
+        <v>3.1</v>
+      </c>
+      <c r="N749">
+        <v>1.8</v>
+      </c>
+      <c r="O749">
         <v>3.6</v>
       </c>
-      <c r="M749">
-        <v>4.5</v>
-      </c>
-      <c r="N749">
-        <v>1.75</v>
-      </c>
-      <c r="O749">
-        <v>3.5</v>
-      </c>
       <c r="P749">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q749">
         <v>-0.5</v>
       </c>
       <c r="R749">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S749">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T749">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U749">
         <v>1.9</v>
       </c>
       <c r="V749">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W749">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X749">
         <v>-1</v>
@@ -67234,7 +67234,7 @@
         <v>-1</v>
       </c>
       <c r="Z749">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA749">
         <v>-1</v>
@@ -68586,7 +68586,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>5207947</v>
+        <v>5212492</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68598,76 +68598,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F765" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G765" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H765">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I765">
         <v>1</v>
       </c>
       <c r="J765" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K765">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L765">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M765">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N765">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O765">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P765">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q765">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R765">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S765">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T765">
         <v>2.5</v>
       </c>
       <c r="U765">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V765">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W765">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X765">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y765">
         <v>-1</v>
       </c>
       <c r="Z765">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA765">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB765">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC765">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68675,7 +68675,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>5212700</v>
+        <v>5207947</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68687,46 +68687,46 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F766" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G766" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H766">
+        <v>7</v>
+      </c>
+      <c r="I766">
         <v>1</v>
       </c>
-      <c r="I766">
-        <v>2</v>
-      </c>
       <c r="J766" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K766">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L766">
+        <v>3.5</v>
+      </c>
+      <c r="M766">
+        <v>4.2</v>
+      </c>
+      <c r="N766">
+        <v>1.6</v>
+      </c>
+      <c r="O766">
         <v>3.6</v>
       </c>
-      <c r="M766">
-        <v>4.333</v>
-      </c>
-      <c r="N766">
-        <v>1.85</v>
-      </c>
-      <c r="O766">
-        <v>3.5</v>
-      </c>
       <c r="P766">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q766">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R766">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S766">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T766">
         <v>2.5</v>
@@ -68738,19 +68738,19 @@
         <v>1.9</v>
       </c>
       <c r="W766">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z766">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA766">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB766">
         <v>0.8999999999999999</v>
@@ -68764,7 +68764,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5212766</v>
+        <v>5212700</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68776,76 +68776,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F767" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G767" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H767">
         <v>1</v>
       </c>
       <c r="I767">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J767" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K767">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L767">
         <v>3.6</v>
       </c>
       <c r="M767">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N767">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O767">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P767">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q767">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R767">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S767">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T767">
+        <v>2.5</v>
+      </c>
+      <c r="U767">
+        <v>1.9</v>
+      </c>
+      <c r="V767">
+        <v>1.9</v>
+      </c>
+      <c r="W767">
+        <v>-1</v>
+      </c>
+      <c r="X767">
+        <v>-1</v>
+      </c>
+      <c r="Y767">
         <v>2.75</v>
       </c>
-      <c r="U767">
-        <v>1.775</v>
-      </c>
-      <c r="V767">
-        <v>2.025</v>
-      </c>
-      <c r="W767">
-        <v>-1</v>
-      </c>
-      <c r="X767">
-        <v>2.8</v>
-      </c>
-      <c r="Y767">
-        <v>-1</v>
-      </c>
       <c r="Z767">
         <v>-1</v>
       </c>
       <c r="AA767">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB767">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC767">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68853,7 +68853,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>5207455</v>
+        <v>5212766</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68865,76 +68865,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F768" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G768" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I768">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J768" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K768">
+        <v>1.833</v>
+      </c>
+      <c r="L768">
+        <v>3.6</v>
+      </c>
+      <c r="M768">
+        <v>3.8</v>
+      </c>
+      <c r="N768">
+        <v>1.7</v>
+      </c>
+      <c r="O768">
+        <v>3.8</v>
+      </c>
+      <c r="P768">
+        <v>4.333</v>
+      </c>
+      <c r="Q768">
+        <v>-0.75</v>
+      </c>
+      <c r="R768">
+        <v>1.95</v>
+      </c>
+      <c r="S768">
+        <v>1.85</v>
+      </c>
+      <c r="T768">
         <v>2.75</v>
       </c>
-      <c r="L768">
-        <v>3.3</v>
-      </c>
-      <c r="M768">
-        <v>2.45</v>
-      </c>
-      <c r="N768">
-        <v>3.1</v>
-      </c>
-      <c r="O768">
-        <v>3.5</v>
-      </c>
-      <c r="P768">
-        <v>2.2</v>
-      </c>
-      <c r="Q768">
-        <v>0.25</v>
-      </c>
-      <c r="R768">
-        <v>1.825</v>
-      </c>
-      <c r="S768">
-        <v>1.975</v>
-      </c>
-      <c r="T768">
-        <v>3</v>
-      </c>
       <c r="U768">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V768">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W768">
         <v>-1</v>
       </c>
       <c r="X768">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y768">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z768">
         <v>-1</v>
       </c>
       <c r="AA768">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB768">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC768">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68942,7 +68942,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>5212767</v>
+        <v>5207455</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68954,40 +68954,40 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F769" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G769" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H769">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J769" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K769">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L769">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M769">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N769">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O769">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P769">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q769">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R769">
         <v>1.825</v>
@@ -68999,28 +68999,28 @@
         <v>3</v>
       </c>
       <c r="U769">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V769">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W769">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X769">
         <v>-1</v>
       </c>
       <c r="Y769">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z769">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA769">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB769">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -69031,7 +69031,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>5212492</v>
+        <v>5212767</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69043,76 +69043,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F770" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G770" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I770">
         <v>1</v>
       </c>
       <c r="J770" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K770">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L770">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M770">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N770">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O770">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P770">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q770">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R770">
+        <v>1.825</v>
+      </c>
+      <c r="S770">
         <v>1.975</v>
       </c>
-      <c r="S770">
-        <v>1.825</v>
-      </c>
       <c r="T770">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U770">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V770">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W770">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X770">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y770">
         <v>-1</v>
       </c>
       <c r="Z770">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA770">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB770">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC770">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -70455,7 +70455,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5212706</v>
+        <v>5207949</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70467,76 +70467,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F786" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G786" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I786">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J786" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K786">
         <v>1.85</v>
       </c>
       <c r="L786">
+        <v>3.4</v>
+      </c>
+      <c r="M786">
+        <v>4</v>
+      </c>
+      <c r="N786">
+        <v>1.85</v>
+      </c>
+      <c r="O786">
         <v>3.5</v>
       </c>
-      <c r="M786">
+      <c r="P786">
         <v>3.8</v>
-      </c>
-      <c r="N786">
-        <v>1.833</v>
-      </c>
-      <c r="O786">
-        <v>3.4</v>
-      </c>
-      <c r="P786">
-        <v>4</v>
       </c>
       <c r="Q786">
         <v>-0.5</v>
       </c>
       <c r="R786">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S786">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T786">
         <v>2.5</v>
       </c>
       <c r="U786">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V786">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W786">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X786">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y786">
         <v>-1</v>
       </c>
       <c r="Z786">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA786">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB786">
         <v>-1</v>
       </c>
       <c r="AC786">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70544,7 +70544,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>5212705</v>
+        <v>5212706</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70556,76 +70556,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F787" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G787" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H787">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787">
+        <v>0</v>
+      </c>
+      <c r="J787" t="s">
+        <v>67</v>
+      </c>
+      <c r="K787">
+        <v>1.85</v>
+      </c>
+      <c r="L787">
+        <v>3.5</v>
+      </c>
+      <c r="M787">
+        <v>3.8</v>
+      </c>
+      <c r="N787">
+        <v>1.833</v>
+      </c>
+      <c r="O787">
+        <v>3.4</v>
+      </c>
+      <c r="P787">
         <v>4</v>
-      </c>
-      <c r="J787" t="s">
-        <v>68</v>
-      </c>
-      <c r="K787">
-        <v>2.1</v>
-      </c>
-      <c r="L787">
-        <v>3.3</v>
-      </c>
-      <c r="M787">
-        <v>3.2</v>
-      </c>
-      <c r="N787">
-        <v>1.8</v>
-      </c>
-      <c r="O787">
-        <v>3.5</v>
-      </c>
-      <c r="P787">
-        <v>4.2</v>
       </c>
       <c r="Q787">
         <v>-0.5</v>
       </c>
       <c r="R787">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S787">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T787">
         <v>2.5</v>
       </c>
       <c r="U787">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V787">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W787">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z787">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA787">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB787">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC787">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="788" spans="1:29">
@@ -70633,7 +70633,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5212495</v>
+        <v>5212705</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70645,73 +70645,73 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F788" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G788" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H788">
         <v>3</v>
       </c>
       <c r="I788">
+        <v>4</v>
+      </c>
+      <c r="J788" t="s">
+        <v>68</v>
+      </c>
+      <c r="K788">
+        <v>2.1</v>
+      </c>
+      <c r="L788">
+        <v>3.3</v>
+      </c>
+      <c r="M788">
+        <v>3.2</v>
+      </c>
+      <c r="N788">
+        <v>1.8</v>
+      </c>
+      <c r="O788">
+        <v>3.5</v>
+      </c>
+      <c r="P788">
+        <v>4.2</v>
+      </c>
+      <c r="Q788">
+        <v>-0.5</v>
+      </c>
+      <c r="R788">
+        <v>1.8</v>
+      </c>
+      <c r="S788">
+        <v>2</v>
+      </c>
+      <c r="T788">
+        <v>2.5</v>
+      </c>
+      <c r="U788">
+        <v>1.85</v>
+      </c>
+      <c r="V788">
+        <v>1.95</v>
+      </c>
+      <c r="W788">
+        <v>-1</v>
+      </c>
+      <c r="X788">
+        <v>-1</v>
+      </c>
+      <c r="Y788">
+        <v>3.2</v>
+      </c>
+      <c r="Z788">
+        <v>-1</v>
+      </c>
+      <c r="AA788">
         <v>1</v>
       </c>
-      <c r="J788" t="s">
-        <v>67</v>
-      </c>
-      <c r="K788">
-        <v>1.666</v>
-      </c>
-      <c r="L788">
-        <v>3.75</v>
-      </c>
-      <c r="M788">
-        <v>4.5</v>
-      </c>
-      <c r="N788">
-        <v>1.7</v>
-      </c>
-      <c r="O788">
-        <v>3.75</v>
-      </c>
-      <c r="P788">
-        <v>4.333</v>
-      </c>
-      <c r="Q788">
-        <v>-0.75</v>
-      </c>
-      <c r="R788">
-        <v>1.925</v>
-      </c>
-      <c r="S788">
-        <v>1.875</v>
-      </c>
-      <c r="T788">
-        <v>2.75</v>
-      </c>
-      <c r="U788">
-        <v>1.9</v>
-      </c>
-      <c r="V788">
-        <v>1.9</v>
-      </c>
-      <c r="W788">
-        <v>0.7</v>
-      </c>
-      <c r="X788">
-        <v>-1</v>
-      </c>
-      <c r="Y788">
-        <v>-1</v>
-      </c>
-      <c r="Z788">
-        <v>0.925</v>
-      </c>
-      <c r="AA788">
-        <v>-1</v>
-      </c>
       <c r="AB788">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC788">
         <v>-1</v>
@@ -70722,7 +70722,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5207949</v>
+        <v>5212495</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70734,76 +70734,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F789" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G789" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I789">
         <v>1</v>
       </c>
       <c r="J789" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K789">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L789">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M789">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N789">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O789">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P789">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q789">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R789">
+        <v>1.925</v>
+      </c>
+      <c r="S789">
         <v>1.875</v>
       </c>
-      <c r="S789">
-        <v>1.975</v>
-      </c>
       <c r="T789">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U789">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V789">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W789">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X789">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y789">
         <v>-1</v>
       </c>
       <c r="Z789">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA789">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB789">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC789">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790" spans="1:29">
@@ -73125,7 +73125,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>5207467</v>
+        <v>5207235</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73137,73 +73137,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F816" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G816" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I816">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J816" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K816">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L816">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M816">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N816">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O816">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P816">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q816">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R816">
+        <v>1.975</v>
+      </c>
+      <c r="S816">
         <v>1.875</v>
       </c>
-      <c r="S816">
-        <v>1.925</v>
-      </c>
       <c r="T816">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U816">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V816">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W816">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z816">
+        <v>-1</v>
+      </c>
+      <c r="AA816">
         <v>0.875</v>
       </c>
-      <c r="AA816">
-        <v>-1</v>
-      </c>
       <c r="AB816">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC816">
         <v>-1</v>
@@ -73214,7 +73214,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>5207468</v>
+        <v>5207467</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73226,73 +73226,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F817" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G817" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H817">
         <v>2</v>
       </c>
       <c r="I817">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J817" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K817">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L817">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M817">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N817">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="O817">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P817">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="Q817">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R817">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S817">
         <v>1.925</v>
       </c>
       <c r="T817">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U817">
+        <v>1.925</v>
+      </c>
+      <c r="V817">
         <v>1.875</v>
       </c>
-      <c r="V817">
-        <v>1.975</v>
-      </c>
       <c r="W817">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X817">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y817">
         <v>-1</v>
       </c>
       <c r="Z817">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA817">
+        <v>-1</v>
+      </c>
+      <c r="AB817">
         <v>0.925</v>
-      </c>
-      <c r="AB817">
-        <v>0.875</v>
       </c>
       <c r="AC817">
         <v>-1</v>
@@ -73303,7 +73303,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>5212500</v>
+        <v>5207468</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73315,10 +73315,10 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F818" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G818" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H818">
         <v>2</v>
@@ -73330,58 +73330,58 @@
         <v>66</v>
       </c>
       <c r="K818">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L818">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M818">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N818">
-        <v>2.75</v>
+        <v>1.285</v>
       </c>
       <c r="O818">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P818">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q818">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R818">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S818">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T818">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U818">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V818">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W818">
         <v>-1</v>
       </c>
       <c r="X818">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Y818">
         <v>-1</v>
       </c>
       <c r="Z818">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA818">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB818">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC818">
         <v>-1</v>
@@ -73392,7 +73392,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>5212715</v>
+        <v>5212500</v>
       </c>
       <c r="C819" t="s">
         <v>28</v>
@@ -73404,76 +73404,76 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F819" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G819" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I819">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J819" t="s">
         <v>66</v>
       </c>
       <c r="K819">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L819">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M819">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N819">
+        <v>2.75</v>
+      </c>
+      <c r="O819">
+        <v>3.4</v>
+      </c>
+      <c r="P819">
+        <v>2.45</v>
+      </c>
+      <c r="Q819">
+        <v>0</v>
+      </c>
+      <c r="R819">
         <v>2.05</v>
       </c>
-      <c r="O819">
-        <v>3.5</v>
-      </c>
-      <c r="P819">
-        <v>3.3</v>
-      </c>
-      <c r="Q819">
-        <v>-0.25</v>
-      </c>
-      <c r="R819">
-        <v>1.875</v>
-      </c>
       <c r="S819">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T819">
         <v>2.5</v>
       </c>
       <c r="U819">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V819">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W819">
         <v>-1</v>
       </c>
       <c r="X819">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y819">
         <v>-1</v>
       </c>
       <c r="Z819">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA819">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB819">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC819">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="820" spans="1:29">
@@ -73481,7 +73481,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>5207235</v>
+        <v>5212715</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73493,76 +73493,76 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F820" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G820" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H820">
         <v>1</v>
       </c>
       <c r="I820">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J820" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K820">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L820">
         <v>3.6</v>
       </c>
       <c r="M820">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N820">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O820">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P820">
+        <v>3.3</v>
+      </c>
+      <c r="Q820">
+        <v>-0.25</v>
+      </c>
+      <c r="R820">
+        <v>1.875</v>
+      </c>
+      <c r="S820">
+        <v>1.975</v>
+      </c>
+      <c r="T820">
+        <v>2.5</v>
+      </c>
+      <c r="U820">
         <v>1.85</v>
       </c>
-      <c r="Q820">
-        <v>0.5</v>
-      </c>
-      <c r="R820">
-        <v>1.975</v>
-      </c>
-      <c r="S820">
-        <v>1.875</v>
-      </c>
-      <c r="T820">
-        <v>2.75</v>
-      </c>
-      <c r="U820">
-        <v>1.9</v>
-      </c>
       <c r="V820">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W820">
         <v>-1</v>
       </c>
       <c r="X820">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y820">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z820">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA820">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB820">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC820">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -74282,7 +74282,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>5212719</v>
+        <v>5207952</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74294,58 +74294,58 @@
         <v>45000.625</v>
       </c>
       <c r="F829" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G829" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H829">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I829">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J829" t="s">
         <v>67</v>
       </c>
       <c r="K829">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L829">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M829">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N829">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O829">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P829">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q829">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R829">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S829">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T829">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U829">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V829">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W829">
-        <v>1.15</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X829">
         <v>-1</v>
@@ -74354,16 +74354,16 @@
         <v>-1</v>
       </c>
       <c r="Z829">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA829">
         <v>-1</v>
       </c>
       <c r="AB829">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC829">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74371,7 +74371,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>5207952</v>
+        <v>5212719</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74383,58 +74383,58 @@
         <v>45000.625</v>
       </c>
       <c r="F830" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G830" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I830">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J830" t="s">
         <v>67</v>
       </c>
       <c r="K830">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L830">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M830">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N830">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O830">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P830">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q830">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R830">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S830">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T830">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U830">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V830">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W830">
-        <v>0.6000000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X830">
         <v>-1</v>
@@ -74443,16 +74443,16 @@
         <v>-1</v>
       </c>
       <c r="Z830">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA830">
         <v>-1</v>
       </c>
       <c r="AB830">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC830">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831" spans="1:29">
@@ -74460,7 +74460,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>5207469</v>
+        <v>5212773</v>
       </c>
       <c r="C831" t="s">
         <v>28</v>
@@ -74472,40 +74472,40 @@
         <v>45000.625</v>
       </c>
       <c r="F831" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G831" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I831">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J831" t="s">
         <v>67</v>
       </c>
       <c r="K831">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L831">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M831">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N831">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="O831">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P831">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q831">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R831">
         <v>1.95</v>
@@ -74514,7 +74514,7 @@
         <v>1.85</v>
       </c>
       <c r="T831">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U831">
         <v>1.85</v>
@@ -74523,7 +74523,7 @@
         <v>1.95</v>
       </c>
       <c r="W831">
-        <v>1.55</v>
+        <v>0.571</v>
       </c>
       <c r="X831">
         <v>-1</v>
@@ -74532,10 +74532,10 @@
         <v>-1</v>
       </c>
       <c r="Z831">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA831">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB831">
         <v>0.8500000000000001</v>
@@ -74549,7 +74549,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>5212773</v>
+        <v>5207234</v>
       </c>
       <c r="C832" t="s">
         <v>28</v>
@@ -74561,58 +74561,58 @@
         <v>45000.625</v>
       </c>
       <c r="F832" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G832" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H832">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I832">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J832" t="s">
         <v>67</v>
       </c>
       <c r="K832">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="L832">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M832">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N832">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O832">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P832">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q832">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R832">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S832">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T832">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U832">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V832">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W832">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X832">
         <v>-1</v>
@@ -74621,13 +74621,13 @@
         <v>-1</v>
       </c>
       <c r="Z832">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA832">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB832">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC832">
         <v>-1</v>
@@ -74638,7 +74638,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>5207234</v>
+        <v>5207469</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74650,59 +74650,59 @@
         <v>45000.625</v>
       </c>
       <c r="F833" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G833" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H833">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I833">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J833" t="s">
         <v>67</v>
       </c>
       <c r="K833">
+        <v>2.45</v>
+      </c>
+      <c r="L833">
+        <v>3.3</v>
+      </c>
+      <c r="M833">
+        <v>2.625</v>
+      </c>
+      <c r="N833">
+        <v>2.55</v>
+      </c>
+      <c r="O833">
+        <v>3.25</v>
+      </c>
+      <c r="P833">
+        <v>2.55</v>
+      </c>
+      <c r="Q833">
+        <v>0</v>
+      </c>
+      <c r="R833">
+        <v>1.95</v>
+      </c>
+      <c r="S833">
+        <v>1.85</v>
+      </c>
+      <c r="T833">
+        <v>2.5</v>
+      </c>
+      <c r="U833">
+        <v>1.85</v>
+      </c>
+      <c r="V833">
+        <v>1.95</v>
+      </c>
+      <c r="W833">
         <v>1.55</v>
       </c>
-      <c r="L833">
-        <v>4.333</v>
-      </c>
-      <c r="M833">
-        <v>5</v>
-      </c>
-      <c r="N833">
-        <v>1.4</v>
-      </c>
-      <c r="O833">
-        <v>5</v>
-      </c>
-      <c r="P833">
-        <v>6.5</v>
-      </c>
-      <c r="Q833">
-        <v>-1.25</v>
-      </c>
-      <c r="R833">
-        <v>1.825</v>
-      </c>
-      <c r="S833">
-        <v>1.975</v>
-      </c>
-      <c r="T833">
-        <v>3.25</v>
-      </c>
-      <c r="U833">
-        <v>2</v>
-      </c>
-      <c r="V833">
-        <v>1.8</v>
-      </c>
-      <c r="W833">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X833">
         <v>-1</v>
       </c>
@@ -74710,13 +74710,13 @@
         <v>-1</v>
       </c>
       <c r="Z833">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA833">
         <v>-1</v>
       </c>
       <c r="AB833">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC833">
         <v>-1</v>
@@ -75795,7 +75795,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>5212725</v>
+        <v>5212727</v>
       </c>
       <c r="C846" t="s">
         <v>28</v>
@@ -75807,10 +75807,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F846" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G846" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H846">
         <v>1</v>
@@ -75822,40 +75822,40 @@
         <v>68</v>
       </c>
       <c r="K846">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="L846">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M846">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="N846">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O846">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P846">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q846">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R846">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S846">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T846">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U846">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V846">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W846">
         <v>-1</v>
@@ -75864,19 +75864,19 @@
         <v>-1</v>
       </c>
       <c r="Y846">
-        <v>5.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z846">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA846">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB846">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC846">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="847" spans="1:29">
@@ -76151,7 +76151,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>5212727</v>
+        <v>5212725</v>
       </c>
       <c r="C850" t="s">
         <v>28</v>
@@ -76163,10 +76163,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F850" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G850" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H850">
         <v>1</v>
@@ -76178,41 +76178,41 @@
         <v>68</v>
       </c>
       <c r="K850">
-        <v>3.5</v>
+        <v>1.45</v>
       </c>
       <c r="L850">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M850">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="N850">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O850">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P850">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="Q850">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R850">
+        <v>1.875</v>
+      </c>
+      <c r="S850">
+        <v>1.925</v>
+      </c>
+      <c r="T850">
+        <v>3.25</v>
+      </c>
+      <c r="U850">
+        <v>1.975</v>
+      </c>
+      <c r="V850">
         <v>1.825</v>
       </c>
-      <c r="S850">
-        <v>1.975</v>
-      </c>
-      <c r="T850">
-        <v>3</v>
-      </c>
-      <c r="U850">
-        <v>1.9</v>
-      </c>
-      <c r="V850">
-        <v>1.9</v>
-      </c>
       <c r="W850">
         <v>-1</v>
       </c>
@@ -76220,19 +76220,19 @@
         <v>-1</v>
       </c>
       <c r="Y850">
-        <v>0.7270000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="Z850">
+        <v>-1</v>
+      </c>
+      <c r="AA850">
+        <v>0.925</v>
+      </c>
+      <c r="AB850">
         <v>-0.5</v>
       </c>
-      <c r="AA850">
-        <v>0.4875</v>
-      </c>
-      <c r="AB850">
-        <v>0</v>
-      </c>
       <c r="AC850">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="851" spans="1:29">
@@ -76596,7 +76596,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>5212778</v>
+        <v>5228470</v>
       </c>
       <c r="C855" t="s">
         <v>28</v>
@@ -76608,58 +76608,58 @@
         <v>45017.375</v>
       </c>
       <c r="F855" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G855" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H855">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I855">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J855" t="s">
         <v>67</v>
       </c>
       <c r="K855">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L855">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M855">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N855">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O855">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P855">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q855">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R855">
+        <v>1.875</v>
+      </c>
+      <c r="S855">
         <v>1.925</v>
-      </c>
-      <c r="S855">
-        <v>1.875</v>
       </c>
       <c r="T855">
         <v>2.75</v>
       </c>
       <c r="U855">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V855">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W855">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X855">
         <v>-1</v>
@@ -76668,16 +76668,16 @@
         <v>-1</v>
       </c>
       <c r="Z855">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA855">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB855">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC855">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="856" spans="1:29">
@@ -76685,7 +76685,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>5228470</v>
+        <v>5212780</v>
       </c>
       <c r="C856" t="s">
         <v>28</v>
@@ -76697,46 +76697,46 @@
         <v>45017.375</v>
       </c>
       <c r="F856" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G856" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I856">
         <v>0</v>
       </c>
       <c r="J856" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K856">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L856">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M856">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N856">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O856">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P856">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q856">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R856">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S856">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T856">
         <v>2.75</v>
@@ -76748,19 +76748,19 @@
         <v>1.875</v>
       </c>
       <c r="W856">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X856">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y856">
         <v>-1</v>
       </c>
       <c r="Z856">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA856">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB856">
         <v>-1</v>
@@ -76774,7 +76774,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>5212780</v>
+        <v>5212778</v>
       </c>
       <c r="C857" t="s">
         <v>28</v>
@@ -76786,76 +76786,76 @@
         <v>45017.375</v>
       </c>
       <c r="F857" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G857" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I857">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J857" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K857">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L857">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M857">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N857">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O857">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P857">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q857">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R857">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S857">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T857">
         <v>2.75</v>
       </c>
       <c r="U857">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V857">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W857">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X857">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y857">
         <v>-1</v>
       </c>
       <c r="Z857">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA857">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB857">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC857">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="858" spans="1:29">
@@ -77308,7 +77308,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>5351011</v>
+        <v>5360869</v>
       </c>
       <c r="C863" t="s">
         <v>28</v>
@@ -77320,73 +77320,73 @@
         <v>45024.375</v>
       </c>
       <c r="F863" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G863" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J863" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K863">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L863">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M863">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N863">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O863">
         <v>3.2</v>
       </c>
       <c r="P863">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q863">
         <v>0</v>
       </c>
       <c r="R863">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S863">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T863">
         <v>2.5</v>
       </c>
       <c r="U863">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V863">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W863">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X863">
         <v>-1</v>
       </c>
       <c r="Y863">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z863">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA863">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB863">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC863">
         <v>-1</v>
@@ -77397,7 +77397,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>5360869</v>
+        <v>5351011</v>
       </c>
       <c r="C864" t="s">
         <v>28</v>
@@ -77409,73 +77409,73 @@
         <v>45024.375</v>
       </c>
       <c r="F864" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G864" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J864" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K864">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L864">
+        <v>3.25</v>
+      </c>
+      <c r="M864">
         <v>3.2</v>
       </c>
-      <c r="M864">
-        <v>2.875</v>
-      </c>
       <c r="N864">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O864">
         <v>3.2</v>
       </c>
       <c r="P864">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q864">
         <v>0</v>
       </c>
       <c r="R864">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S864">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T864">
         <v>2.5</v>
       </c>
       <c r="U864">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V864">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W864">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X864">
         <v>-1</v>
       </c>
       <c r="Y864">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z864">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA864">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB864">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC864">
         <v>-1</v>
@@ -79444,7 +79444,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>5447800</v>
+        <v>5447801</v>
       </c>
       <c r="C887" t="s">
         <v>28</v>
@@ -79456,76 +79456,76 @@
         <v>45038.375</v>
       </c>
       <c r="F887" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G887" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J887" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K887">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L887">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M887">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N887">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="O887">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P887">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q887">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R887">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S887">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T887">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U887">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V887">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W887">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X887">
         <v>-1</v>
       </c>
       <c r="Y887">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z887">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA887">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB887">
         <v>-1</v>
       </c>
       <c r="AC887">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="888" spans="1:29">
@@ -79622,7 +79622,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>5447801</v>
+        <v>5447800</v>
       </c>
       <c r="C889" t="s">
         <v>28</v>
@@ -79634,76 +79634,76 @@
         <v>45038.375</v>
       </c>
       <c r="F889" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G889" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H889">
+        <v>2</v>
+      </c>
+      <c r="I889">
         <v>0</v>
       </c>
-      <c r="I889">
-        <v>1</v>
-      </c>
       <c r="J889" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K889">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L889">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M889">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N889">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O889">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P889">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q889">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R889">
+        <v>1.875</v>
+      </c>
+      <c r="S889">
+        <v>1.925</v>
+      </c>
+      <c r="T889">
+        <v>3.25</v>
+      </c>
+      <c r="U889">
+        <v>2</v>
+      </c>
+      <c r="V889">
         <v>1.8</v>
       </c>
-      <c r="S889">
-        <v>2</v>
-      </c>
-      <c r="T889">
-        <v>3.5</v>
-      </c>
-      <c r="U889">
-        <v>1.95</v>
-      </c>
-      <c r="V889">
-        <v>1.85</v>
-      </c>
       <c r="W889">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X889">
         <v>-1</v>
       </c>
       <c r="Y889">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z889">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA889">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB889">
         <v>-1</v>
       </c>
       <c r="AC889">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="890" spans="1:29">
@@ -80156,7 +80156,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>5465167</v>
+        <v>5465119</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80168,73 +80168,73 @@
         <v>45045.375</v>
       </c>
       <c r="F895" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G895" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I895">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J895" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K895">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L895">
         <v>3.3</v>
       </c>
       <c r="M895">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N895">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O895">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P895">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q895">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R895">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S895">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T895">
         <v>3</v>
       </c>
       <c r="U895">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V895">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W895">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X895">
         <v>-1</v>
       </c>
       <c r="Y895">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z895">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA895">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB895">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC895">
         <v>-1</v>
@@ -80423,7 +80423,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>5465119</v>
+        <v>5470244</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80435,19 +80435,19 @@
         <v>45045.375</v>
       </c>
       <c r="F898" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G898" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H898">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I898">
         <v>1</v>
       </c>
       <c r="J898" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K898">
         <v>2.5</v>
@@ -80459,52 +80459,52 @@
         <v>2.7</v>
       </c>
       <c r="N898">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O898">
         <v>3.4</v>
       </c>
       <c r="P898">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q898">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R898">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S898">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T898">
         <v>3</v>
       </c>
       <c r="U898">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V898">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W898">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X898">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y898">
         <v>-1</v>
       </c>
       <c r="Z898">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA898">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB898">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC898">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="899" spans="1:29">
@@ -80512,7 +80512,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>5470244</v>
+        <v>5465167</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -80524,34 +80524,34 @@
         <v>45045.375</v>
       </c>
       <c r="F899" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G899" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I899">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J899" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K899">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L899">
         <v>3.3</v>
       </c>
       <c r="M899">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N899">
         <v>2.875</v>
       </c>
       <c r="O899">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P899">
         <v>2.3</v>
@@ -80560,7 +80560,7 @@
         <v>0.25</v>
       </c>
       <c r="R899">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S899">
         <v>2.025</v>
@@ -80572,28 +80572,28 @@
         <v>2</v>
       </c>
       <c r="V899">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W899">
         <v>-1</v>
       </c>
       <c r="X899">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y899">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z899">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA899">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB899">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC899">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="900" spans="1:29">
@@ -81046,7 +81046,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>5497816</v>
+        <v>5497819</v>
       </c>
       <c r="C905" t="s">
         <v>28</v>
@@ -81058,58 +81058,58 @@
         <v>45052.375</v>
       </c>
       <c r="F905" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G905" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H905">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I905">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J905" t="s">
         <v>67</v>
       </c>
       <c r="K905">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="L905">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M905">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N905">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O905">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P905">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q905">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R905">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S905">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T905">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U905">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V905">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W905">
-        <v>0.222</v>
+        <v>1.1</v>
       </c>
       <c r="X905">
         <v>-1</v>
@@ -81118,13 +81118,13 @@
         <v>-1</v>
       </c>
       <c r="Z905">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA905">
         <v>-1</v>
       </c>
       <c r="AB905">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC905">
         <v>-1</v>
@@ -81135,7 +81135,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>5495155</v>
+        <v>5497818</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -81147,13 +81147,13 @@
         <v>45052.375</v>
       </c>
       <c r="F906" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G906" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I906">
         <v>0</v>
@@ -81162,61 +81162,61 @@
         <v>67</v>
       </c>
       <c r="K906">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L906">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M906">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N906">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O906">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P906">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q906">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R906">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S906">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T906">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U906">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V906">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W906">
+        <v>1.5</v>
+      </c>
+      <c r="X906">
+        <v>-1</v>
+      </c>
+      <c r="Y906">
+        <v>-1</v>
+      </c>
+      <c r="Z906">
+        <v>0.875</v>
+      </c>
+      <c r="AA906">
+        <v>-1</v>
+      </c>
+      <c r="AB906">
+        <v>-1</v>
+      </c>
+      <c r="AC906">
         <v>1</v>
-      </c>
-      <c r="X906">
-        <v>-1</v>
-      </c>
-      <c r="Y906">
-        <v>-1</v>
-      </c>
-      <c r="Z906">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA906">
-        <v>-1</v>
-      </c>
-      <c r="AB906">
-        <v>-1</v>
-      </c>
-      <c r="AC906">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="907" spans="1:29">
@@ -81224,7 +81224,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5497818</v>
+        <v>5497816</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81236,58 +81236,58 @@
         <v>45052.375</v>
       </c>
       <c r="F907" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G907" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I907">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J907" t="s">
         <v>67</v>
       </c>
       <c r="K907">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="L907">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M907">
-        <v>2.375</v>
+        <v>11</v>
       </c>
       <c r="N907">
-        <v>2.5</v>
+        <v>1.222</v>
       </c>
       <c r="O907">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P907">
-        <v>2.55</v>
+        <v>10</v>
       </c>
       <c r="Q907">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R907">
+        <v>1.8</v>
+      </c>
+      <c r="S907">
+        <v>2</v>
+      </c>
+      <c r="T907">
+        <v>3.5</v>
+      </c>
+      <c r="U907">
         <v>1.875</v>
       </c>
-      <c r="S907">
+      <c r="V907">
         <v>1.925</v>
       </c>
-      <c r="T907">
-        <v>2.5</v>
-      </c>
-      <c r="U907">
-        <v>1.8</v>
-      </c>
-      <c r="V907">
-        <v>2</v>
-      </c>
       <c r="W907">
-        <v>1.5</v>
+        <v>0.222</v>
       </c>
       <c r="X907">
         <v>-1</v>
@@ -81296,16 +81296,16 @@
         <v>-1</v>
       </c>
       <c r="Z907">
+        <v>0.8</v>
+      </c>
+      <c r="AA907">
+        <v>-1</v>
+      </c>
+      <c r="AB907">
         <v>0.875</v>
       </c>
-      <c r="AA907">
-        <v>-1</v>
-      </c>
-      <c r="AB907">
-        <v>-1</v>
-      </c>
       <c r="AC907">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="908" spans="1:29">
@@ -81313,7 +81313,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>5497819</v>
+        <v>5495155</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81325,46 +81325,46 @@
         <v>45052.375</v>
       </c>
       <c r="F908" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G908" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H908">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I908">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J908" t="s">
         <v>67</v>
       </c>
       <c r="K908">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L908">
         <v>3.5</v>
       </c>
       <c r="M908">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N908">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O908">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P908">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q908">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R908">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S908">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T908">
         <v>2.75</v>
@@ -81376,7 +81376,7 @@
         <v>1.975</v>
       </c>
       <c r="W908">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X908">
         <v>-1</v>
@@ -81385,16 +81385,16 @@
         <v>-1</v>
       </c>
       <c r="Z908">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA908">
         <v>-1</v>
       </c>
       <c r="AB908">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC908">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -91103,7 +91103,7 @@
         <v>1016</v>
       </c>
       <c r="B1018">
-        <v>6881320</v>
+        <v>6880513</v>
       </c>
       <c r="C1018" t="s">
         <v>28</v>
@@ -91115,76 +91115,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1018" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G1018" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H1018">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1018">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1018" t="s">
         <v>66</v>
       </c>
       <c r="K1018">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L1018">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M1018">
+        <v>2.7</v>
+      </c>
+      <c r="N1018">
+        <v>2.55</v>
+      </c>
+      <c r="O1018">
         <v>3.4</v>
       </c>
-      <c r="N1018">
-        <v>2.15</v>
-      </c>
-      <c r="O1018">
-        <v>3.25</v>
-      </c>
       <c r="P1018">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q1018">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1018">
+        <v>1.95</v>
+      </c>
+      <c r="S1018">
+        <v>1.85</v>
+      </c>
+      <c r="T1018">
+        <v>3</v>
+      </c>
+      <c r="U1018">
         <v>1.925</v>
       </c>
-      <c r="S1018">
+      <c r="V1018">
         <v>1.875</v>
       </c>
-      <c r="T1018">
-        <v>2.75</v>
-      </c>
-      <c r="U1018">
-        <v>1.8</v>
-      </c>
-      <c r="V1018">
-        <v>2</v>
-      </c>
       <c r="W1018">
         <v>-1</v>
       </c>
       <c r="X1018">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y1018">
         <v>-1</v>
       </c>
       <c r="Z1018">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA1018">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB1018">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC1018">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1019" spans="1:29">
@@ -91281,7 +91281,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>6880513</v>
+        <v>6881320</v>
       </c>
       <c r="C1020" t="s">
         <v>28</v>
@@ -91293,76 +91293,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1020" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G1020" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1020">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1020" t="s">
         <v>66</v>
       </c>
       <c r="K1020">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L1020">
+        <v>3.3</v>
+      </c>
+      <c r="M1020">
         <v>3.4</v>
       </c>
-      <c r="M1020">
-        <v>2.7</v>
-      </c>
       <c r="N1020">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O1020">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P1020">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q1020">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1020">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S1020">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T1020">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1020">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V1020">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W1020">
         <v>-1</v>
       </c>
       <c r="X1020">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y1020">
         <v>-1</v>
       </c>
       <c r="Z1020">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1020">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB1020">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC1020">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1021" spans="1:29">
@@ -91993,7 +91993,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>6881322</v>
+        <v>6880358</v>
       </c>
       <c r="C1028" t="s">
         <v>28</v>
@@ -92005,10 +92005,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1028" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G1028" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H1028">
         <v>1</v>
@@ -92020,43 +92020,43 @@
         <v>67</v>
       </c>
       <c r="K1028">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L1028">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1028">
+        <v>2.5</v>
+      </c>
+      <c r="N1028">
+        <v>2.1</v>
+      </c>
+      <c r="O1028">
+        <v>3.75</v>
+      </c>
+      <c r="P1028">
         <v>2.875</v>
       </c>
-      <c r="N1028">
-        <v>2.3</v>
-      </c>
-      <c r="O1028">
-        <v>3.3</v>
-      </c>
-      <c r="P1028">
+      <c r="Q1028">
+        <v>-0.25</v>
+      </c>
+      <c r="R1028">
+        <v>1.925</v>
+      </c>
+      <c r="S1028">
+        <v>1.875</v>
+      </c>
+      <c r="T1028">
         <v>2.75</v>
       </c>
-      <c r="Q1028">
-        <v>0</v>
-      </c>
-      <c r="R1028">
-        <v>1.75</v>
-      </c>
-      <c r="S1028">
-        <v>2.05</v>
-      </c>
-      <c r="T1028">
-        <v>2.5</v>
-      </c>
       <c r="U1028">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1028">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W1028">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X1028">
         <v>-1</v>
@@ -92065,7 +92065,7 @@
         <v>-1</v>
       </c>
       <c r="Z1028">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA1028">
         <v>-1</v>
@@ -92074,7 +92074,7 @@
         <v>-1</v>
       </c>
       <c r="AC1028">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1029" spans="1:29">
@@ -92082,7 +92082,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>6880358</v>
+        <v>6881322</v>
       </c>
       <c r="C1029" t="s">
         <v>28</v>
@@ -92094,10 +92094,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1029" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G1029" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H1029">
         <v>1</v>
@@ -92109,43 +92109,43 @@
         <v>67</v>
       </c>
       <c r="K1029">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1029">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1029">
+        <v>2.875</v>
+      </c>
+      <c r="N1029">
+        <v>2.3</v>
+      </c>
+      <c r="O1029">
+        <v>3.3</v>
+      </c>
+      <c r="P1029">
+        <v>2.75</v>
+      </c>
+      <c r="Q1029">
+        <v>0</v>
+      </c>
+      <c r="R1029">
+        <v>1.75</v>
+      </c>
+      <c r="S1029">
+        <v>2.05</v>
+      </c>
+      <c r="T1029">
         <v>2.5</v>
       </c>
-      <c r="N1029">
-        <v>2.1</v>
-      </c>
-      <c r="O1029">
-        <v>3.75</v>
-      </c>
-      <c r="P1029">
-        <v>2.875</v>
-      </c>
-      <c r="Q1029">
-        <v>-0.25</v>
-      </c>
-      <c r="R1029">
-        <v>1.925</v>
-      </c>
-      <c r="S1029">
-        <v>1.875</v>
-      </c>
-      <c r="T1029">
-        <v>2.75</v>
-      </c>
       <c r="U1029">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V1029">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W1029">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X1029">
         <v>-1</v>
@@ -92154,7 +92154,7 @@
         <v>-1</v>
       </c>
       <c r="Z1029">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA1029">
         <v>-1</v>
@@ -92163,7 +92163,7 @@
         <v>-1</v>
       </c>
       <c r="AC1029">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="1030" spans="1:29">
@@ -92171,7 +92171,7 @@
         <v>1028</v>
       </c>
       <c r="B1030">
-        <v>6880332</v>
+        <v>6880469</v>
       </c>
       <c r="C1030" t="s">
         <v>28</v>
@@ -92183,13 +92183,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1030" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1030" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1030">
         <v>0</v>
@@ -92219,13 +92219,13 @@
         <v>-0.25</v>
       </c>
       <c r="R1030">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S1030">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T1030">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1030">
         <v>1.925</v>
@@ -92243,16 +92243,16 @@
         <v>-1</v>
       </c>
       <c r="Z1030">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA1030">
         <v>-1</v>
       </c>
       <c r="AB1030">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1030">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1031" spans="1:29">
@@ -92260,7 +92260,7 @@
         <v>1029</v>
       </c>
       <c r="B1031">
-        <v>6880469</v>
+        <v>6880332</v>
       </c>
       <c r="C1031" t="s">
         <v>28</v>
@@ -92272,13 +92272,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1031" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1031" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H1031">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1031">
         <v>0</v>
@@ -92308,13 +92308,13 @@
         <v>-0.25</v>
       </c>
       <c r="R1031">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S1031">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T1031">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1031">
         <v>1.925</v>
@@ -92332,16 +92332,16 @@
         <v>-1</v>
       </c>
       <c r="Z1031">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA1031">
         <v>-1</v>
       </c>
       <c r="AB1031">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC1031">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1032" spans="1:29">
@@ -92349,7 +92349,7 @@
         <v>1030</v>
       </c>
       <c r="B1032">
-        <v>6881621</v>
+        <v>6881622</v>
       </c>
       <c r="C1032" t="s">
         <v>28</v>
@@ -92361,58 +92361,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1032" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G1032" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1032">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1032" t="s">
         <v>67</v>
       </c>
       <c r="K1032">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L1032">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1032">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N1032">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O1032">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P1032">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q1032">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R1032">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S1032">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T1032">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1032">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1032">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W1032">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="X1032">
         <v>-1</v>
@@ -92421,16 +92421,16 @@
         <v>-1</v>
       </c>
       <c r="Z1032">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA1032">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB1032">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC1032">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1033" spans="1:29">
@@ -92438,7 +92438,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>6881622</v>
+        <v>6881621</v>
       </c>
       <c r="C1033" t="s">
         <v>28</v>
@@ -92450,58 +92450,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1033" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G1033" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H1033">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1033">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1033" t="s">
         <v>67</v>
       </c>
       <c r="K1033">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L1033">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M1033">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N1033">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O1033">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P1033">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q1033">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R1033">
+        <v>1.95</v>
+      </c>
+      <c r="S1033">
+        <v>1.85</v>
+      </c>
+      <c r="T1033">
+        <v>3.25</v>
+      </c>
+      <c r="U1033">
+        <v>2</v>
+      </c>
+      <c r="V1033">
         <v>1.8</v>
       </c>
-      <c r="S1033">
-        <v>2</v>
-      </c>
-      <c r="T1033">
-        <v>2.5</v>
-      </c>
-      <c r="U1033">
-        <v>1.875</v>
-      </c>
-      <c r="V1033">
-        <v>1.925</v>
-      </c>
       <c r="W1033">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="X1033">
         <v>-1</v>
@@ -92510,16 +92510,16 @@
         <v>-1</v>
       </c>
       <c r="Z1033">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1033">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB1033">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1033">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1034" spans="1:29">
@@ -99558,7 +99558,7 @@
         <v>1111</v>
       </c>
       <c r="B1113">
-        <v>6882787</v>
+        <v>6881667</v>
       </c>
       <c r="C1113" t="s">
         <v>28</v>
@@ -99570,76 +99570,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F1113" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G1113" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H1113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1113">
+        <v>5</v>
+      </c>
+      <c r="L1113">
+        <v>3.8</v>
+      </c>
+      <c r="M1113">
         <v>1.666</v>
       </c>
-      <c r="L1113">
-        <v>4</v>
-      </c>
-      <c r="M1113">
-        <v>4.5</v>
-      </c>
       <c r="N1113">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="O1113">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P1113">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q1113">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R1113">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S1113">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T1113">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1113">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V1113">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W1113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X1113">
         <v>-1</v>
       </c>
       <c r="Y1113">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z1113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA1113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB1113">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC1113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1114" spans="1:29">
@@ -99647,7 +99647,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>6881667</v>
+        <v>6882787</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99659,76 +99659,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F1114" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G1114" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H1114">
+        <v>3</v>
+      </c>
+      <c r="I1114">
         <v>0</v>
       </c>
-      <c r="I1114">
+      <c r="J1114" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1114">
+        <v>1.666</v>
+      </c>
+      <c r="L1114">
         <v>4</v>
       </c>
-      <c r="J1114" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1114">
-        <v>5</v>
-      </c>
-      <c r="L1114">
+      <c r="M1114">
+        <v>4.5</v>
+      </c>
+      <c r="N1114">
+        <v>1.8</v>
+      </c>
+      <c r="O1114">
         <v>3.8</v>
       </c>
-      <c r="M1114">
-        <v>1.666</v>
-      </c>
-      <c r="N1114">
-        <v>5.25</v>
-      </c>
-      <c r="O1114">
-        <v>3.75</v>
-      </c>
       <c r="P1114">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q1114">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1114">
+        <v>1.8</v>
+      </c>
+      <c r="S1114">
+        <v>2</v>
+      </c>
+      <c r="T1114">
+        <v>2.75</v>
+      </c>
+      <c r="U1114">
+        <v>1.875</v>
+      </c>
+      <c r="V1114">
         <v>1.925</v>
       </c>
-      <c r="S1114">
-        <v>1.875</v>
-      </c>
-      <c r="T1114">
-        <v>2.25</v>
-      </c>
-      <c r="U1114">
-        <v>1.775</v>
-      </c>
-      <c r="V1114">
-        <v>2.025</v>
-      </c>
       <c r="W1114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1114">
         <v>-1</v>
       </c>
       <c r="Y1114">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z1114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA1114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB1114">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC1114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1115" spans="1:29">
@@ -102851,7 +102851,7 @@
         <v>1148</v>
       </c>
       <c r="B1150">
-        <v>6880344</v>
+        <v>6881684</v>
       </c>
       <c r="C1150" t="s">
         <v>28</v>
@@ -102863,76 +102863,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1150" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G1150" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1150">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="L1150">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M1150">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N1150">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O1150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P1150">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q1150">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1150">
+        <v>1.95</v>
+      </c>
+      <c r="S1150">
+        <v>1.85</v>
+      </c>
+      <c r="T1150">
+        <v>2.75</v>
+      </c>
+      <c r="U1150">
         <v>1.9</v>
       </c>
-      <c r="S1150">
+      <c r="V1150">
         <v>1.9</v>
       </c>
-      <c r="T1150">
-        <v>2.5</v>
-      </c>
-      <c r="U1150">
-        <v>1.925</v>
-      </c>
-      <c r="V1150">
-        <v>1.875</v>
-      </c>
       <c r="W1150">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X1150">
         <v>-1</v>
       </c>
       <c r="Y1150">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z1150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA1150">
+        <v>-1</v>
+      </c>
+      <c r="AB1150">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB1150">
-        <v>-1</v>
-      </c>
       <c r="AC1150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1151" spans="1:29">
@@ -102940,7 +102940,7 @@
         <v>1149</v>
       </c>
       <c r="B1151">
-        <v>6881685</v>
+        <v>6881688</v>
       </c>
       <c r="C1151" t="s">
         <v>28</v>
@@ -102952,34 +102952,34 @@
         <v>45314.625</v>
       </c>
       <c r="F1151" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1151" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1151" t="s">
         <v>66</v>
       </c>
       <c r="K1151">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L1151">
+        <v>3.4</v>
+      </c>
+      <c r="M1151">
+        <v>2.4</v>
+      </c>
+      <c r="N1151">
+        <v>2.9</v>
+      </c>
+      <c r="O1151">
         <v>3.5</v>
-      </c>
-      <c r="M1151">
-        <v>2.25</v>
-      </c>
-      <c r="N1151">
-        <v>3</v>
-      </c>
-      <c r="O1151">
-        <v>3.4</v>
       </c>
       <c r="P1151">
         <v>2.15</v>
@@ -102988,31 +102988,31 @@
         <v>0.25</v>
       </c>
       <c r="R1151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S1151">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T1151">
         <v>2.5</v>
       </c>
       <c r="U1151">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V1151">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W1151">
         <v>-1</v>
       </c>
       <c r="X1151">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y1151">
         <v>-1</v>
       </c>
       <c r="Z1151">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AA1151">
         <v>-0.5</v>
@@ -103021,7 +103021,7 @@
         <v>-1</v>
       </c>
       <c r="AC1151">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:29">
@@ -103029,7 +103029,7 @@
         <v>1150</v>
       </c>
       <c r="B1152">
-        <v>6881688</v>
+        <v>6880344</v>
       </c>
       <c r="C1152" t="s">
         <v>28</v>
@@ -103041,76 +103041,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1152" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G1152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1152" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1152">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="L1152">
+        <v>3.75</v>
+      </c>
+      <c r="M1152">
+        <v>1.615</v>
+      </c>
+      <c r="N1152">
+        <v>4</v>
+      </c>
+      <c r="O1152">
         <v>3.4</v>
       </c>
-      <c r="M1152">
-        <v>2.4</v>
-      </c>
-      <c r="N1152">
-        <v>2.9</v>
-      </c>
-      <c r="O1152">
-        <v>3.5</v>
-      </c>
       <c r="P1152">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q1152">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R1152">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S1152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T1152">
         <v>2.5</v>
       </c>
       <c r="U1152">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V1152">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W1152">
         <v>-1</v>
       </c>
       <c r="X1152">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y1152">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z1152">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA1152">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1152">
         <v>-1</v>
       </c>
       <c r="AC1152">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1153" spans="1:29">
@@ -103118,7 +103118,7 @@
         <v>1151</v>
       </c>
       <c r="B1153">
-        <v>6881684</v>
+        <v>6881685</v>
       </c>
       <c r="C1153" t="s">
         <v>28</v>
@@ -103130,76 +103130,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1153" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G1153" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H1153">
+        <v>0</v>
+      </c>
+      <c r="I1153">
+        <v>0</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1153">
+        <v>2.75</v>
+      </c>
+      <c r="L1153">
+        <v>3.5</v>
+      </c>
+      <c r="M1153">
+        <v>2.25</v>
+      </c>
+      <c r="N1153">
         <v>3</v>
       </c>
-      <c r="I1153">
-        <v>1</v>
-      </c>
-      <c r="J1153" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1153">
-        <v>2</v>
-      </c>
-      <c r="L1153">
-        <v>3.6</v>
-      </c>
-      <c r="M1153">
-        <v>3.2</v>
-      </c>
-      <c r="N1153">
+      <c r="O1153">
+        <v>3.4</v>
+      </c>
+      <c r="P1153">
         <v>2.15</v>
       </c>
-      <c r="O1153">
-        <v>3.5</v>
-      </c>
-      <c r="P1153">
-        <v>2.9</v>
-      </c>
       <c r="Q1153">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S1153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T1153">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W1153">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X1153">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1153">
         <v>-1</v>
       </c>
       <c r="Z1153">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA1153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1154" spans="1:29">
@@ -104535,6 +104535,746 @@
       </c>
       <c r="AC1168">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:27">
+      <c r="A1169" s="1">
+        <v>1167</v>
+      </c>
+      <c r="B1169">
+        <v>6881697</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1169" s="2">
+        <v>45324.625</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1169">
+        <v>3.4</v>
+      </c>
+      <c r="L1169">
+        <v>3.3</v>
+      </c>
+      <c r="M1169">
+        <v>2</v>
+      </c>
+      <c r="N1169">
+        <v>3.4</v>
+      </c>
+      <c r="O1169">
+        <v>3.3</v>
+      </c>
+      <c r="P1169">
+        <v>2</v>
+      </c>
+      <c r="Q1169">
+        <v>0.5</v>
+      </c>
+      <c r="R1169">
+        <v>1.8</v>
+      </c>
+      <c r="S1169">
+        <v>2.05</v>
+      </c>
+      <c r="T1169">
+        <v>2.5</v>
+      </c>
+      <c r="U1169">
+        <v>1.975</v>
+      </c>
+      <c r="V1169">
+        <v>1.875</v>
+      </c>
+      <c r="W1169">
+        <v>0</v>
+      </c>
+      <c r="X1169">
+        <v>0</v>
+      </c>
+      <c r="Y1169">
+        <v>0</v>
+      </c>
+      <c r="Z1169">
+        <v>0</v>
+      </c>
+      <c r="AA1169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:27">
+      <c r="A1170" s="1">
+        <v>1168</v>
+      </c>
+      <c r="B1170">
+        <v>6880482</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1170" s="2">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1170">
+        <v>2.3</v>
+      </c>
+      <c r="L1170">
+        <v>3.3</v>
+      </c>
+      <c r="M1170">
+        <v>2.8</v>
+      </c>
+      <c r="N1170">
+        <v>2.3</v>
+      </c>
+      <c r="O1170">
+        <v>3.3</v>
+      </c>
+      <c r="P1170">
+        <v>2.8</v>
+      </c>
+      <c r="Q1170">
+        <v>-0.25</v>
+      </c>
+      <c r="R1170">
+        <v>2.05</v>
+      </c>
+      <c r="S1170">
+        <v>1.8</v>
+      </c>
+      <c r="T1170">
+        <v>2.5</v>
+      </c>
+      <c r="U1170">
+        <v>1.925</v>
+      </c>
+      <c r="V1170">
+        <v>1.925</v>
+      </c>
+      <c r="W1170">
+        <v>0</v>
+      </c>
+      <c r="X1170">
+        <v>0</v>
+      </c>
+      <c r="Y1170">
+        <v>0</v>
+      </c>
+      <c r="Z1170">
+        <v>0</v>
+      </c>
+      <c r="AA1170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:27">
+      <c r="A1171" s="1">
+        <v>1169</v>
+      </c>
+      <c r="B1171">
+        <v>6881344</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1171" s="2">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1171">
+        <v>3.3</v>
+      </c>
+      <c r="L1171">
+        <v>3.3</v>
+      </c>
+      <c r="M1171">
+        <v>2.05</v>
+      </c>
+      <c r="N1171">
+        <v>3.3</v>
+      </c>
+      <c r="O1171">
+        <v>3.3</v>
+      </c>
+      <c r="P1171">
+        <v>2.05</v>
+      </c>
+      <c r="Q1171">
+        <v>0.25</v>
+      </c>
+      <c r="R1171">
+        <v>2.025</v>
+      </c>
+      <c r="S1171">
+        <v>1.825</v>
+      </c>
+      <c r="T1171">
+        <v>2.5</v>
+      </c>
+      <c r="U1171">
+        <v>2</v>
+      </c>
+      <c r="V1171">
+        <v>1.85</v>
+      </c>
+      <c r="W1171">
+        <v>0</v>
+      </c>
+      <c r="X1171">
+        <v>0</v>
+      </c>
+      <c r="Y1171">
+        <v>0</v>
+      </c>
+      <c r="Z1171">
+        <v>0</v>
+      </c>
+      <c r="AA1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:27">
+      <c r="A1172" s="1">
+        <v>1170</v>
+      </c>
+      <c r="B1172">
+        <v>6881345</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1172" s="2">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1172">
+        <v>1.85</v>
+      </c>
+      <c r="L1172">
+        <v>3.5</v>
+      </c>
+      <c r="M1172">
+        <v>3.75</v>
+      </c>
+      <c r="N1172">
+        <v>1.85</v>
+      </c>
+      <c r="O1172">
+        <v>3.5</v>
+      </c>
+      <c r="P1172">
+        <v>3.75</v>
+      </c>
+      <c r="Q1172">
+        <v>-0.5</v>
+      </c>
+      <c r="R1172">
+        <v>1.9</v>
+      </c>
+      <c r="S1172">
+        <v>1.95</v>
+      </c>
+      <c r="T1172">
+        <v>2.75</v>
+      </c>
+      <c r="U1172">
+        <v>1.85</v>
+      </c>
+      <c r="V1172">
+        <v>2</v>
+      </c>
+      <c r="W1172">
+        <v>0</v>
+      </c>
+      <c r="X1172">
+        <v>0</v>
+      </c>
+      <c r="Y1172">
+        <v>0</v>
+      </c>
+      <c r="Z1172">
+        <v>0</v>
+      </c>
+      <c r="AA1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:27">
+      <c r="A1173" s="1">
+        <v>1171</v>
+      </c>
+      <c r="B1173">
+        <v>6881694</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1173" s="2">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1173">
+        <v>1.55</v>
+      </c>
+      <c r="L1173">
+        <v>3.9</v>
+      </c>
+      <c r="M1173">
+        <v>5.5</v>
+      </c>
+      <c r="N1173">
+        <v>1.55</v>
+      </c>
+      <c r="O1173">
+        <v>3.9</v>
+      </c>
+      <c r="P1173">
+        <v>5.5</v>
+      </c>
+      <c r="Q1173">
+        <v>-1</v>
+      </c>
+      <c r="R1173">
+        <v>2</v>
+      </c>
+      <c r="S1173">
+        <v>1.85</v>
+      </c>
+      <c r="T1173">
+        <v>2.5</v>
+      </c>
+      <c r="U1173">
+        <v>1.875</v>
+      </c>
+      <c r="V1173">
+        <v>1.975</v>
+      </c>
+      <c r="W1173">
+        <v>0</v>
+      </c>
+      <c r="X1173">
+        <v>0</v>
+      </c>
+      <c r="Y1173">
+        <v>0</v>
+      </c>
+      <c r="Z1173">
+        <v>0</v>
+      </c>
+      <c r="AA1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:27">
+      <c r="A1174" s="1">
+        <v>1172</v>
+      </c>
+      <c r="B1174">
+        <v>6881696</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1174" s="2">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1174">
+        <v>2.3</v>
+      </c>
+      <c r="L1174">
+        <v>3.3</v>
+      </c>
+      <c r="M1174">
+        <v>2.75</v>
+      </c>
+      <c r="N1174">
+        <v>2.3</v>
+      </c>
+      <c r="O1174">
+        <v>3.3</v>
+      </c>
+      <c r="P1174">
+        <v>2.75</v>
+      </c>
+      <c r="Q1174">
+        <v>-0.25</v>
+      </c>
+      <c r="R1174">
+        <v>2.1</v>
+      </c>
+      <c r="S1174">
+        <v>1.775</v>
+      </c>
+      <c r="T1174">
+        <v>2.75</v>
+      </c>
+      <c r="U1174">
+        <v>2.025</v>
+      </c>
+      <c r="V1174">
+        <v>1.825</v>
+      </c>
+      <c r="W1174">
+        <v>0</v>
+      </c>
+      <c r="X1174">
+        <v>0</v>
+      </c>
+      <c r="Y1174">
+        <v>0</v>
+      </c>
+      <c r="Z1174">
+        <v>0</v>
+      </c>
+      <c r="AA1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:27">
+      <c r="A1175" s="1">
+        <v>1173</v>
+      </c>
+      <c r="B1175">
+        <v>6881695</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1175" s="2">
+        <v>45325.52083333334</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1175">
+        <v>1.95</v>
+      </c>
+      <c r="L1175">
+        <v>3.5</v>
+      </c>
+      <c r="M1175">
+        <v>3.4</v>
+      </c>
+      <c r="N1175">
+        <v>1.95</v>
+      </c>
+      <c r="O1175">
+        <v>3.5</v>
+      </c>
+      <c r="P1175">
+        <v>3.4</v>
+      </c>
+      <c r="Q1175">
+        <v>-0.5</v>
+      </c>
+      <c r="R1175">
+        <v>2.025</v>
+      </c>
+      <c r="S1175">
+        <v>1.825</v>
+      </c>
+      <c r="T1175">
+        <v>2.75</v>
+      </c>
+      <c r="U1175">
+        <v>1.85</v>
+      </c>
+      <c r="V1175">
+        <v>2</v>
+      </c>
+      <c r="W1175">
+        <v>0</v>
+      </c>
+      <c r="X1175">
+        <v>0</v>
+      </c>
+      <c r="Y1175">
+        <v>0</v>
+      </c>
+      <c r="Z1175">
+        <v>0</v>
+      </c>
+      <c r="AA1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:27">
+      <c r="A1176" s="1">
+        <v>1174</v>
+      </c>
+      <c r="B1176">
+        <v>6880372</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1176" s="2">
+        <v>45326.39583333334</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1176">
+        <v>2.75</v>
+      </c>
+      <c r="L1176">
+        <v>3.4</v>
+      </c>
+      <c r="M1176">
+        <v>2.25</v>
+      </c>
+      <c r="N1176">
+        <v>2.75</v>
+      </c>
+      <c r="O1176">
+        <v>3.4</v>
+      </c>
+      <c r="P1176">
+        <v>2.25</v>
+      </c>
+      <c r="Q1176">
+        <v>0.25</v>
+      </c>
+      <c r="R1176">
+        <v>1.825</v>
+      </c>
+      <c r="S1176">
+        <v>2.025</v>
+      </c>
+      <c r="T1176">
+        <v>2.75</v>
+      </c>
+      <c r="U1176">
+        <v>2.025</v>
+      </c>
+      <c r="V1176">
+        <v>1.825</v>
+      </c>
+      <c r="W1176">
+        <v>0</v>
+      </c>
+      <c r="X1176">
+        <v>0</v>
+      </c>
+      <c r="Y1176">
+        <v>0</v>
+      </c>
+      <c r="Z1176">
+        <v>0</v>
+      </c>
+      <c r="AA1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:27">
+      <c r="A1177" s="1">
+        <v>1175</v>
+      </c>
+      <c r="B1177">
+        <v>6880346</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1177" s="2">
+        <v>45326.52083333334</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1177">
+        <v>2.55</v>
+      </c>
+      <c r="L1177">
+        <v>3.3</v>
+      </c>
+      <c r="M1177">
+        <v>2.55</v>
+      </c>
+      <c r="N1177">
+        <v>2.55</v>
+      </c>
+      <c r="O1177">
+        <v>3.3</v>
+      </c>
+      <c r="P1177">
+        <v>2.55</v>
+      </c>
+      <c r="Q1177">
+        <v>0</v>
+      </c>
+      <c r="R1177">
+        <v>1.925</v>
+      </c>
+      <c r="S1177">
+        <v>1.925</v>
+      </c>
+      <c r="T1177">
+        <v>2.5</v>
+      </c>
+      <c r="U1177">
+        <v>1.825</v>
+      </c>
+      <c r="V1177">
+        <v>2.025</v>
+      </c>
+      <c r="W1177">
+        <v>0</v>
+      </c>
+      <c r="X1177">
+        <v>0</v>
+      </c>
+      <c r="Y1177">
+        <v>0</v>
+      </c>
+      <c r="Z1177">
+        <v>0</v>
+      </c>
+      <c r="AA1177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:27">
+      <c r="A1178" s="1">
+        <v>1176</v>
+      </c>
+      <c r="B1178">
+        <v>6880526</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1178" s="2">
+        <v>45326.64583333334</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1178" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1178">
+        <v>3</v>
+      </c>
+      <c r="L1178">
+        <v>3.3</v>
+      </c>
+      <c r="M1178">
+        <v>2.2</v>
+      </c>
+      <c r="N1178">
+        <v>3</v>
+      </c>
+      <c r="O1178">
+        <v>3.3</v>
+      </c>
+      <c r="P1178">
+        <v>2.2</v>
+      </c>
+      <c r="Q1178">
+        <v>0.25</v>
+      </c>
+      <c r="R1178">
+        <v>1.85</v>
+      </c>
+      <c r="S1178">
+        <v>2</v>
+      </c>
+      <c r="T1178">
+        <v>2.5</v>
+      </c>
+      <c r="U1178">
+        <v>1.9</v>
+      </c>
+      <c r="V1178">
+        <v>1.95</v>
+      </c>
+      <c r="W1178">
+        <v>0</v>
+      </c>
+      <c r="X1178">
+        <v>0</v>
+      </c>
+      <c r="Y1178">
+        <v>0</v>
+      </c>
+      <c r="Z1178">
+        <v>0</v>
+      </c>
+      <c r="AA1178">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -51854,7 +51854,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>5207932</v>
+        <v>5207404</v>
       </c>
       <c r="C577" t="s">
         <v>28</v>
@@ -51866,10 +51866,10 @@
         <v>44779.375</v>
       </c>
       <c r="F577" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G577" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H577">
         <v>0</v>
@@ -51881,40 +51881,40 @@
         <v>68</v>
       </c>
       <c r="K577">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L577">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M577">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N577">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O577">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P577">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q577">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R577">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S577">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T577">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U577">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V577">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W577">
         <v>-1</v>
@@ -51923,19 +51923,19 @@
         <v>-1</v>
       </c>
       <c r="Y577">
+        <v>2.1</v>
+      </c>
+      <c r="Z577">
+        <v>-1</v>
+      </c>
+      <c r="AA577">
         <v>1</v>
       </c>
-      <c r="Z577">
-        <v>-1</v>
-      </c>
-      <c r="AA577">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB577">
         <v>-1</v>
       </c>
       <c r="AC577">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:29">
@@ -51943,7 +51943,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>5212739</v>
+        <v>5207932</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51955,40 +51955,40 @@
         <v>44779.375</v>
       </c>
       <c r="F578" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G578" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J578" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K578">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="L578">
+        <v>3.5</v>
+      </c>
+      <c r="M578">
+        <v>1.909</v>
+      </c>
+      <c r="N578">
         <v>3.3</v>
-      </c>
-      <c r="M578">
-        <v>2.7</v>
-      </c>
-      <c r="N578">
-        <v>2.7</v>
       </c>
       <c r="O578">
         <v>3.3</v>
       </c>
       <c r="P578">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q578">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R578">
         <v>2.025</v>
@@ -52006,19 +52006,19 @@
         <v>1.975</v>
       </c>
       <c r="W578">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X578">
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z578">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA578">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB578">
         <v>-1</v>
@@ -52032,7 +52032,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>5207404</v>
+        <v>5212739</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52044,76 +52044,76 @@
         <v>44779.375</v>
       </c>
       <c r="F579" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G579" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H579">
+        <v>1</v>
+      </c>
+      <c r="I579">
         <v>0</v>
       </c>
-      <c r="I579">
-        <v>2</v>
-      </c>
       <c r="J579" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K579">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L579">
         <v>3.3</v>
       </c>
       <c r="M579">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N579">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O579">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P579">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q579">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R579">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S579">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T579">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U579">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V579">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W579">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X579">
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z579">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA579">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB579">
         <v>-1</v>
       </c>
       <c r="AC579">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -52922,7 +52922,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5207933</v>
+        <v>5207258</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52934,58 +52934,58 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F589" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G589" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J589" t="s">
         <v>67</v>
       </c>
       <c r="K589">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L589">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M589">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N589">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O589">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P589">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q589">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R589">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S589">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T589">
         <v>2.75</v>
       </c>
       <c r="U589">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V589">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W589">
-        <v>0.833</v>
+        <v>0.7</v>
       </c>
       <c r="X589">
         <v>-1</v>
@@ -52994,16 +52994,16 @@
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA589">
         <v>-1</v>
       </c>
       <c r="AB589">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC589">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53011,7 +53011,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>5212653</v>
+        <v>5207933</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -53023,13 +53023,13 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F590" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G590" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590">
         <v>0</v>
@@ -53038,40 +53038,40 @@
         <v>67</v>
       </c>
       <c r="K590">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L590">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M590">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N590">
         <v>1.833</v>
       </c>
       <c r="O590">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P590">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q590">
         <v>-0.5</v>
       </c>
       <c r="R590">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S590">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T590">
         <v>2.75</v>
       </c>
       <c r="U590">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V590">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W590">
         <v>0.833</v>
@@ -53083,7 +53083,7 @@
         <v>-1</v>
       </c>
       <c r="Z590">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA590">
         <v>-1</v>
@@ -53092,7 +53092,7 @@
         <v>-1</v>
       </c>
       <c r="AC590">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53100,7 +53100,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>5212740</v>
+        <v>5212653</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53112,76 +53112,76 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F591" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G591" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H591">
+        <v>1</v>
+      </c>
+      <c r="I591">
         <v>0</v>
       </c>
-      <c r="I591">
-        <v>1</v>
-      </c>
       <c r="J591" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K591">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L591">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M591">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N591">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O591">
         <v>3.4</v>
       </c>
       <c r="P591">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q591">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R591">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S591">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T591">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U591">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V591">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W591">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X591">
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z591">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA591">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB591">
         <v>-1</v>
       </c>
       <c r="AC591">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53189,7 +53189,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>5212741</v>
+        <v>5212740</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53201,76 +53201,76 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F592" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G592" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H592">
+        <v>0</v>
+      </c>
+      <c r="I592">
         <v>1</v>
       </c>
-      <c r="I592">
-        <v>0</v>
-      </c>
       <c r="J592" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K592">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L592">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M592">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N592">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O592">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P592">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q592">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R592">
+        <v>1.925</v>
+      </c>
+      <c r="S592">
         <v>1.875</v>
       </c>
-      <c r="S592">
+      <c r="T592">
+        <v>2.5</v>
+      </c>
+      <c r="U592">
+        <v>1.875</v>
+      </c>
+      <c r="V592">
         <v>1.925</v>
       </c>
-      <c r="T592">
-        <v>2.75</v>
-      </c>
-      <c r="U592">
-        <v>1.975</v>
-      </c>
-      <c r="V592">
-        <v>1.825</v>
-      </c>
       <c r="W592">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X592">
         <v>-1</v>
       </c>
       <c r="Y592">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z592">
+        <v>-1</v>
+      </c>
+      <c r="AA592">
         <v>0.875</v>
       </c>
-      <c r="AA592">
-        <v>-1</v>
-      </c>
       <c r="AB592">
         <v>-1</v>
       </c>
       <c r="AC592">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53278,7 +53278,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>5207258</v>
+        <v>5212741</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53290,58 +53290,58 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F593" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G593" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H593">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J593" t="s">
         <v>67</v>
       </c>
       <c r="K593">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L593">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M593">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N593">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O593">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P593">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q593">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R593">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S593">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T593">
         <v>2.75</v>
       </c>
       <c r="U593">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V593">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W593">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X593">
         <v>-1</v>
@@ -53350,16 +53350,16 @@
         <v>-1</v>
       </c>
       <c r="Z593">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA593">
         <v>-1</v>
       </c>
       <c r="AB593">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC593">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -57372,7 +57372,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>5207420</v>
+        <v>5207253</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57384,40 +57384,40 @@
         <v>44814.375</v>
       </c>
       <c r="F639" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G639" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J639" t="s">
         <v>68</v>
       </c>
       <c r="K639">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L639">
         <v>3.5</v>
       </c>
       <c r="M639">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N639">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O639">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P639">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="Q639">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R639">
         <v>2</v>
@@ -57426,7 +57426,7 @@
         <v>1.8</v>
       </c>
       <c r="T639">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U639">
         <v>2</v>
@@ -57441,7 +57441,7 @@
         <v>-1</v>
       </c>
       <c r="Y639">
-        <v>1.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z639">
         <v>-1</v>
@@ -57450,10 +57450,10 @@
         <v>0.8</v>
       </c>
       <c r="AB639">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC639">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="640" spans="1:29">
@@ -57461,7 +57461,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5207253</v>
+        <v>5207420</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57473,40 +57473,40 @@
         <v>44814.375</v>
       </c>
       <c r="F640" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G640" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I640">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J640" t="s">
         <v>68</v>
       </c>
       <c r="K640">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L640">
         <v>3.5</v>
       </c>
       <c r="M640">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="N640">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O640">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P640">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q640">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R640">
         <v>2</v>
@@ -57515,7 +57515,7 @@
         <v>1.8</v>
       </c>
       <c r="T640">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U640">
         <v>2</v>
@@ -57530,7 +57530,7 @@
         <v>-1</v>
       </c>
       <c r="Y640">
-        <v>0.8</v>
+        <v>1.875</v>
       </c>
       <c r="Z640">
         <v>-1</v>
@@ -57539,10 +57539,10 @@
         <v>0.8</v>
       </c>
       <c r="AB640">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC640">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -59953,7 +59953,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5207426</v>
+        <v>5207427</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59965,40 +59965,40 @@
         <v>44842.375</v>
       </c>
       <c r="F668" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G668" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I668">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J668" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K668">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L668">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M668">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N668">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O668">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P668">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q668">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R668">
         <v>2</v>
@@ -60007,34 +60007,34 @@
         <v>1.8</v>
       </c>
       <c r="T668">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U668">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V668">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W668">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X668">
         <v>-1</v>
       </c>
       <c r="Y668">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z668">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA668">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB668">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC668">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -60042,7 +60042,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>5207427</v>
+        <v>5207426</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60054,40 +60054,40 @@
         <v>44842.375</v>
       </c>
       <c r="F669" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G669" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H669">
+        <v>1</v>
+      </c>
+      <c r="I669">
         <v>3</v>
       </c>
-      <c r="I669">
+      <c r="J669" t="s">
+        <v>68</v>
+      </c>
+      <c r="K669">
+        <v>2.3</v>
+      </c>
+      <c r="L669">
+        <v>3.4</v>
+      </c>
+      <c r="M669">
+        <v>2.8</v>
+      </c>
+      <c r="N669">
+        <v>2.625</v>
+      </c>
+      <c r="O669">
+        <v>3.3</v>
+      </c>
+      <c r="P669">
+        <v>2.45</v>
+      </c>
+      <c r="Q669">
         <v>0</v>
-      </c>
-      <c r="J669" t="s">
-        <v>67</v>
-      </c>
-      <c r="K669">
-        <v>1.6</v>
-      </c>
-      <c r="L669">
-        <v>4</v>
-      </c>
-      <c r="M669">
-        <v>4.75</v>
-      </c>
-      <c r="N669">
-        <v>1.571</v>
-      </c>
-      <c r="O669">
-        <v>4.2</v>
-      </c>
-      <c r="P669">
-        <v>4.333</v>
-      </c>
-      <c r="Q669">
-        <v>-1</v>
       </c>
       <c r="R669">
         <v>2</v>
@@ -60096,34 +60096,34 @@
         <v>1.8</v>
       </c>
       <c r="T669">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U669">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V669">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W669">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X669">
         <v>-1</v>
       </c>
       <c r="Y669">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z669">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA669">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB669">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC669">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="670" spans="1:29">
@@ -60576,7 +60576,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>5207430</v>
+        <v>5212480</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60588,10 +60588,10 @@
         <v>44849.375</v>
       </c>
       <c r="F675" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G675" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H675">
         <v>0</v>
@@ -60603,40 +60603,40 @@
         <v>68</v>
       </c>
       <c r="K675">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L675">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M675">
+        <v>3</v>
+      </c>
+      <c r="N675">
         <v>1.909</v>
       </c>
-      <c r="N675">
-        <v>4</v>
-      </c>
       <c r="O675">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P675">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q675">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R675">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S675">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T675">
         <v>3</v>
       </c>
       <c r="U675">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V675">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W675">
         <v>-1</v>
@@ -60645,19 +60645,19 @@
         <v>-1</v>
       </c>
       <c r="Y675">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z675">
         <v>-1</v>
       </c>
       <c r="AA675">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB675">
         <v>-1</v>
       </c>
       <c r="AC675">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -60665,7 +60665,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5212680</v>
+        <v>5207430</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60677,76 +60677,76 @@
         <v>44849.375</v>
       </c>
       <c r="F676" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G676" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H676">
+        <v>0</v>
+      </c>
+      <c r="I676">
+        <v>2</v>
+      </c>
+      <c r="J676" t="s">
+        <v>68</v>
+      </c>
+      <c r="K676">
+        <v>3.6</v>
+      </c>
+      <c r="L676">
+        <v>3.6</v>
+      </c>
+      <c r="M676">
+        <v>1.909</v>
+      </c>
+      <c r="N676">
+        <v>4</v>
+      </c>
+      <c r="O676">
+        <v>3.8</v>
+      </c>
+      <c r="P676">
+        <v>1.75</v>
+      </c>
+      <c r="Q676">
+        <v>0.75</v>
+      </c>
+      <c r="R676">
+        <v>1.8</v>
+      </c>
+      <c r="S676">
+        <v>2</v>
+      </c>
+      <c r="T676">
         <v>3</v>
       </c>
-      <c r="I676">
-        <v>2</v>
-      </c>
-      <c r="J676" t="s">
-        <v>67</v>
-      </c>
-      <c r="K676">
-        <v>2.7</v>
-      </c>
-      <c r="L676">
-        <v>3.4</v>
-      </c>
-      <c r="M676">
-        <v>2.4</v>
-      </c>
-      <c r="N676">
-        <v>2.625</v>
-      </c>
-      <c r="O676">
-        <v>3.3</v>
-      </c>
-      <c r="P676">
-        <v>2.5</v>
-      </c>
-      <c r="Q676">
-        <v>0</v>
-      </c>
-      <c r="R676">
-        <v>2.025</v>
-      </c>
-      <c r="S676">
-        <v>1.825</v>
-      </c>
-      <c r="T676">
-        <v>2.5</v>
-      </c>
       <c r="U676">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V676">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W676">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X676">
         <v>-1</v>
       </c>
       <c r="Y676">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z676">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA676">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB676">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC676">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60754,7 +60754,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5207429</v>
+        <v>5212680</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60766,34 +60766,34 @@
         <v>44849.375</v>
       </c>
       <c r="F677" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G677" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I677">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J677" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K677">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L677">
         <v>3.4</v>
       </c>
       <c r="M677">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N677">
         <v>2.625</v>
       </c>
       <c r="O677">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P677">
         <v>2.5</v>
@@ -60802,40 +60802,40 @@
         <v>0</v>
       </c>
       <c r="R677">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S677">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T677">
         <v>2.5</v>
       </c>
       <c r="U677">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V677">
         <v>1.825</v>
       </c>
       <c r="W677">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X677">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y677">
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA677">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB677">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC677">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60843,7 +60843,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>5212481</v>
+        <v>5207429</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60855,76 +60855,76 @@
         <v>44849.375</v>
       </c>
       <c r="F678" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G678" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H678">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I678">
         <v>1</v>
       </c>
       <c r="J678" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K678">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="L678">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M678">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N678">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O678">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P678">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q678">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R678">
+        <v>1.95</v>
+      </c>
+      <c r="S678">
+        <v>1.85</v>
+      </c>
+      <c r="T678">
+        <v>2.5</v>
+      </c>
+      <c r="U678">
+        <v>1.975</v>
+      </c>
+      <c r="V678">
         <v>1.825</v>
       </c>
-      <c r="S678">
-        <v>2.025</v>
-      </c>
-      <c r="T678">
-        <v>2.75</v>
-      </c>
-      <c r="U678">
-        <v>1.825</v>
-      </c>
-      <c r="V678">
-        <v>2.025</v>
-      </c>
       <c r="W678">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X678">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y678">
         <v>-1</v>
       </c>
       <c r="Z678">
+        <v>0</v>
+      </c>
+      <c r="AA678">
+        <v>-0</v>
+      </c>
+      <c r="AB678">
+        <v>-1</v>
+      </c>
+      <c r="AC678">
         <v>0.825</v>
-      </c>
-      <c r="AA678">
-        <v>-1</v>
-      </c>
-      <c r="AB678">
-        <v>0.825</v>
-      </c>
-      <c r="AC678">
-        <v>-1</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60932,7 +60932,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5212679</v>
+        <v>5212481</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60944,58 +60944,58 @@
         <v>44849.375</v>
       </c>
       <c r="F679" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G679" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H679">
         <v>3</v>
       </c>
       <c r="I679">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J679" t="s">
         <v>67</v>
       </c>
       <c r="K679">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L679">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M679">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N679">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O679">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P679">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q679">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R679">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S679">
         <v>2.025</v>
       </c>
       <c r="T679">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U679">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V679">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W679">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="X679">
         <v>-1</v>
@@ -61004,13 +61004,13 @@
         <v>-1</v>
       </c>
       <c r="Z679">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA679">
         <v>-1</v>
       </c>
       <c r="AB679">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC679">
         <v>-1</v>
@@ -61021,7 +61021,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5212480</v>
+        <v>5212679</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -61033,76 +61033,76 @@
         <v>44849.375</v>
       </c>
       <c r="F680" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G680" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I680">
         <v>2</v>
       </c>
       <c r="J680" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K680">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L680">
+        <v>3.6</v>
+      </c>
+      <c r="M680">
+        <v>4.333</v>
+      </c>
+      <c r="N680">
+        <v>1.8</v>
+      </c>
+      <c r="O680">
         <v>3.5</v>
       </c>
-      <c r="M680">
-        <v>3</v>
-      </c>
-      <c r="N680">
-        <v>1.909</v>
-      </c>
-      <c r="O680">
-        <v>3.75</v>
-      </c>
       <c r="P680">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q680">
         <v>-0.5</v>
       </c>
       <c r="R680">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S680">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T680">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U680">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V680">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W680">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X680">
         <v>-1</v>
       </c>
       <c r="Y680">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z680">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA680">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB680">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC680">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -62623,7 +62623,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>5212484</v>
+        <v>5207941</v>
       </c>
       <c r="C698" t="s">
         <v>28</v>
@@ -62635,76 +62635,76 @@
         <v>44863.375</v>
       </c>
       <c r="F698" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G698" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H698">
+        <v>2</v>
+      </c>
+      <c r="I698">
+        <v>1</v>
+      </c>
+      <c r="J698" t="s">
+        <v>67</v>
+      </c>
+      <c r="K698">
+        <v>2.375</v>
+      </c>
+      <c r="L698">
+        <v>3.3</v>
+      </c>
+      <c r="M698">
+        <v>2.75</v>
+      </c>
+      <c r="N698">
+        <v>2.4</v>
+      </c>
+      <c r="O698">
+        <v>3.25</v>
+      </c>
+      <c r="P698">
+        <v>2.7</v>
+      </c>
+      <c r="Q698">
         <v>0</v>
       </c>
-      <c r="I698">
-        <v>0</v>
-      </c>
-      <c r="J698" t="s">
-        <v>66</v>
-      </c>
-      <c r="K698">
+      <c r="R698">
         <v>1.75</v>
       </c>
-      <c r="L698">
-        <v>3.6</v>
-      </c>
-      <c r="M698">
-        <v>4</v>
-      </c>
-      <c r="N698">
-        <v>1.85</v>
-      </c>
-      <c r="O698">
-        <v>3.6</v>
-      </c>
-      <c r="P698">
-        <v>3.6</v>
-      </c>
-      <c r="Q698">
-        <v>-0.75</v>
-      </c>
-      <c r="R698">
-        <v>2.025</v>
-      </c>
       <c r="S698">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T698">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U698">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V698">
         <v>2.025</v>
       </c>
       <c r="W698">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X698">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y698">
         <v>-1</v>
       </c>
       <c r="Z698">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA698">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB698">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC698">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="699" spans="1:29">
@@ -62801,7 +62801,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>5207941</v>
+        <v>5212484</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62813,76 +62813,76 @@
         <v>44863.375</v>
       </c>
       <c r="F700" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G700" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J700" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K700">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L700">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M700">
+        <v>4</v>
+      </c>
+      <c r="N700">
+        <v>1.85</v>
+      </c>
+      <c r="O700">
+        <v>3.6</v>
+      </c>
+      <c r="P700">
+        <v>3.6</v>
+      </c>
+      <c r="Q700">
+        <v>-0.75</v>
+      </c>
+      <c r="R700">
+        <v>2.025</v>
+      </c>
+      <c r="S700">
+        <v>1.825</v>
+      </c>
+      <c r="T700">
         <v>2.75</v>
       </c>
-      <c r="N700">
-        <v>2.4</v>
-      </c>
-      <c r="O700">
-        <v>3.25</v>
-      </c>
-      <c r="P700">
-        <v>2.7</v>
-      </c>
-      <c r="Q700">
-        <v>0</v>
-      </c>
-      <c r="R700">
-        <v>1.75</v>
-      </c>
-      <c r="S700">
-        <v>2.05</v>
-      </c>
-      <c r="T700">
-        <v>2.25</v>
-      </c>
       <c r="U700">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V700">
         <v>2.025</v>
       </c>
       <c r="W700">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X700">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y700">
         <v>-1</v>
       </c>
       <c r="Z700">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA700">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB700">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC700">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -63246,7 +63246,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>5207246</v>
+        <v>5207439</v>
       </c>
       <c r="C705" t="s">
         <v>28</v>
@@ -63258,76 +63258,76 @@
         <v>44870.41666666666</v>
       </c>
       <c r="F705" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G705" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I705">
         <v>1</v>
       </c>
       <c r="J705" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K705">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L705">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M705">
+        <v>6</v>
+      </c>
+      <c r="N705">
+        <v>1.571</v>
+      </c>
+      <c r="O705">
         <v>4</v>
-      </c>
-      <c r="N705">
-        <v>1.615</v>
-      </c>
-      <c r="O705">
-        <v>3.8</v>
       </c>
       <c r="P705">
         <v>4.75</v>
       </c>
       <c r="Q705">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R705">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S705">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T705">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U705">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V705">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W705">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X705">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y705">
         <v>-1</v>
       </c>
       <c r="Z705">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA705">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB705">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC705">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="706" spans="1:29">
@@ -63335,7 +63335,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>5207439</v>
+        <v>5207246</v>
       </c>
       <c r="C706" t="s">
         <v>28</v>
@@ -63347,76 +63347,76 @@
         <v>44870.41666666666</v>
       </c>
       <c r="F706" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G706" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H706">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I706">
         <v>1</v>
       </c>
       <c r="J706" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K706">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L706">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M706">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N706">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O706">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P706">
         <v>4.75</v>
       </c>
       <c r="Q706">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R706">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S706">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T706">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U706">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V706">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W706">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X706">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y706">
         <v>-1</v>
       </c>
       <c r="Z706">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA706">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB706">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC706">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="707" spans="1:29">
@@ -65115,7 +65115,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>5212690</v>
+        <v>5212691</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65127,76 +65127,76 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F726" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G726" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H726">
         <v>1</v>
       </c>
       <c r="I726">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J726" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K726">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L726">
         <v>3.4</v>
       </c>
       <c r="M726">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N726">
         <v>3</v>
       </c>
       <c r="O726">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P726">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q726">
         <v>0.25</v>
       </c>
       <c r="R726">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S726">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T726">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U726">
         <v>1.925</v>
       </c>
       <c r="V726">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W726">
         <v>-1</v>
       </c>
       <c r="X726">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y726">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z726">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA726">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB726">
+        <v>-1</v>
+      </c>
+      <c r="AC726">
         <v>0.925</v>
-      </c>
-      <c r="AC726">
-        <v>-1</v>
       </c>
     </row>
     <row r="727" spans="1:29">
@@ -65204,7 +65204,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>5212691</v>
+        <v>5207444</v>
       </c>
       <c r="C727" t="s">
         <v>28</v>
@@ -65216,43 +65216,43 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F727" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G727" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I727">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J727" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K727">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L727">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M727">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N727">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O727">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P727">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q727">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R727">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S727">
         <v>1.9</v>
@@ -65261,31 +65261,31 @@
         <v>2.75</v>
       </c>
       <c r="U727">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V727">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W727">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X727">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y727">
         <v>-1</v>
       </c>
       <c r="Z727">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA727">
+        <v>-1</v>
+      </c>
+      <c r="AB727">
+        <v>0.45</v>
+      </c>
+      <c r="AC727">
         <v>-0.5</v>
-      </c>
-      <c r="AB727">
-        <v>-1</v>
-      </c>
-      <c r="AC727">
-        <v>0.925</v>
       </c>
     </row>
     <row r="728" spans="1:29">
@@ -65293,7 +65293,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>5207444</v>
+        <v>5207944</v>
       </c>
       <c r="C728" t="s">
         <v>28</v>
@@ -65305,76 +65305,76 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F728" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G728" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H728">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728">
         <v>0</v>
       </c>
       <c r="J728" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K728">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L728">
+        <v>3.75</v>
+      </c>
+      <c r="M728">
+        <v>4.333</v>
+      </c>
+      <c r="N728">
+        <v>1.75</v>
+      </c>
+      <c r="O728">
         <v>3.6</v>
-      </c>
-      <c r="M728">
-        <v>3.8</v>
-      </c>
-      <c r="N728">
-        <v>1.666</v>
-      </c>
-      <c r="O728">
-        <v>4.2</v>
       </c>
       <c r="P728">
         <v>4</v>
       </c>
       <c r="Q728">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R728">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S728">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T728">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U728">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V728">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W728">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X728">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y728">
         <v>-1</v>
       </c>
       <c r="Z728">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA728">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB728">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC728">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="729" spans="1:29">
@@ -65382,7 +65382,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>5207944</v>
+        <v>5212488</v>
       </c>
       <c r="C729" t="s">
         <v>28</v>
@@ -65394,76 +65394,76 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F729" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G729" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H729">
         <v>0</v>
       </c>
       <c r="I729">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J729" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K729">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L729">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M729">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N729">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O729">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P729">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q729">
+        <v>0.25</v>
+      </c>
+      <c r="R729">
+        <v>1.825</v>
+      </c>
+      <c r="S729">
+        <v>1.975</v>
+      </c>
+      <c r="T729">
+        <v>2.75</v>
+      </c>
+      <c r="U729">
+        <v>1.9</v>
+      </c>
+      <c r="V729">
+        <v>1.9</v>
+      </c>
+      <c r="W729">
+        <v>-1</v>
+      </c>
+      <c r="X729">
+        <v>-1</v>
+      </c>
+      <c r="Y729">
+        <v>1.2</v>
+      </c>
+      <c r="Z729">
+        <v>-1</v>
+      </c>
+      <c r="AA729">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB729">
+        <v>0.45</v>
+      </c>
+      <c r="AC729">
         <v>-0.5</v>
-      </c>
-      <c r="R729">
-        <v>1.8</v>
-      </c>
-      <c r="S729">
-        <v>2</v>
-      </c>
-      <c r="T729">
-        <v>2.5</v>
-      </c>
-      <c r="U729">
-        <v>2</v>
-      </c>
-      <c r="V729">
-        <v>1.8</v>
-      </c>
-      <c r="W729">
-        <v>-1</v>
-      </c>
-      <c r="X729">
-        <v>2.6</v>
-      </c>
-      <c r="Y729">
-        <v>-1</v>
-      </c>
-      <c r="Z729">
-        <v>-1</v>
-      </c>
-      <c r="AA729">
-        <v>1</v>
-      </c>
-      <c r="AB729">
-        <v>-1</v>
-      </c>
-      <c r="AC729">
-        <v>0.8</v>
       </c>
     </row>
     <row r="730" spans="1:29">
@@ -65471,7 +65471,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>5212488</v>
+        <v>5212690</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65483,34 +65483,34 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F730" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G730" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I730">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J730" t="s">
         <v>68</v>
       </c>
       <c r="K730">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L730">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M730">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N730">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O730">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P730">
         <v>2.2</v>
@@ -65525,13 +65525,13 @@
         <v>1.975</v>
       </c>
       <c r="T730">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U730">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V730">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W730">
         <v>-1</v>
@@ -65549,10 +65549,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB730">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC730">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -66005,7 +66005,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5207445</v>
+        <v>5212760</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -66017,58 +66017,58 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F736" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G736" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H736">
+        <v>3</v>
+      </c>
+      <c r="I736">
         <v>1</v>
-      </c>
-      <c r="I736">
-        <v>0</v>
       </c>
       <c r="J736" t="s">
         <v>67</v>
       </c>
       <c r="K736">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L736">
+        <v>3.5</v>
+      </c>
+      <c r="M736">
         <v>3.4</v>
       </c>
-      <c r="M736">
-        <v>2.5</v>
-      </c>
       <c r="N736">
+        <v>1.909</v>
+      </c>
+      <c r="O736">
+        <v>3.6</v>
+      </c>
+      <c r="P736">
+        <v>3.6</v>
+      </c>
+      <c r="Q736">
+        <v>-0.5</v>
+      </c>
+      <c r="R736">
+        <v>1.975</v>
+      </c>
+      <c r="S736">
+        <v>1.825</v>
+      </c>
+      <c r="T736">
         <v>2.75</v>
       </c>
-      <c r="O736">
-        <v>3.3</v>
-      </c>
-      <c r="P736">
-        <v>2.625</v>
-      </c>
-      <c r="Q736">
-        <v>0</v>
-      </c>
-      <c r="R736">
-        <v>2</v>
-      </c>
-      <c r="S736">
-        <v>1.85</v>
-      </c>
-      <c r="T736">
-        <v>3</v>
-      </c>
       <c r="U736">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V736">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W736">
-        <v>1.75</v>
+        <v>0.909</v>
       </c>
       <c r="X736">
         <v>-1</v>
@@ -66077,16 +66077,16 @@
         <v>-1</v>
       </c>
       <c r="Z736">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA736">
         <v>-1</v>
       </c>
       <c r="AB736">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC736">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="737" spans="1:29">
@@ -66094,7 +66094,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>5212760</v>
+        <v>5207446</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66106,76 +66106,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F737" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G737" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H737">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J737" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K737">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L737">
+        <v>3.75</v>
+      </c>
+      <c r="M737">
+        <v>4.75</v>
+      </c>
+      <c r="N737">
+        <v>1.8</v>
+      </c>
+      <c r="O737">
         <v>3.5</v>
       </c>
-      <c r="M737">
-        <v>3.4</v>
-      </c>
-      <c r="N737">
-        <v>1.909</v>
-      </c>
-      <c r="O737">
-        <v>3.6</v>
-      </c>
       <c r="P737">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q737">
         <v>-0.5</v>
       </c>
       <c r="R737">
+        <v>1.85</v>
+      </c>
+      <c r="S737">
+        <v>2</v>
+      </c>
+      <c r="T737">
+        <v>2.5</v>
+      </c>
+      <c r="U737">
+        <v>1.875</v>
+      </c>
+      <c r="V737">
         <v>1.975</v>
       </c>
-      <c r="S737">
-        <v>1.825</v>
-      </c>
-      <c r="T737">
-        <v>2.75</v>
-      </c>
-      <c r="U737">
-        <v>1.925</v>
-      </c>
-      <c r="V737">
-        <v>1.875</v>
-      </c>
       <c r="W737">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X737">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y737">
         <v>-1</v>
       </c>
       <c r="Z737">
+        <v>-1</v>
+      </c>
+      <c r="AA737">
+        <v>1</v>
+      </c>
+      <c r="AB737">
+        <v>-1</v>
+      </c>
+      <c r="AC737">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA737">
-        <v>-1</v>
-      </c>
-      <c r="AB737">
-        <v>0.925</v>
-      </c>
-      <c r="AC737">
-        <v>-1</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66183,7 +66183,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5212692</v>
+        <v>5212489</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66195,73 +66195,73 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F738" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G738" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I738">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J738" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K738">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L738">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M738">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N738">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O738">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P738">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q738">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R738">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S738">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T738">
         <v>2.5</v>
       </c>
       <c r="U738">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V738">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W738">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z738">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA738">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB738">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC738">
         <v>-1</v>
@@ -66272,7 +66272,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5212489</v>
+        <v>5207445</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66284,58 +66284,58 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F739" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G739" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H739">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I739">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J739" t="s">
         <v>67</v>
       </c>
       <c r="K739">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L739">
         <v>3.4</v>
       </c>
       <c r="M739">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N739">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="O739">
         <v>3.3</v>
       </c>
       <c r="P739">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q739">
         <v>0</v>
       </c>
       <c r="R739">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S739">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T739">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U739">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V739">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W739">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66344,16 +66344,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA739">
         <v>-1</v>
       </c>
       <c r="AB739">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC739">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66361,7 +66361,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5207446</v>
+        <v>5212692</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66373,28 +66373,28 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F740" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G740" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J740" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K740">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L740">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M740">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N740">
         <v>1.8</v>
@@ -66403,46 +66403,46 @@
         <v>3.5</v>
       </c>
       <c r="P740">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q740">
         <v>-0.5</v>
       </c>
       <c r="R740">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S740">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T740">
         <v>2.5</v>
       </c>
       <c r="U740">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V740">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W740">
         <v>-1</v>
       </c>
       <c r="X740">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y740">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z740">
         <v>-1</v>
       </c>
       <c r="AA740">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB740">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC740">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66895,7 +66895,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>5212490</v>
+        <v>5207242</v>
       </c>
       <c r="C746" t="s">
         <v>28</v>
@@ -66907,58 +66907,58 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F746" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G746" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H746">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J746" t="s">
         <v>67</v>
       </c>
       <c r="K746">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L746">
         <v>3.6</v>
       </c>
       <c r="M746">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N746">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O746">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P746">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q746">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R746">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S746">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T746">
         <v>2.5</v>
       </c>
       <c r="U746">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V746">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W746">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X746">
         <v>-1</v>
@@ -66967,13 +66967,13 @@
         <v>-1</v>
       </c>
       <c r="Z746">
+        <v>0.95</v>
+      </c>
+      <c r="AA746">
+        <v>-1</v>
+      </c>
+      <c r="AB746">
         <v>0.8</v>
-      </c>
-      <c r="AA746">
-        <v>-1</v>
-      </c>
-      <c r="AB746">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC746">
         <v>-1</v>
@@ -66984,7 +66984,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>5207450</v>
+        <v>5207449</v>
       </c>
       <c r="C747" t="s">
         <v>28</v>
@@ -66996,76 +66996,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F747" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G747" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I747">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J747" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K747">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L747">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M747">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N747">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O747">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P747">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q747">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R747">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S747">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T747">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U747">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V747">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W747">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X747">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y747">
         <v>-1</v>
       </c>
       <c r="Z747">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA747">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB747">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC747">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="748" spans="1:29">
@@ -67073,7 +67073,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5207242</v>
+        <v>5207450</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67085,76 +67085,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F748" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G748" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H748">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I748">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J748" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K748">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L748">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M748">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N748">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O748">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P748">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q748">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R748">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S748">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T748">
         <v>2.5</v>
       </c>
       <c r="U748">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V748">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W748">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X748">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y748">
         <v>-1</v>
       </c>
       <c r="Z748">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA748">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB748">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC748">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="749" spans="1:29">
@@ -67162,7 +67162,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>5207449</v>
+        <v>5212490</v>
       </c>
       <c r="C749" t="s">
         <v>28</v>
@@ -67174,67 +67174,67 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F749" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G749" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H749">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I749">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J749" t="s">
         <v>67</v>
       </c>
       <c r="K749">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L749">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M749">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N749">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O749">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P749">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q749">
         <v>-0.5</v>
       </c>
       <c r="R749">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S749">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T749">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U749">
         <v>1.9</v>
       </c>
       <c r="V749">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W749">
+        <v>0.75</v>
+      </c>
+      <c r="X749">
+        <v>-1</v>
+      </c>
+      <c r="Y749">
+        <v>-1</v>
+      </c>
+      <c r="Z749">
         <v>0.8</v>
-      </c>
-      <c r="X749">
-        <v>-1</v>
-      </c>
-      <c r="Y749">
-        <v>-1</v>
-      </c>
-      <c r="Z749">
-        <v>0.825</v>
       </c>
       <c r="AA749">
         <v>-1</v>
@@ -68586,7 +68586,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>5212492</v>
+        <v>5207947</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68598,76 +68598,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F765" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G765" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I765">
         <v>1</v>
       </c>
       <c r="J765" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K765">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L765">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M765">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N765">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O765">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P765">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q765">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R765">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S765">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T765">
         <v>2.5</v>
       </c>
       <c r="U765">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V765">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W765">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X765">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y765">
         <v>-1</v>
       </c>
       <c r="Z765">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA765">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB765">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC765">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68675,7 +68675,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>5207947</v>
+        <v>5212700</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68687,46 +68687,46 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F766" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G766" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H766">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J766" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K766">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L766">
+        <v>3.6</v>
+      </c>
+      <c r="M766">
+        <v>4.333</v>
+      </c>
+      <c r="N766">
+        <v>1.85</v>
+      </c>
+      <c r="O766">
         <v>3.5</v>
       </c>
-      <c r="M766">
-        <v>4.2</v>
-      </c>
-      <c r="N766">
-        <v>1.6</v>
-      </c>
-      <c r="O766">
-        <v>3.6</v>
-      </c>
       <c r="P766">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q766">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R766">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S766">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T766">
         <v>2.5</v>
@@ -68738,19 +68738,19 @@
         <v>1.9</v>
       </c>
       <c r="W766">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z766">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA766">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB766">
         <v>0.8999999999999999</v>
@@ -68764,7 +68764,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5212700</v>
+        <v>5212766</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68776,76 +68776,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F767" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G767" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H767">
         <v>1</v>
       </c>
       <c r="I767">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J767" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K767">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L767">
         <v>3.6</v>
       </c>
       <c r="M767">
+        <v>3.8</v>
+      </c>
+      <c r="N767">
+        <v>1.7</v>
+      </c>
+      <c r="O767">
+        <v>3.8</v>
+      </c>
+      <c r="P767">
         <v>4.333</v>
       </c>
-      <c r="N767">
+      <c r="Q767">
+        <v>-0.75</v>
+      </c>
+      <c r="R767">
+        <v>1.95</v>
+      </c>
+      <c r="S767">
         <v>1.85</v>
       </c>
-      <c r="O767">
-        <v>3.5</v>
-      </c>
-      <c r="P767">
-        <v>3.75</v>
-      </c>
-      <c r="Q767">
-        <v>-0.5</v>
-      </c>
-      <c r="R767">
-        <v>1.875</v>
-      </c>
-      <c r="S767">
-        <v>1.925</v>
-      </c>
       <c r="T767">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U767">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V767">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W767">
         <v>-1</v>
       </c>
       <c r="X767">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y767">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z767">
         <v>-1</v>
       </c>
       <c r="AA767">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB767">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC767">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68853,7 +68853,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>5212766</v>
+        <v>5207455</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68865,76 +68865,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F768" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G768" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J768" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K768">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L768">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M768">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N768">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O768">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P768">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q768">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R768">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S768">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T768">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U768">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V768">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W768">
         <v>-1</v>
       </c>
       <c r="X768">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y768">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z768">
         <v>-1</v>
       </c>
       <c r="AA768">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB768">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC768">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68942,7 +68942,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>5207455</v>
+        <v>5212767</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68954,40 +68954,40 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F769" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G769" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I769">
+        <v>1</v>
+      </c>
+      <c r="J769" t="s">
+        <v>67</v>
+      </c>
+      <c r="K769">
+        <v>1.833</v>
+      </c>
+      <c r="L769">
+        <v>3.6</v>
+      </c>
+      <c r="M769">
         <v>4</v>
       </c>
-      <c r="J769" t="s">
-        <v>68</v>
-      </c>
-      <c r="K769">
-        <v>2.75</v>
-      </c>
-      <c r="L769">
-        <v>3.3</v>
-      </c>
-      <c r="M769">
-        <v>2.45</v>
-      </c>
       <c r="N769">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O769">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P769">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q769">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R769">
         <v>1.825</v>
@@ -68999,28 +68999,28 @@
         <v>3</v>
       </c>
       <c r="U769">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V769">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W769">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X769">
         <v>-1</v>
       </c>
       <c r="Y769">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z769">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA769">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB769">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -69031,7 +69031,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>5212767</v>
+        <v>5212492</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69043,76 +69043,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F770" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G770" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H770">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I770">
         <v>1</v>
       </c>
       <c r="J770" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K770">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L770">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M770">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N770">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O770">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P770">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q770">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R770">
+        <v>1.975</v>
+      </c>
+      <c r="S770">
         <v>1.825</v>
       </c>
-      <c r="S770">
-        <v>1.975</v>
-      </c>
       <c r="T770">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U770">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V770">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W770">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X770">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y770">
         <v>-1</v>
       </c>
       <c r="Z770">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA770">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB770">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC770">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -70455,7 +70455,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5207949</v>
+        <v>5212706</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70467,76 +70467,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F786" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G786" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I786">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J786" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K786">
         <v>1.85</v>
       </c>
       <c r="L786">
+        <v>3.5</v>
+      </c>
+      <c r="M786">
+        <v>3.8</v>
+      </c>
+      <c r="N786">
+        <v>1.833</v>
+      </c>
+      <c r="O786">
         <v>3.4</v>
       </c>
-      <c r="M786">
+      <c r="P786">
         <v>4</v>
-      </c>
-      <c r="N786">
-        <v>1.85</v>
-      </c>
-      <c r="O786">
-        <v>3.5</v>
-      </c>
-      <c r="P786">
-        <v>3.8</v>
       </c>
       <c r="Q786">
         <v>-0.5</v>
       </c>
       <c r="R786">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S786">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T786">
         <v>2.5</v>
       </c>
       <c r="U786">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V786">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W786">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X786">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y786">
         <v>-1</v>
       </c>
       <c r="Z786">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA786">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB786">
         <v>-1</v>
       </c>
       <c r="AC786">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70544,7 +70544,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>5212706</v>
+        <v>5212705</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70556,76 +70556,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F787" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G787" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I787">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J787" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K787">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L787">
+        <v>3.3</v>
+      </c>
+      <c r="M787">
+        <v>3.2</v>
+      </c>
+      <c r="N787">
+        <v>1.8</v>
+      </c>
+      <c r="O787">
         <v>3.5</v>
       </c>
-      <c r="M787">
-        <v>3.8</v>
-      </c>
-      <c r="N787">
-        <v>1.833</v>
-      </c>
-      <c r="O787">
-        <v>3.4</v>
-      </c>
       <c r="P787">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q787">
         <v>-0.5</v>
       </c>
       <c r="R787">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S787">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T787">
         <v>2.5</v>
       </c>
       <c r="U787">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V787">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W787">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z787">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA787">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB787">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC787">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="788" spans="1:29">
@@ -70633,7 +70633,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5212705</v>
+        <v>5212495</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70645,73 +70645,73 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F788" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G788" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H788">
         <v>3</v>
       </c>
       <c r="I788">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J788" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K788">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L788">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M788">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N788">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O788">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P788">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q788">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R788">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S788">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T788">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U788">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V788">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W788">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X788">
         <v>-1</v>
       </c>
       <c r="Y788">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z788">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA788">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB788">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC788">
         <v>-1</v>
@@ -70722,7 +70722,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5212495</v>
+        <v>5207949</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70734,76 +70734,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F789" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G789" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H789">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I789">
         <v>1</v>
       </c>
       <c r="J789" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K789">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L789">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M789">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N789">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O789">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P789">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q789">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R789">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S789">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T789">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U789">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V789">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W789">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X789">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y789">
         <v>-1</v>
       </c>
       <c r="Z789">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA789">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB789">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC789">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:29">
@@ -74460,7 +74460,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>5212773</v>
+        <v>5207469</v>
       </c>
       <c r="C831" t="s">
         <v>28</v>
@@ -74472,40 +74472,40 @@
         <v>45000.625</v>
       </c>
       <c r="F831" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G831" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H831">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I831">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J831" t="s">
         <v>67</v>
       </c>
       <c r="K831">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L831">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M831">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N831">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="O831">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P831">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q831">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R831">
         <v>1.95</v>
@@ -74514,7 +74514,7 @@
         <v>1.85</v>
       </c>
       <c r="T831">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U831">
         <v>1.85</v>
@@ -74523,7 +74523,7 @@
         <v>1.95</v>
       </c>
       <c r="W831">
-        <v>0.571</v>
+        <v>1.55</v>
       </c>
       <c r="X831">
         <v>-1</v>
@@ -74532,10 +74532,10 @@
         <v>-1</v>
       </c>
       <c r="Z831">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA831">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB831">
         <v>0.8500000000000001</v>
@@ -74549,7 +74549,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>5207234</v>
+        <v>5212773</v>
       </c>
       <c r="C832" t="s">
         <v>28</v>
@@ -74561,58 +74561,58 @@
         <v>45000.625</v>
       </c>
       <c r="F832" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G832" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H832">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I832">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J832" t="s">
         <v>67</v>
       </c>
       <c r="K832">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="L832">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M832">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N832">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O832">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P832">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q832">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R832">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S832">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T832">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U832">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V832">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W832">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X832">
         <v>-1</v>
@@ -74621,13 +74621,13 @@
         <v>-1</v>
       </c>
       <c r="Z832">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA832">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB832">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC832">
         <v>-1</v>
@@ -74638,7 +74638,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>5207469</v>
+        <v>5207234</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74650,58 +74650,58 @@
         <v>45000.625</v>
       </c>
       <c r="F833" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G833" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I833">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J833" t="s">
         <v>67</v>
       </c>
       <c r="K833">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L833">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M833">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N833">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O833">
+        <v>5</v>
+      </c>
+      <c r="P833">
+        <v>6.5</v>
+      </c>
+      <c r="Q833">
+        <v>-1.25</v>
+      </c>
+      <c r="R833">
+        <v>1.825</v>
+      </c>
+      <c r="S833">
+        <v>1.975</v>
+      </c>
+      <c r="T833">
         <v>3.25</v>
       </c>
-      <c r="P833">
-        <v>2.55</v>
-      </c>
-      <c r="Q833">
-        <v>0</v>
-      </c>
-      <c r="R833">
-        <v>1.95</v>
-      </c>
-      <c r="S833">
-        <v>1.85</v>
-      </c>
-      <c r="T833">
-        <v>2.5</v>
-      </c>
       <c r="U833">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V833">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W833">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X833">
         <v>-1</v>
@@ -74710,13 +74710,13 @@
         <v>-1</v>
       </c>
       <c r="Z833">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA833">
         <v>-1</v>
       </c>
       <c r="AB833">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC833">
         <v>-1</v>
@@ -75795,7 +75795,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>5212727</v>
+        <v>5212725</v>
       </c>
       <c r="C846" t="s">
         <v>28</v>
@@ -75807,10 +75807,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F846" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G846" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H846">
         <v>1</v>
@@ -75822,41 +75822,41 @@
         <v>68</v>
       </c>
       <c r="K846">
-        <v>3.5</v>
+        <v>1.45</v>
       </c>
       <c r="L846">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M846">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="N846">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O846">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P846">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="Q846">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R846">
+        <v>1.875</v>
+      </c>
+      <c r="S846">
+        <v>1.925</v>
+      </c>
+      <c r="T846">
+        <v>3.25</v>
+      </c>
+      <c r="U846">
+        <v>1.975</v>
+      </c>
+      <c r="V846">
         <v>1.825</v>
       </c>
-      <c r="S846">
-        <v>1.975</v>
-      </c>
-      <c r="T846">
-        <v>3</v>
-      </c>
-      <c r="U846">
-        <v>1.9</v>
-      </c>
-      <c r="V846">
-        <v>1.9</v>
-      </c>
       <c r="W846">
         <v>-1</v>
       </c>
@@ -75864,19 +75864,19 @@
         <v>-1</v>
       </c>
       <c r="Y846">
-        <v>0.7270000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="Z846">
+        <v>-1</v>
+      </c>
+      <c r="AA846">
+        <v>0.925</v>
+      </c>
+      <c r="AB846">
         <v>-0.5</v>
       </c>
-      <c r="AA846">
-        <v>0.4875</v>
-      </c>
-      <c r="AB846">
-        <v>0</v>
-      </c>
       <c r="AC846">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="847" spans="1:29">
@@ -76151,7 +76151,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>5212725</v>
+        <v>5212727</v>
       </c>
       <c r="C850" t="s">
         <v>28</v>
@@ -76163,10 +76163,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F850" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G850" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H850">
         <v>1</v>
@@ -76178,40 +76178,40 @@
         <v>68</v>
       </c>
       <c r="K850">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="L850">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M850">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="N850">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O850">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P850">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q850">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R850">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S850">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T850">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U850">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V850">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W850">
         <v>-1</v>
@@ -76220,19 +76220,19 @@
         <v>-1</v>
       </c>
       <c r="Y850">
-        <v>5.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z850">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA850">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB850">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC850">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="851" spans="1:29">
@@ -76596,7 +76596,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>5228470</v>
+        <v>5212778</v>
       </c>
       <c r="C855" t="s">
         <v>28</v>
@@ -76608,76 +76608,76 @@
         <v>45017.375</v>
       </c>
       <c r="F855" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G855" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I855">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J855" t="s">
         <v>67</v>
       </c>
       <c r="K855">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L855">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M855">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N855">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O855">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P855">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q855">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R855">
+        <v>1.925</v>
+      </c>
+      <c r="S855">
         <v>1.875</v>
-      </c>
-      <c r="S855">
-        <v>1.925</v>
       </c>
       <c r="T855">
         <v>2.75</v>
       </c>
       <c r="U855">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V855">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W855">
+        <v>0.5</v>
+      </c>
+      <c r="X855">
+        <v>-1</v>
+      </c>
+      <c r="Y855">
+        <v>-1</v>
+      </c>
+      <c r="Z855">
+        <v>0</v>
+      </c>
+      <c r="AA855">
+        <v>-0</v>
+      </c>
+      <c r="AB855">
         <v>0.8</v>
       </c>
-      <c r="X855">
-        <v>-1</v>
-      </c>
-      <c r="Y855">
-        <v>-1</v>
-      </c>
-      <c r="Z855">
-        <v>0.875</v>
-      </c>
-      <c r="AA855">
-        <v>-1</v>
-      </c>
-      <c r="AB855">
-        <v>-1</v>
-      </c>
       <c r="AC855">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="856" spans="1:29">
@@ -76685,7 +76685,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>5212780</v>
+        <v>5228470</v>
       </c>
       <c r="C856" t="s">
         <v>28</v>
@@ -76697,46 +76697,46 @@
         <v>45017.375</v>
       </c>
       <c r="F856" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G856" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I856">
         <v>0</v>
       </c>
       <c r="J856" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K856">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L856">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M856">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N856">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O856">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P856">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q856">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R856">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S856">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T856">
         <v>2.75</v>
@@ -76748,19 +76748,19 @@
         <v>1.875</v>
       </c>
       <c r="W856">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X856">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y856">
         <v>-1</v>
       </c>
       <c r="Z856">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA856">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB856">
         <v>-1</v>
@@ -76774,7 +76774,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>5212778</v>
+        <v>5212780</v>
       </c>
       <c r="C857" t="s">
         <v>28</v>
@@ -76786,76 +76786,76 @@
         <v>45017.375</v>
       </c>
       <c r="F857" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G857" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H857">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I857">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J857" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K857">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L857">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M857">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N857">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O857">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P857">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q857">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R857">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S857">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T857">
         <v>2.75</v>
       </c>
       <c r="U857">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V857">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W857">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X857">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y857">
         <v>-1</v>
       </c>
       <c r="Z857">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA857">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB857">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC857">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="858" spans="1:29">
@@ -77308,7 +77308,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>5360869</v>
+        <v>5351011</v>
       </c>
       <c r="C863" t="s">
         <v>28</v>
@@ -77320,73 +77320,73 @@
         <v>45024.375</v>
       </c>
       <c r="F863" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G863" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J863" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K863">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L863">
+        <v>3.25</v>
+      </c>
+      <c r="M863">
         <v>3.2</v>
       </c>
-      <c r="M863">
-        <v>2.875</v>
-      </c>
       <c r="N863">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O863">
         <v>3.2</v>
       </c>
       <c r="P863">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q863">
         <v>0</v>
       </c>
       <c r="R863">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S863">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T863">
         <v>2.5</v>
       </c>
       <c r="U863">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V863">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W863">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X863">
         <v>-1</v>
       </c>
       <c r="Y863">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z863">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA863">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB863">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC863">
         <v>-1</v>
@@ -77397,7 +77397,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>5351011</v>
+        <v>5360869</v>
       </c>
       <c r="C864" t="s">
         <v>28</v>
@@ -77409,73 +77409,73 @@
         <v>45024.375</v>
       </c>
       <c r="F864" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G864" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J864" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K864">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L864">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M864">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N864">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O864">
         <v>3.2</v>
       </c>
       <c r="P864">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q864">
         <v>0</v>
       </c>
       <c r="R864">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S864">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T864">
         <v>2.5</v>
       </c>
       <c r="U864">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V864">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W864">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X864">
         <v>-1</v>
       </c>
       <c r="Y864">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z864">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA864">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB864">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC864">
         <v>-1</v>
@@ -79444,7 +79444,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>5447801</v>
+        <v>5447800</v>
       </c>
       <c r="C887" t="s">
         <v>28</v>
@@ -79456,76 +79456,76 @@
         <v>45038.375</v>
       </c>
       <c r="F887" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G887" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H887">
+        <v>2</v>
+      </c>
+      <c r="I887">
         <v>0</v>
       </c>
-      <c r="I887">
-        <v>1</v>
-      </c>
       <c r="J887" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K887">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L887">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M887">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N887">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O887">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P887">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q887">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R887">
+        <v>1.875</v>
+      </c>
+      <c r="S887">
+        <v>1.925</v>
+      </c>
+      <c r="T887">
+        <v>3.25</v>
+      </c>
+      <c r="U887">
+        <v>2</v>
+      </c>
+      <c r="V887">
         <v>1.8</v>
       </c>
-      <c r="S887">
-        <v>2</v>
-      </c>
-      <c r="T887">
-        <v>3.5</v>
-      </c>
-      <c r="U887">
-        <v>1.95</v>
-      </c>
-      <c r="V887">
-        <v>1.85</v>
-      </c>
       <c r="W887">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X887">
         <v>-1</v>
       </c>
       <c r="Y887">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z887">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA887">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB887">
         <v>-1</v>
       </c>
       <c r="AC887">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="888" spans="1:29">
@@ -79622,7 +79622,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>5447800</v>
+        <v>5447801</v>
       </c>
       <c r="C889" t="s">
         <v>28</v>
@@ -79634,76 +79634,76 @@
         <v>45038.375</v>
       </c>
       <c r="F889" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G889" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J889" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K889">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L889">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M889">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N889">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="O889">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P889">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q889">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R889">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S889">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T889">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U889">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V889">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W889">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X889">
         <v>-1</v>
       </c>
       <c r="Y889">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z889">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA889">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB889">
         <v>-1</v>
       </c>
       <c r="AC889">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="890" spans="1:29">
@@ -80423,7 +80423,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>5470244</v>
+        <v>5465167</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80435,34 +80435,34 @@
         <v>45045.375</v>
       </c>
       <c r="F898" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G898" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I898">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J898" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K898">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L898">
         <v>3.3</v>
       </c>
       <c r="M898">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N898">
         <v>2.875</v>
       </c>
       <c r="O898">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P898">
         <v>2.3</v>
@@ -80471,7 +80471,7 @@
         <v>0.25</v>
       </c>
       <c r="R898">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S898">
         <v>2.025</v>
@@ -80483,28 +80483,28 @@
         <v>2</v>
       </c>
       <c r="V898">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W898">
         <v>-1</v>
       </c>
       <c r="X898">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y898">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z898">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA898">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB898">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC898">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="899" spans="1:29">
@@ -80512,7 +80512,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>5465167</v>
+        <v>5470244</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -80524,34 +80524,34 @@
         <v>45045.375</v>
       </c>
       <c r="F899" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G899" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I899">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J899" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K899">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L899">
         <v>3.3</v>
       </c>
       <c r="M899">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N899">
         <v>2.875</v>
       </c>
       <c r="O899">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P899">
         <v>2.3</v>
@@ -80560,7 +80560,7 @@
         <v>0.25</v>
       </c>
       <c r="R899">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S899">
         <v>2.025</v>
@@ -80572,28 +80572,28 @@
         <v>2</v>
       </c>
       <c r="V899">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W899">
         <v>-1</v>
       </c>
       <c r="X899">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y899">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z899">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA899">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB899">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC899">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="900" spans="1:29">
@@ -81046,7 +81046,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>5497819</v>
+        <v>5497816</v>
       </c>
       <c r="C905" t="s">
         <v>28</v>
@@ -81058,58 +81058,58 @@
         <v>45052.375</v>
       </c>
       <c r="F905" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G905" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H905">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I905">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J905" t="s">
         <v>67</v>
       </c>
       <c r="K905">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="L905">
+        <v>6.5</v>
+      </c>
+      <c r="M905">
+        <v>11</v>
+      </c>
+      <c r="N905">
+        <v>1.222</v>
+      </c>
+      <c r="O905">
+        <v>6</v>
+      </c>
+      <c r="P905">
+        <v>10</v>
+      </c>
+      <c r="Q905">
+        <v>-1.75</v>
+      </c>
+      <c r="R905">
+        <v>1.8</v>
+      </c>
+      <c r="S905">
+        <v>2</v>
+      </c>
+      <c r="T905">
         <v>3.5</v>
       </c>
-      <c r="M905">
-        <v>3</v>
-      </c>
-      <c r="N905">
-        <v>2.1</v>
-      </c>
-      <c r="O905">
-        <v>3.6</v>
-      </c>
-      <c r="P905">
-        <v>3.1</v>
-      </c>
-      <c r="Q905">
-        <v>-0.25</v>
-      </c>
-      <c r="R905">
+      <c r="U905">
         <v>1.875</v>
       </c>
-      <c r="S905">
+      <c r="V905">
         <v>1.925</v>
       </c>
-      <c r="T905">
-        <v>2.75</v>
-      </c>
-      <c r="U905">
-        <v>1.825</v>
-      </c>
-      <c r="V905">
-        <v>1.975</v>
-      </c>
       <c r="W905">
-        <v>1.1</v>
+        <v>0.222</v>
       </c>
       <c r="X905">
         <v>-1</v>
@@ -81118,13 +81118,13 @@
         <v>-1</v>
       </c>
       <c r="Z905">
+        <v>0.8</v>
+      </c>
+      <c r="AA905">
+        <v>-1</v>
+      </c>
+      <c r="AB905">
         <v>0.875</v>
-      </c>
-      <c r="AA905">
-        <v>-1</v>
-      </c>
-      <c r="AB905">
-        <v>0.825</v>
       </c>
       <c r="AC905">
         <v>-1</v>
@@ -81135,7 +81135,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>5497818</v>
+        <v>5495155</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -81147,13 +81147,13 @@
         <v>45052.375</v>
       </c>
       <c r="F906" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G906" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I906">
         <v>0</v>
@@ -81162,43 +81162,43 @@
         <v>67</v>
       </c>
       <c r="K906">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L906">
+        <v>3.5</v>
+      </c>
+      <c r="M906">
+        <v>3.1</v>
+      </c>
+      <c r="N906">
+        <v>2</v>
+      </c>
+      <c r="O906">
+        <v>3.5</v>
+      </c>
+      <c r="P906">
         <v>3.4</v>
       </c>
-      <c r="M906">
-        <v>2.375</v>
-      </c>
-      <c r="N906">
-        <v>2.5</v>
-      </c>
-      <c r="O906">
-        <v>3.4</v>
-      </c>
-      <c r="P906">
-        <v>2.55</v>
-      </c>
       <c r="Q906">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R906">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S906">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T906">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U906">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V906">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W906">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X906">
         <v>-1</v>
@@ -81207,7 +81207,7 @@
         <v>-1</v>
       </c>
       <c r="Z906">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA906">
         <v>-1</v>
@@ -81216,7 +81216,7 @@
         <v>-1</v>
       </c>
       <c r="AC906">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="907" spans="1:29">
@@ -81224,7 +81224,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5497816</v>
+        <v>5497818</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81236,58 +81236,58 @@
         <v>45052.375</v>
       </c>
       <c r="F907" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G907" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H907">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I907">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J907" t="s">
         <v>67</v>
       </c>
       <c r="K907">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="L907">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M907">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="N907">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="O907">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P907">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="Q907">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R907">
+        <v>1.875</v>
+      </c>
+      <c r="S907">
+        <v>1.925</v>
+      </c>
+      <c r="T907">
+        <v>2.5</v>
+      </c>
+      <c r="U907">
         <v>1.8</v>
       </c>
-      <c r="S907">
-        <v>2</v>
-      </c>
-      <c r="T907">
-        <v>3.5</v>
-      </c>
-      <c r="U907">
-        <v>1.875</v>
-      </c>
       <c r="V907">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W907">
-        <v>0.222</v>
+        <v>1.5</v>
       </c>
       <c r="X907">
         <v>-1</v>
@@ -81296,16 +81296,16 @@
         <v>-1</v>
       </c>
       <c r="Z907">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA907">
         <v>-1</v>
       </c>
       <c r="AB907">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC907">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:29">
@@ -81313,7 +81313,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>5495155</v>
+        <v>5497819</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81325,46 +81325,46 @@
         <v>45052.375</v>
       </c>
       <c r="F908" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G908" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H908">
+        <v>3</v>
+      </c>
+      <c r="I908">
         <v>1</v>
-      </c>
-      <c r="I908">
-        <v>0</v>
       </c>
       <c r="J908" t="s">
         <v>67</v>
       </c>
       <c r="K908">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L908">
         <v>3.5</v>
       </c>
       <c r="M908">
+        <v>3</v>
+      </c>
+      <c r="N908">
+        <v>2.1</v>
+      </c>
+      <c r="O908">
+        <v>3.6</v>
+      </c>
+      <c r="P908">
         <v>3.1</v>
       </c>
-      <c r="N908">
-        <v>2</v>
-      </c>
-      <c r="O908">
-        <v>3.5</v>
-      </c>
-      <c r="P908">
-        <v>3.4</v>
-      </c>
       <c r="Q908">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R908">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S908">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T908">
         <v>2.75</v>
@@ -81376,7 +81376,7 @@
         <v>1.975</v>
       </c>
       <c r="W908">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X908">
         <v>-1</v>
@@ -81385,16 +81385,16 @@
         <v>-1</v>
       </c>
       <c r="Z908">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA908">
         <v>-1</v>
       </c>
       <c r="AB908">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC908">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -91103,7 +91103,7 @@
         <v>1016</v>
       </c>
       <c r="B1018">
-        <v>6880513</v>
+        <v>6881320</v>
       </c>
       <c r="C1018" t="s">
         <v>28</v>
@@ -91115,76 +91115,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1018" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G1018" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1018">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1018" t="s">
         <v>66</v>
       </c>
       <c r="K1018">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L1018">
+        <v>3.3</v>
+      </c>
+      <c r="M1018">
         <v>3.4</v>
       </c>
-      <c r="M1018">
-        <v>2.7</v>
-      </c>
       <c r="N1018">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O1018">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P1018">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q1018">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1018">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S1018">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T1018">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1018">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V1018">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W1018">
         <v>-1</v>
       </c>
       <c r="X1018">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y1018">
         <v>-1</v>
       </c>
       <c r="Z1018">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1018">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB1018">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC1018">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1019" spans="1:29">
@@ -91281,7 +91281,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>6881320</v>
+        <v>6880513</v>
       </c>
       <c r="C1020" t="s">
         <v>28</v>
@@ -91293,76 +91293,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1020" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G1020" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H1020">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1020">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1020" t="s">
         <v>66</v>
       </c>
       <c r="K1020">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L1020">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M1020">
+        <v>2.7</v>
+      </c>
+      <c r="N1020">
+        <v>2.55</v>
+      </c>
+      <c r="O1020">
         <v>3.4</v>
       </c>
-      <c r="N1020">
-        <v>2.15</v>
-      </c>
-      <c r="O1020">
-        <v>3.25</v>
-      </c>
       <c r="P1020">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q1020">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1020">
+        <v>1.95</v>
+      </c>
+      <c r="S1020">
+        <v>1.85</v>
+      </c>
+      <c r="T1020">
+        <v>3</v>
+      </c>
+      <c r="U1020">
         <v>1.925</v>
       </c>
-      <c r="S1020">
+      <c r="V1020">
         <v>1.875</v>
       </c>
-      <c r="T1020">
-        <v>2.75</v>
-      </c>
-      <c r="U1020">
-        <v>1.8</v>
-      </c>
-      <c r="V1020">
-        <v>2</v>
-      </c>
       <c r="W1020">
         <v>-1</v>
       </c>
       <c r="X1020">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y1020">
         <v>-1</v>
       </c>
       <c r="Z1020">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA1020">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB1020">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC1020">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1021" spans="1:29">
@@ -91993,7 +91993,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>6880358</v>
+        <v>6881322</v>
       </c>
       <c r="C1028" t="s">
         <v>28</v>
@@ -92005,10 +92005,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1028" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G1028" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H1028">
         <v>1</v>
@@ -92020,43 +92020,43 @@
         <v>67</v>
       </c>
       <c r="K1028">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1028">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1028">
+        <v>2.875</v>
+      </c>
+      <c r="N1028">
+        <v>2.3</v>
+      </c>
+      <c r="O1028">
+        <v>3.3</v>
+      </c>
+      <c r="P1028">
+        <v>2.75</v>
+      </c>
+      <c r="Q1028">
+        <v>0</v>
+      </c>
+      <c r="R1028">
+        <v>1.75</v>
+      </c>
+      <c r="S1028">
+        <v>2.05</v>
+      </c>
+      <c r="T1028">
         <v>2.5</v>
       </c>
-      <c r="N1028">
-        <v>2.1</v>
-      </c>
-      <c r="O1028">
-        <v>3.75</v>
-      </c>
-      <c r="P1028">
-        <v>2.875</v>
-      </c>
-      <c r="Q1028">
-        <v>-0.25</v>
-      </c>
-      <c r="R1028">
-        <v>1.925</v>
-      </c>
-      <c r="S1028">
-        <v>1.875</v>
-      </c>
-      <c r="T1028">
-        <v>2.75</v>
-      </c>
       <c r="U1028">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V1028">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W1028">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X1028">
         <v>-1</v>
@@ -92065,7 +92065,7 @@
         <v>-1</v>
       </c>
       <c r="Z1028">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA1028">
         <v>-1</v>
@@ -92074,7 +92074,7 @@
         <v>-1</v>
       </c>
       <c r="AC1028">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="1029" spans="1:29">
@@ -92082,7 +92082,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>6881322</v>
+        <v>6880358</v>
       </c>
       <c r="C1029" t="s">
         <v>28</v>
@@ -92094,10 +92094,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1029" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G1029" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H1029">
         <v>1</v>
@@ -92109,43 +92109,43 @@
         <v>67</v>
       </c>
       <c r="K1029">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L1029">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1029">
+        <v>2.5</v>
+      </c>
+      <c r="N1029">
+        <v>2.1</v>
+      </c>
+      <c r="O1029">
+        <v>3.75</v>
+      </c>
+      <c r="P1029">
         <v>2.875</v>
       </c>
-      <c r="N1029">
-        <v>2.3</v>
-      </c>
-      <c r="O1029">
-        <v>3.3</v>
-      </c>
-      <c r="P1029">
+      <c r="Q1029">
+        <v>-0.25</v>
+      </c>
+      <c r="R1029">
+        <v>1.925</v>
+      </c>
+      <c r="S1029">
+        <v>1.875</v>
+      </c>
+      <c r="T1029">
         <v>2.75</v>
       </c>
-      <c r="Q1029">
-        <v>0</v>
-      </c>
-      <c r="R1029">
-        <v>1.75</v>
-      </c>
-      <c r="S1029">
-        <v>2.05</v>
-      </c>
-      <c r="T1029">
-        <v>2.5</v>
-      </c>
       <c r="U1029">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1029">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W1029">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X1029">
         <v>-1</v>
@@ -92154,7 +92154,7 @@
         <v>-1</v>
       </c>
       <c r="Z1029">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA1029">
         <v>-1</v>
@@ -92163,7 +92163,7 @@
         <v>-1</v>
       </c>
       <c r="AC1029">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1030" spans="1:29">
@@ -92171,7 +92171,7 @@
         <v>1028</v>
       </c>
       <c r="B1030">
-        <v>6880469</v>
+        <v>6880332</v>
       </c>
       <c r="C1030" t="s">
         <v>28</v>
@@ -92183,13 +92183,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1030" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1030" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H1030">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1030">
         <v>0</v>
@@ -92219,13 +92219,13 @@
         <v>-0.25</v>
       </c>
       <c r="R1030">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S1030">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T1030">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1030">
         <v>1.925</v>
@@ -92243,16 +92243,16 @@
         <v>-1</v>
       </c>
       <c r="Z1030">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA1030">
         <v>-1</v>
       </c>
       <c r="AB1030">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC1030">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1031" spans="1:29">
@@ -92260,7 +92260,7 @@
         <v>1029</v>
       </c>
       <c r="B1031">
-        <v>6880332</v>
+        <v>6880469</v>
       </c>
       <c r="C1031" t="s">
         <v>28</v>
@@ -92272,13 +92272,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1031" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1031" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1031">
         <v>0</v>
@@ -92308,13 +92308,13 @@
         <v>-0.25</v>
       </c>
       <c r="R1031">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S1031">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T1031">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1031">
         <v>1.925</v>
@@ -92332,16 +92332,16 @@
         <v>-1</v>
       </c>
       <c r="Z1031">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA1031">
         <v>-1</v>
       </c>
       <c r="AB1031">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1031">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1032" spans="1:29">
@@ -92349,7 +92349,7 @@
         <v>1030</v>
       </c>
       <c r="B1032">
-        <v>6881622</v>
+        <v>6881621</v>
       </c>
       <c r="C1032" t="s">
         <v>28</v>
@@ -92361,58 +92361,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1032" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G1032" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H1032">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1032">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1032" t="s">
         <v>67</v>
       </c>
       <c r="K1032">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L1032">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M1032">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N1032">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O1032">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P1032">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q1032">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R1032">
+        <v>1.95</v>
+      </c>
+      <c r="S1032">
+        <v>1.85</v>
+      </c>
+      <c r="T1032">
+        <v>3.25</v>
+      </c>
+      <c r="U1032">
+        <v>2</v>
+      </c>
+      <c r="V1032">
         <v>1.8</v>
       </c>
-      <c r="S1032">
-        <v>2</v>
-      </c>
-      <c r="T1032">
-        <v>2.5</v>
-      </c>
-      <c r="U1032">
-        <v>1.875</v>
-      </c>
-      <c r="V1032">
-        <v>1.925</v>
-      </c>
       <c r="W1032">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="X1032">
         <v>-1</v>
@@ -92421,16 +92421,16 @@
         <v>-1</v>
       </c>
       <c r="Z1032">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1032">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB1032">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1032">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1033" spans="1:29">
@@ -92438,7 +92438,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>6881621</v>
+        <v>6881622</v>
       </c>
       <c r="C1033" t="s">
         <v>28</v>
@@ -92450,58 +92450,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1033" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G1033" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1033">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1033" t="s">
         <v>67</v>
       </c>
       <c r="K1033">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L1033">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1033">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N1033">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O1033">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P1033">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q1033">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R1033">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S1033">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T1033">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1033">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1033">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W1033">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="X1033">
         <v>-1</v>
@@ -92510,16 +92510,16 @@
         <v>-1</v>
       </c>
       <c r="Z1033">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA1033">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB1033">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC1033">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1034" spans="1:29">
@@ -99558,7 +99558,7 @@
         <v>1111</v>
       </c>
       <c r="B1113">
-        <v>6881667</v>
+        <v>6882787</v>
       </c>
       <c r="C1113" t="s">
         <v>28</v>
@@ -99570,76 +99570,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F1113" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G1113" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H1113">
+        <v>3</v>
+      </c>
+      <c r="I1113">
         <v>0</v>
       </c>
-      <c r="I1113">
+      <c r="J1113" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1113">
+        <v>1.666</v>
+      </c>
+      <c r="L1113">
         <v>4</v>
       </c>
-      <c r="J1113" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1113">
-        <v>5</v>
-      </c>
-      <c r="L1113">
+      <c r="M1113">
+        <v>4.5</v>
+      </c>
+      <c r="N1113">
+        <v>1.8</v>
+      </c>
+      <c r="O1113">
         <v>3.8</v>
       </c>
-      <c r="M1113">
-        <v>1.666</v>
-      </c>
-      <c r="N1113">
-        <v>5.25</v>
-      </c>
-      <c r="O1113">
-        <v>3.75</v>
-      </c>
       <c r="P1113">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q1113">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1113">
+        <v>1.8</v>
+      </c>
+      <c r="S1113">
+        <v>2</v>
+      </c>
+      <c r="T1113">
+        <v>2.75</v>
+      </c>
+      <c r="U1113">
+        <v>1.875</v>
+      </c>
+      <c r="V1113">
         <v>1.925</v>
       </c>
-      <c r="S1113">
-        <v>1.875</v>
-      </c>
-      <c r="T1113">
-        <v>2.25</v>
-      </c>
-      <c r="U1113">
-        <v>1.775</v>
-      </c>
-      <c r="V1113">
-        <v>2.025</v>
-      </c>
       <c r="W1113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1113">
         <v>-1</v>
       </c>
       <c r="Y1113">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z1113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA1113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB1113">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC1113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1114" spans="1:29">
@@ -99647,7 +99647,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>6882787</v>
+        <v>6881667</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99659,76 +99659,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F1114" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G1114" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H1114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1114">
+        <v>5</v>
+      </c>
+      <c r="L1114">
+        <v>3.8</v>
+      </c>
+      <c r="M1114">
         <v>1.666</v>
       </c>
-      <c r="L1114">
-        <v>4</v>
-      </c>
-      <c r="M1114">
-        <v>4.5</v>
-      </c>
       <c r="N1114">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="O1114">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P1114">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q1114">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R1114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S1114">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T1114">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1114">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V1114">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W1114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X1114">
         <v>-1</v>
       </c>
       <c r="Y1114">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z1114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA1114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB1114">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC1114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1115" spans="1:29">
@@ -102851,7 +102851,7 @@
         <v>1148</v>
       </c>
       <c r="B1150">
-        <v>6881684</v>
+        <v>6881685</v>
       </c>
       <c r="C1150" t="s">
         <v>28</v>
@@ -102863,76 +102863,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1150" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G1150" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H1150">
+        <v>0</v>
+      </c>
+      <c r="I1150">
+        <v>0</v>
+      </c>
+      <c r="J1150" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1150">
+        <v>2.75</v>
+      </c>
+      <c r="L1150">
+        <v>3.5</v>
+      </c>
+      <c r="M1150">
+        <v>2.25</v>
+      </c>
+      <c r="N1150">
         <v>3</v>
       </c>
-      <c r="I1150">
-        <v>1</v>
-      </c>
-      <c r="J1150" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1150">
-        <v>2</v>
-      </c>
-      <c r="L1150">
-        <v>3.6</v>
-      </c>
-      <c r="M1150">
-        <v>3.2</v>
-      </c>
-      <c r="N1150">
+      <c r="O1150">
+        <v>3.4</v>
+      </c>
+      <c r="P1150">
         <v>2.15</v>
       </c>
-      <c r="O1150">
-        <v>3.5</v>
-      </c>
-      <c r="P1150">
-        <v>2.9</v>
-      </c>
       <c r="Q1150">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S1150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T1150">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1150">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1150">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W1150">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X1150">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1150">
         <v>-1</v>
       </c>
       <c r="Z1150">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA1150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1151" spans="1:29">
@@ -103118,7 +103118,7 @@
         <v>1151</v>
       </c>
       <c r="B1153">
-        <v>6881685</v>
+        <v>6881684</v>
       </c>
       <c r="C1153" t="s">
         <v>28</v>
@@ -103130,76 +103130,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1153" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G1153" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1153" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K1153">
+        <v>2</v>
+      </c>
+      <c r="L1153">
+        <v>3.6</v>
+      </c>
+      <c r="M1153">
+        <v>3.2</v>
+      </c>
+      <c r="N1153">
+        <v>2.15</v>
+      </c>
+      <c r="O1153">
+        <v>3.5</v>
+      </c>
+      <c r="P1153">
+        <v>2.9</v>
+      </c>
+      <c r="Q1153">
+        <v>-0.25</v>
+      </c>
+      <c r="R1153">
+        <v>1.95</v>
+      </c>
+      <c r="S1153">
+        <v>1.85</v>
+      </c>
+      <c r="T1153">
         <v>2.75</v>
       </c>
-      <c r="L1153">
-        <v>3.5</v>
-      </c>
-      <c r="M1153">
-        <v>2.25</v>
-      </c>
-      <c r="N1153">
-        <v>3</v>
-      </c>
-      <c r="O1153">
-        <v>3.4</v>
-      </c>
-      <c r="P1153">
-        <v>2.15</v>
-      </c>
-      <c r="Q1153">
-        <v>0.25</v>
-      </c>
-      <c r="R1153">
-        <v>1.875</v>
-      </c>
-      <c r="S1153">
-        <v>1.925</v>
-      </c>
-      <c r="T1153">
-        <v>2.5</v>
-      </c>
       <c r="U1153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V1153">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W1153">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X1153">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1153">
         <v>-1</v>
       </c>
       <c r="Z1153">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA1153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1153">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1154" spans="1:29">
@@ -103741,7 +103741,7 @@
         <v>1158</v>
       </c>
       <c r="B1160">
-        <v>6881689</v>
+        <v>6881692</v>
       </c>
       <c r="C1160" t="s">
         <v>28</v>
@@ -103753,76 +103753,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1160" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G1160" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1160">
         <v>1</v>
       </c>
       <c r="J1160" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1160">
+        <v>3.1</v>
+      </c>
+      <c r="L1160">
+        <v>3.5</v>
+      </c>
+      <c r="M1160">
+        <v>2</v>
+      </c>
+      <c r="N1160">
+        <v>3.3</v>
+      </c>
+      <c r="O1160">
+        <v>3.4</v>
+      </c>
+      <c r="P1160">
+        <v>2</v>
+      </c>
+      <c r="Q1160">
+        <v>0.25</v>
+      </c>
+      <c r="R1160">
+        <v>2</v>
+      </c>
+      <c r="S1160">
+        <v>1.8</v>
+      </c>
+      <c r="T1160">
+        <v>2.5</v>
+      </c>
+      <c r="U1160">
         <v>1.95</v>
       </c>
-      <c r="L1160">
-        <v>3.6</v>
-      </c>
-      <c r="M1160">
-        <v>3.3</v>
-      </c>
-      <c r="N1160">
-        <v>1.909</v>
-      </c>
-      <c r="O1160">
-        <v>3.6</v>
-      </c>
-      <c r="P1160">
-        <v>3.5</v>
-      </c>
-      <c r="Q1160">
-        <v>-0.5</v>
-      </c>
-      <c r="R1160">
-        <v>1.9</v>
-      </c>
-      <c r="S1160">
-        <v>1.9</v>
-      </c>
-      <c r="T1160">
-        <v>2.75</v>
-      </c>
-      <c r="U1160">
-        <v>2</v>
-      </c>
       <c r="V1160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W1160">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X1160">
         <v>-1</v>
       </c>
       <c r="Y1160">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z1160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1160">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1160">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1161" spans="1:29">
@@ -103830,7 +103830,7 @@
         <v>1159</v>
       </c>
       <c r="B1161">
-        <v>6881692</v>
+        <v>6881691</v>
       </c>
       <c r="C1161" t="s">
         <v>28</v>
@@ -103842,70 +103842,70 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1161" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G1161" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H1161">
+        <v>2</v>
+      </c>
+      <c r="I1161">
         <v>0</v>
       </c>
-      <c r="I1161">
-        <v>1</v>
-      </c>
       <c r="J1161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1161">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L1161">
+        <v>3.6</v>
+      </c>
+      <c r="M1161">
         <v>3.5</v>
       </c>
-      <c r="M1161">
-        <v>2</v>
-      </c>
       <c r="N1161">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="O1161">
         <v>3.4</v>
       </c>
       <c r="P1161">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q1161">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1161">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S1161">
         <v>1.8</v>
       </c>
       <c r="T1161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1161">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V1161">
         <v>1.85</v>
       </c>
       <c r="W1161">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X1161">
         <v>-1</v>
       </c>
       <c r="Y1161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z1161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1161">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1161">
         <v>-1</v>
@@ -103919,7 +103919,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>6881691</v>
+        <v>6881689</v>
       </c>
       <c r="C1162" t="s">
         <v>28</v>
@@ -103931,46 +103931,46 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1162" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G1162" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H1162">
         <v>2</v>
       </c>
       <c r="I1162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1162" t="s">
         <v>67</v>
       </c>
       <c r="K1162">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L1162">
         <v>3.6</v>
       </c>
       <c r="M1162">
+        <v>3.3</v>
+      </c>
+      <c r="N1162">
+        <v>1.909</v>
+      </c>
+      <c r="O1162">
+        <v>3.6</v>
+      </c>
+      <c r="P1162">
         <v>3.5</v>
       </c>
-      <c r="N1162">
-        <v>2.25</v>
-      </c>
-      <c r="O1162">
-        <v>3.4</v>
-      </c>
-      <c r="P1162">
-        <v>2.875</v>
-      </c>
       <c r="Q1162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1162">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S1162">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T1162">
         <v>2.75</v>
@@ -103979,10 +103979,10 @@
         <v>2</v>
       </c>
       <c r="V1162">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W1162">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X1162">
         <v>-1</v>
@@ -103991,16 +103991,16 @@
         <v>-1</v>
       </c>
       <c r="Z1162">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1162">
         <v>-1</v>
       </c>
       <c r="AB1162">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC1162">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1163" spans="1:29">
@@ -104803,10 +104803,10 @@
         <v>-0.5</v>
       </c>
       <c r="R1172">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S1172">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T1172">
         <v>2.75</v>
@@ -104877,10 +104877,10 @@
         <v>-1</v>
       </c>
       <c r="R1173">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S1173">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T1173">
         <v>2.5</v>
@@ -104948,13 +104948,13 @@
         <v>2.75</v>
       </c>
       <c r="Q1174">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1174">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S1174">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T1174">
         <v>2.75</v>
@@ -105108,10 +105108,10 @@
         <v>2.75</v>
       </c>
       <c r="U1176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V1176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W1176">
         <v>0</v>
@@ -105161,13 +105161,13 @@
         <v>2.55</v>
       </c>
       <c r="N1177">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O1177">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P1177">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q1177">
         <v>0</v>
@@ -105179,7 +105179,7 @@
         <v>1.925</v>
       </c>
       <c r="T1177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1177">
         <v>1.825</v>
@@ -105256,10 +105256,10 @@
         <v>2.5</v>
       </c>
       <c r="U1178">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1178">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W1178">
         <v>0</v>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -50964,7 +50964,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>5212737</v>
+        <v>5212648</v>
       </c>
       <c r="C567" t="s">
         <v>28</v>
@@ -50976,58 +50976,58 @@
         <v>44765.375</v>
       </c>
       <c r="F567" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G567" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H567">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J567" t="s">
         <v>67</v>
       </c>
       <c r="K567">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L567">
         <v>3.5</v>
       </c>
       <c r="M567">
+        <v>3</v>
+      </c>
+      <c r="N567">
+        <v>1.7</v>
+      </c>
+      <c r="O567">
+        <v>3.75</v>
+      </c>
+      <c r="P567">
         <v>4.2</v>
-      </c>
-      <c r="N567">
-        <v>1.615</v>
-      </c>
-      <c r="O567">
-        <v>3.6</v>
-      </c>
-      <c r="P567">
-        <v>5</v>
       </c>
       <c r="Q567">
         <v>-0.75</v>
       </c>
       <c r="R567">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S567">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T567">
         <v>2.75</v>
       </c>
       <c r="U567">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V567">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W567">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X567">
         <v>-1</v>
@@ -51036,16 +51036,16 @@
         <v>-1</v>
       </c>
       <c r="Z567">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA567">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB567">
+        <v>-1</v>
+      </c>
+      <c r="AC567">
         <v>1</v>
-      </c>
-      <c r="AC567">
-        <v>-1</v>
       </c>
     </row>
     <row r="568" spans="1:29">
@@ -51053,7 +51053,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>5212648</v>
+        <v>5207931</v>
       </c>
       <c r="C568" t="s">
         <v>28</v>
@@ -51065,76 +51065,76 @@
         <v>44765.375</v>
       </c>
       <c r="F568" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G568" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I568">
+        <v>4</v>
+      </c>
+      <c r="J568" t="s">
+        <v>68</v>
+      </c>
+      <c r="K568">
+        <v>2.375</v>
+      </c>
+      <c r="L568">
+        <v>3.4</v>
+      </c>
+      <c r="M568">
+        <v>2.625</v>
+      </c>
+      <c r="N568">
+        <v>2.45</v>
+      </c>
+      <c r="O568">
+        <v>3.25</v>
+      </c>
+      <c r="P568">
+        <v>2.625</v>
+      </c>
+      <c r="Q568">
         <v>0</v>
       </c>
-      <c r="J568" t="s">
-        <v>67</v>
-      </c>
-      <c r="K568">
-        <v>2.15</v>
-      </c>
-      <c r="L568">
-        <v>3.5</v>
-      </c>
-      <c r="M568">
-        <v>3</v>
-      </c>
-      <c r="N568">
-        <v>1.7</v>
-      </c>
-      <c r="O568">
-        <v>3.75</v>
-      </c>
-      <c r="P568">
-        <v>4.2</v>
-      </c>
-      <c r="Q568">
-        <v>-0.75</v>
-      </c>
       <c r="R568">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S568">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T568">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U568">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V568">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W568">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X568">
         <v>-1</v>
       </c>
       <c r="Y568">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z568">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA568">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB568">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC568">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569" spans="1:29">
@@ -51142,7 +51142,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>5207931</v>
+        <v>5207401</v>
       </c>
       <c r="C569" t="s">
         <v>28</v>
@@ -51154,55 +51154,55 @@
         <v>44765.375</v>
       </c>
       <c r="F569" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G569" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H569">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I569">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J569" t="s">
         <v>68</v>
       </c>
       <c r="K569">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L569">
         <v>3.4</v>
       </c>
       <c r="M569">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N569">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O569">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P569">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q569">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R569">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S569">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T569">
         <v>2.5</v>
       </c>
       <c r="U569">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V569">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W569">
         <v>-1</v>
@@ -51211,16 +51211,16 @@
         <v>-1</v>
       </c>
       <c r="Y569">
-        <v>1.625</v>
+        <v>2.6</v>
       </c>
       <c r="Z569">
         <v>-1</v>
       </c>
       <c r="AA569">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB569">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC569">
         <v>-1</v>
@@ -51231,7 +51231,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>5207401</v>
+        <v>5212737</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51243,73 +51243,73 @@
         <v>44765.375</v>
       </c>
       <c r="F570" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G570" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H570">
+        <v>3</v>
+      </c>
+      <c r="I570">
         <v>1</v>
       </c>
-      <c r="I570">
+      <c r="J570" t="s">
+        <v>67</v>
+      </c>
+      <c r="K570">
+        <v>1.75</v>
+      </c>
+      <c r="L570">
+        <v>3.5</v>
+      </c>
+      <c r="M570">
+        <v>4.2</v>
+      </c>
+      <c r="N570">
+        <v>1.615</v>
+      </c>
+      <c r="O570">
+        <v>3.6</v>
+      </c>
+      <c r="P570">
         <v>5</v>
       </c>
-      <c r="J570" t="s">
-        <v>68</v>
-      </c>
-      <c r="K570">
-        <v>1.95</v>
-      </c>
-      <c r="L570">
-        <v>3.4</v>
-      </c>
-      <c r="M570">
-        <v>3.4</v>
-      </c>
-      <c r="N570">
-        <v>1.95</v>
-      </c>
-      <c r="O570">
-        <v>3.3</v>
-      </c>
-      <c r="P570">
-        <v>3.6</v>
-      </c>
       <c r="Q570">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R570">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S570">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T570">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U570">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V570">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W570">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X570">
         <v>-1</v>
       </c>
       <c r="Y570">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z570">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA570">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB570">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC570">
         <v>-1</v>
@@ -52922,7 +52922,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5207258</v>
+        <v>5207933</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52934,58 +52934,58 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F589" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G589" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H589">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I589">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J589" t="s">
         <v>67</v>
       </c>
       <c r="K589">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L589">
+        <v>4</v>
+      </c>
+      <c r="M589">
+        <v>4.75</v>
+      </c>
+      <c r="N589">
+        <v>1.833</v>
+      </c>
+      <c r="O589">
+        <v>3.6</v>
+      </c>
+      <c r="P589">
         <v>3.75</v>
       </c>
-      <c r="M589">
-        <v>5</v>
-      </c>
-      <c r="N589">
-        <v>1.7</v>
-      </c>
-      <c r="O589">
-        <v>3.75</v>
-      </c>
-      <c r="P589">
-        <v>4.5</v>
-      </c>
       <c r="Q589">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R589">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S589">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T589">
         <v>2.75</v>
       </c>
       <c r="U589">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V589">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W589">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X589">
         <v>-1</v>
@@ -52994,16 +52994,16 @@
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA589">
         <v>-1</v>
       </c>
       <c r="AB589">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53011,7 +53011,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>5207933</v>
+        <v>5212653</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -53023,13 +53023,13 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F590" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G590" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590">
         <v>0</v>
@@ -53038,40 +53038,40 @@
         <v>67</v>
       </c>
       <c r="K590">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="L590">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M590">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N590">
         <v>1.833</v>
       </c>
       <c r="O590">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P590">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q590">
         <v>-0.5</v>
       </c>
       <c r="R590">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S590">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T590">
         <v>2.75</v>
       </c>
       <c r="U590">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V590">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W590">
         <v>0.833</v>
@@ -53083,16 +53083,16 @@
         <v>-1</v>
       </c>
       <c r="Z590">
+        <v>0.8</v>
+      </c>
+      <c r="AA590">
+        <v>-1</v>
+      </c>
+      <c r="AB590">
+        <v>-1</v>
+      </c>
+      <c r="AC590">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA590">
-        <v>-1</v>
-      </c>
-      <c r="AB590">
-        <v>-1</v>
-      </c>
-      <c r="AC590">
-        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53100,7 +53100,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>5212653</v>
+        <v>5212740</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53112,76 +53112,76 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F591" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G591" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H591">
+        <v>0</v>
+      </c>
+      <c r="I591">
         <v>1</v>
       </c>
-      <c r="I591">
-        <v>0</v>
-      </c>
       <c r="J591" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K591">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L591">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M591">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N591">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O591">
         <v>3.4</v>
       </c>
       <c r="P591">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q591">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R591">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S591">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T591">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U591">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V591">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W591">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X591">
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z591">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA591">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB591">
         <v>-1</v>
       </c>
       <c r="AC591">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53189,7 +53189,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>5212740</v>
+        <v>5212741</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53201,76 +53201,76 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F592" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G592" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H592">
+        <v>1</v>
+      </c>
+      <c r="I592">
         <v>0</v>
       </c>
-      <c r="I592">
-        <v>1</v>
-      </c>
       <c r="J592" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K592">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L592">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M592">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N592">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O592">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P592">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q592">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R592">
+        <v>1.875</v>
+      </c>
+      <c r="S592">
         <v>1.925</v>
       </c>
-      <c r="S592">
-        <v>1.875</v>
-      </c>
       <c r="T592">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U592">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V592">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W592">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X592">
         <v>-1</v>
       </c>
       <c r="Y592">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z592">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA592">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB592">
         <v>-1</v>
       </c>
       <c r="AC592">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53278,7 +53278,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>5212741</v>
+        <v>5207258</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53290,58 +53290,58 @@
         <v>44783.58333333334</v>
       </c>
       <c r="F593" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G593" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H593">
+        <v>4</v>
+      </c>
+      <c r="I593">
         <v>1</v>
-      </c>
-      <c r="I593">
-        <v>0</v>
       </c>
       <c r="J593" t="s">
         <v>67</v>
       </c>
       <c r="K593">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L593">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M593">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N593">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O593">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P593">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q593">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R593">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S593">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T593">
         <v>2.75</v>
       </c>
       <c r="U593">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V593">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W593">
-        <v>0.833</v>
+        <v>0.7</v>
       </c>
       <c r="X593">
         <v>-1</v>
@@ -53350,16 +53350,16 @@
         <v>-1</v>
       </c>
       <c r="Z593">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA593">
         <v>-1</v>
       </c>
       <c r="AB593">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC593">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -53723,7 +53723,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5207407</v>
+        <v>5207257</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53735,13 +53735,13 @@
         <v>44786.375</v>
       </c>
       <c r="F598" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G598" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H598">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I598">
         <v>0</v>
@@ -53750,43 +53750,43 @@
         <v>67</v>
       </c>
       <c r="K598">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L598">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M598">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N598">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="O598">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P598">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q598">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R598">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S598">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T598">
         <v>2.75</v>
       </c>
       <c r="U598">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V598">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W598">
-        <v>0.6659999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="X598">
         <v>-1</v>
@@ -53795,16 +53795,16 @@
         <v>-1</v>
       </c>
       <c r="Z598">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA598">
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC598">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -53812,7 +53812,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>5207257</v>
+        <v>5207407</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53824,13 +53824,13 @@
         <v>44786.375</v>
       </c>
       <c r="F599" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G599" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I599">
         <v>0</v>
@@ -53839,43 +53839,43 @@
         <v>67</v>
       </c>
       <c r="K599">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L599">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M599">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N599">
+        <v>1.666</v>
+      </c>
+      <c r="O599">
         <v>3.8</v>
       </c>
-      <c r="O599">
-        <v>3.75</v>
-      </c>
       <c r="P599">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q599">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R599">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S599">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T599">
         <v>2.75</v>
       </c>
       <c r="U599">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V599">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W599">
-        <v>2.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X599">
         <v>-1</v>
@@ -53884,16 +53884,16 @@
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA599">
         <v>-1</v>
       </c>
       <c r="AB599">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC599">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -54346,7 +54346,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>5207411</v>
+        <v>5212659</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54358,76 +54358,76 @@
         <v>44793.375</v>
       </c>
       <c r="F605" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G605" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J605" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K605">
+        <v>2.3</v>
+      </c>
+      <c r="L605">
         <v>3.3</v>
       </c>
-      <c r="L605">
+      <c r="M605">
+        <v>2.8</v>
+      </c>
+      <c r="N605">
+        <v>2.15</v>
+      </c>
+      <c r="O605">
         <v>3.4</v>
       </c>
-      <c r="M605">
-        <v>2</v>
-      </c>
-      <c r="N605">
-        <v>2.5</v>
-      </c>
-      <c r="O605">
-        <v>3.2</v>
-      </c>
       <c r="P605">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q605">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R605">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S605">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T605">
         <v>2.5</v>
       </c>
       <c r="U605">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V605">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W605">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X605">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y605">
         <v>-1</v>
       </c>
       <c r="Z605">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA605">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB605">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC605">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54435,7 +54435,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5212657</v>
+        <v>5212658</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54447,34 +54447,34 @@
         <v>44793.375</v>
       </c>
       <c r="F606" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G606" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J606" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K606">
-        <v>1.952</v>
+        <v>2.375</v>
       </c>
       <c r="L606">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M606">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N606">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O606">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P606">
         <v>3.8</v>
@@ -54483,40 +54483,40 @@
         <v>-0.5</v>
       </c>
       <c r="R606">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S606">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T606">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U606">
+        <v>1.85</v>
+      </c>
+      <c r="V606">
         <v>1.95</v>
       </c>
-      <c r="V606">
-        <v>1.85</v>
-      </c>
       <c r="W606">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X606">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y606">
         <v>-1</v>
       </c>
       <c r="Z606">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA606">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB606">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC606">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -54524,7 +54524,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5212658</v>
+        <v>5207411</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54536,76 +54536,76 @@
         <v>44793.375</v>
       </c>
       <c r="F607" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G607" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J607" t="s">
         <v>66</v>
       </c>
       <c r="K607">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L607">
+        <v>3.4</v>
+      </c>
+      <c r="M607">
+        <v>2</v>
+      </c>
+      <c r="N607">
+        <v>2.5</v>
+      </c>
+      <c r="O607">
         <v>3.2</v>
       </c>
-      <c r="M607">
-        <v>2.75</v>
-      </c>
-      <c r="N607">
-        <v>1.85</v>
-      </c>
-      <c r="O607">
-        <v>3.3</v>
-      </c>
       <c r="P607">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q607">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R607">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S607">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T607">
         <v>2.5</v>
       </c>
       <c r="U607">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V607">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W607">
         <v>-1</v>
       </c>
       <c r="X607">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y607">
         <v>-1</v>
       </c>
       <c r="Z607">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA607">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB607">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC607">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54613,7 +54613,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5212659</v>
+        <v>5212657</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54625,58 +54625,58 @@
         <v>44793.375</v>
       </c>
       <c r="F608" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G608" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H608">
+        <v>2</v>
+      </c>
+      <c r="I608">
         <v>1</v>
-      </c>
-      <c r="I608">
-        <v>0</v>
       </c>
       <c r="J608" t="s">
         <v>67</v>
       </c>
       <c r="K608">
-        <v>2.3</v>
+        <v>1.952</v>
       </c>
       <c r="L608">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M608">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N608">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O608">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P608">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q608">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R608">
+        <v>1.9</v>
+      </c>
+      <c r="S608">
+        <v>1.9</v>
+      </c>
+      <c r="T608">
+        <v>2.75</v>
+      </c>
+      <c r="U608">
         <v>1.95</v>
       </c>
-      <c r="S608">
+      <c r="V608">
         <v>1.85</v>
       </c>
-      <c r="T608">
-        <v>2.5</v>
-      </c>
-      <c r="U608">
-        <v>1.85</v>
-      </c>
-      <c r="V608">
-        <v>1.95</v>
-      </c>
       <c r="W608">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X608">
         <v>-1</v>
@@ -54685,16 +54685,16 @@
         <v>-1</v>
       </c>
       <c r="Z608">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA608">
         <v>-1</v>
       </c>
       <c r="AB608">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC608">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -56482,7 +56482,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5207254</v>
+        <v>5207415</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56494,58 +56494,58 @@
         <v>44807.375</v>
       </c>
       <c r="F629" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G629" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I629">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J629" t="s">
         <v>67</v>
       </c>
       <c r="K629">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="L629">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M629">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="N629">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="O629">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P629">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q629">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R629">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S629">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T629">
         <v>2.75</v>
       </c>
       <c r="U629">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V629">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W629">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="X629">
         <v>-1</v>
@@ -56554,16 +56554,16 @@
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA629">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB629">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC629">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -56571,7 +56571,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>5207415</v>
+        <v>5207254</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56583,58 +56583,58 @@
         <v>44807.375</v>
       </c>
       <c r="F630" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G630" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H630">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I630">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J630" t="s">
         <v>67</v>
       </c>
       <c r="K630">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="L630">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M630">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="N630">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="O630">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P630">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q630">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R630">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S630">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T630">
         <v>2.75</v>
       </c>
       <c r="U630">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V630">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W630">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X630">
         <v>-1</v>
@@ -56643,16 +56643,16 @@
         <v>-1</v>
       </c>
       <c r="Z630">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA630">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB630">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC630">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="631" spans="1:29">
@@ -58262,7 +58262,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>5212669</v>
+        <v>5207252</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58274,76 +58274,76 @@
         <v>44821.375</v>
       </c>
       <c r="F649" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G649" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H649">
         <v>1</v>
       </c>
       <c r="I649">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J649" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K649">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L649">
         <v>3.5</v>
       </c>
       <c r="M649">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N649">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O649">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P649">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q649">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R649">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S649">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T649">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U649">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V649">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W649">
         <v>-1</v>
       </c>
       <c r="X649">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y649">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z649">
         <v>-1</v>
       </c>
       <c r="AA649">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB649">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC649">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -58351,7 +58351,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>5207252</v>
+        <v>5212669</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58363,76 +58363,76 @@
         <v>44821.375</v>
       </c>
       <c r="F650" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G650" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H650">
         <v>1</v>
       </c>
       <c r="I650">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J650" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K650">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L650">
         <v>3.5</v>
       </c>
       <c r="M650">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N650">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O650">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P650">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q650">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R650">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S650">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T650">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U650">
+        <v>1.9</v>
+      </c>
+      <c r="V650">
+        <v>1.9</v>
+      </c>
+      <c r="W650">
+        <v>-1</v>
+      </c>
+      <c r="X650">
+        <v>-1</v>
+      </c>
+      <c r="Y650">
         <v>1.8</v>
       </c>
-      <c r="V650">
-        <v>2</v>
-      </c>
-      <c r="W650">
-        <v>-1</v>
-      </c>
-      <c r="X650">
-        <v>2.6</v>
-      </c>
-      <c r="Y650">
-        <v>-1</v>
-      </c>
       <c r="Z650">
         <v>-1</v>
       </c>
       <c r="AA650">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB650">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC650">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -59953,7 +59953,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5207427</v>
+        <v>5207426</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59965,40 +59965,40 @@
         <v>44842.375</v>
       </c>
       <c r="F668" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G668" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H668">
+        <v>1</v>
+      </c>
+      <c r="I668">
         <v>3</v>
       </c>
-      <c r="I668">
+      <c r="J668" t="s">
+        <v>68</v>
+      </c>
+      <c r="K668">
+        <v>2.3</v>
+      </c>
+      <c r="L668">
+        <v>3.4</v>
+      </c>
+      <c r="M668">
+        <v>2.8</v>
+      </c>
+      <c r="N668">
+        <v>2.625</v>
+      </c>
+      <c r="O668">
+        <v>3.3</v>
+      </c>
+      <c r="P668">
+        <v>2.45</v>
+      </c>
+      <c r="Q668">
         <v>0</v>
-      </c>
-      <c r="J668" t="s">
-        <v>67</v>
-      </c>
-      <c r="K668">
-        <v>1.6</v>
-      </c>
-      <c r="L668">
-        <v>4</v>
-      </c>
-      <c r="M668">
-        <v>4.75</v>
-      </c>
-      <c r="N668">
-        <v>1.571</v>
-      </c>
-      <c r="O668">
-        <v>4.2</v>
-      </c>
-      <c r="P668">
-        <v>4.333</v>
-      </c>
-      <c r="Q668">
-        <v>-1</v>
       </c>
       <c r="R668">
         <v>2</v>
@@ -60007,34 +60007,34 @@
         <v>1.8</v>
       </c>
       <c r="T668">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U668">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V668">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W668">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X668">
         <v>-1</v>
       </c>
       <c r="Y668">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z668">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA668">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB668">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC668">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -60042,7 +60042,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>5207426</v>
+        <v>5207427</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60054,40 +60054,40 @@
         <v>44842.375</v>
       </c>
       <c r="F669" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G669" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I669">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J669" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K669">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L669">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M669">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N669">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O669">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P669">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q669">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R669">
         <v>2</v>
@@ -60096,34 +60096,34 @@
         <v>1.8</v>
       </c>
       <c r="T669">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U669">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V669">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W669">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X669">
         <v>-1</v>
       </c>
       <c r="Y669">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z669">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA669">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB669">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC669">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="670" spans="1:29">
@@ -61644,7 +61644,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>5212482</v>
+        <v>5207940</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61656,73 +61656,73 @@
         <v>44856.375</v>
       </c>
       <c r="F687" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G687" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H687">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I687">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J687" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K687">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L687">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M687">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N687">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O687">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P687">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q687">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R687">
+        <v>1.95</v>
+      </c>
+      <c r="S687">
+        <v>1.85</v>
+      </c>
+      <c r="T687">
+        <v>2.5</v>
+      </c>
+      <c r="U687">
         <v>1.9</v>
       </c>
-      <c r="S687">
+      <c r="V687">
         <v>1.9</v>
       </c>
-      <c r="T687">
-        <v>2.75</v>
-      </c>
-      <c r="U687">
-        <v>1.825</v>
-      </c>
-      <c r="V687">
-        <v>1.975</v>
-      </c>
       <c r="W687">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X687">
         <v>-1</v>
       </c>
       <c r="Y687">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z687">
+        <v>-1</v>
+      </c>
+      <c r="AA687">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB687">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA687">
-        <v>-1</v>
-      </c>
-      <c r="AB687">
-        <v>0.825</v>
       </c>
       <c r="AC687">
         <v>-1</v>
@@ -61733,7 +61733,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>5207940</v>
+        <v>5207434</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61745,73 +61745,73 @@
         <v>44856.375</v>
       </c>
       <c r="F688" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G688" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H688">
+        <v>4</v>
+      </c>
+      <c r="I688">
         <v>1</v>
       </c>
-      <c r="I688">
-        <v>2</v>
-      </c>
       <c r="J688" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K688">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L688">
+        <v>3.75</v>
+      </c>
+      <c r="M688">
+        <v>3</v>
+      </c>
+      <c r="N688">
+        <v>1.909</v>
+      </c>
+      <c r="O688">
+        <v>3.8</v>
+      </c>
+      <c r="P688">
+        <v>3.1</v>
+      </c>
+      <c r="Q688">
+        <v>-0.5</v>
+      </c>
+      <c r="R688">
+        <v>1.925</v>
+      </c>
+      <c r="S688">
+        <v>1.875</v>
+      </c>
+      <c r="T688">
         <v>3.25</v>
       </c>
-      <c r="M688">
-        <v>2.8</v>
-      </c>
-      <c r="N688">
-        <v>2.15</v>
-      </c>
-      <c r="O688">
-        <v>3.25</v>
-      </c>
-      <c r="P688">
-        <v>2.9</v>
-      </c>
-      <c r="Q688">
-        <v>-0.25</v>
-      </c>
-      <c r="R688">
-        <v>1.95</v>
-      </c>
-      <c r="S688">
-        <v>1.85</v>
-      </c>
-      <c r="T688">
-        <v>2.5</v>
-      </c>
       <c r="U688">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V688">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W688">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X688">
         <v>-1</v>
       </c>
       <c r="Y688">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z688">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA688">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB688">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC688">
         <v>-1</v>
@@ -61822,7 +61822,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>5207434</v>
+        <v>5207433</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61834,73 +61834,73 @@
         <v>44856.375</v>
       </c>
       <c r="F689" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G689" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H689">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I689">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J689" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K689">
         <v>2</v>
       </c>
       <c r="L689">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M689">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N689">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O689">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P689">
         <v>3.1</v>
       </c>
       <c r="Q689">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R689">
+        <v>1.875</v>
+      </c>
+      <c r="S689">
         <v>1.925</v>
       </c>
-      <c r="S689">
-        <v>1.875</v>
-      </c>
       <c r="T689">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U689">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V689">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W689">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X689">
         <v>-1</v>
       </c>
       <c r="Y689">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z689">
+        <v>-1</v>
+      </c>
+      <c r="AA689">
         <v>0.925</v>
       </c>
-      <c r="AA689">
-        <v>-1</v>
-      </c>
       <c r="AB689">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC689">
         <v>-1</v>
@@ -61911,7 +61911,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>5207433</v>
+        <v>5212482</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61923,19 +61923,19 @@
         <v>44856.375</v>
       </c>
       <c r="F690" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G690" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H690">
+        <v>3</v>
+      </c>
+      <c r="I690">
         <v>1</v>
       </c>
-      <c r="I690">
-        <v>2</v>
-      </c>
       <c r="J690" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K690">
         <v>2</v>
@@ -61944,52 +61944,52 @@
         <v>3.3</v>
       </c>
       <c r="M690">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N690">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O690">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P690">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q690">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R690">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S690">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T690">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U690">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V690">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W690">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X690">
         <v>-1</v>
       </c>
       <c r="Y690">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z690">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA690">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB690">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC690">
         <v>-1</v>
@@ -64136,7 +64136,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>5212688</v>
+        <v>5212757</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64148,10 +64148,10 @@
         <v>44873.625</v>
       </c>
       <c r="F715" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G715" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H715">
         <v>0</v>
@@ -64163,7 +64163,7 @@
         <v>68</v>
       </c>
       <c r="K715">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L715">
         <v>3.25</v>
@@ -64172,31 +64172,31 @@
         <v>2.75</v>
       </c>
       <c r="N715">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O715">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P715">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q715">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R715">
+        <v>2</v>
+      </c>
+      <c r="S715">
         <v>1.8</v>
       </c>
-      <c r="S715">
-        <v>2</v>
-      </c>
       <c r="T715">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U715">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V715">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W715">
         <v>-1</v>
@@ -64205,19 +64205,19 @@
         <v>-1</v>
       </c>
       <c r="Y715">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="Z715">
         <v>-1</v>
       </c>
       <c r="AA715">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB715">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC715">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="716" spans="1:29">
@@ -64403,7 +64403,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>5212757</v>
+        <v>5212688</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64415,10 +64415,10 @@
         <v>44873.625</v>
       </c>
       <c r="F718" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G718" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H718">
         <v>0</v>
@@ -64430,7 +64430,7 @@
         <v>68</v>
       </c>
       <c r="K718">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L718">
         <v>3.25</v>
@@ -64439,31 +64439,31 @@
         <v>2.75</v>
       </c>
       <c r="N718">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O718">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P718">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q718">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R718">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S718">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T718">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U718">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V718">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W718">
         <v>-1</v>
@@ -64472,19 +64472,19 @@
         <v>-1</v>
       </c>
       <c r="Y718">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="Z718">
         <v>-1</v>
       </c>
       <c r="AA718">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB718">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC718">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="719" spans="1:29">
@@ -66005,7 +66005,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5212760</v>
+        <v>5207445</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -66017,58 +66017,58 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F736" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G736" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H736">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I736">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J736" t="s">
         <v>67</v>
       </c>
       <c r="K736">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L736">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M736">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N736">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O736">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P736">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q736">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R736">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S736">
+        <v>1.85</v>
+      </c>
+      <c r="T736">
+        <v>3</v>
+      </c>
+      <c r="U736">
+        <v>2.025</v>
+      </c>
+      <c r="V736">
         <v>1.825</v>
       </c>
-      <c r="T736">
-        <v>2.75</v>
-      </c>
-      <c r="U736">
-        <v>1.925</v>
-      </c>
-      <c r="V736">
-        <v>1.875</v>
-      </c>
       <c r="W736">
-        <v>0.909</v>
+        <v>1.75</v>
       </c>
       <c r="X736">
         <v>-1</v>
@@ -66077,16 +66077,16 @@
         <v>-1</v>
       </c>
       <c r="Z736">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA736">
         <v>-1</v>
       </c>
       <c r="AB736">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC736">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="737" spans="1:29">
@@ -66094,7 +66094,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>5207446</v>
+        <v>5212760</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66106,76 +66106,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F737" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G737" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I737">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J737" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K737">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L737">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M737">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N737">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O737">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P737">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q737">
         <v>-0.5</v>
       </c>
       <c r="R737">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S737">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T737">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U737">
+        <v>1.925</v>
+      </c>
+      <c r="V737">
         <v>1.875</v>
       </c>
-      <c r="V737">
-        <v>1.975</v>
-      </c>
       <c r="W737">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X737">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y737">
         <v>-1</v>
       </c>
       <c r="Z737">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA737">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB737">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC737">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66183,7 +66183,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5212489</v>
+        <v>5212692</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66195,73 +66195,73 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F738" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G738" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H738">
+        <v>2</v>
+      </c>
+      <c r="I738">
         <v>3</v>
       </c>
-      <c r="I738">
-        <v>1</v>
-      </c>
       <c r="J738" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K738">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L738">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M738">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N738">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O738">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P738">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q738">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R738">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S738">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T738">
         <v>2.5</v>
       </c>
       <c r="U738">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V738">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W738">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z738">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA738">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB738">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC738">
         <v>-1</v>
@@ -66272,7 +66272,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5207445</v>
+        <v>5212489</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66284,58 +66284,58 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F739" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G739" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H739">
+        <v>3</v>
+      </c>
+      <c r="I739">
         <v>1</v>
-      </c>
-      <c r="I739">
-        <v>0</v>
       </c>
       <c r="J739" t="s">
         <v>67</v>
       </c>
       <c r="K739">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L739">
         <v>3.4</v>
       </c>
       <c r="M739">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N739">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O739">
         <v>3.3</v>
       </c>
       <c r="P739">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q739">
         <v>0</v>
       </c>
       <c r="R739">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S739">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T739">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U739">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V739">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W739">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66344,16 +66344,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA739">
         <v>-1</v>
       </c>
       <c r="AB739">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC739">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66361,7 +66361,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5212692</v>
+        <v>5207446</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66373,28 +66373,28 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F740" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G740" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J740" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K740">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L740">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M740">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N740">
         <v>1.8</v>
@@ -66403,46 +66403,46 @@
         <v>3.5</v>
       </c>
       <c r="P740">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q740">
         <v>-0.5</v>
       </c>
       <c r="R740">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S740">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T740">
         <v>2.5</v>
       </c>
       <c r="U740">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V740">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W740">
         <v>-1</v>
       </c>
       <c r="X740">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y740">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z740">
         <v>-1</v>
       </c>
       <c r="AA740">
+        <v>1</v>
+      </c>
+      <c r="AB740">
+        <v>-1</v>
+      </c>
+      <c r="AC740">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB740">
-        <v>0.8</v>
-      </c>
-      <c r="AC740">
-        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -68586,7 +68586,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>5207947</v>
+        <v>5212492</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68598,76 +68598,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F765" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G765" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H765">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I765">
         <v>1</v>
       </c>
       <c r="J765" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K765">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L765">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M765">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N765">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O765">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P765">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q765">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R765">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S765">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T765">
         <v>2.5</v>
       </c>
       <c r="U765">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V765">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W765">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X765">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y765">
         <v>-1</v>
       </c>
       <c r="Z765">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA765">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB765">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC765">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68675,7 +68675,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>5212700</v>
+        <v>5207947</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68687,46 +68687,46 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F766" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G766" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H766">
+        <v>7</v>
+      </c>
+      <c r="I766">
         <v>1</v>
       </c>
-      <c r="I766">
-        <v>2</v>
-      </c>
       <c r="J766" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K766">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L766">
+        <v>3.5</v>
+      </c>
+      <c r="M766">
+        <v>4.2</v>
+      </c>
+      <c r="N766">
+        <v>1.6</v>
+      </c>
+      <c r="O766">
         <v>3.6</v>
       </c>
-      <c r="M766">
-        <v>4.333</v>
-      </c>
-      <c r="N766">
-        <v>1.85</v>
-      </c>
-      <c r="O766">
-        <v>3.5</v>
-      </c>
       <c r="P766">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q766">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R766">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S766">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T766">
         <v>2.5</v>
@@ -68738,19 +68738,19 @@
         <v>1.9</v>
       </c>
       <c r="W766">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z766">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA766">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB766">
         <v>0.8999999999999999</v>
@@ -68764,7 +68764,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5212766</v>
+        <v>5212700</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68776,76 +68776,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F767" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G767" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H767">
         <v>1</v>
       </c>
       <c r="I767">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J767" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K767">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L767">
         <v>3.6</v>
       </c>
       <c r="M767">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N767">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O767">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P767">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q767">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R767">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S767">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T767">
+        <v>2.5</v>
+      </c>
+      <c r="U767">
+        <v>1.9</v>
+      </c>
+      <c r="V767">
+        <v>1.9</v>
+      </c>
+      <c r="W767">
+        <v>-1</v>
+      </c>
+      <c r="X767">
+        <v>-1</v>
+      </c>
+      <c r="Y767">
         <v>2.75</v>
       </c>
-      <c r="U767">
-        <v>1.775</v>
-      </c>
-      <c r="V767">
-        <v>2.025</v>
-      </c>
-      <c r="W767">
-        <v>-1</v>
-      </c>
-      <c r="X767">
-        <v>2.8</v>
-      </c>
-      <c r="Y767">
-        <v>-1</v>
-      </c>
       <c r="Z767">
         <v>-1</v>
       </c>
       <c r="AA767">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB767">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC767">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68853,7 +68853,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>5207455</v>
+        <v>5212766</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68865,76 +68865,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F768" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G768" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I768">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J768" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K768">
+        <v>1.833</v>
+      </c>
+      <c r="L768">
+        <v>3.6</v>
+      </c>
+      <c r="M768">
+        <v>3.8</v>
+      </c>
+      <c r="N768">
+        <v>1.7</v>
+      </c>
+      <c r="O768">
+        <v>3.8</v>
+      </c>
+      <c r="P768">
+        <v>4.333</v>
+      </c>
+      <c r="Q768">
+        <v>-0.75</v>
+      </c>
+      <c r="R768">
+        <v>1.95</v>
+      </c>
+      <c r="S768">
+        <v>1.85</v>
+      </c>
+      <c r="T768">
         <v>2.75</v>
       </c>
-      <c r="L768">
-        <v>3.3</v>
-      </c>
-      <c r="M768">
-        <v>2.45</v>
-      </c>
-      <c r="N768">
-        <v>3.1</v>
-      </c>
-      <c r="O768">
-        <v>3.5</v>
-      </c>
-      <c r="P768">
-        <v>2.2</v>
-      </c>
-      <c r="Q768">
-        <v>0.25</v>
-      </c>
-      <c r="R768">
-        <v>1.825</v>
-      </c>
-      <c r="S768">
-        <v>1.975</v>
-      </c>
-      <c r="T768">
-        <v>3</v>
-      </c>
       <c r="U768">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V768">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W768">
         <v>-1</v>
       </c>
       <c r="X768">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y768">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z768">
         <v>-1</v>
       </c>
       <c r="AA768">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB768">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC768">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68942,7 +68942,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>5212767</v>
+        <v>5207455</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68954,40 +68954,40 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F769" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G769" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H769">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J769" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K769">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L769">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M769">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N769">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O769">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P769">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q769">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R769">
         <v>1.825</v>
@@ -68999,28 +68999,28 @@
         <v>3</v>
       </c>
       <c r="U769">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V769">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W769">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X769">
         <v>-1</v>
       </c>
       <c r="Y769">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z769">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA769">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB769">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -69031,7 +69031,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>5212492</v>
+        <v>5212767</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69043,76 +69043,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F770" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G770" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I770">
         <v>1</v>
       </c>
       <c r="J770" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K770">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L770">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M770">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N770">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O770">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P770">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q770">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R770">
+        <v>1.825</v>
+      </c>
+      <c r="S770">
         <v>1.975</v>
       </c>
-      <c r="S770">
-        <v>1.825</v>
-      </c>
       <c r="T770">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U770">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V770">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W770">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X770">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y770">
         <v>-1</v>
       </c>
       <c r="Z770">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA770">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB770">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC770">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -70366,7 +70366,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>5207238</v>
+        <v>5207460</v>
       </c>
       <c r="C785" t="s">
         <v>28</v>
@@ -70378,55 +70378,55 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F785" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G785" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J785" t="s">
         <v>68</v>
       </c>
       <c r="K785">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L785">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M785">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="N785">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O785">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P785">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="Q785">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R785">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S785">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T785">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U785">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V785">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W785">
         <v>-1</v>
@@ -70435,19 +70435,19 @@
         <v>-1</v>
       </c>
       <c r="Y785">
-        <v>7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z785">
         <v>-1</v>
       </c>
       <c r="AA785">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB785">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC785">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="786" spans="1:29">
@@ -70811,7 +70811,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5207460</v>
+        <v>5207238</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70823,55 +70823,55 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F790" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G790" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J790" t="s">
         <v>68</v>
       </c>
       <c r="K790">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L790">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M790">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="N790">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="O790">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P790">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q790">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R790">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S790">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T790">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U790">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V790">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W790">
         <v>-1</v>
@@ -70880,19 +70880,19 @@
         <v>-1</v>
       </c>
       <c r="Y790">
-        <v>0.7270000000000001</v>
+        <v>7</v>
       </c>
       <c r="Z790">
         <v>-1</v>
       </c>
       <c r="AA790">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB790">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC790">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="791" spans="1:29">
@@ -80156,7 +80156,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>5465119</v>
+        <v>5465167</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80168,73 +80168,73 @@
         <v>45045.375</v>
       </c>
       <c r="F895" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G895" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H895">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J895" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K895">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L895">
         <v>3.3</v>
       </c>
       <c r="M895">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N895">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O895">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P895">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q895">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R895">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S895">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T895">
         <v>3</v>
       </c>
       <c r="U895">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V895">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W895">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X895">
         <v>-1</v>
       </c>
       <c r="Y895">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z895">
+        <v>-1</v>
+      </c>
+      <c r="AA895">
+        <v>1.025</v>
+      </c>
+      <c r="AB895">
         <v>1</v>
-      </c>
-      <c r="AA895">
-        <v>-1</v>
-      </c>
-      <c r="AB895">
-        <v>0.925</v>
       </c>
       <c r="AC895">
         <v>-1</v>
@@ -80245,7 +80245,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>5465120</v>
+        <v>5465166</v>
       </c>
       <c r="C896" t="s">
         <v>28</v>
@@ -80257,76 +80257,76 @@
         <v>45045.375</v>
       </c>
       <c r="F896" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G896" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I896">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J896" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K896">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="L896">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M896">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N896">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O896">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P896">
+        <v>2.9</v>
+      </c>
+      <c r="Q896">
+        <v>-0.25</v>
+      </c>
+      <c r="R896">
+        <v>2.05</v>
+      </c>
+      <c r="S896">
         <v>1.8</v>
       </c>
-      <c r="Q896">
-        <v>0.5</v>
-      </c>
-      <c r="R896">
-        <v>2</v>
-      </c>
-      <c r="S896">
-        <v>1.85</v>
-      </c>
       <c r="T896">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U896">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V896">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W896">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X896">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y896">
         <v>-1</v>
       </c>
       <c r="Z896">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA896">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB896">
         <v>-1</v>
       </c>
       <c r="AC896">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="897" spans="1:29">
@@ -80334,7 +80334,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>5465166</v>
+        <v>5465120</v>
       </c>
       <c r="C897" t="s">
         <v>28</v>
@@ -80346,76 +80346,76 @@
         <v>45045.375</v>
       </c>
       <c r="F897" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G897" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H897">
+        <v>2</v>
+      </c>
+      <c r="I897">
+        <v>0</v>
+      </c>
+      <c r="J897" t="s">
+        <v>67</v>
+      </c>
+      <c r="K897">
+        <v>3.8</v>
+      </c>
+      <c r="L897">
+        <v>3.75</v>
+      </c>
+      <c r="M897">
+        <v>1.833</v>
+      </c>
+      <c r="N897">
+        <v>4</v>
+      </c>
+      <c r="O897">
+        <v>3.8</v>
+      </c>
+      <c r="P897">
+        <v>1.8</v>
+      </c>
+      <c r="Q897">
+        <v>0.5</v>
+      </c>
+      <c r="R897">
+        <v>2</v>
+      </c>
+      <c r="S897">
+        <v>1.85</v>
+      </c>
+      <c r="T897">
+        <v>3</v>
+      </c>
+      <c r="U897">
+        <v>2.025</v>
+      </c>
+      <c r="V897">
+        <v>1.825</v>
+      </c>
+      <c r="W897">
+        <v>3</v>
+      </c>
+      <c r="X897">
+        <v>-1</v>
+      </c>
+      <c r="Y897">
+        <v>-1</v>
+      </c>
+      <c r="Z897">
         <v>1</v>
       </c>
-      <c r="I897">
-        <v>1</v>
-      </c>
-      <c r="J897" t="s">
-        <v>66</v>
-      </c>
-      <c r="K897">
-        <v>2.3</v>
-      </c>
-      <c r="L897">
-        <v>3.25</v>
-      </c>
-      <c r="M897">
-        <v>3</v>
-      </c>
-      <c r="N897">
-        <v>2.375</v>
-      </c>
-      <c r="O897">
-        <v>3.25</v>
-      </c>
-      <c r="P897">
-        <v>2.9</v>
-      </c>
-      <c r="Q897">
-        <v>-0.25</v>
-      </c>
-      <c r="R897">
-        <v>2.05</v>
-      </c>
-      <c r="S897">
-        <v>1.8</v>
-      </c>
-      <c r="T897">
-        <v>2.5</v>
-      </c>
-      <c r="U897">
-        <v>1.925</v>
-      </c>
-      <c r="V897">
-        <v>1.925</v>
-      </c>
-      <c r="W897">
-        <v>-1</v>
-      </c>
-      <c r="X897">
-        <v>2.25</v>
-      </c>
-      <c r="Y897">
-        <v>-1</v>
-      </c>
-      <c r="Z897">
-        <v>-0.5</v>
-      </c>
       <c r="AA897">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB897">
         <v>-1</v>
       </c>
       <c r="AC897">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="898" spans="1:29">
@@ -80423,7 +80423,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>5465167</v>
+        <v>5465119</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80435,73 +80435,73 @@
         <v>45045.375</v>
       </c>
       <c r="F898" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G898" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I898">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J898" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K898">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L898">
         <v>3.3</v>
       </c>
       <c r="M898">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N898">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O898">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P898">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q898">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R898">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S898">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T898">
         <v>3</v>
       </c>
       <c r="U898">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V898">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W898">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X898">
         <v>-1</v>
       </c>
       <c r="Y898">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z898">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA898">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB898">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC898">
         <v>-1</v>
@@ -101605,7 +101605,7 @@
         <v>1134</v>
       </c>
       <c r="B1136">
-        <v>6881675</v>
+        <v>6880522</v>
       </c>
       <c r="C1136" t="s">
         <v>28</v>
@@ -101617,40 +101617,40 @@
         <v>45280.625</v>
       </c>
       <c r="F1136" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G1136" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I1136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1136">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L1136">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M1136">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N1136">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O1136">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P1136">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q1136">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1136">
         <v>1.95</v>
@@ -101659,34 +101659,34 @@
         <v>1.85</v>
       </c>
       <c r="T1136">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U1136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V1136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W1136">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X1136">
         <v>-1</v>
       </c>
       <c r="Y1136">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA1136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1137" spans="1:29">
@@ -101694,7 +101694,7 @@
         <v>1135</v>
       </c>
       <c r="B1137">
-        <v>6880342</v>
+        <v>6881679</v>
       </c>
       <c r="C1137" t="s">
         <v>28</v>
@@ -101706,76 +101706,76 @@
         <v>45280.625</v>
       </c>
       <c r="F1137" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G1137" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H1137">
         <v>1</v>
       </c>
       <c r="I1137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1137">
+        <v>2</v>
+      </c>
+      <c r="L1137">
+        <v>3.75</v>
+      </c>
+      <c r="M1137">
+        <v>3.4</v>
+      </c>
+      <c r="N1137">
+        <v>2.05</v>
+      </c>
+      <c r="O1137">
+        <v>3.6</v>
+      </c>
+      <c r="P1137">
+        <v>3.25</v>
+      </c>
+      <c r="Q1137">
+        <v>-0.25</v>
+      </c>
+      <c r="R1137">
+        <v>1.825</v>
+      </c>
+      <c r="S1137">
+        <v>1.975</v>
+      </c>
+      <c r="T1137">
+        <v>2.75</v>
+      </c>
+      <c r="U1137">
+        <v>1.825</v>
+      </c>
+      <c r="V1137">
+        <v>1.975</v>
+      </c>
+      <c r="W1137">
+        <v>-1</v>
+      </c>
+      <c r="X1137">
         <v>2.6</v>
       </c>
-      <c r="L1137">
-        <v>3.4</v>
-      </c>
-      <c r="M1137">
-        <v>2.625</v>
-      </c>
-      <c r="N1137">
-        <v>2.8</v>
-      </c>
-      <c r="O1137">
-        <v>3.4</v>
-      </c>
-      <c r="P1137">
-        <v>2.45</v>
-      </c>
-      <c r="Q1137">
-        <v>0</v>
-      </c>
-      <c r="R1137">
-        <v>2</v>
-      </c>
-      <c r="S1137">
-        <v>1.8</v>
-      </c>
-      <c r="T1137">
-        <v>2.5</v>
-      </c>
-      <c r="U1137">
-        <v>1.875</v>
-      </c>
-      <c r="V1137">
-        <v>1.925</v>
-      </c>
-      <c r="W1137">
-        <v>1.8</v>
-      </c>
-      <c r="X1137">
-        <v>-1</v>
-      </c>
       <c r="Y1137">
         <v>-1</v>
       </c>
       <c r="Z1137">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1137">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB1137">
         <v>-1</v>
       </c>
       <c r="AC1137">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="1138" spans="1:29">
@@ -101783,7 +101783,7 @@
         <v>1136</v>
       </c>
       <c r="B1138">
-        <v>6881679</v>
+        <v>6881675</v>
       </c>
       <c r="C1138" t="s">
         <v>28</v>
@@ -101795,76 +101795,76 @@
         <v>45280.625</v>
       </c>
       <c r="F1138" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G1138" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1138">
         <v>1</v>
       </c>
       <c r="J1138" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1138">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L1138">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M1138">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N1138">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O1138">
         <v>3.6</v>
       </c>
       <c r="P1138">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q1138">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1138">
+        <v>1.95</v>
+      </c>
+      <c r="S1138">
+        <v>1.85</v>
+      </c>
+      <c r="T1138">
+        <v>3</v>
+      </c>
+      <c r="U1138">
+        <v>1.975</v>
+      </c>
+      <c r="V1138">
         <v>1.825</v>
       </c>
-      <c r="S1138">
-        <v>1.975</v>
-      </c>
-      <c r="T1138">
-        <v>2.75</v>
-      </c>
-      <c r="U1138">
-        <v>1.825</v>
-      </c>
-      <c r="V1138">
-        <v>1.975</v>
-      </c>
       <c r="W1138">
         <v>-1</v>
       </c>
       <c r="X1138">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1138">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z1138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1138">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1138">
         <v>-1</v>
       </c>
       <c r="AC1138">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1139" spans="1:29">
@@ -101872,7 +101872,7 @@
         <v>1137</v>
       </c>
       <c r="B1139">
-        <v>6880522</v>
+        <v>6880342</v>
       </c>
       <c r="C1139" t="s">
         <v>28</v>
@@ -101884,58 +101884,58 @@
         <v>45280.625</v>
       </c>
       <c r="F1139" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G1139" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H1139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1139" t="s">
         <v>67</v>
       </c>
       <c r="K1139">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="L1139">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M1139">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N1139">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="O1139">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P1139">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q1139">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S1139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T1139">
         <v>2.5</v>
       </c>
       <c r="U1139">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1139">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W1139">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X1139">
         <v>-1</v>
@@ -101944,16 +101944,16 @@
         <v>-1</v>
       </c>
       <c r="Z1139">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA1139">
         <v>-1</v>
       </c>
       <c r="AB1139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1140" spans="1:29">
@@ -104616,7 +104616,7 @@
         <v>1168</v>
       </c>
       <c r="B1170">
-        <v>6880482</v>
+        <v>6881344</v>
       </c>
       <c r="C1170" t="s">
         <v>28</v>
@@ -104628,46 +104628,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1170" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G1170" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K1170">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L1170">
         <v>3.3</v>
       </c>
       <c r="M1170">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N1170">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O1170">
         <v>3.3</v>
       </c>
       <c r="P1170">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q1170">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1170">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S1170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T1170">
         <v>2.5</v>
       </c>
       <c r="U1170">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V1170">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W1170">
         <v>0</v>
@@ -104690,7 +104690,7 @@
         <v>1169</v>
       </c>
       <c r="B1171">
-        <v>6881344</v>
+        <v>6881345</v>
       </c>
       <c r="C1171" t="s">
         <v>28</v>
@@ -104702,46 +104702,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1171" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G1171" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K1171">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="L1171">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M1171">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N1171">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="O1171">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P1171">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q1171">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1171">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S1171">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T1171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1171">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V1171">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W1171">
         <v>0</v>
@@ -104764,7 +104764,7 @@
         <v>1170</v>
       </c>
       <c r="B1172">
-        <v>6881345</v>
+        <v>6881694</v>
       </c>
       <c r="C1172" t="s">
         <v>28</v>
@@ -104776,46 +104776,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1172" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G1172" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K1172">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="L1172">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M1172">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N1172">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="O1172">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="P1172">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q1172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R1172">
+        <v>1.975</v>
+      </c>
+      <c r="S1172">
         <v>1.875</v>
       </c>
-      <c r="S1172">
+      <c r="T1172">
+        <v>2.5</v>
+      </c>
+      <c r="U1172">
+        <v>1.875</v>
+      </c>
+      <c r="V1172">
         <v>1.975</v>
-      </c>
-      <c r="T1172">
-        <v>2.75</v>
-      </c>
-      <c r="U1172">
-        <v>1.85</v>
-      </c>
-      <c r="V1172">
-        <v>2</v>
       </c>
       <c r="W1172">
         <v>0</v>
@@ -104838,7 +104838,7 @@
         <v>1171</v>
       </c>
       <c r="B1173">
-        <v>6881694</v>
+        <v>6881696</v>
       </c>
       <c r="C1173" t="s">
         <v>28</v>
@@ -104850,46 +104850,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1173" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G1173" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K1173">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="L1173">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="M1173">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N1173">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O1173">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="P1173">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q1173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1173">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S1173">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T1173">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V1173">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W1173">
         <v>0</v>
@@ -104912,7 +104912,7 @@
         <v>1172</v>
       </c>
       <c r="B1174">
-        <v>6881696</v>
+        <v>6880482</v>
       </c>
       <c r="C1174" t="s">
         <v>28</v>
@@ -104924,10 +104924,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1174" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G1174" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K1174">
         <v>2.3</v>
@@ -104936,7 +104936,7 @@
         <v>3.3</v>
       </c>
       <c r="M1174">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N1174">
         <v>2.3</v>
@@ -104945,25 +104945,25 @@
         <v>3.3</v>
       </c>
       <c r="P1174">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q1174">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1174">
+        <v>2.05</v>
+      </c>
+      <c r="S1174">
         <v>1.8</v>
       </c>
-      <c r="S1174">
-        <v>2.05</v>
-      </c>
       <c r="T1174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1174">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V1174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W1174">
         <v>0</v>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -58262,7 +58262,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>5207252</v>
+        <v>5212669</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58274,76 +58274,76 @@
         <v>44821.375</v>
       </c>
       <c r="F649" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G649" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H649">
         <v>1</v>
       </c>
       <c r="I649">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J649" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K649">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L649">
         <v>3.5</v>
       </c>
       <c r="M649">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N649">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O649">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P649">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q649">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R649">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S649">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T649">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U649">
+        <v>1.9</v>
+      </c>
+      <c r="V649">
+        <v>1.9</v>
+      </c>
+      <c r="W649">
+        <v>-1</v>
+      </c>
+      <c r="X649">
+        <v>-1</v>
+      </c>
+      <c r="Y649">
         <v>1.8</v>
       </c>
-      <c r="V649">
-        <v>2</v>
-      </c>
-      <c r="W649">
-        <v>-1</v>
-      </c>
-      <c r="X649">
-        <v>2.6</v>
-      </c>
-      <c r="Y649">
-        <v>-1</v>
-      </c>
       <c r="Z649">
         <v>-1</v>
       </c>
       <c r="AA649">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB649">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC649">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -58351,7 +58351,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>5212669</v>
+        <v>5207252</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58363,76 +58363,76 @@
         <v>44821.375</v>
       </c>
       <c r="F650" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G650" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H650">
         <v>1</v>
       </c>
       <c r="I650">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J650" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K650">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L650">
         <v>3.5</v>
       </c>
       <c r="M650">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N650">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O650">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P650">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q650">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R650">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S650">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T650">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U650">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V650">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W650">
         <v>-1</v>
       </c>
       <c r="X650">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y650">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z650">
         <v>-1</v>
       </c>
       <c r="AA650">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB650">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC650">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -66183,7 +66183,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5212692</v>
+        <v>5207446</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66195,28 +66195,28 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F738" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G738" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J738" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K738">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L738">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M738">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N738">
         <v>1.8</v>
@@ -66225,46 +66225,46 @@
         <v>3.5</v>
       </c>
       <c r="P738">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q738">
         <v>-0.5</v>
       </c>
       <c r="R738">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S738">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T738">
         <v>2.5</v>
       </c>
       <c r="U738">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V738">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W738">
         <v>-1</v>
       </c>
       <c r="X738">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y738">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z738">
         <v>-1</v>
       </c>
       <c r="AA738">
+        <v>1</v>
+      </c>
+      <c r="AB738">
+        <v>-1</v>
+      </c>
+      <c r="AC738">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB738">
-        <v>0.8</v>
-      </c>
-      <c r="AC738">
-        <v>-1</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66272,7 +66272,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5212489</v>
+        <v>5212692</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66284,73 +66284,73 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F739" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G739" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H739">
+        <v>2</v>
+      </c>
+      <c r="I739">
         <v>3</v>
       </c>
-      <c r="I739">
-        <v>1</v>
-      </c>
       <c r="J739" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K739">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L739">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M739">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N739">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O739">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P739">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q739">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R739">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S739">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T739">
         <v>2.5</v>
       </c>
       <c r="U739">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V739">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W739">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X739">
         <v>-1</v>
       </c>
       <c r="Y739">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z739">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA739">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB739">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC739">
         <v>-1</v>
@@ -66361,7 +66361,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5207446</v>
+        <v>5212489</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66373,76 +66373,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F740" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G740" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H740">
+        <v>3</v>
+      </c>
+      <c r="I740">
+        <v>1</v>
+      </c>
+      <c r="J740" t="s">
+        <v>67</v>
+      </c>
+      <c r="K740">
+        <v>2.3</v>
+      </c>
+      <c r="L740">
+        <v>3.4</v>
+      </c>
+      <c r="M740">
+        <v>2.875</v>
+      </c>
+      <c r="N740">
+        <v>2.55</v>
+      </c>
+      <c r="O740">
+        <v>3.3</v>
+      </c>
+      <c r="P740">
+        <v>2.6</v>
+      </c>
+      <c r="Q740">
         <v>0</v>
       </c>
-      <c r="I740">
-        <v>0</v>
-      </c>
-      <c r="J740" t="s">
-        <v>66</v>
-      </c>
-      <c r="K740">
-        <v>1.666</v>
-      </c>
-      <c r="L740">
-        <v>3.75</v>
-      </c>
-      <c r="M740">
-        <v>4.75</v>
-      </c>
-      <c r="N740">
-        <v>1.8</v>
-      </c>
-      <c r="O740">
-        <v>3.5</v>
-      </c>
-      <c r="P740">
-        <v>4.333</v>
-      </c>
-      <c r="Q740">
-        <v>-0.5</v>
-      </c>
       <c r="R740">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S740">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T740">
         <v>2.5</v>
       </c>
       <c r="U740">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V740">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W740">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X740">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y740">
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA740">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB740">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC740">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -75795,7 +75795,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>5212725</v>
+        <v>5212727</v>
       </c>
       <c r="C846" t="s">
         <v>28</v>
@@ -75807,10 +75807,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F846" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G846" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H846">
         <v>1</v>
@@ -75822,40 +75822,40 @@
         <v>68</v>
       </c>
       <c r="K846">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="L846">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M846">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="N846">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O846">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P846">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q846">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R846">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S846">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T846">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U846">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V846">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W846">
         <v>-1</v>
@@ -75864,19 +75864,19 @@
         <v>-1</v>
       </c>
       <c r="Y846">
-        <v>5.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z846">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA846">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB846">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC846">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="847" spans="1:29">
@@ -75884,7 +75884,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>5212724</v>
+        <v>5212725</v>
       </c>
       <c r="C847" t="s">
         <v>28</v>
@@ -75896,55 +75896,55 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F847" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G847" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H847">
         <v>1</v>
       </c>
       <c r="I847">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J847" t="s">
         <v>68</v>
       </c>
       <c r="K847">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L847">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M847">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="N847">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O847">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P847">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q847">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R847">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S847">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T847">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U847">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V847">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W847">
         <v>-1</v>
@@ -75953,19 +75953,19 @@
         <v>-1</v>
       </c>
       <c r="Y847">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Z847">
         <v>-1</v>
       </c>
       <c r="AA847">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB847">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC847">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="848" spans="1:29">
@@ -75973,7 +75973,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>5207474</v>
+        <v>5212724</v>
       </c>
       <c r="C848" t="s">
         <v>28</v>
@@ -75985,10 +75985,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F848" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G848" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H848">
         <v>1</v>
@@ -76000,40 +76000,40 @@
         <v>68</v>
       </c>
       <c r="K848">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="L848">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M848">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N848">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O848">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P848">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q848">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R848">
+        <v>1.775</v>
+      </c>
+      <c r="S848">
         <v>2.025</v>
-      </c>
-      <c r="S848">
-        <v>1.775</v>
       </c>
       <c r="T848">
         <v>2.75</v>
       </c>
       <c r="U848">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V848">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W848">
         <v>-1</v>
@@ -76042,16 +76042,16 @@
         <v>-1</v>
       </c>
       <c r="Y848">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="Z848">
         <v>-1</v>
       </c>
       <c r="AA848">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB848">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC848">
         <v>-1</v>
@@ -76062,7 +76062,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>5212819</v>
+        <v>5207474</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76074,22 +76074,22 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F849" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G849" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H849">
+        <v>1</v>
+      </c>
+      <c r="I849">
         <v>3</v>
       </c>
-      <c r="I849">
-        <v>2</v>
-      </c>
       <c r="J849" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K849">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L849">
         <v>3.3</v>
@@ -76098,49 +76098,49 @@
         <v>2.2</v>
       </c>
       <c r="N849">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O849">
         <v>3.3</v>
       </c>
       <c r="P849">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q849">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R849">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S849">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T849">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U849">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V849">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W849">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X849">
         <v>-1</v>
       </c>
       <c r="Y849">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z849">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA849">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB849">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC849">
         <v>-1</v>
@@ -76151,7 +76151,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>5212727</v>
+        <v>5212819</v>
       </c>
       <c r="C850" t="s">
         <v>28</v>
@@ -76163,76 +76163,76 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F850" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G850" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I850">
         <v>2</v>
       </c>
       <c r="J850" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K850">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L850">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M850">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N850">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O850">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P850">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="Q850">
+        <v>0.25</v>
+      </c>
+      <c r="R850">
+        <v>1.75</v>
+      </c>
+      <c r="S850">
+        <v>2.05</v>
+      </c>
+      <c r="T850">
+        <v>2.5</v>
+      </c>
+      <c r="U850">
+        <v>1.85</v>
+      </c>
+      <c r="V850">
+        <v>1.95</v>
+      </c>
+      <c r="W850">
+        <v>1.625</v>
+      </c>
+      <c r="X850">
+        <v>-1</v>
+      </c>
+      <c r="Y850">
+        <v>-1</v>
+      </c>
+      <c r="Z850">
         <v>0.75</v>
       </c>
-      <c r="R850">
-        <v>1.825</v>
-      </c>
-      <c r="S850">
-        <v>1.975</v>
-      </c>
-      <c r="T850">
-        <v>3</v>
-      </c>
-      <c r="U850">
-        <v>1.9</v>
-      </c>
-      <c r="V850">
-        <v>1.9</v>
-      </c>
-      <c r="W850">
-        <v>-1</v>
-      </c>
-      <c r="X850">
-        <v>-1</v>
-      </c>
-      <c r="Y850">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z850">
-        <v>-0.5</v>
-      </c>
       <c r="AA850">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB850">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC850">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="851" spans="1:29">
@@ -77308,7 +77308,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>5351011</v>
+        <v>5360869</v>
       </c>
       <c r="C863" t="s">
         <v>28</v>
@@ -77320,73 +77320,73 @@
         <v>45024.375</v>
       </c>
       <c r="F863" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G863" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J863" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K863">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L863">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M863">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N863">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O863">
         <v>3.2</v>
       </c>
       <c r="P863">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q863">
         <v>0</v>
       </c>
       <c r="R863">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S863">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T863">
         <v>2.5</v>
       </c>
       <c r="U863">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V863">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W863">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X863">
         <v>-1</v>
       </c>
       <c r="Y863">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z863">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA863">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB863">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC863">
         <v>-1</v>
@@ -77397,7 +77397,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>5360869</v>
+        <v>5351011</v>
       </c>
       <c r="C864" t="s">
         <v>28</v>
@@ -77409,73 +77409,73 @@
         <v>45024.375</v>
       </c>
       <c r="F864" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G864" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J864" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K864">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L864">
+        <v>3.25</v>
+      </c>
+      <c r="M864">
         <v>3.2</v>
       </c>
-      <c r="M864">
-        <v>2.875</v>
-      </c>
       <c r="N864">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O864">
         <v>3.2</v>
       </c>
       <c r="P864">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q864">
         <v>0</v>
       </c>
       <c r="R864">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S864">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T864">
         <v>2.5</v>
       </c>
       <c r="U864">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V864">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W864">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X864">
         <v>-1</v>
       </c>
       <c r="Y864">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z864">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA864">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB864">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC864">
         <v>-1</v>
@@ -80512,7 +80512,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>5470244</v>
+        <v>5469425</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -80524,76 +80524,76 @@
         <v>45045.375</v>
       </c>
       <c r="F899" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G899" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H899">
         <v>1</v>
       </c>
       <c r="I899">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J899" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K899">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L899">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M899">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N899">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="O899">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P899">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q899">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R899">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S899">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T899">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U899">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V899">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W899">
         <v>-1</v>
       </c>
       <c r="X899">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y899">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z899">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA899">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB899">
         <v>-0.5</v>
       </c>
-      <c r="AB899">
-        <v>-1</v>
-      </c>
       <c r="AC899">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="900" spans="1:29">
@@ -80601,7 +80601,7 @@
         <v>898</v>
       </c>
       <c r="B900">
-        <v>5469425</v>
+        <v>5470244</v>
       </c>
       <c r="C900" t="s">
         <v>28</v>
@@ -80613,76 +80613,76 @@
         <v>45045.375</v>
       </c>
       <c r="F900" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G900" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H900">
         <v>1</v>
       </c>
       <c r="I900">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J900" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K900">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L900">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M900">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N900">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="O900">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P900">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q900">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R900">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S900">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T900">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U900">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V900">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W900">
         <v>-1</v>
       </c>
       <c r="X900">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y900">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z900">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA900">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB900">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC900">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="901" spans="1:29">
@@ -83805,7 +83805,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>5609975</v>
+        <v>5607138</v>
       </c>
       <c r="C936" t="s">
         <v>28</v>
@@ -83817,76 +83817,76 @@
         <v>45073.35416666666</v>
       </c>
       <c r="F936" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G936" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H936">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I936">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J936" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K936">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L936">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M936">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N936">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="O936">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P936">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q936">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R936">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S936">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T936">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U936">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V936">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W936">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X936">
         <v>-1</v>
       </c>
       <c r="Y936">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z936">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA936">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB936">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC936">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="937" spans="1:29">
@@ -83894,7 +83894,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>5607138</v>
+        <v>5609975</v>
       </c>
       <c r="C937" t="s">
         <v>28</v>
@@ -83906,76 +83906,76 @@
         <v>45073.35416666666</v>
       </c>
       <c r="F937" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G937" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H937">
+        <v>3</v>
+      </c>
+      <c r="I937">
         <v>1</v>
       </c>
-      <c r="I937">
-        <v>2</v>
-      </c>
       <c r="J937" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K937">
+        <v>1.666</v>
+      </c>
+      <c r="L937">
+        <v>3.75</v>
+      </c>
+      <c r="M937">
+        <v>4.2</v>
+      </c>
+      <c r="N937">
+        <v>1.666</v>
+      </c>
+      <c r="O937">
+        <v>4</v>
+      </c>
+      <c r="P937">
+        <v>3.8</v>
+      </c>
+      <c r="Q937">
+        <v>-0.75</v>
+      </c>
+      <c r="R937">
+        <v>1.875</v>
+      </c>
+      <c r="S937">
+        <v>1.925</v>
+      </c>
+      <c r="T937">
         <v>3.5</v>
       </c>
-      <c r="L937">
-        <v>3.8</v>
-      </c>
-      <c r="M937">
-        <v>1.833</v>
-      </c>
-      <c r="N937">
-        <v>3.6</v>
-      </c>
-      <c r="O937">
-        <v>3.8</v>
-      </c>
-      <c r="P937">
-        <v>1.8</v>
-      </c>
-      <c r="Q937">
-        <v>0.5</v>
-      </c>
-      <c r="R937">
-        <v>1.95</v>
-      </c>
-      <c r="S937">
-        <v>1.85</v>
-      </c>
-      <c r="T937">
-        <v>3.25</v>
-      </c>
       <c r="U937">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V937">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W937">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X937">
         <v>-1</v>
       </c>
       <c r="Y937">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z937">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA937">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB937">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC937">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="938" spans="1:29">
@@ -91103,7 +91103,7 @@
         <v>1016</v>
       </c>
       <c r="B1018">
-        <v>6881320</v>
+        <v>6880513</v>
       </c>
       <c r="C1018" t="s">
         <v>28</v>
@@ -91115,76 +91115,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1018" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G1018" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H1018">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1018">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1018" t="s">
         <v>66</v>
       </c>
       <c r="K1018">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L1018">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M1018">
+        <v>2.7</v>
+      </c>
+      <c r="N1018">
+        <v>2.55</v>
+      </c>
+      <c r="O1018">
         <v>3.4</v>
       </c>
-      <c r="N1018">
-        <v>2.15</v>
-      </c>
-      <c r="O1018">
-        <v>3.25</v>
-      </c>
       <c r="P1018">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q1018">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1018">
+        <v>1.95</v>
+      </c>
+      <c r="S1018">
+        <v>1.85</v>
+      </c>
+      <c r="T1018">
+        <v>3</v>
+      </c>
+      <c r="U1018">
         <v>1.925</v>
       </c>
-      <c r="S1018">
+      <c r="V1018">
         <v>1.875</v>
       </c>
-      <c r="T1018">
-        <v>2.75</v>
-      </c>
-      <c r="U1018">
-        <v>1.8</v>
-      </c>
-      <c r="V1018">
-        <v>2</v>
-      </c>
       <c r="W1018">
         <v>-1</v>
       </c>
       <c r="X1018">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y1018">
         <v>-1</v>
       </c>
       <c r="Z1018">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA1018">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB1018">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC1018">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1019" spans="1:29">
@@ -91281,7 +91281,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>6880513</v>
+        <v>6881320</v>
       </c>
       <c r="C1020" t="s">
         <v>28</v>
@@ -91293,76 +91293,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1020" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G1020" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1020">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1020" t="s">
         <v>66</v>
       </c>
       <c r="K1020">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L1020">
+        <v>3.3</v>
+      </c>
+      <c r="M1020">
         <v>3.4</v>
       </c>
-      <c r="M1020">
-        <v>2.7</v>
-      </c>
       <c r="N1020">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O1020">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P1020">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q1020">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1020">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S1020">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T1020">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1020">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V1020">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W1020">
         <v>-1</v>
       </c>
       <c r="X1020">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y1020">
         <v>-1</v>
       </c>
       <c r="Z1020">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1020">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB1020">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC1020">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1021" spans="1:29">
@@ -91993,7 +91993,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>6881322</v>
+        <v>6880358</v>
       </c>
       <c r="C1028" t="s">
         <v>28</v>
@@ -92005,10 +92005,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1028" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G1028" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H1028">
         <v>1</v>
@@ -92020,43 +92020,43 @@
         <v>67</v>
       </c>
       <c r="K1028">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L1028">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1028">
+        <v>2.5</v>
+      </c>
+      <c r="N1028">
+        <v>2.1</v>
+      </c>
+      <c r="O1028">
+        <v>3.75</v>
+      </c>
+      <c r="P1028">
         <v>2.875</v>
       </c>
-      <c r="N1028">
-        <v>2.3</v>
-      </c>
-      <c r="O1028">
-        <v>3.3</v>
-      </c>
-      <c r="P1028">
+      <c r="Q1028">
+        <v>-0.25</v>
+      </c>
+      <c r="R1028">
+        <v>1.925</v>
+      </c>
+      <c r="S1028">
+        <v>1.875</v>
+      </c>
+      <c r="T1028">
         <v>2.75</v>
       </c>
-      <c r="Q1028">
-        <v>0</v>
-      </c>
-      <c r="R1028">
-        <v>1.75</v>
-      </c>
-      <c r="S1028">
-        <v>2.05</v>
-      </c>
-      <c r="T1028">
-        <v>2.5</v>
-      </c>
       <c r="U1028">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1028">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W1028">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X1028">
         <v>-1</v>
@@ -92065,7 +92065,7 @@
         <v>-1</v>
       </c>
       <c r="Z1028">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA1028">
         <v>-1</v>
@@ -92074,7 +92074,7 @@
         <v>-1</v>
       </c>
       <c r="AC1028">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1029" spans="1:29">
@@ -92082,7 +92082,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>6880358</v>
+        <v>6881322</v>
       </c>
       <c r="C1029" t="s">
         <v>28</v>
@@ -92094,10 +92094,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1029" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G1029" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H1029">
         <v>1</v>
@@ -92109,43 +92109,43 @@
         <v>67</v>
       </c>
       <c r="K1029">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1029">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1029">
+        <v>2.875</v>
+      </c>
+      <c r="N1029">
+        <v>2.3</v>
+      </c>
+      <c r="O1029">
+        <v>3.3</v>
+      </c>
+      <c r="P1029">
+        <v>2.75</v>
+      </c>
+      <c r="Q1029">
+        <v>0</v>
+      </c>
+      <c r="R1029">
+        <v>1.75</v>
+      </c>
+      <c r="S1029">
+        <v>2.05</v>
+      </c>
+      <c r="T1029">
         <v>2.5</v>
       </c>
-      <c r="N1029">
-        <v>2.1</v>
-      </c>
-      <c r="O1029">
-        <v>3.75</v>
-      </c>
-      <c r="P1029">
-        <v>2.875</v>
-      </c>
-      <c r="Q1029">
-        <v>-0.25</v>
-      </c>
-      <c r="R1029">
-        <v>1.925</v>
-      </c>
-      <c r="S1029">
-        <v>1.875</v>
-      </c>
-      <c r="T1029">
-        <v>2.75</v>
-      </c>
       <c r="U1029">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V1029">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W1029">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X1029">
         <v>-1</v>
@@ -92154,7 +92154,7 @@
         <v>-1</v>
       </c>
       <c r="Z1029">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA1029">
         <v>-1</v>
@@ -92163,7 +92163,7 @@
         <v>-1</v>
       </c>
       <c r="AC1029">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="1030" spans="1:29">
@@ -92171,7 +92171,7 @@
         <v>1028</v>
       </c>
       <c r="B1030">
-        <v>6880332</v>
+        <v>6880469</v>
       </c>
       <c r="C1030" t="s">
         <v>28</v>
@@ -92183,13 +92183,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1030" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1030" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1030">
         <v>0</v>
@@ -92219,13 +92219,13 @@
         <v>-0.25</v>
       </c>
       <c r="R1030">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S1030">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T1030">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1030">
         <v>1.925</v>
@@ -92243,16 +92243,16 @@
         <v>-1</v>
       </c>
       <c r="Z1030">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA1030">
         <v>-1</v>
       </c>
       <c r="AB1030">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1030">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1031" spans="1:29">
@@ -92260,7 +92260,7 @@
         <v>1029</v>
       </c>
       <c r="B1031">
-        <v>6880469</v>
+        <v>6880332</v>
       </c>
       <c r="C1031" t="s">
         <v>28</v>
@@ -92272,13 +92272,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1031" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1031" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H1031">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1031">
         <v>0</v>
@@ -92308,13 +92308,13 @@
         <v>-0.25</v>
       </c>
       <c r="R1031">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S1031">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T1031">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1031">
         <v>1.925</v>
@@ -92332,16 +92332,16 @@
         <v>-1</v>
       </c>
       <c r="Z1031">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA1031">
         <v>-1</v>
       </c>
       <c r="AB1031">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC1031">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1032" spans="1:29">
@@ -92349,7 +92349,7 @@
         <v>1030</v>
       </c>
       <c r="B1032">
-        <v>6881621</v>
+        <v>6881622</v>
       </c>
       <c r="C1032" t="s">
         <v>28</v>
@@ -92361,58 +92361,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1032" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G1032" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1032">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1032" t="s">
         <v>67</v>
       </c>
       <c r="K1032">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L1032">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1032">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N1032">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O1032">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P1032">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q1032">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R1032">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S1032">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T1032">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1032">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1032">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W1032">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="X1032">
         <v>-1</v>
@@ -92421,16 +92421,16 @@
         <v>-1</v>
       </c>
       <c r="Z1032">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA1032">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB1032">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC1032">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1033" spans="1:29">
@@ -92438,7 +92438,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>6881622</v>
+        <v>6881621</v>
       </c>
       <c r="C1033" t="s">
         <v>28</v>
@@ -92450,58 +92450,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1033" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G1033" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H1033">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1033">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1033" t="s">
         <v>67</v>
       </c>
       <c r="K1033">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L1033">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M1033">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N1033">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O1033">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P1033">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q1033">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R1033">
+        <v>1.95</v>
+      </c>
+      <c r="S1033">
+        <v>1.85</v>
+      </c>
+      <c r="T1033">
+        <v>3.25</v>
+      </c>
+      <c r="U1033">
+        <v>2</v>
+      </c>
+      <c r="V1033">
         <v>1.8</v>
       </c>
-      <c r="S1033">
-        <v>2</v>
-      </c>
-      <c r="T1033">
-        <v>2.5</v>
-      </c>
-      <c r="U1033">
-        <v>1.875</v>
-      </c>
-      <c r="V1033">
-        <v>1.925</v>
-      </c>
       <c r="W1033">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="X1033">
         <v>-1</v>
@@ -92510,16 +92510,16 @@
         <v>-1</v>
       </c>
       <c r="Z1033">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1033">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB1033">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1033">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1034" spans="1:29">
@@ -100448,7 +100448,7 @@
         <v>1121</v>
       </c>
       <c r="B1123">
-        <v>6880341</v>
+        <v>6881337</v>
       </c>
       <c r="C1123" t="s">
         <v>28</v>
@@ -100460,76 +100460,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F1123" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G1123" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H1123">
+        <v>0</v>
+      </c>
+      <c r="I1123">
         <v>3</v>
       </c>
-      <c r="I1123">
-        <v>0</v>
-      </c>
       <c r="J1123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1123">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L1123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M1123">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N1123">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O1123">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P1123">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q1123">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1123">
+        <v>2.025</v>
+      </c>
+      <c r="S1123">
+        <v>1.775</v>
+      </c>
+      <c r="T1123">
+        <v>2.75</v>
+      </c>
+      <c r="U1123">
+        <v>1.85</v>
+      </c>
+      <c r="V1123">
         <v>1.95</v>
       </c>
-      <c r="S1123">
-        <v>1.85</v>
-      </c>
-      <c r="T1123">
-        <v>2.5</v>
-      </c>
-      <c r="U1123">
-        <v>1.9</v>
-      </c>
-      <c r="V1123">
-        <v>1.9</v>
-      </c>
       <c r="W1123">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X1123">
         <v>-1</v>
       </c>
       <c r="Y1123">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z1123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA1123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1123">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC1123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1124" spans="1:29">
@@ -100537,7 +100537,7 @@
         <v>1122</v>
       </c>
       <c r="B1124">
-        <v>6881337</v>
+        <v>6880341</v>
       </c>
       <c r="C1124" t="s">
         <v>28</v>
@@ -100549,76 +100549,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F1124" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G1124" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H1124">
+        <v>3</v>
+      </c>
+      <c r="I1124">
         <v>0</v>
       </c>
-      <c r="I1124">
-        <v>3</v>
-      </c>
       <c r="J1124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1124">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L1124">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M1124">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="N1124">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O1124">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P1124">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q1124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1124">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S1124">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T1124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V1124">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W1124">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X1124">
         <v>-1</v>
       </c>
       <c r="Y1124">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z1124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA1124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1124">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1125" spans="1:29">
@@ -101605,7 +101605,7 @@
         <v>1134</v>
       </c>
       <c r="B1136">
-        <v>6880522</v>
+        <v>6881679</v>
       </c>
       <c r="C1136" t="s">
         <v>28</v>
@@ -101617,76 +101617,76 @@
         <v>45280.625</v>
       </c>
       <c r="F1136" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1136" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H1136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L1136">
         <v>3.75</v>
       </c>
       <c r="M1136">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N1136">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O1136">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P1136">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q1136">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S1136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T1136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1136">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V1136">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W1136">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X1136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1136">
         <v>-1</v>
       </c>
       <c r="Z1136">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1136">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB1136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="1137" spans="1:29">
@@ -101694,7 +101694,7 @@
         <v>1135</v>
       </c>
       <c r="B1137">
-        <v>6881679</v>
+        <v>6880522</v>
       </c>
       <c r="C1137" t="s">
         <v>28</v>
@@ -101706,76 +101706,76 @@
         <v>45280.625</v>
       </c>
       <c r="F1137" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G1137" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H1137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I1137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1137" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K1137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L1137">
         <v>3.75</v>
       </c>
       <c r="M1137">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N1137">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O1137">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P1137">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q1137">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S1137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T1137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V1137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W1137">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X1137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1137">
         <v>-1</v>
       </c>
       <c r="Z1137">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA1137">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB1137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1138" spans="1:29">
@@ -101783,7 +101783,7 @@
         <v>1136</v>
       </c>
       <c r="B1138">
-        <v>6881675</v>
+        <v>6880342</v>
       </c>
       <c r="C1138" t="s">
         <v>28</v>
@@ -101795,76 +101795,76 @@
         <v>45280.625</v>
       </c>
       <c r="F1138" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G1138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1138">
+        <v>1</v>
+      </c>
+      <c r="I1138">
         <v>0</v>
       </c>
-      <c r="I1138">
+      <c r="J1138" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1138">
+        <v>2.6</v>
+      </c>
+      <c r="L1138">
+        <v>3.4</v>
+      </c>
+      <c r="M1138">
+        <v>2.625</v>
+      </c>
+      <c r="N1138">
+        <v>2.8</v>
+      </c>
+      <c r="O1138">
+        <v>3.4</v>
+      </c>
+      <c r="P1138">
+        <v>2.45</v>
+      </c>
+      <c r="Q1138">
+        <v>0</v>
+      </c>
+      <c r="R1138">
+        <v>2</v>
+      </c>
+      <c r="S1138">
+        <v>1.8</v>
+      </c>
+      <c r="T1138">
+        <v>2.5</v>
+      </c>
+      <c r="U1138">
+        <v>1.875</v>
+      </c>
+      <c r="V1138">
+        <v>1.925</v>
+      </c>
+      <c r="W1138">
+        <v>1.8</v>
+      </c>
+      <c r="X1138">
+        <v>-1</v>
+      </c>
+      <c r="Y1138">
+        <v>-1</v>
+      </c>
+      <c r="Z1138">
         <v>1</v>
       </c>
-      <c r="J1138" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1138">
-        <v>3.2</v>
-      </c>
-      <c r="L1138">
-        <v>3.5</v>
-      </c>
-      <c r="M1138">
-        <v>2.05</v>
-      </c>
-      <c r="N1138">
-        <v>2.9</v>
-      </c>
-      <c r="O1138">
-        <v>3.6</v>
-      </c>
-      <c r="P1138">
-        <v>2.1</v>
-      </c>
-      <c r="Q1138">
-        <v>0.25</v>
-      </c>
-      <c r="R1138">
-        <v>1.95</v>
-      </c>
-      <c r="S1138">
-        <v>1.85</v>
-      </c>
-      <c r="T1138">
-        <v>3</v>
-      </c>
-      <c r="U1138">
-        <v>1.975</v>
-      </c>
-      <c r="V1138">
-        <v>1.825</v>
-      </c>
-      <c r="W1138">
-        <v>-1</v>
-      </c>
-      <c r="X1138">
-        <v>-1</v>
-      </c>
-      <c r="Y1138">
-        <v>1.1</v>
-      </c>
-      <c r="Z1138">
-        <v>-1</v>
-      </c>
       <c r="AA1138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1138">
         <v>-1</v>
       </c>
       <c r="AC1138">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1139" spans="1:29">
@@ -101872,7 +101872,7 @@
         <v>1137</v>
       </c>
       <c r="B1139">
-        <v>6880342</v>
+        <v>6881675</v>
       </c>
       <c r="C1139" t="s">
         <v>28</v>
@@ -101884,76 +101884,76 @@
         <v>45280.625</v>
       </c>
       <c r="F1139" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G1139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1139">
+        <v>0</v>
+      </c>
+      <c r="I1139">
         <v>1</v>
       </c>
-      <c r="I1139">
-        <v>0</v>
-      </c>
       <c r="J1139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1139">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L1139">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1139">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N1139">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O1139">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P1139">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q1139">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R1139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S1139">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T1139">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U1139">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V1139">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W1139">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X1139">
         <v>-1</v>
       </c>
       <c r="Y1139">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z1139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA1139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1139">
         <v>-1</v>
       </c>
       <c r="AC1139">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1140" spans="1:29">
@@ -102851,7 +102851,7 @@
         <v>1148</v>
       </c>
       <c r="B1150">
-        <v>6881685</v>
+        <v>6881684</v>
       </c>
       <c r="C1150" t="s">
         <v>28</v>
@@ -102863,76 +102863,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1150" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G1150" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K1150">
+        <v>2</v>
+      </c>
+      <c r="L1150">
+        <v>3.6</v>
+      </c>
+      <c r="M1150">
+        <v>3.2</v>
+      </c>
+      <c r="N1150">
+        <v>2.15</v>
+      </c>
+      <c r="O1150">
+        <v>3.5</v>
+      </c>
+      <c r="P1150">
+        <v>2.9</v>
+      </c>
+      <c r="Q1150">
+        <v>-0.25</v>
+      </c>
+      <c r="R1150">
+        <v>1.95</v>
+      </c>
+      <c r="S1150">
+        <v>1.85</v>
+      </c>
+      <c r="T1150">
         <v>2.75</v>
       </c>
-      <c r="L1150">
-        <v>3.5</v>
-      </c>
-      <c r="M1150">
-        <v>2.25</v>
-      </c>
-      <c r="N1150">
-        <v>3</v>
-      </c>
-      <c r="O1150">
-        <v>3.4</v>
-      </c>
-      <c r="P1150">
-        <v>2.15</v>
-      </c>
-      <c r="Q1150">
-        <v>0.25</v>
-      </c>
-      <c r="R1150">
-        <v>1.875</v>
-      </c>
-      <c r="S1150">
-        <v>1.925</v>
-      </c>
-      <c r="T1150">
-        <v>2.5</v>
-      </c>
       <c r="U1150">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V1150">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W1150">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X1150">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1150">
         <v>-1</v>
       </c>
       <c r="Z1150">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA1150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1150">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1151" spans="1:29">
@@ -103118,7 +103118,7 @@
         <v>1151</v>
       </c>
       <c r="B1153">
-        <v>6881684</v>
+        <v>6881685</v>
       </c>
       <c r="C1153" t="s">
         <v>28</v>
@@ -103130,76 +103130,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1153" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G1153" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H1153">
+        <v>0</v>
+      </c>
+      <c r="I1153">
+        <v>0</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1153">
+        <v>2.75</v>
+      </c>
+      <c r="L1153">
+        <v>3.5</v>
+      </c>
+      <c r="M1153">
+        <v>2.25</v>
+      </c>
+      <c r="N1153">
         <v>3</v>
       </c>
-      <c r="I1153">
-        <v>1</v>
-      </c>
-      <c r="J1153" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1153">
-        <v>2</v>
-      </c>
-      <c r="L1153">
-        <v>3.6</v>
-      </c>
-      <c r="M1153">
-        <v>3.2</v>
-      </c>
-      <c r="N1153">
+      <c r="O1153">
+        <v>3.4</v>
+      </c>
+      <c r="P1153">
         <v>2.15</v>
       </c>
-      <c r="O1153">
-        <v>3.5</v>
-      </c>
-      <c r="P1153">
-        <v>2.9</v>
-      </c>
       <c r="Q1153">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S1153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T1153">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W1153">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X1153">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1153">
         <v>-1</v>
       </c>
       <c r="Z1153">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA1153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1154" spans="1:29">
@@ -103741,7 +103741,7 @@
         <v>1158</v>
       </c>
       <c r="B1160">
-        <v>6881692</v>
+        <v>6881689</v>
       </c>
       <c r="C1160" t="s">
         <v>28</v>
@@ -103753,76 +103753,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1160" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G1160" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160">
         <v>1</v>
       </c>
       <c r="J1160" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1160">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L1160">
+        <v>3.6</v>
+      </c>
+      <c r="M1160">
+        <v>3.3</v>
+      </c>
+      <c r="N1160">
+        <v>1.909</v>
+      </c>
+      <c r="O1160">
+        <v>3.6</v>
+      </c>
+      <c r="P1160">
         <v>3.5</v>
       </c>
-      <c r="M1160">
-        <v>2</v>
-      </c>
-      <c r="N1160">
-        <v>3.3</v>
-      </c>
-      <c r="O1160">
-        <v>3.4</v>
-      </c>
-      <c r="P1160">
-        <v>2</v>
-      </c>
       <c r="Q1160">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S1160">
+        <v>1.9</v>
+      </c>
+      <c r="T1160">
+        <v>2.75</v>
+      </c>
+      <c r="U1160">
+        <v>2</v>
+      </c>
+      <c r="V1160">
         <v>1.8</v>
       </c>
-      <c r="T1160">
-        <v>2.5</v>
-      </c>
-      <c r="U1160">
-        <v>1.95</v>
-      </c>
-      <c r="V1160">
-        <v>1.85</v>
-      </c>
       <c r="W1160">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1160">
         <v>-1</v>
       </c>
       <c r="Y1160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z1160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1160">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC1160">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1161" spans="1:29">
@@ -103919,7 +103919,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>6881689</v>
+        <v>6881692</v>
       </c>
       <c r="C1162" t="s">
         <v>28</v>
@@ -103931,76 +103931,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1162" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G1162" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162">
         <v>1</v>
       </c>
       <c r="J1162" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1162">
+        <v>3.1</v>
+      </c>
+      <c r="L1162">
+        <v>3.5</v>
+      </c>
+      <c r="M1162">
+        <v>2</v>
+      </c>
+      <c r="N1162">
+        <v>3.3</v>
+      </c>
+      <c r="O1162">
+        <v>3.4</v>
+      </c>
+      <c r="P1162">
+        <v>2</v>
+      </c>
+      <c r="Q1162">
+        <v>0.25</v>
+      </c>
+      <c r="R1162">
+        <v>2</v>
+      </c>
+      <c r="S1162">
+        <v>1.8</v>
+      </c>
+      <c r="T1162">
+        <v>2.5</v>
+      </c>
+      <c r="U1162">
         <v>1.95</v>
       </c>
-      <c r="L1162">
-        <v>3.6</v>
-      </c>
-      <c r="M1162">
-        <v>3.3</v>
-      </c>
-      <c r="N1162">
-        <v>1.909</v>
-      </c>
-      <c r="O1162">
-        <v>3.6</v>
-      </c>
-      <c r="P1162">
-        <v>3.5</v>
-      </c>
-      <c r="Q1162">
-        <v>-0.5</v>
-      </c>
-      <c r="R1162">
-        <v>1.9</v>
-      </c>
-      <c r="S1162">
-        <v>1.9</v>
-      </c>
-      <c r="T1162">
-        <v>2.75</v>
-      </c>
-      <c r="U1162">
-        <v>2</v>
-      </c>
       <c r="V1162">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W1162">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X1162">
         <v>-1</v>
       </c>
       <c r="Y1162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z1162">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1162">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1162">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1163" spans="1:29">
@@ -104616,7 +104616,7 @@
         <v>1168</v>
       </c>
       <c r="B1170">
-        <v>6881344</v>
+        <v>6880482</v>
       </c>
       <c r="C1170" t="s">
         <v>28</v>
@@ -104628,46 +104628,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1170" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G1170" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K1170">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L1170">
         <v>3.3</v>
       </c>
       <c r="M1170">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N1170">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O1170">
         <v>3.3</v>
       </c>
       <c r="P1170">
+        <v>2.8</v>
+      </c>
+      <c r="Q1170">
+        <v>-0.25</v>
+      </c>
+      <c r="R1170">
         <v>2.05</v>
       </c>
-      <c r="Q1170">
-        <v>0.25</v>
-      </c>
-      <c r="R1170">
-        <v>2.025</v>
-      </c>
       <c r="S1170">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T1170">
         <v>2.5</v>
       </c>
       <c r="U1170">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V1170">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W1170">
         <v>0</v>
@@ -104690,7 +104690,7 @@
         <v>1169</v>
       </c>
       <c r="B1171">
-        <v>6881345</v>
+        <v>6881344</v>
       </c>
       <c r="C1171" t="s">
         <v>28</v>
@@ -104702,46 +104702,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1171" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G1171" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K1171">
+        <v>3.3</v>
+      </c>
+      <c r="L1171">
+        <v>3.3</v>
+      </c>
+      <c r="M1171">
+        <v>2.05</v>
+      </c>
+      <c r="N1171">
+        <v>3.3</v>
+      </c>
+      <c r="O1171">
+        <v>3.3</v>
+      </c>
+      <c r="P1171">
+        <v>2.05</v>
+      </c>
+      <c r="Q1171">
+        <v>0.25</v>
+      </c>
+      <c r="R1171">
+        <v>2.025</v>
+      </c>
+      <c r="S1171">
+        <v>1.825</v>
+      </c>
+      <c r="T1171">
+        <v>2.5</v>
+      </c>
+      <c r="U1171">
+        <v>2</v>
+      </c>
+      <c r="V1171">
         <v>1.85</v>
-      </c>
-      <c r="L1171">
-        <v>3.5</v>
-      </c>
-      <c r="M1171">
-        <v>3.75</v>
-      </c>
-      <c r="N1171">
-        <v>1.85</v>
-      </c>
-      <c r="O1171">
-        <v>3.5</v>
-      </c>
-      <c r="P1171">
-        <v>3.75</v>
-      </c>
-      <c r="Q1171">
-        <v>-0.5</v>
-      </c>
-      <c r="R1171">
-        <v>1.875</v>
-      </c>
-      <c r="S1171">
-        <v>1.975</v>
-      </c>
-      <c r="T1171">
-        <v>2.75</v>
-      </c>
-      <c r="U1171">
-        <v>1.85</v>
-      </c>
-      <c r="V1171">
-        <v>2</v>
       </c>
       <c r="W1171">
         <v>0</v>
@@ -104764,7 +104764,7 @@
         <v>1170</v>
       </c>
       <c r="B1172">
-        <v>6881694</v>
+        <v>6881345</v>
       </c>
       <c r="C1172" t="s">
         <v>28</v>
@@ -104776,46 +104776,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1172" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G1172" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K1172">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="L1172">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M1172">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N1172">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O1172">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="P1172">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q1172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R1172">
+        <v>1.875</v>
+      </c>
+      <c r="S1172">
         <v>1.975</v>
       </c>
-      <c r="S1172">
-        <v>1.875</v>
-      </c>
       <c r="T1172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1172">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V1172">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W1172">
         <v>0</v>
@@ -104838,7 +104838,7 @@
         <v>1171</v>
       </c>
       <c r="B1173">
-        <v>6881696</v>
+        <v>6881694</v>
       </c>
       <c r="C1173" t="s">
         <v>28</v>
@@ -104850,46 +104850,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1173" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G1173" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K1173">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="L1173">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="M1173">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N1173">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O1173">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="P1173">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q1173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R1173">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S1173">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T1173">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1173">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V1173">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W1173">
         <v>0</v>
@@ -104912,7 +104912,7 @@
         <v>1172</v>
       </c>
       <c r="B1174">
-        <v>6880482</v>
+        <v>6881696</v>
       </c>
       <c r="C1174" t="s">
         <v>28</v>
@@ -104924,10 +104924,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1174" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G1174" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K1174">
         <v>2.3</v>
@@ -104936,7 +104936,7 @@
         <v>3.3</v>
       </c>
       <c r="M1174">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N1174">
         <v>2.3</v>
@@ -104945,25 +104945,25 @@
         <v>3.3</v>
       </c>
       <c r="P1174">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q1174">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1174">
+        <v>1.8</v>
+      </c>
+      <c r="S1174">
         <v>2.05</v>
       </c>
-      <c r="S1174">
-        <v>1.8</v>
-      </c>
       <c r="T1174">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1174">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V1174">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W1174">
         <v>0</v>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -51765,7 +51765,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5212739</v>
+        <v>5207403</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51777,10 +51777,10 @@
         <v>44779.375</v>
       </c>
       <c r="F576" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G576" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H576">
         <v>1</v>
@@ -51792,43 +51792,43 @@
         <v>67</v>
       </c>
       <c r="K576">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L576">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M576">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="N576">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O576">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P576">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q576">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R576">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S576">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T576">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U576">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V576">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W576">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X576">
         <v>-1</v>
@@ -51837,16 +51837,16 @@
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AA576">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB576">
         <v>-1</v>
       </c>
       <c r="AC576">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -51854,7 +51854,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>5207403</v>
+        <v>5207404</v>
       </c>
       <c r="C577" t="s">
         <v>28</v>
@@ -51866,76 +51866,76 @@
         <v>44779.375</v>
       </c>
       <c r="F577" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G577" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H577">
+        <v>0</v>
+      </c>
+      <c r="I577">
+        <v>2</v>
+      </c>
+      <c r="J577" t="s">
+        <v>68</v>
+      </c>
+      <c r="K577">
+        <v>2.55</v>
+      </c>
+      <c r="L577">
+        <v>3.3</v>
+      </c>
+      <c r="M577">
+        <v>2.55</v>
+      </c>
+      <c r="N577">
+        <v>2.1</v>
+      </c>
+      <c r="O577">
+        <v>3.4</v>
+      </c>
+      <c r="P577">
+        <v>3.1</v>
+      </c>
+      <c r="Q577">
+        <v>-0.25</v>
+      </c>
+      <c r="R577">
+        <v>1.8</v>
+      </c>
+      <c r="S577">
+        <v>2</v>
+      </c>
+      <c r="T577">
+        <v>2.75</v>
+      </c>
+      <c r="U577">
+        <v>1.8</v>
+      </c>
+      <c r="V577">
+        <v>2</v>
+      </c>
+      <c r="W577">
+        <v>-1</v>
+      </c>
+      <c r="X577">
+        <v>-1</v>
+      </c>
+      <c r="Y577">
+        <v>2.1</v>
+      </c>
+      <c r="Z577">
+        <v>-1</v>
+      </c>
+      <c r="AA577">
         <v>1</v>
       </c>
-      <c r="I577">
-        <v>0</v>
-      </c>
-      <c r="J577" t="s">
-        <v>67</v>
-      </c>
-      <c r="K577">
-        <v>1.444</v>
-      </c>
-      <c r="L577">
-        <v>4.75</v>
-      </c>
-      <c r="M577">
-        <v>5.5</v>
-      </c>
-      <c r="N577">
-        <v>1.666</v>
-      </c>
-      <c r="O577">
-        <v>4.2</v>
-      </c>
-      <c r="P577">
-        <v>4</v>
-      </c>
-      <c r="Q577">
-        <v>-0.75</v>
-      </c>
-      <c r="R577">
-        <v>1.85</v>
-      </c>
-      <c r="S577">
-        <v>1.95</v>
-      </c>
-      <c r="T577">
-        <v>3</v>
-      </c>
-      <c r="U577">
-        <v>2</v>
-      </c>
-      <c r="V577">
-        <v>1.8</v>
-      </c>
-      <c r="W577">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X577">
-        <v>-1</v>
-      </c>
-      <c r="Y577">
-        <v>-1</v>
-      </c>
-      <c r="Z577">
-        <v>0.425</v>
-      </c>
-      <c r="AA577">
-        <v>-0.5</v>
-      </c>
       <c r="AB577">
         <v>-1</v>
       </c>
       <c r="AC577">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:29">
@@ -51943,7 +51943,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>5207404</v>
+        <v>5207932</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51955,10 +51955,10 @@
         <v>44779.375</v>
       </c>
       <c r="F578" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G578" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H578">
         <v>0</v>
@@ -51970,40 +51970,40 @@
         <v>68</v>
       </c>
       <c r="K578">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L578">
+        <v>3.5</v>
+      </c>
+      <c r="M578">
+        <v>1.909</v>
+      </c>
+      <c r="N578">
         <v>3.3</v>
       </c>
-      <c r="M578">
-        <v>2.55</v>
-      </c>
-      <c r="N578">
-        <v>2.1</v>
-      </c>
       <c r="O578">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P578">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q578">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R578">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S578">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T578">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U578">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V578">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W578">
         <v>-1</v>
@@ -52012,19 +52012,19 @@
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="Z578">
         <v>-1</v>
       </c>
       <c r="AA578">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB578">
         <v>-1</v>
       </c>
       <c r="AC578">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -52032,7 +52032,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>5207932</v>
+        <v>5212739</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52044,40 +52044,40 @@
         <v>44779.375</v>
       </c>
       <c r="F579" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G579" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H579">
+        <v>1</v>
+      </c>
+      <c r="I579">
         <v>0</v>
       </c>
-      <c r="I579">
-        <v>2</v>
-      </c>
       <c r="J579" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K579">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="L579">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M579">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N579">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O579">
         <v>3.3</v>
       </c>
       <c r="P579">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q579">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R579">
         <v>2.025</v>
@@ -52095,19 +52095,19 @@
         <v>1.975</v>
       </c>
       <c r="W579">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X579">
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z579">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA579">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB579">
         <v>-1</v>
@@ -57372,7 +57372,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>5207420</v>
+        <v>5207253</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57384,40 +57384,40 @@
         <v>44814.375</v>
       </c>
       <c r="F639" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G639" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J639" t="s">
         <v>68</v>
       </c>
       <c r="K639">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L639">
         <v>3.5</v>
       </c>
       <c r="M639">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N639">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O639">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P639">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="Q639">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R639">
         <v>2</v>
@@ -57426,7 +57426,7 @@
         <v>1.8</v>
       </c>
       <c r="T639">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U639">
         <v>2</v>
@@ -57441,7 +57441,7 @@
         <v>-1</v>
       </c>
       <c r="Y639">
-        <v>1.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z639">
         <v>-1</v>
@@ -57450,10 +57450,10 @@
         <v>0.8</v>
       </c>
       <c r="AB639">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC639">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="640" spans="1:29">
@@ -57461,7 +57461,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5207253</v>
+        <v>5207420</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57473,40 +57473,40 @@
         <v>44814.375</v>
       </c>
       <c r="F640" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G640" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I640">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J640" t="s">
         <v>68</v>
       </c>
       <c r="K640">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L640">
         <v>3.5</v>
       </c>
       <c r="M640">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="N640">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O640">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P640">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q640">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R640">
         <v>2</v>
@@ -57515,7 +57515,7 @@
         <v>1.8</v>
       </c>
       <c r="T640">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U640">
         <v>2</v>
@@ -57530,7 +57530,7 @@
         <v>-1</v>
       </c>
       <c r="Y640">
-        <v>0.8</v>
+        <v>1.875</v>
       </c>
       <c r="Z640">
         <v>-1</v>
@@ -57539,10 +57539,10 @@
         <v>0.8</v>
       </c>
       <c r="AB640">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC640">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -66984,7 +66984,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>5207450</v>
+        <v>5207242</v>
       </c>
       <c r="C747" t="s">
         <v>28</v>
@@ -66996,76 +66996,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F747" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G747" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I747">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J747" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K747">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L747">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M747">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N747">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O747">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P747">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q747">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R747">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S747">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T747">
         <v>2.5</v>
       </c>
       <c r="U747">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V747">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W747">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X747">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y747">
         <v>-1</v>
       </c>
       <c r="Z747">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA747">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB747">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC747">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="748" spans="1:29">
@@ -67073,7 +67073,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5207242</v>
+        <v>5207449</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67085,58 +67085,58 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F748" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G748" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H748">
         <v>4</v>
       </c>
       <c r="I748">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J748" t="s">
         <v>67</v>
       </c>
       <c r="K748">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L748">
+        <v>3.4</v>
+      </c>
+      <c r="M748">
+        <v>3.1</v>
+      </c>
+      <c r="N748">
+        <v>1.8</v>
+      </c>
+      <c r="O748">
         <v>3.6</v>
       </c>
-      <c r="M748">
-        <v>4.2</v>
-      </c>
-      <c r="N748">
-        <v>1.7</v>
-      </c>
-      <c r="O748">
-        <v>3.75</v>
-      </c>
       <c r="P748">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q748">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R748">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S748">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T748">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U748">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V748">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W748">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X748">
         <v>-1</v>
@@ -67145,13 +67145,13 @@
         <v>-1</v>
       </c>
       <c r="Z748">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA748">
         <v>-1</v>
       </c>
       <c r="AB748">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC748">
         <v>-1</v>
@@ -67162,7 +67162,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>5207449</v>
+        <v>5207450</v>
       </c>
       <c r="C749" t="s">
         <v>28</v>
@@ -67174,76 +67174,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F749" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G749" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H749">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I749">
+        <v>1</v>
+      </c>
+      <c r="J749" t="s">
+        <v>66</v>
+      </c>
+      <c r="K749">
+        <v>2.25</v>
+      </c>
+      <c r="L749">
+        <v>3.3</v>
+      </c>
+      <c r="M749">
+        <v>2.9</v>
+      </c>
+      <c r="N749">
+        <v>2.2</v>
+      </c>
+      <c r="O749">
+        <v>3.3</v>
+      </c>
+      <c r="P749">
         <v>3</v>
       </c>
-      <c r="J749" t="s">
-        <v>67</v>
-      </c>
-      <c r="K749">
-        <v>2.1</v>
-      </c>
-      <c r="L749">
-        <v>3.4</v>
-      </c>
-      <c r="M749">
-        <v>3.1</v>
-      </c>
-      <c r="N749">
-        <v>1.8</v>
-      </c>
-      <c r="O749">
-        <v>3.6</v>
-      </c>
-      <c r="P749">
-        <v>3.8</v>
-      </c>
       <c r="Q749">
+        <v>-0.25</v>
+      </c>
+      <c r="R749">
+        <v>1.925</v>
+      </c>
+      <c r="S749">
+        <v>1.875</v>
+      </c>
+      <c r="T749">
+        <v>2.5</v>
+      </c>
+      <c r="U749">
+        <v>1.825</v>
+      </c>
+      <c r="V749">
+        <v>1.975</v>
+      </c>
+      <c r="W749">
+        <v>-1</v>
+      </c>
+      <c r="X749">
+        <v>2.3</v>
+      </c>
+      <c r="Y749">
+        <v>-1</v>
+      </c>
+      <c r="Z749">
         <v>-0.5</v>
       </c>
-      <c r="R749">
-        <v>1.825</v>
-      </c>
-      <c r="S749">
-        <v>1.975</v>
-      </c>
-      <c r="T749">
-        <v>2.75</v>
-      </c>
-      <c r="U749">
-        <v>1.9</v>
-      </c>
-      <c r="V749">
-        <v>1.9</v>
-      </c>
-      <c r="W749">
-        <v>0.8</v>
-      </c>
-      <c r="X749">
-        <v>-1</v>
-      </c>
-      <c r="Y749">
-        <v>-1</v>
-      </c>
-      <c r="Z749">
-        <v>0.825</v>
-      </c>
       <c r="AA749">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB749">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC749">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="750" spans="1:29">
@@ -69565,7 +69565,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5212703</v>
+        <v>5207456</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69577,76 +69577,76 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F776" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G776" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I776">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J776" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K776">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L776">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M776">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="N776">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O776">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P776">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q776">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R776">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S776">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T776">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U776">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V776">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W776">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X776">
         <v>-1</v>
       </c>
       <c r="Y776">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z776">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA776">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB776">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC776">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -69654,7 +69654,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5212493</v>
+        <v>5207948</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69666,49 +69666,49 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F777" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G777" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H777">
         <v>2</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J777" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K777">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L777">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M777">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N777">
+        <v>3</v>
+      </c>
+      <c r="O777">
         <v>3.2</v>
       </c>
-      <c r="O777">
-        <v>3.4</v>
-      </c>
       <c r="P777">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q777">
         <v>0.25</v>
       </c>
       <c r="R777">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S777">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T777">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U777">
         <v>1.85</v>
@@ -69717,25 +69717,25 @@
         <v>1.95</v>
       </c>
       <c r="W777">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z777">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA777">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB777">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC777">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="778" spans="1:29">
@@ -69743,7 +69743,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5207456</v>
+        <v>5212493</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69755,58 +69755,58 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F778" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G778" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H778">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I778">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J778" t="s">
         <v>67</v>
       </c>
       <c r="K778">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L778">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M778">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N778">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O778">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P778">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q778">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R778">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S778">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T778">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U778">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V778">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W778">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X778">
         <v>-1</v>
@@ -69815,16 +69815,16 @@
         <v>-1</v>
       </c>
       <c r="Z778">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA778">
         <v>-1</v>
       </c>
       <c r="AB778">
+        <v>0.425</v>
+      </c>
+      <c r="AC778">
         <v>-0.5</v>
-      </c>
-      <c r="AC778">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69832,7 +69832,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5207948</v>
+        <v>5212703</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69844,28 +69844,28 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F779" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G779" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J779" t="s">
         <v>68</v>
       </c>
       <c r="K779">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="L779">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M779">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N779">
         <v>3</v>
@@ -69880,19 +69880,19 @@
         <v>0.25</v>
       </c>
       <c r="R779">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S779">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T779">
         <v>2.5</v>
       </c>
       <c r="U779">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V779">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W779">
         <v>-1</v>
@@ -69907,10 +69907,10 @@
         <v>-1</v>
       </c>
       <c r="AA779">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB779">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC779">
         <v>-1</v>
@@ -79355,7 +79355,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>5447800</v>
+        <v>5447797</v>
       </c>
       <c r="C886" t="s">
         <v>28</v>
@@ -79367,67 +79367,67 @@
         <v>45038.375</v>
       </c>
       <c r="F886" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G886" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I886">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J886" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K886">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L886">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M886">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N886">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="O886">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P886">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q886">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R886">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="S886">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T886">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U886">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V886">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W886">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X886">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y886">
         <v>-1</v>
       </c>
       <c r="Z886">
-        <v>0.875</v>
+        <v>1.2</v>
       </c>
       <c r="AA886">
         <v>-1</v>
@@ -79436,7 +79436,7 @@
         <v>-1</v>
       </c>
       <c r="AC886">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="887" spans="1:29">
@@ -79622,7 +79622,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>5447797</v>
+        <v>5447800</v>
       </c>
       <c r="C889" t="s">
         <v>28</v>
@@ -79634,67 +79634,67 @@
         <v>45038.375</v>
       </c>
       <c r="F889" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G889" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I889">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J889" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K889">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L889">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M889">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="N889">
+        <v>1.533</v>
+      </c>
+      <c r="O889">
         <v>4.333</v>
       </c>
-      <c r="O889">
-        <v>3.75</v>
-      </c>
       <c r="P889">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q889">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R889">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="S889">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T889">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U889">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V889">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W889">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X889">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y889">
         <v>-1</v>
       </c>
       <c r="Z889">
-        <v>1.2</v>
+        <v>0.875</v>
       </c>
       <c r="AA889">
         <v>-1</v>
@@ -79703,7 +79703,7 @@
         <v>-1</v>
       </c>
       <c r="AC889">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="890" spans="1:29">
@@ -80245,7 +80245,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>5465166</v>
+        <v>5465120</v>
       </c>
       <c r="C896" t="s">
         <v>28</v>
@@ -80257,76 +80257,76 @@
         <v>45045.375</v>
       </c>
       <c r="F896" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G896" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H896">
+        <v>2</v>
+      </c>
+      <c r="I896">
+        <v>0</v>
+      </c>
+      <c r="J896" t="s">
+        <v>67</v>
+      </c>
+      <c r="K896">
+        <v>3.8</v>
+      </c>
+      <c r="L896">
+        <v>3.75</v>
+      </c>
+      <c r="M896">
+        <v>1.833</v>
+      </c>
+      <c r="N896">
+        <v>4</v>
+      </c>
+      <c r="O896">
+        <v>3.8</v>
+      </c>
+      <c r="P896">
+        <v>1.8</v>
+      </c>
+      <c r="Q896">
+        <v>0.5</v>
+      </c>
+      <c r="R896">
+        <v>2</v>
+      </c>
+      <c r="S896">
+        <v>1.85</v>
+      </c>
+      <c r="T896">
+        <v>3</v>
+      </c>
+      <c r="U896">
+        <v>2.025</v>
+      </c>
+      <c r="V896">
+        <v>1.825</v>
+      </c>
+      <c r="W896">
+        <v>3</v>
+      </c>
+      <c r="X896">
+        <v>-1</v>
+      </c>
+      <c r="Y896">
+        <v>-1</v>
+      </c>
+      <c r="Z896">
         <v>1</v>
       </c>
-      <c r="I896">
-        <v>1</v>
-      </c>
-      <c r="J896" t="s">
-        <v>66</v>
-      </c>
-      <c r="K896">
-        <v>2.3</v>
-      </c>
-      <c r="L896">
-        <v>3.25</v>
-      </c>
-      <c r="M896">
-        <v>3</v>
-      </c>
-      <c r="N896">
-        <v>2.375</v>
-      </c>
-      <c r="O896">
-        <v>3.25</v>
-      </c>
-      <c r="P896">
-        <v>2.9</v>
-      </c>
-      <c r="Q896">
-        <v>-0.25</v>
-      </c>
-      <c r="R896">
-        <v>2.05</v>
-      </c>
-      <c r="S896">
-        <v>1.8</v>
-      </c>
-      <c r="T896">
-        <v>2.5</v>
-      </c>
-      <c r="U896">
-        <v>1.925</v>
-      </c>
-      <c r="V896">
-        <v>1.925</v>
-      </c>
-      <c r="W896">
-        <v>-1</v>
-      </c>
-      <c r="X896">
-        <v>2.25</v>
-      </c>
-      <c r="Y896">
-        <v>-1</v>
-      </c>
-      <c r="Z896">
-        <v>-0.5</v>
-      </c>
       <c r="AA896">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB896">
         <v>-1</v>
       </c>
       <c r="AC896">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="897" spans="1:29">
@@ -80334,7 +80334,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>5465167</v>
+        <v>5465166</v>
       </c>
       <c r="C897" t="s">
         <v>28</v>
@@ -80346,76 +80346,76 @@
         <v>45045.375</v>
       </c>
       <c r="F897" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G897" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I897">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J897" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K897">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L897">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M897">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N897">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O897">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P897">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q897">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R897">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S897">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T897">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U897">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V897">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W897">
         <v>-1</v>
       </c>
       <c r="X897">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y897">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z897">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA897">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AB897">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC897">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="898" spans="1:29">
@@ -80423,7 +80423,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>5465120</v>
+        <v>5470244</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80435,76 +80435,76 @@
         <v>45045.375</v>
       </c>
       <c r="F898" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G898" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J898" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K898">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="L898">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M898">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="N898">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O898">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P898">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q898">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R898">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S898">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T898">
         <v>3</v>
       </c>
       <c r="U898">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V898">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W898">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X898">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y898">
         <v>-1</v>
       </c>
       <c r="Z898">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA898">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB898">
         <v>-1</v>
       </c>
       <c r="AC898">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="899" spans="1:29">
@@ -80512,7 +80512,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>5470244</v>
+        <v>5465167</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -80524,34 +80524,34 @@
         <v>45045.375</v>
       </c>
       <c r="F899" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G899" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I899">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J899" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K899">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L899">
         <v>3.3</v>
       </c>
       <c r="M899">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N899">
         <v>2.875</v>
       </c>
       <c r="O899">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P899">
         <v>2.3</v>
@@ -80560,7 +80560,7 @@
         <v>0.25</v>
       </c>
       <c r="R899">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S899">
         <v>2.025</v>
@@ -80572,28 +80572,28 @@
         <v>2</v>
       </c>
       <c r="V899">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W899">
         <v>-1</v>
       </c>
       <c r="X899">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y899">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z899">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA899">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB899">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC899">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="900" spans="1:29">
@@ -91726,7 +91726,7 @@
         <v>1023</v>
       </c>
       <c r="B1025">
-        <v>6881624</v>
+        <v>6881623</v>
       </c>
       <c r="C1025" t="s">
         <v>28</v>
@@ -91738,76 +91738,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1025" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G1025" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H1025">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1025">
         <v>1</v>
       </c>
       <c r="J1025" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1025">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L1025">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M1025">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N1025">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O1025">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P1025">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q1025">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1025">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S1025">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T1025">
         <v>3</v>
       </c>
       <c r="U1025">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V1025">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W1025">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X1025">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y1025">
         <v>-1</v>
       </c>
       <c r="Z1025">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA1025">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB1025">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC1025">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1026" spans="1:29">
@@ -91815,7 +91815,7 @@
         <v>1024</v>
       </c>
       <c r="B1026">
-        <v>6881321</v>
+        <v>6881624</v>
       </c>
       <c r="C1026" t="s">
         <v>28</v>
@@ -91827,76 +91827,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1026" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G1026" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1026">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1026" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1026">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="L1026">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M1026">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N1026">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O1026">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P1026">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q1026">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1026">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S1026">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T1026">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1026">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V1026">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W1026">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X1026">
         <v>-1</v>
       </c>
       <c r="Y1026">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1026">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA1026">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1026">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1026">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1027" spans="1:29">
@@ -91904,7 +91904,7 @@
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>6881623</v>
+        <v>6881321</v>
       </c>
       <c r="C1027" t="s">
         <v>28</v>
@@ -91916,76 +91916,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1027" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1027" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H1027">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1027">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1027" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1027">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L1027">
+        <v>3.4</v>
+      </c>
+      <c r="M1027">
+        <v>2.2</v>
+      </c>
+      <c r="N1027">
+        <v>2.9</v>
+      </c>
+      <c r="O1027">
         <v>3.6</v>
       </c>
-      <c r="M1027">
-        <v>4.333</v>
-      </c>
-      <c r="N1027">
-        <v>1.5</v>
-      </c>
-      <c r="O1027">
-        <v>4</v>
-      </c>
       <c r="P1027">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q1027">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R1027">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S1027">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T1027">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1027">
+        <v>1.925</v>
+      </c>
+      <c r="V1027">
         <v>1.875</v>
       </c>
-      <c r="V1027">
-        <v>1.925</v>
-      </c>
       <c r="W1027">
         <v>-1</v>
       </c>
       <c r="X1027">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y1027">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z1027">
         <v>-1</v>
       </c>
       <c r="AA1027">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1027">
         <v>-1</v>
       </c>
       <c r="AC1027">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1028" spans="1:29">
@@ -91993,7 +91993,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>6880358</v>
+        <v>6881322</v>
       </c>
       <c r="C1028" t="s">
         <v>28</v>
@@ -92005,10 +92005,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1028" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G1028" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H1028">
         <v>1</v>
@@ -92020,43 +92020,43 @@
         <v>67</v>
       </c>
       <c r="K1028">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1028">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1028">
+        <v>2.875</v>
+      </c>
+      <c r="N1028">
+        <v>2.3</v>
+      </c>
+      <c r="O1028">
+        <v>3.3</v>
+      </c>
+      <c r="P1028">
+        <v>2.75</v>
+      </c>
+      <c r="Q1028">
+        <v>0</v>
+      </c>
+      <c r="R1028">
+        <v>1.75</v>
+      </c>
+      <c r="S1028">
+        <v>2.05</v>
+      </c>
+      <c r="T1028">
         <v>2.5</v>
       </c>
-      <c r="N1028">
-        <v>2.1</v>
-      </c>
-      <c r="O1028">
-        <v>3.75</v>
-      </c>
-      <c r="P1028">
-        <v>2.875</v>
-      </c>
-      <c r="Q1028">
-        <v>-0.25</v>
-      </c>
-      <c r="R1028">
-        <v>1.925</v>
-      </c>
-      <c r="S1028">
-        <v>1.875</v>
-      </c>
-      <c r="T1028">
-        <v>2.75</v>
-      </c>
       <c r="U1028">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V1028">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W1028">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X1028">
         <v>-1</v>
@@ -92065,7 +92065,7 @@
         <v>-1</v>
       </c>
       <c r="Z1028">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA1028">
         <v>-1</v>
@@ -92074,7 +92074,7 @@
         <v>-1</v>
       </c>
       <c r="AC1028">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="1029" spans="1:29">
@@ -92082,7 +92082,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>6881322</v>
+        <v>6880358</v>
       </c>
       <c r="C1029" t="s">
         <v>28</v>
@@ -92094,10 +92094,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F1029" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G1029" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H1029">
         <v>1</v>
@@ -92109,43 +92109,43 @@
         <v>67</v>
       </c>
       <c r="K1029">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L1029">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1029">
+        <v>2.5</v>
+      </c>
+      <c r="N1029">
+        <v>2.1</v>
+      </c>
+      <c r="O1029">
+        <v>3.75</v>
+      </c>
+      <c r="P1029">
         <v>2.875</v>
       </c>
-      <c r="N1029">
-        <v>2.3</v>
-      </c>
-      <c r="O1029">
-        <v>3.3</v>
-      </c>
-      <c r="P1029">
+      <c r="Q1029">
+        <v>-0.25</v>
+      </c>
+      <c r="R1029">
+        <v>1.925</v>
+      </c>
+      <c r="S1029">
+        <v>1.875</v>
+      </c>
+      <c r="T1029">
         <v>2.75</v>
       </c>
-      <c r="Q1029">
-        <v>0</v>
-      </c>
-      <c r="R1029">
-        <v>1.75</v>
-      </c>
-      <c r="S1029">
-        <v>2.05</v>
-      </c>
-      <c r="T1029">
-        <v>2.5</v>
-      </c>
       <c r="U1029">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1029">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W1029">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X1029">
         <v>-1</v>
@@ -92154,7 +92154,7 @@
         <v>-1</v>
       </c>
       <c r="Z1029">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA1029">
         <v>-1</v>
@@ -92163,7 +92163,7 @@
         <v>-1</v>
       </c>
       <c r="AC1029">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1030" spans="1:29">
@@ -92349,7 +92349,7 @@
         <v>1030</v>
       </c>
       <c r="B1032">
-        <v>6881622</v>
+        <v>6881621</v>
       </c>
       <c r="C1032" t="s">
         <v>28</v>
@@ -92361,58 +92361,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1032" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G1032" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H1032">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1032">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1032" t="s">
         <v>67</v>
       </c>
       <c r="K1032">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L1032">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M1032">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N1032">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O1032">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P1032">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q1032">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R1032">
+        <v>1.95</v>
+      </c>
+      <c r="S1032">
+        <v>1.85</v>
+      </c>
+      <c r="T1032">
+        <v>3.25</v>
+      </c>
+      <c r="U1032">
+        <v>2</v>
+      </c>
+      <c r="V1032">
         <v>1.8</v>
       </c>
-      <c r="S1032">
-        <v>2</v>
-      </c>
-      <c r="T1032">
-        <v>2.5</v>
-      </c>
-      <c r="U1032">
-        <v>1.875</v>
-      </c>
-      <c r="V1032">
-        <v>1.925</v>
-      </c>
       <c r="W1032">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="X1032">
         <v>-1</v>
@@ -92421,16 +92421,16 @@
         <v>-1</v>
       </c>
       <c r="Z1032">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1032">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB1032">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1032">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1033" spans="1:29">
@@ -92438,7 +92438,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>6881621</v>
+        <v>6881622</v>
       </c>
       <c r="C1033" t="s">
         <v>28</v>
@@ -92450,58 +92450,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F1033" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G1033" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1033">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1033" t="s">
         <v>67</v>
       </c>
       <c r="K1033">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L1033">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1033">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N1033">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O1033">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P1033">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q1033">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R1033">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S1033">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T1033">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1033">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1033">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W1033">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="X1033">
         <v>-1</v>
@@ -92510,16 +92510,16 @@
         <v>-1</v>
       </c>
       <c r="Z1033">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA1033">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB1033">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC1033">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1034" spans="1:29">
@@ -102762,7 +102762,7 @@
         <v>1147</v>
       </c>
       <c r="B1149">
-        <v>6881684</v>
+        <v>6880344</v>
       </c>
       <c r="C1149" t="s">
         <v>28</v>
@@ -102774,76 +102774,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1149" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G1149" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H1149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1149">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="L1149">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M1149">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N1149">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O1149">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P1149">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q1149">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R1149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S1149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T1149">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V1149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W1149">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X1149">
         <v>-1</v>
       </c>
       <c r="Y1149">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z1149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA1149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1150" spans="1:29">
@@ -102851,7 +102851,7 @@
         <v>1148</v>
       </c>
       <c r="B1150">
-        <v>6880524</v>
+        <v>6881688</v>
       </c>
       <c r="C1150" t="s">
         <v>28</v>
@@ -102863,76 +102863,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1150" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G1150" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1150" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K1150">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L1150">
         <v>3.4</v>
       </c>
       <c r="M1150">
+        <v>2.4</v>
+      </c>
+      <c r="N1150">
         <v>2.9</v>
       </c>
-      <c r="N1150">
-        <v>2.05</v>
-      </c>
       <c r="O1150">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P1150">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q1150">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1150">
         <v>1.825</v>
       </c>
       <c r="S1150">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T1150">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1150">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V1150">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W1150">
         <v>-1</v>
       </c>
       <c r="X1150">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y1150">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1150">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA1150">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC1150">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:29">
@@ -102940,7 +102940,7 @@
         <v>1149</v>
       </c>
       <c r="B1151">
-        <v>6881688</v>
+        <v>6881685</v>
       </c>
       <c r="C1151" t="s">
         <v>28</v>
@@ -102952,34 +102952,34 @@
         <v>45314.625</v>
       </c>
       <c r="F1151" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1151" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1151" t="s">
         <v>66</v>
       </c>
       <c r="K1151">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L1151">
+        <v>3.5</v>
+      </c>
+      <c r="M1151">
+        <v>2.25</v>
+      </c>
+      <c r="N1151">
+        <v>3</v>
+      </c>
+      <c r="O1151">
         <v>3.4</v>
-      </c>
-      <c r="M1151">
-        <v>2.4</v>
-      </c>
-      <c r="N1151">
-        <v>2.9</v>
-      </c>
-      <c r="O1151">
-        <v>3.5</v>
       </c>
       <c r="P1151">
         <v>2.15</v>
@@ -102988,31 +102988,31 @@
         <v>0.25</v>
       </c>
       <c r="R1151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S1151">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T1151">
         <v>2.5</v>
       </c>
       <c r="U1151">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V1151">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W1151">
         <v>-1</v>
       </c>
       <c r="X1151">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y1151">
         <v>-1</v>
       </c>
       <c r="Z1151">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="AA1151">
         <v>-0.5</v>
@@ -103021,7 +103021,7 @@
         <v>-1</v>
       </c>
       <c r="AC1151">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1152" spans="1:29">
@@ -103029,7 +103029,7 @@
         <v>1150</v>
       </c>
       <c r="B1152">
-        <v>6881685</v>
+        <v>6881684</v>
       </c>
       <c r="C1152" t="s">
         <v>28</v>
@@ -103041,76 +103041,76 @@
         <v>45314.625</v>
       </c>
       <c r="F1152" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G1152" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1152" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K1152">
+        <v>2</v>
+      </c>
+      <c r="L1152">
+        <v>3.6</v>
+      </c>
+      <c r="M1152">
+        <v>3.2</v>
+      </c>
+      <c r="N1152">
+        <v>2.15</v>
+      </c>
+      <c r="O1152">
+        <v>3.5</v>
+      </c>
+      <c r="P1152">
+        <v>2.9</v>
+      </c>
+      <c r="Q1152">
+        <v>-0.25</v>
+      </c>
+      <c r="R1152">
+        <v>1.95</v>
+      </c>
+      <c r="S1152">
+        <v>1.85</v>
+      </c>
+      <c r="T1152">
         <v>2.75</v>
       </c>
-      <c r="L1152">
-        <v>3.5</v>
-      </c>
-      <c r="M1152">
-        <v>2.25</v>
-      </c>
-      <c r="N1152">
-        <v>3</v>
-      </c>
-      <c r="O1152">
-        <v>3.4</v>
-      </c>
-      <c r="P1152">
-        <v>2.15</v>
-      </c>
-      <c r="Q1152">
-        <v>0.25</v>
-      </c>
-      <c r="R1152">
-        <v>1.875</v>
-      </c>
-      <c r="S1152">
-        <v>1.925</v>
-      </c>
-      <c r="T1152">
-        <v>2.5</v>
-      </c>
       <c r="U1152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V1152">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W1152">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X1152">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1152">
         <v>-1</v>
       </c>
       <c r="Z1152">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA1152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1153" spans="1:29">
@@ -103118,7 +103118,7 @@
         <v>1151</v>
       </c>
       <c r="B1153">
-        <v>6880344</v>
+        <v>6880524</v>
       </c>
       <c r="C1153" t="s">
         <v>28</v>
@@ -103130,55 +103130,55 @@
         <v>45314.625</v>
       </c>
       <c r="F1153" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G1153" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1153" t="s">
         <v>68</v>
       </c>
       <c r="K1153">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="L1153">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M1153">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="N1153">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O1153">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P1153">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="Q1153">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1153">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S1153">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T1153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1153">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V1153">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W1153">
         <v>-1</v>
@@ -103187,19 +103187,19 @@
         <v>-1</v>
       </c>
       <c r="Y1153">
-        <v>0.833</v>
+        <v>2.1</v>
       </c>
       <c r="Z1153">
         <v>-1</v>
       </c>
       <c r="AA1153">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB1153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC1153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1154" spans="1:29">
@@ -103207,7 +103207,7 @@
         <v>1152</v>
       </c>
       <c r="B1154">
-        <v>6880370</v>
+        <v>6880480</v>
       </c>
       <c r="C1154" t="s">
         <v>28</v>
@@ -103219,19 +103219,19 @@
         <v>45315.625</v>
       </c>
       <c r="F1154" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G1154" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1154">
         <v>1</v>
       </c>
       <c r="I1154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1154" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K1154">
         <v>2</v>
@@ -103243,52 +103243,52 @@
         <v>3.25</v>
       </c>
       <c r="N1154">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O1154">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P1154">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q1154">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1154">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S1154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T1154">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1154">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V1154">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W1154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X1154">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y1154">
         <v>-1</v>
       </c>
       <c r="Z1154">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB1154">
         <v>-1</v>
       </c>
       <c r="AC1154">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="1155" spans="1:29">
@@ -103296,7 +103296,7 @@
         <v>1153</v>
       </c>
       <c r="B1155">
-        <v>6881342</v>
+        <v>6881687</v>
       </c>
       <c r="C1155" t="s">
         <v>28</v>
@@ -103308,76 +103308,76 @@
         <v>45315.625</v>
       </c>
       <c r="F1155" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G1155" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H1155">
+        <v>1</v>
+      </c>
+      <c r="I1155">
         <v>0</v>
       </c>
-      <c r="I1155">
-        <v>2</v>
-      </c>
       <c r="J1155" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1155">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L1155">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M1155">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N1155">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O1155">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P1155">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q1155">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1155">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S1155">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T1155">
         <v>2.5</v>
       </c>
       <c r="U1155">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V1155">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W1155">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X1155">
         <v>-1</v>
       </c>
       <c r="Y1155">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z1155">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA1155">
+        <v>-0.5</v>
+      </c>
+      <c r="AB1155">
+        <v>-1</v>
+      </c>
+      <c r="AC1155">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB1155">
-        <v>-1</v>
-      </c>
-      <c r="AC1155">
-        <v>1.025</v>
       </c>
     </row>
     <row r="1156" spans="1:29">
@@ -103474,7 +103474,7 @@
         <v>1155</v>
       </c>
       <c r="B1157">
-        <v>6881687</v>
+        <v>6881342</v>
       </c>
       <c r="C1157" t="s">
         <v>28</v>
@@ -103486,76 +103486,76 @@
         <v>45315.625</v>
       </c>
       <c r="F1157" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G1157" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1157" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1157">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L1157">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M1157">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N1157">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O1157">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P1157">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q1157">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1157">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S1157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T1157">
         <v>2.5</v>
       </c>
       <c r="U1157">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V1157">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W1157">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X1157">
         <v>-1</v>
       </c>
       <c r="Y1157">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z1157">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA1157">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1157">
         <v>-1</v>
       </c>
       <c r="AC1157">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1158" spans="1:29">
@@ -103563,7 +103563,7 @@
         <v>1156</v>
       </c>
       <c r="B1158">
-        <v>6880480</v>
+        <v>6880370</v>
       </c>
       <c r="C1158" t="s">
         <v>28</v>
@@ -103575,19 +103575,19 @@
         <v>45315.625</v>
       </c>
       <c r="F1158" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G1158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1158">
         <v>1</v>
       </c>
       <c r="I1158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1158" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1158">
         <v>2</v>
@@ -103599,52 +103599,52 @@
         <v>3.25</v>
       </c>
       <c r="N1158">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O1158">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P1158">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q1158">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1158">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S1158">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T1158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1158">
+        <v>1.85</v>
+      </c>
+      <c r="V1158">
         <v>1.95</v>
       </c>
-      <c r="V1158">
-        <v>1.9</v>
-      </c>
       <c r="W1158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X1158">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y1158">
         <v>-1</v>
       </c>
       <c r="Z1158">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB1158">
         <v>-1</v>
       </c>
       <c r="AC1158">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1159" spans="1:29">
@@ -103830,7 +103830,7 @@
         <v>1159</v>
       </c>
       <c r="B1161">
-        <v>6881692</v>
+        <v>6881691</v>
       </c>
       <c r="C1161" t="s">
         <v>28</v>
@@ -103842,70 +103842,70 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1161" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G1161" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H1161">
+        <v>2</v>
+      </c>
+      <c r="I1161">
         <v>0</v>
       </c>
-      <c r="I1161">
-        <v>1</v>
-      </c>
       <c r="J1161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1161">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L1161">
+        <v>3.6</v>
+      </c>
+      <c r="M1161">
         <v>3.5</v>
       </c>
-      <c r="M1161">
-        <v>2</v>
-      </c>
       <c r="N1161">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="O1161">
         <v>3.4</v>
       </c>
       <c r="P1161">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q1161">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1161">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S1161">
         <v>1.8</v>
       </c>
       <c r="T1161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1161">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V1161">
         <v>1.85</v>
       </c>
       <c r="W1161">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X1161">
         <v>-1</v>
       </c>
       <c r="Y1161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z1161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1161">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1161">
         <v>-1</v>
@@ -103919,7 +103919,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>6881691</v>
+        <v>6881692</v>
       </c>
       <c r="C1162" t="s">
         <v>28</v>
@@ -103931,70 +103931,70 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1162" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G1162" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1162" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1162">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L1162">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M1162">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N1162">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="O1162">
         <v>3.4</v>
       </c>
       <c r="P1162">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q1162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1162">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S1162">
         <v>1.8</v>
       </c>
       <c r="T1162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V1162">
         <v>1.85</v>
       </c>
       <c r="W1162">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X1162">
         <v>-1</v>
       </c>
       <c r="Y1162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z1162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1162">
         <v>-1</v>
@@ -104581,10 +104581,10 @@
         <v>0.5</v>
       </c>
       <c r="R1169">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S1169">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T1169">
         <v>2.5</v>
@@ -104838,7 +104838,7 @@
         <v>1171</v>
       </c>
       <c r="B1173">
-        <v>6881694</v>
+        <v>6881696</v>
       </c>
       <c r="C1173" t="s">
         <v>28</v>
@@ -104850,46 +104850,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1173" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G1173" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K1173">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="L1173">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="M1173">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N1173">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="O1173">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="P1173">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q1173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1173">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S1173">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T1173">
         <v>2.5</v>
       </c>
       <c r="U1173">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V1173">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W1173">
         <v>0</v>
@@ -104912,7 +104912,7 @@
         <v>1172</v>
       </c>
       <c r="B1174">
-        <v>6881696</v>
+        <v>6881694</v>
       </c>
       <c r="C1174" t="s">
         <v>28</v>
@@ -104924,46 +104924,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1174" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G1174" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K1174">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="L1174">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="M1174">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N1174">
+        <v>1.55</v>
+      </c>
+      <c r="O1174">
+        <v>3.9</v>
+      </c>
+      <c r="P1174">
+        <v>5.5</v>
+      </c>
+      <c r="Q1174">
+        <v>-1</v>
+      </c>
+      <c r="R1174">
+        <v>1.95</v>
+      </c>
+      <c r="S1174">
+        <v>1.9</v>
+      </c>
+      <c r="T1174">
         <v>2.5</v>
       </c>
-      <c r="O1174">
-        <v>3.3</v>
-      </c>
-      <c r="P1174">
-        <v>2.6</v>
-      </c>
-      <c r="Q1174">
-        <v>0</v>
-      </c>
-      <c r="R1174">
+      <c r="U1174">
         <v>1.875</v>
       </c>
-      <c r="S1174">
+      <c r="V1174">
         <v>1.975</v>
-      </c>
-      <c r="T1174">
-        <v>2.75</v>
-      </c>
-      <c r="U1174">
-        <v>2.025</v>
-      </c>
-      <c r="V1174">
-        <v>1.825</v>
       </c>
       <c r="W1174">
         <v>0</v>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Waldhof Mannheim</t>
   </si>
   <si>
-    <t>RotWeiss Essen</t>
+    <t>Wehen SV</t>
   </si>
   <si>
-    <t>Wehen SV</t>
+    <t>RotWeiss Essen</t>
   </si>
   <si>
     <t>Dynamo Dresden</t>
@@ -142,13 +142,13 @@
     <t>Elversberg</t>
   </si>
   <si>
-    <t>SV Meppen</t>
-  </si>
-  <si>
     <t>1860 Munich</t>
   </si>
   <si>
     <t>Erzgebirge Aue</t>
+  </si>
+  <si>
+    <t>SV Meppen</t>
   </si>
   <si>
     <t>VfB Oldenburg</t>
@@ -552,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC446"/>
+  <dimension ref="A1:AC440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,7 +1020,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5207446</v>
+        <v>5207445</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1109,73 +1109,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
         <v>1.85</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5207445</v>
+        <v>5207446</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1198,73 +1198,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
+        <v>4.75</v>
+      </c>
+      <c r="N8">
+        <v>1.8</v>
+      </c>
+      <c r="O8">
+        <v>3.5</v>
+      </c>
+      <c r="P8">
+        <v>4.333</v>
+      </c>
+      <c r="Q8">
+        <v>-0.5</v>
+      </c>
+      <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>2.5</v>
       </c>
-      <c r="N8">
-        <v>2.75</v>
-      </c>
-      <c r="O8">
-        <v>3.3</v>
-      </c>
-      <c r="P8">
-        <v>2.625</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>1</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1287,7 +1287,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5212491</v>
+        <v>5212490</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1821,43 +1821,43 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
         <v>1.8</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
         <v>2.5</v>
@@ -1866,22 +1866,22 @@
         <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
         <v>0.8999999999999999</v>
@@ -1895,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5212490</v>
+        <v>5207242</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1910,55 +1910,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>57</v>
       </c>
       <c r="K16">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
         <v>3.6</v>
       </c>
       <c r="M16">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1967,13 +1967,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.95</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.8</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1984,7 +1984,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5207242</v>
+        <v>5212491</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1999,70 +1999,70 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2177,7 +2177,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2444,7 +2444,7 @@
         <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2530,7 +2530,7 @@
         <v>44954.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -2975,7 +2975,7 @@
         <v>44954.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3156,7 +3156,7 @@
         <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>44956.625</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3423,7 +3423,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -3868,7 +3868,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3957,7 +3957,7 @@
         <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4043,7 +4043,7 @@
         <v>44962.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>47</v>
@@ -4221,7 +4221,7 @@
         <v>44967.625</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
@@ -4666,10 +4666,10 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" t="s">
         <v>42</v>
-      </c>
-      <c r="G47" t="s">
-        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5025,7 +5025,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5111,10 +5111,10 @@
         <v>44974.625</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5559,7 +5559,7 @@
         <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5734,7 +5734,7 @@
         <v>44976.375</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5823,7 +5823,7 @@
         <v>44976.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>48</v>
@@ -6004,7 +6004,7 @@
         <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6182,7 +6182,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6256,7 +6256,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5207463</v>
+        <v>5212496</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6268,76 +6268,76 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>58</v>
+      </c>
+      <c r="K65">
+        <v>2.15</v>
+      </c>
+      <c r="L65">
+        <v>3.2</v>
+      </c>
+      <c r="M65">
+        <v>3.25</v>
+      </c>
+      <c r="N65">
+        <v>2.375</v>
+      </c>
+      <c r="O65">
+        <v>3.4</v>
+      </c>
+      <c r="P65">
+        <v>2.9</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>1.8</v>
+      </c>
+      <c r="T65">
+        <v>2.5</v>
+      </c>
+      <c r="U65">
+        <v>1.8</v>
+      </c>
+      <c r="V65">
+        <v>2</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>2.4</v>
+      </c>
+      <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
+        <v>-0.5</v>
+      </c>
+      <c r="AA65">
+        <v>0.4</v>
+      </c>
+      <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65">
-        <v>2</v>
-      </c>
-      <c r="L65">
-        <v>3.4</v>
-      </c>
-      <c r="M65">
-        <v>3.4</v>
-      </c>
-      <c r="N65">
-        <v>1.833</v>
-      </c>
-      <c r="O65">
-        <v>3.6</v>
-      </c>
-      <c r="P65">
-        <v>3.75</v>
-      </c>
-      <c r="Q65">
-        <v>-0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.8</v>
-      </c>
-      <c r="S65">
-        <v>2</v>
-      </c>
-      <c r="T65">
-        <v>2.75</v>
-      </c>
-      <c r="U65">
-        <v>1.9</v>
-      </c>
-      <c r="V65">
-        <v>1.9</v>
-      </c>
-      <c r="W65">
-        <v>0.833</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>0.8</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.45</v>
-      </c>
-      <c r="AC65">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6449,7 +6449,7 @@
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6523,7 +6523,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5212496</v>
+        <v>5207463</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6535,76 +6535,76 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K68">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>0.8</v>
+      </c>
+      <c r="AA68">
+        <v>-1</v>
+      </c>
+      <c r="AB68">
+        <v>0.45</v>
+      </c>
+      <c r="AC68">
         <v>-0.5</v>
-      </c>
-      <c r="AA68">
-        <v>0.4</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6713,7 +6713,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
         <v>31</v>
@@ -6983,7 +6983,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7069,7 +7069,7 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7336,7 +7336,7 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7425,7 +7425,7 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
         <v>46</v>
@@ -7514,7 +7514,7 @@
         <v>44990.375</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -8051,7 +8051,7 @@
         <v>47</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8140,7 +8140,7 @@
         <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8226,10 +8226,10 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8493,7 +8493,7 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>31</v>
@@ -8763,7 +8763,7 @@
         <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>44999.625</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
@@ -8938,7 +8938,7 @@
         <v>44999.625</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
         <v>40</v>
@@ -9027,7 +9027,7 @@
         <v>44999.625</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
         <v>41</v>
@@ -9208,7 +9208,7 @@
         <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9564,7 +9564,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9653,7 +9653,7 @@
         <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9739,10 +9739,10 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9828,7 +9828,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>33</v>
@@ -10718,10 +10718,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10896,10 +10896,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F117" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" t="s">
         <v>34</v>
-      </c>
-      <c r="G117" t="s">
-        <v>35</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11074,7 +11074,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
         <v>48</v>
@@ -11344,7 +11344,7 @@
         <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11519,7 +11519,7 @@
         <v>45017.375</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
         <v>45</v>
@@ -11596,7 +11596,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5212778</v>
+        <v>5212729</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11611,55 +11611,55 @@
         <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>57</v>
       </c>
       <c r="K125">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N125">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
         <v>1.925</v>
       </c>
-      <c r="S125">
-        <v>1.875</v>
-      </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="V125">
-        <v>2</v>
-      </c>
       <c r="W125">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11668,16 +11668,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.8</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11774,7 +11774,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5212729</v>
+        <v>5212778</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11789,55 +11789,55 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
         <v>57</v>
       </c>
       <c r="K127">
+        <v>1.571</v>
+      </c>
+      <c r="L127">
+        <v>3.75</v>
+      </c>
+      <c r="M127">
+        <v>4.75</v>
+      </c>
+      <c r="N127">
+        <v>1.5</v>
+      </c>
+      <c r="O127">
+        <v>3.75</v>
+      </c>
+      <c r="P127">
+        <v>5.5</v>
+      </c>
+      <c r="Q127">
+        <v>-1</v>
+      </c>
+      <c r="R127">
+        <v>1.925</v>
+      </c>
+      <c r="S127">
+        <v>1.875</v>
+      </c>
+      <c r="T127">
         <v>2.75</v>
       </c>
-      <c r="L127">
-        <v>3.25</v>
-      </c>
-      <c r="M127">
-        <v>2.25</v>
-      </c>
-      <c r="N127">
-        <v>3.1</v>
-      </c>
-      <c r="O127">
-        <v>3.1</v>
-      </c>
-      <c r="P127">
-        <v>2.1</v>
-      </c>
-      <c r="Q127">
-        <v>0.25</v>
-      </c>
-      <c r="R127">
-        <v>1.875</v>
-      </c>
-      <c r="S127">
-        <v>1.925</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
-      </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11846,16 +11846,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12056,7 +12056,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12234,7 +12234,7 @@
         <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12323,7 +12323,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12409,7 +12409,7 @@
         <v>45024.375</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -12501,7 +12501,7 @@
         <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H135">
         <v>5</v>
@@ -12676,7 +12676,7 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -13388,7 +13388,7 @@
         <v>45031.375</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13480,7 +13480,7 @@
         <v>48</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13566,10 +13566,10 @@
         <v>45031.375</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13744,7 +13744,7 @@
         <v>45032.375</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
         <v>33</v>
@@ -14014,7 +14014,7 @@
         <v>47</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14189,7 +14189,7 @@
         <v>45038.375</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
         <v>37</v>
@@ -14281,7 +14281,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14545,7 +14545,7 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
         <v>31</v>
@@ -14637,7 +14637,7 @@
         <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14990,7 +14990,7 @@
         <v>45045.375</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
@@ -15079,10 +15079,10 @@
         <v>45045.375</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15616,7 +15616,7 @@
         <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15702,7 +15702,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
         <v>45</v>
@@ -15794,7 +15794,7 @@
         <v>47</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15972,7 +15972,7 @@
         <v>36</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16058,10 +16058,10 @@
         <v>45052.375</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16325,7 +16325,7 @@
         <v>45052.375</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
         <v>32</v>
@@ -17025,7 +17025,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>5538151</v>
+        <v>5533494</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17037,58 +17037,58 @@
         <v>45059.375</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H186">
         <v>2</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>57</v>
       </c>
       <c r="K186">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M186">
         <v>4.5</v>
       </c>
       <c r="N186">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P186">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T186">
         <v>3</v>
       </c>
       <c r="U186">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17097,16 +17097,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17114,7 +17114,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5538152</v>
+        <v>5538151</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17126,46 +17126,46 @@
         <v>45059.375</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K187">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="N187">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="O187">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P187">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q187">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
         <v>3</v>
@@ -17177,25 +17177,25 @@
         <v>2</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AA187">
         <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC187">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17203,7 +17203,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5533494</v>
+        <v>5538152</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17215,76 +17215,76 @@
         <v>45059.375</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K188">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="L188">
         <v>4</v>
       </c>
       <c r="M188">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P188">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R188">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
         <v>3</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z188">
         <v>0.5</v>
       </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17304,10 +17304,10 @@
         <v>45060.33333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17396,7 +17396,7 @@
         <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17482,7 +17482,7 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
         <v>48</v>
@@ -17571,7 +17571,7 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
         <v>33</v>
@@ -17660,7 +17660,7 @@
         <v>45066.375</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
         <v>38</v>
@@ -17752,7 +17752,7 @@
         <v>46</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -18108,7 +18108,7 @@
         <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18372,7 +18372,7 @@
         <v>45068.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G201" t="s">
         <v>36</v>
@@ -18461,7 +18461,7 @@
         <v>45073.35416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18553,7 +18553,7 @@
         <v>29</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18731,7 +18731,7 @@
         <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -18906,7 +18906,7 @@
         <v>45073.35416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>40</v>
@@ -19087,7 +19087,7 @@
         <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19354,7 +19354,7 @@
         <v>46</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19428,7 +19428,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6881307</v>
+        <v>6880239</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19440,58 +19440,58 @@
         <v>45143.375</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>57</v>
       </c>
       <c r="K213">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L213">
         <v>3.5</v>
       </c>
       <c r="M213">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N213">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
         <v>3</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19500,16 +19500,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19517,7 +19517,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6880239</v>
+        <v>6881308</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19529,76 +19529,76 @@
         <v>45143.375</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K214">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L214">
+        <v>3.75</v>
+      </c>
+      <c r="M214">
+        <v>1.8</v>
+      </c>
+      <c r="N214">
+        <v>3.1</v>
+      </c>
+      <c r="O214">
         <v>3.5</v>
       </c>
-      <c r="M214">
-        <v>2.9</v>
-      </c>
-      <c r="N214">
-        <v>2</v>
-      </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
       <c r="P214">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19606,7 +19606,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6881308</v>
+        <v>6881588</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19618,76 +19618,76 @@
         <v>45143.375</v>
       </c>
       <c r="F215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G215" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>58</v>
       </c>
       <c r="K215">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M215">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N215">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V215">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19695,7 +19695,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6881588</v>
+        <v>6881307</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19707,76 +19707,76 @@
         <v>45143.375</v>
       </c>
       <c r="F216" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K216">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L216">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N216">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P216">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X216">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA216">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC216">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20152,7 +20152,7 @@
         <v>45144.60416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
         <v>38</v>
@@ -20333,7 +20333,7 @@
         <v>47</v>
       </c>
       <c r="G223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -21042,10 +21042,10 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21119,7 +21119,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6880353</v>
+        <v>6881596</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21131,76 +21131,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>56</v>
+      </c>
+      <c r="K232">
+        <v>1.615</v>
+      </c>
+      <c r="L232">
+        <v>3.75</v>
+      </c>
+      <c r="M232">
+        <v>4.75</v>
+      </c>
+      <c r="N232">
+        <v>1.615</v>
+      </c>
+      <c r="O232">
+        <v>4</v>
+      </c>
+      <c r="P232">
+        <v>4.5</v>
+      </c>
+      <c r="Q232">
+        <v>-0.75</v>
+      </c>
+      <c r="R232">
+        <v>1.775</v>
+      </c>
+      <c r="S232">
+        <v>2.025</v>
+      </c>
+      <c r="T232">
         <v>3</v>
       </c>
-      <c r="I232">
-        <v>1</v>
-      </c>
-      <c r="J232" t="s">
-        <v>57</v>
-      </c>
-      <c r="K232">
-        <v>2.3</v>
-      </c>
-      <c r="L232">
-        <v>3.4</v>
-      </c>
-      <c r="M232">
-        <v>2.8</v>
-      </c>
-      <c r="N232">
-        <v>2.25</v>
-      </c>
-      <c r="O232">
-        <v>3.2</v>
-      </c>
-      <c r="P232">
-        <v>2.8</v>
-      </c>
-      <c r="Q232">
-        <v>-0.25</v>
-      </c>
-      <c r="R232">
-        <v>2.025</v>
-      </c>
-      <c r="S232">
-        <v>1.775</v>
-      </c>
-      <c r="T232">
-        <v>2.75</v>
-      </c>
       <c r="U232">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z232">
+        <v>-1</v>
+      </c>
+      <c r="AA232">
         <v>1.025</v>
       </c>
-      <c r="AA232">
-        <v>-1</v>
-      </c>
       <c r="AB232">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21208,7 +21208,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6880327</v>
+        <v>6881313</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21220,58 +21220,58 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>57</v>
       </c>
       <c r="K233">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="L233">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N233">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T233">
         <v>3</v>
       </c>
       <c r="U233">
+        <v>1.95</v>
+      </c>
+      <c r="V233">
         <v>1.85</v>
       </c>
-      <c r="V233">
-        <v>1.95</v>
-      </c>
       <c r="W233">
-        <v>0.6499999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21280,16 +21280,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21386,7 +21386,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6881313</v>
+        <v>6880353</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21398,58 +21398,58 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G235" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H235">
+        <v>3</v>
+      </c>
+      <c r="I235">
         <v>1</v>
-      </c>
-      <c r="I235">
-        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>57</v>
       </c>
       <c r="K235">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L235">
         <v>3.4</v>
       </c>
       <c r="M235">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N235">
+        <v>2.25</v>
+      </c>
+      <c r="O235">
+        <v>3.2</v>
+      </c>
+      <c r="P235">
         <v>2.8</v>
       </c>
-      <c r="O235">
-        <v>3.5</v>
-      </c>
-      <c r="P235">
-        <v>2.25</v>
-      </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S235">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T235">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21458,16 +21458,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21475,7 +21475,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6881596</v>
+        <v>6880327</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21487,70 +21487,70 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
         <v>1</v>
       </c>
-      <c r="I236">
-        <v>2</v>
-      </c>
       <c r="J236" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K236">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="L236">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M236">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N236">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O236">
         <v>4</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q236">
         <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S236">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>3</v>
       </c>
       <c r="U236">
+        <v>1.85</v>
+      </c>
+      <c r="V236">
         <v>1.95</v>
       </c>
-      <c r="V236">
-        <v>1.85</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA236">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
         <v>0</v>
@@ -21579,7 +21579,7 @@
         <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21653,7 +21653,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6881597</v>
+        <v>6881595</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21665,10 +21665,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -21680,25 +21680,25 @@
         <v>58</v>
       </c>
       <c r="K238">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L238">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N238">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R238">
         <v>1.85</v>
@@ -21710,31 +21710,31 @@
         <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA238">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21742,7 +21742,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6881595</v>
+        <v>6881597</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21754,10 +21754,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G239" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -21769,25 +21769,25 @@
         <v>58</v>
       </c>
       <c r="K239">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N239">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O239">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
         <v>1.85</v>
@@ -21799,31 +21799,31 @@
         <v>2.75</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21932,7 +21932,7 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
         <v>53</v>
@@ -22291,7 +22291,7 @@
         <v>49</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22558,7 +22558,7 @@
         <v>53</v>
       </c>
       <c r="G248" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -22822,7 +22822,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
         <v>51</v>
@@ -23092,7 +23092,7 @@
         <v>32</v>
       </c>
       <c r="G254" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -23445,10 +23445,10 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F258" t="s">
+        <v>42</v>
+      </c>
+      <c r="G258" t="s">
         <v>43</v>
-      </c>
-      <c r="G258" t="s">
-        <v>44</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -24246,7 +24246,7 @@
         <v>45185.375</v>
       </c>
       <c r="F267" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
         <v>50</v>
@@ -24338,7 +24338,7 @@
         <v>38</v>
       </c>
       <c r="G268" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24424,7 +24424,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F269" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G269" t="s">
         <v>46</v>
@@ -25228,7 +25228,7 @@
         <v>46</v>
       </c>
       <c r="G278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>52</v>
       </c>
       <c r="G279" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H279">
         <v>2</v>
@@ -25495,7 +25495,7 @@
         <v>36</v>
       </c>
       <c r="G281" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H281">
         <v>2</v>
@@ -25937,7 +25937,7 @@
         <v>45199.375</v>
       </c>
       <c r="F286" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G286" t="s">
         <v>40</v>
@@ -26014,7 +26014,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6880331</v>
+        <v>6880513</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26026,76 +26026,76 @@
         <v>45199.375</v>
       </c>
       <c r="F287" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287" t="s">
+        <v>58</v>
+      </c>
+      <c r="K287">
+        <v>2.3</v>
+      </c>
+      <c r="L287">
+        <v>3.4</v>
+      </c>
+      <c r="M287">
+        <v>2.7</v>
+      </c>
+      <c r="N287">
+        <v>2.55</v>
+      </c>
+      <c r="O287">
+        <v>3.4</v>
+      </c>
+      <c r="P287">
+        <v>2.45</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>1.95</v>
+      </c>
+      <c r="S287">
+        <v>1.85</v>
+      </c>
+      <c r="T287">
         <v>3</v>
       </c>
-      <c r="I287">
-        <v>1</v>
-      </c>
-      <c r="J287" t="s">
-        <v>57</v>
-      </c>
-      <c r="K287">
-        <v>1.8</v>
-      </c>
-      <c r="L287">
-        <v>3.6</v>
-      </c>
-      <c r="M287">
-        <v>3.75</v>
-      </c>
-      <c r="N287">
-        <v>1.833</v>
-      </c>
-      <c r="O287">
-        <v>3.6</v>
-      </c>
-      <c r="P287">
-        <v>3.6</v>
-      </c>
-      <c r="Q287">
-        <v>-0.5</v>
-      </c>
-      <c r="R287">
-        <v>1.85</v>
-      </c>
-      <c r="S287">
-        <v>1.95</v>
-      </c>
-      <c r="T287">
-        <v>2.75</v>
-      </c>
       <c r="U287">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V287">
         <v>1.875</v>
       </c>
       <c r="W287">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB287">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26103,7 +26103,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6880513</v>
+        <v>6880331</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26115,76 +26115,76 @@
         <v>45199.375</v>
       </c>
       <c r="F288" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G288" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K288">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L288">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M288">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N288">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O288">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P288">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q288">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R288">
+        <v>1.85</v>
+      </c>
+      <c r="S288">
         <v>1.95</v>
       </c>
-      <c r="S288">
-        <v>1.85</v>
-      </c>
       <c r="T288">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V288">
         <v>1.875</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X288">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA288">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26293,7 +26293,7 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G290" t="s">
         <v>36</v>
@@ -26471,7 +26471,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F292" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G292" t="s">
         <v>50</v>
@@ -26726,7 +26726,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6881322</v>
+        <v>6880358</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26738,10 +26738,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F295" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G295" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26753,43 +26753,43 @@
         <v>57</v>
       </c>
       <c r="K295">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L295">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M295">
+        <v>2.5</v>
+      </c>
+      <c r="N295">
+        <v>2.1</v>
+      </c>
+      <c r="O295">
+        <v>3.75</v>
+      </c>
+      <c r="P295">
         <v>2.875</v>
       </c>
-      <c r="N295">
-        <v>2.3</v>
-      </c>
-      <c r="O295">
-        <v>3.3</v>
-      </c>
-      <c r="P295">
+      <c r="Q295">
+        <v>-0.25</v>
+      </c>
+      <c r="R295">
+        <v>1.925</v>
+      </c>
+      <c r="S295">
+        <v>1.875</v>
+      </c>
+      <c r="T295">
         <v>2.75</v>
       </c>
-      <c r="Q295">
-        <v>0</v>
-      </c>
-      <c r="R295">
-        <v>1.75</v>
-      </c>
-      <c r="S295">
-        <v>2.05</v>
-      </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
       <c r="U295">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V295">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W295">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X295">
         <v>-1</v>
@@ -26798,7 +26798,7 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA295">
         <v>-1</v>
@@ -26807,7 +26807,7 @@
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26815,7 +26815,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6880358</v>
+        <v>6881624</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26827,55 +26827,55 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G296" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H296">
+        <v>3</v>
+      </c>
+      <c r="I296">
         <v>1</v>
-      </c>
-      <c r="I296">
-        <v>0</v>
       </c>
       <c r="J296" t="s">
         <v>57</v>
       </c>
       <c r="K296">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L296">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M296">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N296">
         <v>2.1</v>
       </c>
       <c r="O296">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P296">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q296">
         <v>-0.25</v>
       </c>
       <c r="R296">
+        <v>1.875</v>
+      </c>
+      <c r="S296">
         <v>1.925</v>
       </c>
-      <c r="S296">
-        <v>1.875</v>
-      </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U296">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V296">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W296">
         <v>1.1</v>
@@ -26887,16 +26887,16 @@
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA296">
         <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC296">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26904,7 +26904,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6881624</v>
+        <v>6881322</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26916,58 +26916,58 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G297" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
         <v>57</v>
       </c>
       <c r="K297">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L297">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M297">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N297">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O297">
         <v>3.3</v>
       </c>
       <c r="P297">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q297">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R297">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S297">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T297">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W297">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X297">
         <v>-1</v>
@@ -26976,16 +26976,16 @@
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA297">
         <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27008,7 +27008,7 @@
         <v>51</v>
       </c>
       <c r="G298" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H298">
         <v>4</v>
@@ -27171,7 +27171,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6880332</v>
+        <v>6881622</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27183,13 +27183,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G300" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -27198,43 +27198,43 @@
         <v>57</v>
       </c>
       <c r="K300">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L300">
         <v>3.5</v>
       </c>
       <c r="M300">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N300">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O300">
         <v>3.4</v>
       </c>
       <c r="P300">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S300">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T300">
         <v>2.5</v>
       </c>
       <c r="U300">
+        <v>1.875</v>
+      </c>
+      <c r="V300">
         <v>1.925</v>
       </c>
-      <c r="V300">
-        <v>1.875</v>
-      </c>
       <c r="W300">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27243,16 +27243,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC300">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27260,7 +27260,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6881622</v>
+        <v>6880332</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27272,13 +27272,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F301" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G301" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H301">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -27287,43 +27287,43 @@
         <v>57</v>
       </c>
       <c r="K301">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L301">
         <v>3.5</v>
       </c>
       <c r="M301">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N301">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O301">
         <v>3.4</v>
       </c>
       <c r="P301">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q301">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S301">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T301">
         <v>2.5</v>
       </c>
       <c r="U301">
+        <v>1.925</v>
+      </c>
+      <c r="V301">
         <v>1.875</v>
       </c>
-      <c r="V301">
-        <v>1.925</v>
-      </c>
       <c r="W301">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X301">
         <v>-1</v>
@@ -27332,16 +27332,16 @@
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA301">
         <v>-1</v>
       </c>
       <c r="AB301">
+        <v>-1</v>
+      </c>
+      <c r="AC301">
         <v>0.875</v>
-      </c>
-      <c r="AC301">
-        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27438,7 +27438,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6880515</v>
+        <v>6880333</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27450,46 +27450,46 @@
         <v>45206.375</v>
       </c>
       <c r="F303" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G303" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H303">
         <v>1</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K303">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L303">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M303">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N303">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O303">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P303">
         <v>2.75</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R303">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S303">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
         <v>2.75</v>
@@ -27501,19 +27501,19 @@
         <v>1.9</v>
       </c>
       <c r="W303">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB303">
         <v>-1</v>
@@ -27527,7 +27527,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6881625</v>
+        <v>6880515</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27539,76 +27539,76 @@
         <v>45206.375</v>
       </c>
       <c r="F304" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G304" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304">
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K304">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L304">
         <v>3.4</v>
       </c>
       <c r="M304">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N304">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O304">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P304">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q304">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R304">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S304">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T304">
         <v>2.75</v>
       </c>
       <c r="U304">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V304">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X304">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AA304">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27616,7 +27616,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6881626</v>
+        <v>6881625</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27628,40 +27628,40 @@
         <v>45206.375</v>
       </c>
       <c r="F305" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G305" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H305">
         <v>0</v>
       </c>
       <c r="I305">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K305">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L305">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N305">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O305">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P305">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q305">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R305">
         <v>1.975</v>
@@ -27673,31 +27673,31 @@
         <v>2.75</v>
       </c>
       <c r="U305">
+        <v>1.95</v>
+      </c>
+      <c r="V305">
         <v>1.85</v>
       </c>
-      <c r="V305">
-        <v>1.95</v>
-      </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y305">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA305">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB305">
+        <v>-1</v>
+      </c>
+      <c r="AC305">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC305">
-        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27705,7 +27705,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6881628</v>
+        <v>6881626</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27717,73 +27717,73 @@
         <v>45206.375</v>
       </c>
       <c r="F306" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G306" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J306" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K306">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L306">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M306">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N306">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O306">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P306">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q306">
         <v>-0.25</v>
       </c>
       <c r="R306">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S306">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T306">
         <v>2.75</v>
       </c>
       <c r="U306">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V306">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB306">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC306">
         <v>-1</v>
@@ -27794,7 +27794,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6880333</v>
+        <v>6881628</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27806,76 +27806,76 @@
         <v>45206.375</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G307" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>58</v>
       </c>
       <c r="K307">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L307">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M307">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N307">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O307">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P307">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S307">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T307">
         <v>2.75</v>
       </c>
       <c r="U307">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V307">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA307">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC307">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27895,7 +27895,7 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F308" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G308" t="s">
         <v>31</v>
@@ -28254,7 +28254,7 @@
         <v>48</v>
       </c>
       <c r="G312" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -28521,7 +28521,7 @@
         <v>39</v>
       </c>
       <c r="G315" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H315">
         <v>2</v>
@@ -28877,7 +28877,7 @@
         <v>51</v>
       </c>
       <c r="G319" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -29141,7 +29141,7 @@
         <v>45220.375</v>
       </c>
       <c r="F322" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G322" t="s">
         <v>32</v>
@@ -29218,7 +29218,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6881637</v>
+        <v>6881636</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29230,58 +29230,58 @@
         <v>45220.375</v>
       </c>
       <c r="F323" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G323" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>57</v>
       </c>
       <c r="K323">
+        <v>1.615</v>
+      </c>
+      <c r="L323">
+        <v>4</v>
+      </c>
+      <c r="M323">
+        <v>4.75</v>
+      </c>
+      <c r="N323">
+        <v>1.533</v>
+      </c>
+      <c r="O323">
+        <v>4.2</v>
+      </c>
+      <c r="P323">
+        <v>5.5</v>
+      </c>
+      <c r="Q323">
+        <v>-1</v>
+      </c>
+      <c r="R323">
+        <v>1.85</v>
+      </c>
+      <c r="S323">
+        <v>1.95</v>
+      </c>
+      <c r="T323">
         <v>3</v>
       </c>
-      <c r="L323">
-        <v>3.5</v>
-      </c>
-      <c r="M323">
-        <v>2.2</v>
-      </c>
-      <c r="N323">
-        <v>3</v>
-      </c>
-      <c r="O323">
-        <v>3.5</v>
-      </c>
-      <c r="P323">
-        <v>2.15</v>
-      </c>
-      <c r="Q323">
-        <v>0.25</v>
-      </c>
-      <c r="R323">
-        <v>1.9</v>
-      </c>
-      <c r="S323">
-        <v>1.9</v>
-      </c>
-      <c r="T323">
-        <v>2.75</v>
-      </c>
       <c r="U323">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V323">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W323">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29290,16 +29290,16 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB323">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29396,7 +29396,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6881636</v>
+        <v>6881637</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29408,58 +29408,58 @@
         <v>45220.375</v>
       </c>
       <c r="F325" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G325" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J325" t="s">
         <v>57</v>
       </c>
       <c r="K325">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M325">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N325">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O325">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P325">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q325">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S325">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T325">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V325">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W325">
-        <v>0.5329999999999999</v>
+        <v>2</v>
       </c>
       <c r="X325">
         <v>-1</v>
@@ -29468,16 +29468,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA325">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC325">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29675,7 +29675,7 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G328" t="s">
         <v>31</v>
@@ -29764,7 +29764,7 @@
         <v>45221.60416666666</v>
       </c>
       <c r="F329" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G329" t="s">
         <v>52</v>
@@ -29945,7 +29945,7 @@
         <v>39</v>
       </c>
       <c r="G331" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H331">
         <v>2</v>
@@ -30019,7 +30019,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6881328</v>
+        <v>6881327</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30031,55 +30031,55 @@
         <v>45227.375</v>
       </c>
       <c r="F332" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G332" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J332" t="s">
         <v>56</v>
       </c>
       <c r="K332">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L332">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M332">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N332">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O332">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P332">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q332">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R332">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S332">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T332">
         <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V332">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W332">
         <v>-1</v>
@@ -30088,19 +30088,19 @@
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>3.333</v>
+        <v>1.375</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB332">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30123,7 +30123,7 @@
         <v>47</v>
       </c>
       <c r="G333" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H333">
         <v>1</v>
@@ -30286,7 +30286,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6881327</v>
+        <v>6881328</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30298,55 +30298,55 @@
         <v>45227.375</v>
       </c>
       <c r="F335" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G335" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J335" t="s">
         <v>56</v>
       </c>
       <c r="K335">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L335">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M335">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N335">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O335">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P335">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R335">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S335">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T335">
         <v>2.75</v>
       </c>
       <c r="U335">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W335">
         <v>-1</v>
@@ -30355,19 +30355,19 @@
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>1.375</v>
+        <v>3.333</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB335">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30568,7 +30568,7 @@
         <v>32</v>
       </c>
       <c r="G338" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H338">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>45233.625</v>
       </c>
       <c r="F339" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G339" t="s">
         <v>40</v>
@@ -31010,7 +31010,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F343" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G343" t="s">
         <v>54</v>
@@ -31099,7 +31099,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F344" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G344" t="s">
         <v>50</v>
@@ -31636,7 +31636,7 @@
         <v>31</v>
       </c>
       <c r="G350" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H350">
         <v>2</v>
@@ -31814,7 +31814,7 @@
         <v>55</v>
       </c>
       <c r="G352" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -32256,7 +32256,7 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F357" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G357" t="s">
         <v>33</v>
@@ -32612,7 +32612,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F361" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G361" t="s">
         <v>55</v>
@@ -32704,7 +32704,7 @@
         <v>38</v>
       </c>
       <c r="G362" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H362">
         <v>2</v>
@@ -32790,7 +32790,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F363" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G363" t="s">
         <v>48</v>
@@ -33668,7 +33668,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6881334</v>
+        <v>6880520</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33680,22 +33680,22 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F373" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G373" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H373">
         <v>1</v>
       </c>
       <c r="I373">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K373">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L373">
         <v>3.4</v>
@@ -33704,52 +33704,52 @@
         <v>2.9</v>
       </c>
       <c r="N373">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O373">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P373">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q373">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S373">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T373">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V373">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA373">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33757,7 +33757,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6880477</v>
+        <v>6881334</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33769,76 +33769,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F374" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G374" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374">
         <v>2</v>
       </c>
       <c r="J374" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K374">
+        <v>2.3</v>
+      </c>
+      <c r="L374">
+        <v>3.4</v>
+      </c>
+      <c r="M374">
+        <v>2.9</v>
+      </c>
+      <c r="N374">
         <v>2.05</v>
       </c>
-      <c r="L374">
+      <c r="O374">
         <v>3.5</v>
       </c>
-      <c r="M374">
+      <c r="P374">
         <v>3.4</v>
       </c>
-      <c r="N374">
-        <v>2.15</v>
-      </c>
-      <c r="O374">
-        <v>3.4</v>
-      </c>
-      <c r="P374">
-        <v>3.25</v>
-      </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R374">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S374">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T374">
         <v>2.75</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V374">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W374">
         <v>-1</v>
       </c>
       <c r="X374">
+        <v>-1</v>
+      </c>
+      <c r="Y374">
         <v>2.4</v>
       </c>
-      <c r="Y374">
-        <v>-1</v>
-      </c>
       <c r="Z374">
+        <v>-1</v>
+      </c>
+      <c r="AA374">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB374">
+        <v>0.3875</v>
+      </c>
+      <c r="AC374">
         <v>-0.5</v>
-      </c>
-      <c r="AA374">
-        <v>0.5</v>
-      </c>
-      <c r="AB374">
-        <v>0.825</v>
-      </c>
-      <c r="AC374">
-        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33846,7 +33846,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6880520</v>
+        <v>6880477</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33858,28 +33858,28 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F375" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G375" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J375" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K375">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L375">
+        <v>3.5</v>
+      </c>
+      <c r="M375">
         <v>3.4</v>
-      </c>
-      <c r="M375">
-        <v>2.9</v>
       </c>
       <c r="N375">
         <v>2.15</v>
@@ -33888,7 +33888,7 @@
         <v>3.4</v>
       </c>
       <c r="P375">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q375">
         <v>-0.25</v>
@@ -33900,34 +33900,34 @@
         <v>2</v>
       </c>
       <c r="T375">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U375">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V375">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W375">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X375">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA375">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB375">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC375">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -34217,7 +34217,7 @@
         <v>48</v>
       </c>
       <c r="G379" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H379">
         <v>3</v>
@@ -34748,7 +34748,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F385" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G385" t="s">
         <v>47</v>
@@ -35104,7 +35104,7 @@
         <v>45275.625</v>
       </c>
       <c r="F389" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G389" t="s">
         <v>49</v>
@@ -35374,7 +35374,7 @@
         <v>33</v>
       </c>
       <c r="G392" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H392">
         <v>3</v>
@@ -35819,7 +35819,7 @@
         <v>54</v>
       </c>
       <c r="G397" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H397">
         <v>2</v>
@@ -35982,7 +35982,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>6881676</v>
+        <v>6880368</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35994,76 +35994,76 @@
         <v>45279.625</v>
       </c>
       <c r="F399" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G399" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H399">
         <v>1</v>
       </c>
       <c r="I399">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J399" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K399">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L399">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M399">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N399">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O399">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P399">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q399">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R399">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S399">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T399">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U399">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V399">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W399">
         <v>-1</v>
       </c>
       <c r="X399">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y399">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB399">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC399">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36071,7 +36071,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>6880368</v>
+        <v>6881338</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36083,34 +36083,34 @@
         <v>45279.625</v>
       </c>
       <c r="F400" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G400" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H400">
         <v>1</v>
       </c>
       <c r="I400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J400" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K400">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L400">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M400">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N400">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O400">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P400">
         <v>4</v>
@@ -36119,40 +36119,40 @@
         <v>-0.75</v>
       </c>
       <c r="R400">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S400">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T400">
         <v>3</v>
       </c>
       <c r="U400">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V400">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W400">
         <v>-1</v>
       </c>
       <c r="X400">
+        <v>-1</v>
+      </c>
+      <c r="Y400">
         <v>3</v>
       </c>
-      <c r="Y400">
-        <v>-1</v>
-      </c>
       <c r="Z400">
         <v>-1</v>
       </c>
       <c r="AA400">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB400">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC400">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36160,7 +36160,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6881338</v>
+        <v>6881676</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36172,10 +36172,10 @@
         <v>45279.625</v>
       </c>
       <c r="F401" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G401" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H401">
         <v>1</v>
@@ -36187,40 +36187,40 @@
         <v>56</v>
       </c>
       <c r="K401">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L401">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M401">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N401">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="O401">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P401">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q401">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R401">
         <v>2.025</v>
       </c>
       <c r="S401">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T401">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U401">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V401">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W401">
         <v>-1</v>
@@ -36229,19 +36229,19 @@
         <v>-1</v>
       </c>
       <c r="Y401">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="Z401">
         <v>-1</v>
       </c>
       <c r="AA401">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB401">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC401">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36350,7 +36350,7 @@
         <v>45279.625</v>
       </c>
       <c r="F403" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G403" t="s">
         <v>46</v>
@@ -36427,7 +36427,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6880522</v>
+        <v>6881675</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36439,40 +36439,40 @@
         <v>45280.625</v>
       </c>
       <c r="F404" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G404" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H404">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K404">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L404">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M404">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N404">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O404">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P404">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q404">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R404">
         <v>1.95</v>
@@ -36481,34 +36481,34 @@
         <v>1.85</v>
       </c>
       <c r="T404">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U404">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V404">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W404">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X404">
         <v>-1</v>
       </c>
       <c r="Y404">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z404">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB404">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36516,7 +36516,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>6880342</v>
+        <v>6881679</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36528,76 +36528,76 @@
         <v>45280.625</v>
       </c>
       <c r="F405" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G405" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H405">
         <v>1</v>
       </c>
       <c r="I405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J405" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K405">
+        <v>2</v>
+      </c>
+      <c r="L405">
+        <v>3.75</v>
+      </c>
+      <c r="M405">
+        <v>3.4</v>
+      </c>
+      <c r="N405">
+        <v>2.05</v>
+      </c>
+      <c r="O405">
+        <v>3.6</v>
+      </c>
+      <c r="P405">
+        <v>3.25</v>
+      </c>
+      <c r="Q405">
+        <v>-0.25</v>
+      </c>
+      <c r="R405">
+        <v>1.825</v>
+      </c>
+      <c r="S405">
+        <v>1.975</v>
+      </c>
+      <c r="T405">
+        <v>2.75</v>
+      </c>
+      <c r="U405">
+        <v>1.825</v>
+      </c>
+      <c r="V405">
+        <v>1.975</v>
+      </c>
+      <c r="W405">
+        <v>-1</v>
+      </c>
+      <c r="X405">
         <v>2.6</v>
       </c>
-      <c r="L405">
-        <v>3.4</v>
-      </c>
-      <c r="M405">
-        <v>2.625</v>
-      </c>
-      <c r="N405">
-        <v>2.8</v>
-      </c>
-      <c r="O405">
-        <v>3.4</v>
-      </c>
-      <c r="P405">
-        <v>2.45</v>
-      </c>
-      <c r="Q405">
-        <v>0</v>
-      </c>
-      <c r="R405">
-        <v>2</v>
-      </c>
-      <c r="S405">
-        <v>1.8</v>
-      </c>
-      <c r="T405">
-        <v>2.5</v>
-      </c>
-      <c r="U405">
-        <v>1.875</v>
-      </c>
-      <c r="V405">
-        <v>1.925</v>
-      </c>
-      <c r="W405">
-        <v>1.8</v>
-      </c>
-      <c r="X405">
-        <v>-1</v>
-      </c>
       <c r="Y405">
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA405">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB405">
         <v>-1</v>
       </c>
       <c r="AC405">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36605,7 +36605,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6881679</v>
+        <v>6880342</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36617,76 +36617,76 @@
         <v>45280.625</v>
       </c>
       <c r="F406" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G406" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H406">
         <v>1</v>
       </c>
       <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406" t="s">
+        <v>57</v>
+      </c>
+      <c r="K406">
+        <v>2.6</v>
+      </c>
+      <c r="L406">
+        <v>3.4</v>
+      </c>
+      <c r="M406">
+        <v>2.625</v>
+      </c>
+      <c r="N406">
+        <v>2.8</v>
+      </c>
+      <c r="O406">
+        <v>3.4</v>
+      </c>
+      <c r="P406">
+        <v>2.45</v>
+      </c>
+      <c r="Q406">
+        <v>0</v>
+      </c>
+      <c r="R406">
+        <v>2</v>
+      </c>
+      <c r="S406">
+        <v>1.8</v>
+      </c>
+      <c r="T406">
+        <v>2.5</v>
+      </c>
+      <c r="U406">
+        <v>1.875</v>
+      </c>
+      <c r="V406">
+        <v>1.925</v>
+      </c>
+      <c r="W406">
+        <v>1.8</v>
+      </c>
+      <c r="X406">
+        <v>-1</v>
+      </c>
+      <c r="Y406">
+        <v>-1</v>
+      </c>
+      <c r="Z406">
         <v>1</v>
       </c>
-      <c r="J406" t="s">
-        <v>58</v>
-      </c>
-      <c r="K406">
-        <v>2</v>
-      </c>
-      <c r="L406">
-        <v>3.75</v>
-      </c>
-      <c r="M406">
-        <v>3.4</v>
-      </c>
-      <c r="N406">
-        <v>2.05</v>
-      </c>
-      <c r="O406">
-        <v>3.6</v>
-      </c>
-      <c r="P406">
-        <v>3.25</v>
-      </c>
-      <c r="Q406">
-        <v>-0.25</v>
-      </c>
-      <c r="R406">
-        <v>1.825</v>
-      </c>
-      <c r="S406">
-        <v>1.975</v>
-      </c>
-      <c r="T406">
-        <v>2.75</v>
-      </c>
-      <c r="U406">
-        <v>1.825</v>
-      </c>
-      <c r="V406">
-        <v>1.975</v>
-      </c>
-      <c r="W406">
-        <v>-1</v>
-      </c>
-      <c r="X406">
-        <v>2.6</v>
-      </c>
-      <c r="Y406">
-        <v>-1</v>
-      </c>
-      <c r="Z406">
-        <v>-0.5</v>
-      </c>
       <c r="AA406">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36694,7 +36694,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6881675</v>
+        <v>6880522</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36706,40 +36706,40 @@
         <v>45280.625</v>
       </c>
       <c r="F407" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G407" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J407" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K407">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L407">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M407">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N407">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O407">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P407">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q407">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R407">
         <v>1.95</v>
@@ -36748,34 +36748,34 @@
         <v>1.85</v>
       </c>
       <c r="T407">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U407">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V407">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W407">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA407">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC407">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36795,10 +36795,10 @@
         <v>45310.625</v>
       </c>
       <c r="F408" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G408" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H408">
         <v>2</v>
@@ -37240,7 +37240,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F413" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G413" t="s">
         <v>47</v>
@@ -37584,7 +37584,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6881688</v>
+        <v>6880524</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37596,76 +37596,76 @@
         <v>45314.625</v>
       </c>
       <c r="F417" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G417" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J417" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K417">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L417">
         <v>3.4</v>
       </c>
       <c r="M417">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N417">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O417">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P417">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q417">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R417">
         <v>1.825</v>
       </c>
       <c r="S417">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T417">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U417">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V417">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W417">
         <v>-1</v>
       </c>
       <c r="X417">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y417">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z417">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB417">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC417">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -37673,7 +37673,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>6881685</v>
+        <v>6880344</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37685,76 +37685,76 @@
         <v>45314.625</v>
       </c>
       <c r="F418" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G418" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H418">
         <v>0</v>
       </c>
       <c r="I418">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J418" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K418">
-        <v>2.75</v>
+        <v>4.8</v>
       </c>
       <c r="L418">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M418">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N418">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O418">
         <v>3.4</v>
       </c>
       <c r="P418">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q418">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R418">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S418">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T418">
         <v>2.5</v>
       </c>
       <c r="U418">
+        <v>1.925</v>
+      </c>
+      <c r="V418">
         <v>1.875</v>
       </c>
-      <c r="V418">
-        <v>1.925</v>
-      </c>
       <c r="W418">
         <v>-1</v>
       </c>
       <c r="X418">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y418">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z418">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA418">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB418">
         <v>-1</v>
       </c>
       <c r="AC418">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37762,7 +37762,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>6881684</v>
+        <v>6881688</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37774,76 +37774,76 @@
         <v>45314.625</v>
       </c>
       <c r="F419" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G419" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H419">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I419">
         <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K419">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L419">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M419">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N419">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O419">
         <v>3.5</v>
       </c>
       <c r="P419">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q419">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R419">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S419">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T419">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U419">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V419">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W419">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X419">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AA419">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB419">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC419">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37851,7 +37851,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>6880344</v>
+        <v>6881685</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37863,76 +37863,76 @@
         <v>45314.625</v>
       </c>
       <c r="F420" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G420" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H420">
         <v>0</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J420" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K420">
-        <v>4.8</v>
+        <v>2.75</v>
       </c>
       <c r="L420">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M420">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N420">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O420">
         <v>3.4</v>
       </c>
       <c r="P420">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q420">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R420">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S420">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T420">
         <v>2.5</v>
       </c>
       <c r="U420">
+        <v>1.875</v>
+      </c>
+      <c r="V420">
         <v>1.925</v>
       </c>
-      <c r="V420">
-        <v>1.875</v>
-      </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y420">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z420">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA420">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB420">
         <v>-1</v>
       </c>
       <c r="AC420">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37940,7 +37940,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>6880524</v>
+        <v>6881684</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37952,73 +37952,73 @@
         <v>45314.625</v>
       </c>
       <c r="F421" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G421" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I421">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K421">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L421">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M421">
+        <v>3.2</v>
+      </c>
+      <c r="N421">
+        <v>2.15</v>
+      </c>
+      <c r="O421">
+        <v>3.5</v>
+      </c>
+      <c r="P421">
         <v>2.9</v>
-      </c>
-      <c r="N421">
-        <v>2.05</v>
-      </c>
-      <c r="O421">
-        <v>3.6</v>
-      </c>
-      <c r="P421">
-        <v>3.1</v>
       </c>
       <c r="Q421">
         <v>-0.25</v>
       </c>
       <c r="R421">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S421">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T421">
         <v>2.75</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA421">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC421">
         <v>-1</v>
@@ -38118,7 +38118,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>6881686</v>
+        <v>6880370</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38130,76 +38130,76 @@
         <v>45315.625</v>
       </c>
       <c r="F423" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G423" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H423">
         <v>1</v>
       </c>
       <c r="I423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K423">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L423">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M423">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N423">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O423">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P423">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Q423">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R423">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S423">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T423">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U423">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V423">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W423">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X423">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y423">
         <v>-1</v>
       </c>
       <c r="Z423">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB423">
         <v>-1</v>
       </c>
       <c r="AC423">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38207,7 +38207,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>6880480</v>
+        <v>6881687</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38219,10 +38219,10 @@
         <v>45315.625</v>
       </c>
       <c r="F424" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G424" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H424">
         <v>1</v>
@@ -38234,43 +38234,43 @@
         <v>57</v>
       </c>
       <c r="K424">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L424">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M424">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N424">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O424">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P424">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q424">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R424">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S424">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T424">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U424">
         <v>1.95</v>
       </c>
       <c r="V424">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W424">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X424">
         <v>-1</v>
@@ -38279,16 +38279,16 @@
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB424">
         <v>-1</v>
       </c>
       <c r="AC424">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38296,7 +38296,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>6881687</v>
+        <v>6880480</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38308,10 +38308,10 @@
         <v>45315.625</v>
       </c>
       <c r="F425" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G425" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H425">
         <v>1</v>
@@ -38323,43 +38323,43 @@
         <v>57</v>
       </c>
       <c r="K425">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L425">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M425">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N425">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O425">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P425">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q425">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R425">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S425">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T425">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U425">
         <v>1.95</v>
       </c>
       <c r="V425">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W425">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X425">
         <v>-1</v>
@@ -38368,16 +38368,16 @@
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA425">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
         <v>-1</v>
       </c>
       <c r="AC425">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38385,7 +38385,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>6880370</v>
+        <v>6881686</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38397,76 +38397,76 @@
         <v>45315.625</v>
       </c>
       <c r="F426" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G426" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H426">
         <v>1</v>
       </c>
       <c r="I426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J426" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K426">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L426">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M426">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N426">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O426">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P426">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q426">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R426">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S426">
+        <v>1.8</v>
+      </c>
+      <c r="T426">
+        <v>2.75</v>
+      </c>
+      <c r="U426">
+        <v>2.025</v>
+      </c>
+      <c r="V426">
         <v>1.825</v>
       </c>
-      <c r="T426">
-        <v>3</v>
-      </c>
-      <c r="U426">
-        <v>1.85</v>
-      </c>
-      <c r="V426">
-        <v>1.95</v>
-      </c>
       <c r="W426">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X426">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y426">
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA426">
+        <v>-1</v>
+      </c>
+      <c r="AB426">
+        <v>-1</v>
+      </c>
+      <c r="AC426">
         <v>0.825</v>
-      </c>
-      <c r="AB426">
-        <v>-1</v>
-      </c>
-      <c r="AC426">
-        <v>0.95</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -39020,7 +39020,7 @@
         <v>45318.52083333334</v>
       </c>
       <c r="F433" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G433" t="s">
         <v>49</v>
@@ -39112,7 +39112,7 @@
         <v>51</v>
       </c>
       <c r="G434" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H434">
         <v>2</v>
@@ -39198,7 +39198,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F435" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G435" t="s">
         <v>53</v>
@@ -39453,7 +39453,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>6880482</v>
+        <v>6880372</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39462,49 +39462,49 @@
         <v>28</v>
       </c>
       <c r="E438" s="2">
-        <v>45325.41666666666</v>
+        <v>45326.39583333334</v>
       </c>
       <c r="F438" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G438" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K438">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L438">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M438">
+        <v>2.25</v>
+      </c>
+      <c r="N438">
         <v>2.8</v>
       </c>
-      <c r="N438">
-        <v>2.3</v>
-      </c>
       <c r="O438">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P438">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q438">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R438">
+        <v>1.85</v>
+      </c>
+      <c r="S438">
+        <v>2</v>
+      </c>
+      <c r="T438">
+        <v>2.75</v>
+      </c>
+      <c r="U438">
         <v>2.025</v>
       </c>
-      <c r="S438">
+      <c r="V438">
         <v>1.825</v>
-      </c>
-      <c r="T438">
-        <v>2.5</v>
-      </c>
-      <c r="U438">
-        <v>1.925</v>
-      </c>
-      <c r="V438">
-        <v>1.925</v>
       </c>
       <c r="W438">
         <v>0</v>
@@ -39527,7 +39527,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>6881344</v>
+        <v>6880346</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39536,49 +39536,49 @@
         <v>28</v>
       </c>
       <c r="E439" s="2">
-        <v>45325.41666666666</v>
+        <v>45326.52083333334</v>
       </c>
       <c r="F439" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G439" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K439">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="L439">
         <v>3.3</v>
       </c>
       <c r="M439">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="N439">
+        <v>2.5</v>
+      </c>
+      <c r="O439">
         <v>3.4</v>
       </c>
-      <c r="O439">
-        <v>3.3</v>
-      </c>
       <c r="P439">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q439">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R439">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S439">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T439">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U439">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V439">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W439">
         <v>0</v>
@@ -39601,7 +39601,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>6881345</v>
+        <v>6880526</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39610,49 +39610,49 @@
         <v>28</v>
       </c>
       <c r="E440" s="2">
-        <v>45325.41666666666</v>
+        <v>45326.64583333334</v>
       </c>
       <c r="F440" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G440" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K440">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="L440">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M440">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N440">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O440">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P440">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q440">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R440">
+        <v>1.9</v>
+      </c>
+      <c r="S440">
         <v>1.95</v>
       </c>
-      <c r="S440">
-        <v>1.9</v>
-      </c>
       <c r="T440">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U440">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V440">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W440">
         <v>0</v>
@@ -39667,450 +39667,6 @@
         <v>0</v>
       </c>
       <c r="AA440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:29">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441">
-        <v>6881694</v>
-      </c>
-      <c r="C441" t="s">
-        <v>28</v>
-      </c>
-      <c r="D441" t="s">
-        <v>28</v>
-      </c>
-      <c r="E441" s="2">
-        <v>45325.41666666666</v>
-      </c>
-      <c r="F441" t="s">
-        <v>34</v>
-      </c>
-      <c r="G441" t="s">
-        <v>32</v>
-      </c>
-      <c r="K441">
-        <v>1.55</v>
-      </c>
-      <c r="L441">
-        <v>3.9</v>
-      </c>
-      <c r="M441">
-        <v>5.5</v>
-      </c>
-      <c r="N441">
-        <v>1.5</v>
-      </c>
-      <c r="O441">
-        <v>4</v>
-      </c>
-      <c r="P441">
-        <v>6</v>
-      </c>
-      <c r="Q441">
-        <v>-1</v>
-      </c>
-      <c r="R441">
-        <v>1.875</v>
-      </c>
-      <c r="S441">
-        <v>1.975</v>
-      </c>
-      <c r="T441">
-        <v>2.5</v>
-      </c>
-      <c r="U441">
-        <v>1.875</v>
-      </c>
-      <c r="V441">
-        <v>1.975</v>
-      </c>
-      <c r="W441">
-        <v>0</v>
-      </c>
-      <c r="X441">
-        <v>0</v>
-      </c>
-      <c r="Y441">
-        <v>0</v>
-      </c>
-      <c r="Z441">
-        <v>0</v>
-      </c>
-      <c r="AA441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:29">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442">
-        <v>6881696</v>
-      </c>
-      <c r="C442" t="s">
-        <v>28</v>
-      </c>
-      <c r="D442" t="s">
-        <v>28</v>
-      </c>
-      <c r="E442" s="2">
-        <v>45325.41666666666</v>
-      </c>
-      <c r="F442" t="s">
-        <v>55</v>
-      </c>
-      <c r="G442" t="s">
-        <v>40</v>
-      </c>
-      <c r="K442">
-        <v>2.3</v>
-      </c>
-      <c r="L442">
-        <v>3.3</v>
-      </c>
-      <c r="M442">
-        <v>2.75</v>
-      </c>
-      <c r="N442">
-        <v>2.5</v>
-      </c>
-      <c r="O442">
-        <v>3.25</v>
-      </c>
-      <c r="P442">
-        <v>2.6</v>
-      </c>
-      <c r="Q442">
-        <v>0</v>
-      </c>
-      <c r="R442">
-        <v>1.925</v>
-      </c>
-      <c r="S442">
-        <v>1.925</v>
-      </c>
-      <c r="T442">
-        <v>2.5</v>
-      </c>
-      <c r="U442">
-        <v>1.85</v>
-      </c>
-      <c r="V442">
-        <v>2</v>
-      </c>
-      <c r="W442">
-        <v>0</v>
-      </c>
-      <c r="X442">
-        <v>0</v>
-      </c>
-      <c r="Y442">
-        <v>0</v>
-      </c>
-      <c r="Z442">
-        <v>0</v>
-      </c>
-      <c r="AA442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:29">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443">
-        <v>6881695</v>
-      </c>
-      <c r="C443" t="s">
-        <v>28</v>
-      </c>
-      <c r="D443" t="s">
-        <v>28</v>
-      </c>
-      <c r="E443" s="2">
-        <v>45325.52083333334</v>
-      </c>
-      <c r="F443" t="s">
-        <v>54</v>
-      </c>
-      <c r="G443" t="s">
-        <v>39</v>
-      </c>
-      <c r="K443">
-        <v>1.95</v>
-      </c>
-      <c r="L443">
-        <v>3.5</v>
-      </c>
-      <c r="M443">
-        <v>3.4</v>
-      </c>
-      <c r="N443">
-        <v>1.95</v>
-      </c>
-      <c r="O443">
-        <v>3.5</v>
-      </c>
-      <c r="P443">
-        <v>3.4</v>
-      </c>
-      <c r="Q443">
-        <v>-0.5</v>
-      </c>
-      <c r="R443">
-        <v>2</v>
-      </c>
-      <c r="S443">
-        <v>1.85</v>
-      </c>
-      <c r="T443">
-        <v>2.75</v>
-      </c>
-      <c r="U443">
-        <v>1.875</v>
-      </c>
-      <c r="V443">
-        <v>1.975</v>
-      </c>
-      <c r="W443">
-        <v>0</v>
-      </c>
-      <c r="X443">
-        <v>0</v>
-      </c>
-      <c r="Y443">
-        <v>0</v>
-      </c>
-      <c r="Z443">
-        <v>0</v>
-      </c>
-      <c r="AA443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:29">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444">
-        <v>6880372</v>
-      </c>
-      <c r="C444" t="s">
-        <v>28</v>
-      </c>
-      <c r="D444" t="s">
-        <v>28</v>
-      </c>
-      <c r="E444" s="2">
-        <v>45326.39583333334</v>
-      </c>
-      <c r="F444" t="s">
-        <v>38</v>
-      </c>
-      <c r="G444" t="s">
-        <v>36</v>
-      </c>
-      <c r="K444">
-        <v>2.75</v>
-      </c>
-      <c r="L444">
-        <v>3.4</v>
-      </c>
-      <c r="M444">
-        <v>2.25</v>
-      </c>
-      <c r="N444">
-        <v>2.8</v>
-      </c>
-      <c r="O444">
-        <v>3.4</v>
-      </c>
-      <c r="P444">
-        <v>2.25</v>
-      </c>
-      <c r="Q444">
-        <v>0.25</v>
-      </c>
-      <c r="R444">
-        <v>1.85</v>
-      </c>
-      <c r="S444">
-        <v>2</v>
-      </c>
-      <c r="T444">
-        <v>2.75</v>
-      </c>
-      <c r="U444">
-        <v>2.025</v>
-      </c>
-      <c r="V444">
-        <v>1.825</v>
-      </c>
-      <c r="W444">
-        <v>0</v>
-      </c>
-      <c r="X444">
-        <v>0</v>
-      </c>
-      <c r="Y444">
-        <v>0</v>
-      </c>
-      <c r="Z444">
-        <v>0</v>
-      </c>
-      <c r="AA444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:29">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445">
-        <v>6880346</v>
-      </c>
-      <c r="C445" t="s">
-        <v>28</v>
-      </c>
-      <c r="D445" t="s">
-        <v>28</v>
-      </c>
-      <c r="E445" s="2">
-        <v>45326.52083333334</v>
-      </c>
-      <c r="F445" t="s">
-        <v>33</v>
-      </c>
-      <c r="G445" t="s">
-        <v>51</v>
-      </c>
-      <c r="K445">
-        <v>2.55</v>
-      </c>
-      <c r="L445">
-        <v>3.3</v>
-      </c>
-      <c r="M445">
-        <v>2.55</v>
-      </c>
-      <c r="N445">
-        <v>2.5</v>
-      </c>
-      <c r="O445">
-        <v>3.4</v>
-      </c>
-      <c r="P445">
-        <v>2.5</v>
-      </c>
-      <c r="Q445">
-        <v>0</v>
-      </c>
-      <c r="R445">
-        <v>1.925</v>
-      </c>
-      <c r="S445">
-        <v>1.925</v>
-      </c>
-      <c r="T445">
-        <v>2.75</v>
-      </c>
-      <c r="U445">
-        <v>1.925</v>
-      </c>
-      <c r="V445">
-        <v>1.925</v>
-      </c>
-      <c r="W445">
-        <v>0</v>
-      </c>
-      <c r="X445">
-        <v>0</v>
-      </c>
-      <c r="Y445">
-        <v>0</v>
-      </c>
-      <c r="Z445">
-        <v>0</v>
-      </c>
-      <c r="AA445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:29">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446">
-        <v>6880526</v>
-      </c>
-      <c r="C446" t="s">
-        <v>28</v>
-      </c>
-      <c r="D446" t="s">
-        <v>28</v>
-      </c>
-      <c r="E446" s="2">
-        <v>45326.64583333334</v>
-      </c>
-      <c r="F446" t="s">
-        <v>47</v>
-      </c>
-      <c r="G446" t="s">
-        <v>50</v>
-      </c>
-      <c r="K446">
-        <v>3</v>
-      </c>
-      <c r="L446">
-        <v>3.3</v>
-      </c>
-      <c r="M446">
-        <v>2.2</v>
-      </c>
-      <c r="N446">
-        <v>3.1</v>
-      </c>
-      <c r="O446">
-        <v>3.3</v>
-      </c>
-      <c r="P446">
-        <v>2.15</v>
-      </c>
-      <c r="Q446">
-        <v>0.25</v>
-      </c>
-      <c r="R446">
-        <v>1.9</v>
-      </c>
-      <c r="S446">
-        <v>1.95</v>
-      </c>
-      <c r="T446">
-        <v>2.5</v>
-      </c>
-      <c r="U446">
-        <v>1.875</v>
-      </c>
-      <c r="V446">
-        <v>1.975</v>
-      </c>
-      <c r="W446">
-        <v>0</v>
-      </c>
-      <c r="X446">
-        <v>0</v>
-      </c>
-      <c r="Y446">
-        <v>0</v>
-      </c>
-      <c r="Z446">
-        <v>0</v>
-      </c>
-      <c r="AA446">
         <v>0</v>
       </c>
     </row>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -36427,7 +36427,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6880522</v>
+        <v>6881679</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36439,76 +36439,76 @@
         <v>45280.625</v>
       </c>
       <c r="F404" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G404" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H404">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K404">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L404">
         <v>3.75</v>
       </c>
       <c r="M404">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N404">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O404">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P404">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q404">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S404">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T404">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U404">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V404">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W404">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X404">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y404">
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB404">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36516,7 +36516,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>6880342</v>
+        <v>6881675</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36528,76 +36528,76 @@
         <v>45280.625</v>
       </c>
       <c r="F405" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G405" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
         <v>1</v>
       </c>
-      <c r="I405">
-        <v>0</v>
-      </c>
       <c r="J405" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K405">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L405">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M405">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N405">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O405">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P405">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q405">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R405">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S405">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T405">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U405">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V405">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W405">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X405">
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z405">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA405">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB405">
         <v>-1</v>
       </c>
       <c r="AC405">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36605,7 +36605,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6881675</v>
+        <v>6880342</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36617,76 +36617,76 @@
         <v>45280.625</v>
       </c>
       <c r="F406" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G406" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
         <v>0</v>
       </c>
-      <c r="I406">
+      <c r="J406" t="s">
+        <v>57</v>
+      </c>
+      <c r="K406">
+        <v>2.6</v>
+      </c>
+      <c r="L406">
+        <v>3.4</v>
+      </c>
+      <c r="M406">
+        <v>2.625</v>
+      </c>
+      <c r="N406">
+        <v>2.8</v>
+      </c>
+      <c r="O406">
+        <v>3.4</v>
+      </c>
+      <c r="P406">
+        <v>2.45</v>
+      </c>
+      <c r="Q406">
+        <v>0</v>
+      </c>
+      <c r="R406">
+        <v>2</v>
+      </c>
+      <c r="S406">
+        <v>1.8</v>
+      </c>
+      <c r="T406">
+        <v>2.5</v>
+      </c>
+      <c r="U406">
+        <v>1.875</v>
+      </c>
+      <c r="V406">
+        <v>1.925</v>
+      </c>
+      <c r="W406">
+        <v>1.8</v>
+      </c>
+      <c r="X406">
+        <v>-1</v>
+      </c>
+      <c r="Y406">
+        <v>-1</v>
+      </c>
+      <c r="Z406">
         <v>1</v>
       </c>
-      <c r="J406" t="s">
-        <v>56</v>
-      </c>
-      <c r="K406">
-        <v>3.2</v>
-      </c>
-      <c r="L406">
-        <v>3.5</v>
-      </c>
-      <c r="M406">
-        <v>2.05</v>
-      </c>
-      <c r="N406">
-        <v>2.9</v>
-      </c>
-      <c r="O406">
-        <v>3.6</v>
-      </c>
-      <c r="P406">
-        <v>2.1</v>
-      </c>
-      <c r="Q406">
-        <v>0.25</v>
-      </c>
-      <c r="R406">
-        <v>1.95</v>
-      </c>
-      <c r="S406">
-        <v>1.85</v>
-      </c>
-      <c r="T406">
-        <v>3</v>
-      </c>
-      <c r="U406">
-        <v>1.975</v>
-      </c>
-      <c r="V406">
-        <v>1.825</v>
-      </c>
-      <c r="W406">
-        <v>-1</v>
-      </c>
-      <c r="X406">
-        <v>-1</v>
-      </c>
-      <c r="Y406">
-        <v>1.1</v>
-      </c>
-      <c r="Z406">
-        <v>-1</v>
-      </c>
       <c r="AA406">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36694,7 +36694,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6881679</v>
+        <v>6880522</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36706,76 +36706,76 @@
         <v>45280.625</v>
       </c>
       <c r="F407" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G407" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J407" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K407">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L407">
         <v>3.75</v>
       </c>
       <c r="M407">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N407">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O407">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P407">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q407">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R407">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S407">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T407">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U407">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V407">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W407">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X407">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA407">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC407">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -37584,7 +37584,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6881684</v>
+        <v>6880524</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37596,73 +37596,73 @@
         <v>45314.625</v>
       </c>
       <c r="F417" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G417" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H417">
+        <v>2</v>
+      </c>
+      <c r="I417">
         <v>3</v>
       </c>
-      <c r="I417">
-        <v>1</v>
-      </c>
       <c r="J417" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K417">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L417">
+        <v>3.4</v>
+      </c>
+      <c r="M417">
+        <v>2.9</v>
+      </c>
+      <c r="N417">
+        <v>2.05</v>
+      </c>
+      <c r="O417">
         <v>3.6</v>
       </c>
-      <c r="M417">
-        <v>3.2</v>
-      </c>
-      <c r="N417">
-        <v>2.15</v>
-      </c>
-      <c r="O417">
-        <v>3.5</v>
-      </c>
       <c r="P417">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q417">
         <v>-0.25</v>
       </c>
       <c r="R417">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S417">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T417">
         <v>2.75</v>
       </c>
       <c r="U417">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V417">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W417">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z417">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB417">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC417">
         <v>-1</v>
@@ -37673,7 +37673,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>6881688</v>
+        <v>6880344</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37685,76 +37685,76 @@
         <v>45314.625</v>
       </c>
       <c r="F418" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G418" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J418" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K418">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="L418">
+        <v>3.75</v>
+      </c>
+      <c r="M418">
+        <v>1.615</v>
+      </c>
+      <c r="N418">
+        <v>4</v>
+      </c>
+      <c r="O418">
         <v>3.4</v>
       </c>
-      <c r="M418">
-        <v>2.4</v>
-      </c>
-      <c r="N418">
-        <v>2.9</v>
-      </c>
-      <c r="O418">
-        <v>3.5</v>
-      </c>
       <c r="P418">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q418">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R418">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S418">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T418">
         <v>2.5</v>
       </c>
       <c r="U418">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V418">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W418">
         <v>-1</v>
       </c>
       <c r="X418">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y418">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z418">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA418">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB418">
         <v>-1</v>
       </c>
       <c r="AC418">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37762,7 +37762,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>6880344</v>
+        <v>6881685</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37774,76 +37774,76 @@
         <v>45314.625</v>
       </c>
       <c r="F419" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G419" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H419">
         <v>0</v>
       </c>
       <c r="I419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J419" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K419">
-        <v>4.8</v>
+        <v>2.75</v>
       </c>
       <c r="L419">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M419">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N419">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O419">
         <v>3.4</v>
       </c>
       <c r="P419">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q419">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R419">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S419">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T419">
         <v>2.5</v>
       </c>
       <c r="U419">
+        <v>1.875</v>
+      </c>
+      <c r="V419">
         <v>1.925</v>
       </c>
-      <c r="V419">
-        <v>1.875</v>
-      </c>
       <c r="W419">
         <v>-1</v>
       </c>
       <c r="X419">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y419">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z419">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA419">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB419">
         <v>-1</v>
       </c>
       <c r="AC419">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37851,7 +37851,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>6881685</v>
+        <v>6881688</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37863,34 +37863,34 @@
         <v>45314.625</v>
       </c>
       <c r="F420" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G420" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420" t="s">
         <v>58</v>
       </c>
       <c r="K420">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L420">
+        <v>3.4</v>
+      </c>
+      <c r="M420">
+        <v>2.4</v>
+      </c>
+      <c r="N420">
+        <v>2.9</v>
+      </c>
+      <c r="O420">
         <v>3.5</v>
-      </c>
-      <c r="M420">
-        <v>2.25</v>
-      </c>
-      <c r="N420">
-        <v>3</v>
-      </c>
-      <c r="O420">
-        <v>3.4</v>
       </c>
       <c r="P420">
         <v>2.15</v>
@@ -37899,31 +37899,31 @@
         <v>0.25</v>
       </c>
       <c r="R420">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S420">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T420">
         <v>2.5</v>
       </c>
       <c r="U420">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V420">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AA420">
         <v>-0.5</v>
@@ -37932,7 +37932,7 @@
         <v>-1</v>
       </c>
       <c r="AC420">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37940,7 +37940,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>6880524</v>
+        <v>6881684</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37952,73 +37952,73 @@
         <v>45314.625</v>
       </c>
       <c r="F421" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G421" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I421">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K421">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L421">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M421">
+        <v>3.2</v>
+      </c>
+      <c r="N421">
+        <v>2.15</v>
+      </c>
+      <c r="O421">
+        <v>3.5</v>
+      </c>
+      <c r="P421">
         <v>2.9</v>
-      </c>
-      <c r="N421">
-        <v>2.05</v>
-      </c>
-      <c r="O421">
-        <v>3.6</v>
-      </c>
-      <c r="P421">
-        <v>3.1</v>
       </c>
       <c r="Q421">
         <v>-0.25</v>
       </c>
       <c r="R421">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S421">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T421">
         <v>2.75</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA421">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC421">
         <v>-1</v>
@@ -38118,7 +38118,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>6881686</v>
+        <v>6881687</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38130,10 +38130,10 @@
         <v>45315.625</v>
       </c>
       <c r="F423" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G423" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H423">
         <v>1</v>
@@ -38145,43 +38145,43 @@
         <v>57</v>
       </c>
       <c r="K423">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L423">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M423">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N423">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="O423">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P423">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q423">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R423">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S423">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T423">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U423">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V423">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W423">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="X423">
         <v>-1</v>
@@ -38190,16 +38190,16 @@
         <v>-1</v>
       </c>
       <c r="Z423">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB423">
         <v>-1</v>
       </c>
       <c r="AC423">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38207,7 +38207,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>6881687</v>
+        <v>6881686</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38219,10 +38219,10 @@
         <v>45315.625</v>
       </c>
       <c r="F424" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G424" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H424">
         <v>1</v>
@@ -38234,43 +38234,43 @@
         <v>57</v>
       </c>
       <c r="K424">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L424">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M424">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N424">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="O424">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P424">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="Q424">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R424">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S424">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T424">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U424">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V424">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W424">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="X424">
         <v>-1</v>
@@ -38279,16 +38279,16 @@
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA424">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
         <v>-1</v>
       </c>
       <c r="AC424">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="425" spans="1:29">

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -106,10 +106,10 @@
     <t>Hallescher FC</t>
   </si>
   <si>
-    <t>1860 Munich</t>
+    <t>Vfb Lubeck</t>
   </si>
   <si>
-    <t>Vfb Lubeck</t>
+    <t>1860 Munich</t>
   </si>
   <si>
     <t>FC Viktoria Kln</t>
@@ -139,10 +139,10 @@
     <t>MSV Duisburg</t>
   </si>
   <si>
-    <t>Unterhaching</t>
+    <t>FC Ingolstadt</t>
   </si>
   <si>
-    <t>FC Ingolstadt</t>
+    <t>Unterhaching</t>
   </si>
   <si>
     <t>Arminia Bielefeld</t>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6880239</v>
+        <v>6881308</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L3">
+        <v>3.75</v>
+      </c>
+      <c r="M3">
+        <v>1.8</v>
+      </c>
+      <c r="N3">
+        <v>3.1</v>
+      </c>
+      <c r="O3">
         <v>3.5</v>
       </c>
-      <c r="M3">
-        <v>2.9</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
       <c r="P3">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6881308</v>
+        <v>6880239</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
+        <v>2.9</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>3.6</v>
+      </c>
+      <c r="P4">
+        <v>3.25</v>
+      </c>
+      <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.775</v>
+      </c>
+      <c r="S4">
+        <v>2.025</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="N4">
-        <v>3.1</v>
-      </c>
-      <c r="O4">
-        <v>3.5</v>
-      </c>
-      <c r="P4">
-        <v>2.1</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.95</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
-      <c r="T4">
-        <v>2.75</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6881311</v>
+        <v>6880352</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,55 +1711,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>49</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
         <v>3.4</v>
       </c>
       <c r="N14">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P14">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>1.375</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,13 +1768,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6880352</v>
+        <v>6881311</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1800,55 +1800,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
         <v>3.4</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>1.375</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,13 +1857,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6881596</v>
+        <v>6880353</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N23">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>2.025</v>
+      </c>
+      <c r="S23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880508</v>
+        <v>6881596</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
+        <v>3.75</v>
+      </c>
+      <c r="M24">
+        <v>4.75</v>
+      </c>
+      <c r="N24">
+        <v>1.615</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>4.5</v>
+      </c>
+      <c r="Q24">
+        <v>-0.75</v>
+      </c>
+      <c r="R24">
+        <v>1.775</v>
+      </c>
+      <c r="S24">
+        <v>2.025</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
+        <v>1.85</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>3.5</v>
       </c>
-      <c r="M24">
-        <v>2.6</v>
-      </c>
-      <c r="N24">
-        <v>2.15</v>
-      </c>
-      <c r="O24">
-        <v>3.6</v>
-      </c>
-      <c r="P24">
-        <v>2.8</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.95</v>
-      </c>
-      <c r="S24">
-        <v>1.85</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.8</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>2.6</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880353</v>
+        <v>6881313</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,58 +2687,58 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
         <v>3.4</v>
       </c>
       <c r="M25">
+        <v>2.05</v>
+      </c>
+      <c r="N25">
         <v>2.8</v>
       </c>
-      <c r="N25">
+      <c r="O25">
+        <v>3.5</v>
+      </c>
+      <c r="P25">
         <v>2.25</v>
       </c>
-      <c r="O25">
-        <v>3.2</v>
-      </c>
-      <c r="P25">
-        <v>2.8</v>
-      </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2747,16 +2747,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6881313</v>
+        <v>6880508</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,76 +2776,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N26">
+        <v>2.15</v>
+      </c>
+      <c r="O26">
+        <v>3.6</v>
+      </c>
+      <c r="P26">
         <v>2.8</v>
       </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
-      <c r="P26">
-        <v>2.25</v>
-      </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2868,7 +2868,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6881597</v>
+        <v>6881594</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2954,76 +2954,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
+        <v>1.6</v>
+      </c>
+      <c r="L28">
+        <v>3.8</v>
+      </c>
+      <c r="M28">
+        <v>4.75</v>
+      </c>
+      <c r="N28">
         <v>1.75</v>
       </c>
-      <c r="L28">
-        <v>3.6</v>
-      </c>
-      <c r="M28">
-        <v>4</v>
-      </c>
-      <c r="N28">
-        <v>2.1</v>
-      </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
         <v>1.85</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.875</v>
-      </c>
-      <c r="V28">
-        <v>1.925</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X28">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>0.5</v>
+      </c>
+      <c r="AA28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.475</v>
-      </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6881593</v>
+        <v>6881597</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,10 +3043,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3058,46 +3058,46 @@
         <v>50</v>
       </c>
       <c r="K29">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
         <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y29">
         <v>-1</v>
@@ -3106,13 +3106,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6880463</v>
+        <v>6881593</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="L30">
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB30">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6881594</v>
+        <v>6880463</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,59 +3221,59 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>49</v>
       </c>
       <c r="K31">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N31">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
+        <v>2.025</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.975</v>
+      </c>
+      <c r="V31">
+        <v>1.875</v>
+      </c>
+      <c r="W31">
         <v>1.8</v>
       </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.85</v>
-      </c>
-      <c r="V31">
-        <v>1.95</v>
-      </c>
-      <c r="W31">
-        <v>0.75</v>
-      </c>
       <c r="X31">
         <v>-1</v>
       </c>
@@ -3281,16 +3281,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
+        <v>0.4875</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AB31">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3399,7 +3399,7 @@
         <v>45164.375</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>44</v>
@@ -3488,7 +3488,7 @@
         <v>45164.375</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -3666,7 +3666,7 @@
         <v>45164.375</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -3847,7 +3847,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6881605</v>
+        <v>6881604</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,52 +4289,52 @@
         <v>45171.375</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="N43">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
         <v>1.975</v>
@@ -4343,22 +4343,22 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y43">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6881604</v>
+        <v>6881315</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,28 +4378,28 @@
         <v>45171.375</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L44">
         <v>3.5</v>
       </c>
       <c r="M44">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
         <v>1.909</v>
@@ -4408,46 +4408,46 @@
         <v>3.5</v>
       </c>
       <c r="P44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q44">
         <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6881315</v>
+        <v>6880355</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,13 +4467,13 @@
         <v>45171.375</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4482,43 +4482,43 @@
         <v>49</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M45">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4527,16 +4527,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6880355</v>
+        <v>6881605</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,76 +4556,76 @@
         <v>45171.375</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N46">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P46">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>2.025</v>
+      </c>
+      <c r="S46">
+        <v>1.775</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>1.825</v>
+      </c>
+      <c r="V46">
         <v>1.975</v>
       </c>
-      <c r="S46">
-        <v>1.825</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>2</v>
-      </c>
-      <c r="V46">
-        <v>1.8</v>
-      </c>
       <c r="W46">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4734,7 +4734,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -5357,7 +5357,7 @@
         <v>45185.375</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5624,10 +5624,10 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5891,7 +5891,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
         <v>44</v>
@@ -5980,7 +5980,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6881318</v>
+        <v>6881612</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45192.375</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K64">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N64">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O64">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P64">
+        <v>4</v>
+      </c>
+      <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
+        <v>1.825</v>
+      </c>
+      <c r="T64">
         <v>2.75</v>
       </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>1.8</v>
-      </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y64">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6881612</v>
+        <v>6881318</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,76 +6247,76 @@
         <v>45192.375</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>51</v>
+      </c>
+      <c r="K65">
+        <v>2.15</v>
+      </c>
+      <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>2.4</v>
+      </c>
+      <c r="O65">
+        <v>3.3</v>
+      </c>
+      <c r="P65">
+        <v>2.75</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>2.5</v>
+      </c>
+      <c r="U65">
+        <v>1.8</v>
+      </c>
+      <c r="V65">
+        <v>2</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>1.75</v>
+      </c>
+      <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
         <v>1</v>
       </c>
-      <c r="J65" t="s">
-        <v>50</v>
-      </c>
-      <c r="K65">
-        <v>2</v>
-      </c>
-      <c r="L65">
-        <v>3.6</v>
-      </c>
-      <c r="M65">
-        <v>3.2</v>
-      </c>
-      <c r="N65">
-        <v>1.75</v>
-      </c>
-      <c r="O65">
-        <v>3.75</v>
-      </c>
-      <c r="P65">
-        <v>4</v>
-      </c>
-      <c r="Q65">
-        <v>-0.75</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
-      <c r="T65">
-        <v>2.75</v>
-      </c>
-      <c r="U65">
-        <v>1.775</v>
-      </c>
-      <c r="V65">
-        <v>2.025</v>
-      </c>
-      <c r="W65">
-        <v>-1</v>
-      </c>
-      <c r="X65">
-        <v>2.75</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
-      <c r="AA65">
-        <v>0.825</v>
-      </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6880330</v>
+        <v>6880512</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,76 +6336,76 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L66">
         <v>3.75</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N66">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O66">
         <v>3.75</v>
       </c>
       <c r="P66">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V66">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X66">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6880512</v>
+        <v>6880330</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,76 +6425,76 @@
         <v>45192.375</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
         <v>3.75</v>
       </c>
       <c r="M67">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O67">
         <v>3.75</v>
       </c>
       <c r="P67">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W67">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6517,7 +6517,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7048,7 +7048,7 @@
         <v>45199.375</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6880331</v>
+        <v>6880513</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,76 +7137,76 @@
         <v>45199.375</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>50</v>
+      </c>
+      <c r="K75">
+        <v>2.3</v>
+      </c>
+      <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>2.7</v>
+      </c>
+      <c r="N75">
+        <v>2.55</v>
+      </c>
+      <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
+        <v>2.45</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
+        <v>1.85</v>
+      </c>
+      <c r="T75">
         <v>3</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>49</v>
-      </c>
-      <c r="K75">
-        <v>1.8</v>
-      </c>
-      <c r="L75">
-        <v>3.6</v>
-      </c>
-      <c r="M75">
-        <v>3.75</v>
-      </c>
-      <c r="N75">
-        <v>1.833</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
-      <c r="P75">
-        <v>3.6</v>
-      </c>
-      <c r="Q75">
-        <v>-0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.85</v>
-      </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
         <v>1.875</v>
       </c>
       <c r="W75">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6880513</v>
+        <v>6881320</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45199.375</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>50</v>
       </c>
       <c r="K76">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L76">
+        <v>3.3</v>
+      </c>
+      <c r="M76">
         <v>3.4</v>
       </c>
-      <c r="M76">
-        <v>2.7</v>
-      </c>
       <c r="N76">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6881320</v>
+        <v>6881619</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45199.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N77">
         <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q77">
         <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X77">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6881619</v>
+        <v>6880331</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,58 +7404,58 @@
         <v>45199.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>49</v>
       </c>
       <c r="K78">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
+        <v>1.85</v>
+      </c>
+      <c r="S78">
+        <v>1.95</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
         <v>1.975</v>
       </c>
-      <c r="S78">
-        <v>1.825</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>1.9</v>
-      </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7464,16 +7464,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA78">
+        <v>-1</v>
+      </c>
+      <c r="AB78">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA78">
-        <v>-1</v>
-      </c>
-      <c r="AB78">
-        <v>-1</v>
-      </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>45199.47916666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -7674,7 +7674,7 @@
         <v>46</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6880358</v>
+        <v>6881321</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K83">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N83">
+        <v>2.9</v>
+      </c>
+      <c r="O83">
+        <v>3.6</v>
+      </c>
+      <c r="P83">
         <v>2.1</v>
       </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>2.875</v>
-      </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
+        <v>1.925</v>
+      </c>
+      <c r="V83">
         <v>1.875</v>
       </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
       <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
         <v>1.1</v>
       </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6881321</v>
+        <v>6880358</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K86">
+        <v>2.4</v>
+      </c>
+      <c r="L86">
+        <v>3.5</v>
+      </c>
+      <c r="M86">
+        <v>2.5</v>
+      </c>
+      <c r="N86">
+        <v>2.1</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
         <v>2.875</v>
       </c>
-      <c r="L86">
-        <v>3.4</v>
-      </c>
-      <c r="M86">
-        <v>2.2</v>
-      </c>
-      <c r="N86">
-        <v>2.9</v>
-      </c>
-      <c r="O86">
-        <v>3.6</v>
-      </c>
-      <c r="P86">
-        <v>2.1</v>
-      </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
+        <v>1.875</v>
+      </c>
+      <c r="V86">
         <v>1.925</v>
       </c>
-      <c r="V86">
-        <v>1.875</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8208,7 +8208,7 @@
         <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
         <v>48</v>
@@ -8831,7 +8831,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8917,7 +8917,7 @@
         <v>45206.375</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>35</v>
@@ -9273,7 +9273,7 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>37</v>
@@ -9451,7 +9451,7 @@
         <v>45207.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9629,7 +9629,7 @@
         <v>45213.375</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
         <v>39</v>
@@ -9721,7 +9721,7 @@
         <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9810,7 +9810,7 @@
         <v>47</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10166,7 +10166,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         <v>45220.375</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>37</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6881638</v>
+        <v>6881637</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,76 +10519,76 @@
         <v>45220.375</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N113">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6881637</v>
+        <v>6880361</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,46 +10608,46 @@
         <v>45220.375</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>49</v>
       </c>
       <c r="K114">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>2.75</v>
@@ -10659,7 +10659,7 @@
         <v>1.875</v>
       </c>
       <c r="W114">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6880361</v>
+        <v>6881638</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,73 +10697,73 @@
         <v>45220.375</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K115">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N115">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
       <c r="AC115">
         <v>-0.5</v>
@@ -11142,7 +11142,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
         <v>45</v>
@@ -11219,7 +11219,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6881327</v>
+        <v>6880518</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11231,10 +11231,10 @@
         <v>45227.375</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11246,40 +11246,40 @@
         <v>51</v>
       </c>
       <c r="K121">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N121">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O121">
         <v>3.5</v>
       </c>
       <c r="P121">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q121">
         <v>0</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11288,16 +11288,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.375</v>
+        <v>1.45</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AC121">
         <v>-0.5</v>
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6880518</v>
+        <v>6881327</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,10 +11320,10 @@
         <v>45227.375</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11335,41 +11335,41 @@
         <v>51</v>
       </c>
       <c r="K122">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L122">
         <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N122">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O122">
         <v>3.5</v>
       </c>
       <c r="P122">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q122">
         <v>0</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
+        <v>1.85</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="V122">
-        <v>1.9</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
@@ -11377,16 +11377,16 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.45</v>
+        <v>1.375</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB122">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AC122">
         <v>-0.5</v>
@@ -11501,7 +11501,7 @@
         <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -11590,7 +11590,7 @@
         <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11768,7 +11768,7 @@
         <v>47</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -12121,10 +12121,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12210,7 +12210,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12477,7 +12477,7 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
         <v>46</v>
@@ -13014,7 +13014,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13100,7 +13100,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
         <v>38</v>
@@ -13281,7 +13281,7 @@
         <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13370,7 +13370,7 @@
         <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13812,7 +13812,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
         <v>48</v>
@@ -14079,10 +14079,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14346,7 +14346,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
         <v>43</v>
@@ -14972,7 +14972,7 @@
         <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15150,7 +15150,7 @@
         <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15506,7 +15506,7 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15948,10 +15948,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16218,7 +16218,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16396,7 +16396,7 @@
         <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16571,7 +16571,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
         <v>39</v>
@@ -16927,7 +16927,7 @@
         <v>45276.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
         <v>34</v>
@@ -17108,7 +17108,7 @@
         <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6881338</v>
+        <v>6880368</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,34 +17283,34 @@
         <v>45279.625</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K189">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L189">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N189">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P189">
         <v>4</v>
@@ -17319,40 +17319,40 @@
         <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
         <v>3</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y189">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6881677</v>
+        <v>6881338</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,76 +17372,76 @@
         <v>45279.625</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190" t="s">
+        <v>51</v>
+      </c>
+      <c r="K190">
+        <v>1.65</v>
+      </c>
+      <c r="L190">
+        <v>3.8</v>
+      </c>
+      <c r="M190">
+        <v>4.333</v>
+      </c>
+      <c r="N190">
+        <v>1.7</v>
+      </c>
+      <c r="O190">
+        <v>3.8</v>
+      </c>
+      <c r="P190">
+        <v>4</v>
+      </c>
+      <c r="Q190">
+        <v>-0.75</v>
+      </c>
+      <c r="R190">
+        <v>2.025</v>
+      </c>
+      <c r="S190">
+        <v>1.825</v>
+      </c>
+      <c r="T190">
         <v>3</v>
       </c>
-      <c r="I190">
-        <v>2</v>
-      </c>
-      <c r="J190" t="s">
-        <v>49</v>
-      </c>
-      <c r="K190">
-        <v>1.75</v>
-      </c>
-      <c r="L190">
-        <v>3.75</v>
-      </c>
-      <c r="M190">
-        <v>4</v>
-      </c>
-      <c r="N190">
-        <v>1.85</v>
-      </c>
-      <c r="O190">
-        <v>3.6</v>
-      </c>
-      <c r="P190">
-        <v>3.6</v>
-      </c>
-      <c r="Q190">
-        <v>-0.5</v>
-      </c>
-      <c r="R190">
-        <v>1.9</v>
-      </c>
-      <c r="S190">
-        <v>1.9</v>
-      </c>
-      <c r="T190">
-        <v>2.75</v>
-      </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6880368</v>
+        <v>6881339</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45279.625</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G191" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K191">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L191">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N191">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O191">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P191">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q191">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X191">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6881339</v>
+        <v>6881676</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,73 +17550,73 @@
         <v>45279.625</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L192">
+        <v>3.3</v>
+      </c>
+      <c r="M192">
+        <v>2.25</v>
+      </c>
+      <c r="N192">
+        <v>3.2</v>
+      </c>
+      <c r="O192">
         <v>3.4</v>
       </c>
-      <c r="M192">
-        <v>3.3</v>
-      </c>
-      <c r="N192">
-        <v>2.15</v>
-      </c>
-      <c r="O192">
-        <v>3.2</v>
-      </c>
       <c r="P192">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6881676</v>
+        <v>6881677</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,73 +17639,73 @@
         <v>45279.625</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I193">
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K193">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N193">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q193">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17998,7 +17998,7 @@
         <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18265,7 +18265,7 @@
         <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -18440,7 +18440,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>45</v>
@@ -18529,7 +18529,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>40</v>
@@ -18710,7 +18710,7 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -19152,10 +19152,10 @@
         <v>45314.625</v>
       </c>
       <c r="F210" t="s">
+        <v>30</v>
+      </c>
+      <c r="G210" t="s">
         <v>31</v>
-      </c>
-      <c r="G210" t="s">
-        <v>30</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19508,7 +19508,7 @@
         <v>45315.625</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
         <v>37</v>
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6881686</v>
+        <v>6880370</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45315.625</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N215">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6880370</v>
+        <v>6881686</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45315.625</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K216">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N216">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S216">
+        <v>1.8</v>
+      </c>
+      <c r="T216">
+        <v>2.75</v>
+      </c>
+      <c r="U216">
+        <v>2.025</v>
+      </c>
+      <c r="V216">
         <v>1.825</v>
       </c>
-      <c r="T216">
-        <v>3</v>
-      </c>
-      <c r="U216">
-        <v>1.85</v>
-      </c>
-      <c r="V216">
-        <v>1.95</v>
-      </c>
       <c r="W216">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X216">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA216">
+        <v>-1</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
         <v>0.825</v>
-      </c>
-      <c r="AB216">
-        <v>-1</v>
-      </c>
-      <c r="AC216">
-        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6881689</v>
+        <v>6880371</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,34 +19864,34 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G218" t="s">
         <v>41</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>3.5</v>
+      </c>
+      <c r="M218">
+        <v>3.25</v>
+      </c>
+      <c r="N218">
         <v>1.95</v>
       </c>
-      <c r="L218">
-        <v>3.6</v>
-      </c>
-      <c r="M218">
-        <v>3.3</v>
-      </c>
-      <c r="N218">
-        <v>1.909</v>
-      </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P218">
         <v>3.5</v>
@@ -19900,40 +19900,40 @@
         <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V218">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W218">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB218">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6880371</v>
+        <v>6881691</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,76 +19953,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K219">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L219">
+        <v>3.6</v>
+      </c>
+      <c r="M219">
         <v>3.5</v>
       </c>
-      <c r="M219">
-        <v>3.25</v>
-      </c>
       <c r="N219">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O219">
         <v>3.4</v>
       </c>
       <c r="P219">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
         <v>1.8</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6880525</v>
+        <v>6881689</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,76 +20042,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L220">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N220">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
         <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X220">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6881691</v>
+        <v>6881692</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,70 +20131,70 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K221">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M221">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N221">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="O221">
         <v>3.4</v>
       </c>
       <c r="P221">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S221">
         <v>1.8</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
         <v>1.85</v>
       </c>
       <c r="W221">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z221">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB221">
         <v>-1</v>
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6881692</v>
+        <v>6880525</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,76 +20220,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K222">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M222">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N222">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="O222">
         <v>3.4</v>
       </c>
       <c r="P222">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y222">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20312,7 +20312,7 @@
         <v>38</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20487,7 +20487,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
         <v>39</v>
@@ -20843,7 +20843,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
         <v>36</v>
@@ -21024,7 +21024,7 @@
         <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21110,7 +21110,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G232" t="s">
         <v>47</v>
@@ -21288,7 +21288,7 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
         <v>35</v>
@@ -21555,7 +21555,7 @@
         <v>45328.625</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
         <v>48</v>
@@ -21644,7 +21644,7 @@
         <v>45329.625</v>
       </c>
       <c r="F238" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G238" t="s">
         <v>29</v>
@@ -22181,7 +22181,7 @@
         <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H244">
         <v>7</v>
@@ -22445,10 +22445,10 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F247" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G247" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H247">
         <v>3</v>
@@ -22623,7 +22623,7 @@
         <v>45338.625</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
         <v>37</v>
@@ -22878,7 +22878,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6881704</v>
+        <v>6881706</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22890,76 +22890,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G252" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K252">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L252">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M252">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N252">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P252">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q252">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
         <v>1.8</v>
-      </c>
-      <c r="S252">
-        <v>2</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V252">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA252">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23056,7 +23056,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6881706</v>
+        <v>6881704</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23068,76 +23068,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J254" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K254">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L254">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M254">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N254">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O254">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P254">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R254">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S254">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T254">
         <v>2.75</v>
       </c>
       <c r="U254">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V254">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W254">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z254">
+        <v>-1</v>
+      </c>
+      <c r="AA254">
         <v>1</v>
       </c>
-      <c r="AA254">
-        <v>-1</v>
-      </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC254">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23160,7 +23160,7 @@
         <v>43</v>
       </c>
       <c r="G255" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23424,7 +23424,7 @@
         <v>45340.64583333334</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
         <v>29</v>
@@ -23691,7 +23691,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F261" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G261" t="s">
         <v>46</v>
@@ -24050,7 +24050,7 @@
         <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>47</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24228,7 +24228,7 @@
         <v>29</v>
       </c>
       <c r="G267" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6881719</v>
+        <v>6881718</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,67 +24581,67 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G271" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271">
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K271">
+        <v>4.75</v>
+      </c>
+      <c r="L271">
         <v>3.8</v>
       </c>
-      <c r="L271">
-        <v>3.5</v>
-      </c>
       <c r="M271">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N271">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O271">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P271">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="Q271">
         <v>0.75</v>
       </c>
       <c r="R271">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S271">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T271">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X271">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA271">
         <v>-1</v>
@@ -24650,7 +24650,7 @@
         <v>-1</v>
       </c>
       <c r="AC271">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6881721</v>
+        <v>6881719</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,76 +24670,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G272" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272" t="s">
+        <v>50</v>
+      </c>
+      <c r="K272">
+        <v>3.8</v>
+      </c>
+      <c r="L272">
+        <v>3.5</v>
+      </c>
+      <c r="M272">
+        <v>1.909</v>
+      </c>
+      <c r="N272">
+        <v>5</v>
+      </c>
+      <c r="O272">
+        <v>4</v>
+      </c>
+      <c r="P272">
+        <v>1.615</v>
+      </c>
+      <c r="Q272">
+        <v>0.75</v>
+      </c>
+      <c r="R272">
+        <v>2.025</v>
+      </c>
+      <c r="S272">
+        <v>1.775</v>
+      </c>
+      <c r="T272">
+        <v>2.75</v>
+      </c>
+      <c r="U272">
+        <v>2</v>
+      </c>
+      <c r="V272">
+        <v>1.8</v>
+      </c>
+      <c r="W272">
+        <v>-1</v>
+      </c>
+      <c r="X272">
         <v>3</v>
       </c>
-      <c r="I272">
-        <v>1</v>
-      </c>
-      <c r="J272" t="s">
-        <v>49</v>
-      </c>
-      <c r="K272">
-        <v>3.25</v>
-      </c>
-      <c r="L272">
-        <v>3.3</v>
-      </c>
-      <c r="M272">
-        <v>2.2</v>
-      </c>
-      <c r="N272">
-        <v>2.25</v>
-      </c>
-      <c r="O272">
-        <v>3.3</v>
-      </c>
-      <c r="P272">
-        <v>3.2</v>
-      </c>
-      <c r="Q272">
-        <v>-0.25</v>
-      </c>
-      <c r="R272">
-        <v>1.95</v>
-      </c>
-      <c r="S272">
-        <v>1.85</v>
-      </c>
-      <c r="T272">
-        <v>2.5</v>
-      </c>
-      <c r="U272">
-        <v>1.825</v>
-      </c>
-      <c r="V272">
-        <v>1.975</v>
-      </c>
-      <c r="W272">
-        <v>1.25</v>
-      </c>
-      <c r="X272">
-        <v>-1</v>
-      </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24747,7 +24747,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6943476</v>
+        <v>6881721</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24759,37 +24759,37 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K273">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L273">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M273">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N273">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O273">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P273">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q273">
         <v>-0.25</v>
@@ -24801,31 +24801,31 @@
         <v>1.85</v>
       </c>
       <c r="T273">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U273">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V273">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA273">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC273">
         <v>-1</v>
@@ -24836,7 +24836,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6881718</v>
+        <v>6943476</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24848,76 +24848,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J274" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K274">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="L274">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M274">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="N274">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="O274">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P274">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q274">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R274">
         <v>1.95</v>
       </c>
       <c r="S274">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T274">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U274">
         <v>1.95</v>
       </c>
       <c r="V274">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z274">
+        <v>-1</v>
+      </c>
+      <c r="AA274">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB274">
         <v>0.95</v>
       </c>
-      <c r="AA274">
-        <v>-1</v>
-      </c>
-      <c r="AB274">
-        <v>-1</v>
-      </c>
       <c r="AC274">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24937,7 +24937,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G275" t="s">
         <v>36</v>
@@ -25029,7 +25029,7 @@
         <v>48</v>
       </c>
       <c r="G276" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25115,7 +25115,7 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G277" t="s">
         <v>32</v>
@@ -25385,7 +25385,7 @@
         <v>35</v>
       </c>
       <c r="G280" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H280">
         <v>2</v>
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6881724</v>
+        <v>6881725</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25738,76 +25738,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G284" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K284">
+        <v>2.625</v>
+      </c>
+      <c r="L284">
+        <v>3.3</v>
+      </c>
+      <c r="M284">
         <v>2.55</v>
       </c>
-      <c r="L284">
-        <v>3.4</v>
-      </c>
-      <c r="M284">
-        <v>2.6</v>
-      </c>
       <c r="N284">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="O284">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P284">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q284">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S284">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T284">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U284">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X284">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA284">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC284">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6881725</v>
+        <v>6881724</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25827,76 +25827,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G285" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K285">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L285">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M285">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N285">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="O285">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P285">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q285">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R285">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S285">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T285">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U285">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V285">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W285">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB285">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26005,7 +26005,7 @@
         <v>45361.39583333334</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G287" t="s">
         <v>40</v>
@@ -26361,7 +26361,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G291" t="s">
         <v>33</v>
@@ -26717,7 +26717,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G295" t="s">
         <v>34</v>
@@ -26987,7 +26987,7 @@
         <v>39</v>
       </c>
       <c r="G298" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -27073,7 +27073,7 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F299" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G299" t="s">
         <v>47</v>
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7024923</v>
+        <v>7060659</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27162,40 +27162,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G300" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K300">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L300">
         <v>3.6</v>
       </c>
       <c r="M300">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N300">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
         <v>3.6</v>
       </c>
       <c r="P300">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q300">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S300">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T300">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U300">
         <v>1.875</v>
@@ -27224,7 +27224,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7027629</v>
+        <v>7028878</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27236,46 +27236,46 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G301" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K301">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="L301">
         <v>3.6</v>
       </c>
       <c r="M301">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N301">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O301">
         <v>3.6</v>
       </c>
       <c r="P301">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q301">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R301">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S301">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T301">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27298,7 +27298,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7028878</v>
+        <v>7027629</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27310,40 +27310,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K302">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="L302">
         <v>3.6</v>
       </c>
       <c r="M302">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N302">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O302">
         <v>3.6</v>
       </c>
       <c r="P302">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q302">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R302">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S302">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U302">
         <v>1.925</v>
@@ -27372,7 +27372,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7060659</v>
+        <v>7024923</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27384,46 +27384,46 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G303" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K303">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L303">
         <v>3.6</v>
       </c>
       <c r="M303">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303">
+        <v>3.5</v>
+      </c>
+      <c r="P303">
+        <v>2.25</v>
+      </c>
+      <c r="Q303">
+        <v>0.25</v>
+      </c>
+      <c r="R303">
         <v>1.85</v>
       </c>
-      <c r="O303">
-        <v>3.6</v>
-      </c>
-      <c r="P303">
-        <v>4</v>
-      </c>
-      <c r="Q303">
-        <v>-0.5</v>
-      </c>
-      <c r="R303">
-        <v>1.925</v>
-      </c>
       <c r="S303">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W303">
         <v>0</v>
@@ -27473,13 +27473,13 @@
         <v>2.25</v>
       </c>
       <c r="N304">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O304">
         <v>3.5</v>
       </c>
       <c r="P304">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q304">
         <v>0.25</v>
@@ -27494,10 +27494,10 @@
         <v>2.75</v>
       </c>
       <c r="U304">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V304">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W304">
         <v>0</v>
@@ -27535,7 +27535,7 @@
         <v>37</v>
       </c>
       <c r="G305" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K305">
         <v>3.6</v>
@@ -27547,7 +27547,7 @@
         <v>2.05</v>
       </c>
       <c r="N305">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O305">
         <v>3.3</v>
@@ -27559,19 +27559,19 @@
         <v>0.5</v>
       </c>
       <c r="R305">
+        <v>1.825</v>
+      </c>
+      <c r="S305">
+        <v>2.025</v>
+      </c>
+      <c r="T305">
+        <v>2.5</v>
+      </c>
+      <c r="U305">
+        <v>2.05</v>
+      </c>
+      <c r="V305">
         <v>1.8</v>
-      </c>
-      <c r="S305">
-        <v>2.05</v>
-      </c>
-      <c r="T305">
-        <v>2.25</v>
-      </c>
-      <c r="U305">
-        <v>1.8</v>
-      </c>
-      <c r="V305">
-        <v>2.05</v>
       </c>
       <c r="W305">
         <v>0</v>
@@ -27609,7 +27609,7 @@
         <v>32</v>
       </c>
       <c r="G306" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K306">
         <v>1.909</v>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -145,10 +145,10 @@
     <t>Unterhaching</t>
   </si>
   <si>
-    <t>Arminia Bielefeld</t>
+    <t>Saarbrucken</t>
   </si>
   <si>
-    <t>Saarbrucken</t>
+    <t>Arminia Bielefeld</t>
   </si>
   <si>
     <t>Waldhof Mannheim</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC308"/>
+  <dimension ref="A1:AC302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6881592</v>
+        <v>6881590</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,73 +1889,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16">
+        <v>1.666</v>
+      </c>
+      <c r="L16">
         <v>4</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16">
-        <v>1.75</v>
-      </c>
-      <c r="L16">
-        <v>3.6</v>
-      </c>
       <c r="M16">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N16">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6881590</v>
+        <v>6881592</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,73 +1978,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L17">
+        <v>3.6</v>
+      </c>
+      <c r="M17">
         <v>4</v>
       </c>
-      <c r="M17">
-        <v>4.5</v>
-      </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6880327</v>
+        <v>6880353</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,13 +2420,13 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2435,43 +2435,43 @@
         <v>49</v>
       </c>
       <c r="K22">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N22">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2480,16 +2480,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880353</v>
+        <v>6880327</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,13 +2509,13 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2524,43 +2524,43 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2569,16 +2569,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6881313</v>
+        <v>6880508</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,76 +2687,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N25">
+        <v>2.15</v>
+      </c>
+      <c r="O25">
+        <v>3.6</v>
+      </c>
+      <c r="P25">
         <v>2.8</v>
       </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>2.25</v>
-      </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6880508</v>
+        <v>6881313</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,76 +2776,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L26">
+        <v>3.4</v>
+      </c>
+      <c r="M26">
+        <v>2.05</v>
+      </c>
+      <c r="N26">
+        <v>2.8</v>
+      </c>
+      <c r="O26">
         <v>3.5</v>
       </c>
-      <c r="M26">
-        <v>2.6</v>
-      </c>
-      <c r="N26">
-        <v>2.15</v>
-      </c>
-      <c r="O26">
-        <v>3.6</v>
-      </c>
       <c r="P26">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
         <v>1.95</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.85</v>
       </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
+      <c r="W26">
         <v>1.8</v>
       </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
       <c r="X26">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6881595</v>
+        <v>6881593</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,10 +2865,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2880,31 +2880,31 @@
         <v>50</v>
       </c>
       <c r="K27">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
         <v>3.4</v>
       </c>
       <c r="P27">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.75</v>
@@ -2925,10 +2925,10 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6881594</v>
+        <v>6881597</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2954,76 +2954,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>1.75</v>
+      </c>
+      <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>1.6</v>
-      </c>
-      <c r="L28">
-        <v>3.8</v>
-      </c>
-      <c r="M28">
-        <v>4.75</v>
-      </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6881597</v>
+        <v>6881595</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,10 +3043,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3058,25 +3058,25 @@
         <v>50</v>
       </c>
       <c r="K29">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>1.85</v>
@@ -3088,31 +3088,31 @@
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6881593</v>
+        <v>6880463</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L30">
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>0.825</v>
+      </c>
+      <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
+        <v>0.4875</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AA30">
-        <v>0.4625</v>
-      </c>
-      <c r="AB30">
-        <v>-1</v>
-      </c>
-      <c r="AC30">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6880463</v>
+        <v>6881594</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,58 +3221,58 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>49</v>
       </c>
       <c r="K31">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3281,16 +3281,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3402,7 +3402,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6881598</v>
+        <v>6881601</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45164.375</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6881601</v>
+        <v>6881598</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,76 +3755,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
         <v>3.6</v>
       </c>
-      <c r="O37">
-        <v>3.75</v>
-      </c>
       <c r="P37">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA37">
+        <v>-1</v>
+      </c>
+      <c r="AB37">
         <v>0.825</v>
       </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4200,7 +4200,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6881604</v>
+        <v>6881605</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,52 +4289,52 @@
         <v>45171.375</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M43">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V43">
         <v>1.975</v>
@@ -4343,22 +4343,22 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6881315</v>
+        <v>6881604</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,28 +4378,28 @@
         <v>45171.375</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
         <v>3.5</v>
       </c>
       <c r="M44">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N44">
         <v>1.909</v>
@@ -4408,46 +4408,46 @@
         <v>3.5</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q44">
         <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6880355</v>
+        <v>6881315</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,13 +4467,13 @@
         <v>45171.375</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4482,43 +4482,43 @@
         <v>49</v>
       </c>
       <c r="K45">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N45">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
+        <v>1.95</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>2.025</v>
+      </c>
+      <c r="V45">
         <v>1.825</v>
       </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>2</v>
-      </c>
-      <c r="V45">
-        <v>1.8</v>
-      </c>
       <c r="W45">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4527,16 +4527,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6881605</v>
+        <v>6880355</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,76 +4556,76 @@
         <v>45171.375</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>45185.375</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
         <v>37</v>
@@ -5894,7 +5894,7 @@
         <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>45192.375</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
         <v>45</v>
@@ -6959,10 +6959,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F73" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s">
         <v>43</v>
-      </c>
-      <c r="G73" t="s">
-        <v>44</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6880513</v>
+        <v>6880331</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,76 +7137,76 @@
         <v>45199.375</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
         <v>1.95</v>
       </c>
-      <c r="S75">
-        <v>1.85</v>
-      </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
         <v>1.875</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6881320</v>
+        <v>6880513</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45199.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>50</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
+        <v>2.7</v>
+      </c>
+      <c r="N76">
+        <v>2.55</v>
+      </c>
+      <c r="O76">
         <v>3.4</v>
       </c>
-      <c r="N76">
-        <v>2.15</v>
-      </c>
-      <c r="O76">
-        <v>3.25</v>
-      </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
         <v>1.925</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.8</v>
-      </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6881619</v>
+        <v>6881320</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45199.375</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L77">
+        <v>3.3</v>
+      </c>
+      <c r="M77">
         <v>3.4</v>
-      </c>
-      <c r="M77">
-        <v>2.8</v>
       </c>
       <c r="N77">
         <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q77">
         <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880331</v>
+        <v>6881619</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,58 +7404,58 @@
         <v>45199.375</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>49</v>
       </c>
       <c r="K78">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N78">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7464,16 +7464,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6881321</v>
+        <v>6880358</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
       <c r="J83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K83">
+        <v>2.4</v>
+      </c>
+      <c r="L83">
+        <v>3.5</v>
+      </c>
+      <c r="M83">
+        <v>2.5</v>
+      </c>
+      <c r="N83">
+        <v>2.1</v>
+      </c>
+      <c r="O83">
+        <v>3.75</v>
+      </c>
+      <c r="P83">
         <v>2.875</v>
       </c>
-      <c r="L83">
-        <v>3.4</v>
-      </c>
-      <c r="M83">
-        <v>2.2</v>
-      </c>
-      <c r="N83">
-        <v>2.9</v>
-      </c>
-      <c r="O83">
-        <v>3.6</v>
-      </c>
-      <c r="P83">
-        <v>2.1</v>
-      </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
         <v>1.925</v>
       </c>
-      <c r="V83">
-        <v>1.875</v>
-      </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7941,7 +7941,7 @@
         <v>47</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6880358</v>
+        <v>6881321</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K86">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
+        <v>2.9</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
         <v>2.1</v>
       </c>
-      <c r="O86">
-        <v>3.75</v>
-      </c>
-      <c r="P86">
-        <v>2.875</v>
-      </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
+        <v>1.925</v>
+      </c>
+      <c r="V86">
         <v>1.875</v>
       </c>
-      <c r="V86">
-        <v>1.925</v>
-      </c>
       <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
         <v>1.1</v>
       </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -9095,7 +9095,7 @@
         <v>45206.375</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
         <v>46</v>
@@ -9187,7 +9187,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9985,7 +9985,7 @@
         <v>45213.47916666666</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
         <v>45</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6881637</v>
+        <v>6881638</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,76 +10519,76 @@
         <v>45220.375</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N113">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880361</v>
+        <v>6881637</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,46 +10608,46 @@
         <v>45220.375</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N114">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
         <v>2.75</v>
@@ -10659,7 +10659,7 @@
         <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.8500000000000001</v>
+        <v>2</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6881638</v>
+        <v>6880361</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,73 +10697,73 @@
         <v>45220.375</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
       <c r="AC115">
         <v>-0.5</v>
@@ -10789,7 +10789,7 @@
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10967,7 +10967,7 @@
         <v>48</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11219,7 +11219,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6880518</v>
+        <v>6881327</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11231,10 +11231,10 @@
         <v>45227.375</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11246,41 +11246,41 @@
         <v>51</v>
       </c>
       <c r="K121">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N121">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O121">
         <v>3.5</v>
       </c>
       <c r="P121">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q121">
         <v>0</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
         <v>1.95</v>
       </c>
-      <c r="V121">
-        <v>1.9</v>
-      </c>
       <c r="W121">
         <v>-1</v>
       </c>
@@ -11288,16 +11288,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.45</v>
+        <v>1.375</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB121">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AC121">
         <v>-0.5</v>
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6881327</v>
+        <v>6880518</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,10 +11320,10 @@
         <v>45227.375</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11335,40 +11335,40 @@
         <v>51</v>
       </c>
       <c r="K122">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L122">
         <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N122">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O122">
         <v>3.5</v>
       </c>
       <c r="P122">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q122">
         <v>0</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11377,16 +11377,16 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.375</v>
+        <v>1.45</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB122">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AC122">
         <v>-0.5</v>
@@ -11498,7 +11498,7 @@
         <v>45227.375</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
         <v>41</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6881643</v>
+        <v>6881330</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,76 +12032,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>50</v>
+      </c>
+      <c r="K130">
+        <v>2.4</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>2.625</v>
+      </c>
+      <c r="N130">
+        <v>2.45</v>
+      </c>
+      <c r="O130">
+        <v>3.5</v>
+      </c>
+      <c r="P130">
+        <v>2.55</v>
+      </c>
+      <c r="Q130">
         <v>0</v>
       </c>
-      <c r="J130" t="s">
-        <v>49</v>
-      </c>
-      <c r="K130">
-        <v>1.533</v>
-      </c>
-      <c r="L130">
-        <v>4.2</v>
-      </c>
-      <c r="M130">
-        <v>5.25</v>
-      </c>
-      <c r="N130">
-        <v>1.333</v>
-      </c>
-      <c r="O130">
-        <v>5</v>
-      </c>
-      <c r="P130">
-        <v>7</v>
-      </c>
-      <c r="Q130">
-        <v>-1.5</v>
-      </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="T130">
-        <v>2.75</v>
-      </c>
-      <c r="U130">
-        <v>1.775</v>
-      </c>
-      <c r="V130">
-        <v>2.025</v>
-      </c>
       <c r="W130">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>-0</v>
+      </c>
+      <c r="AB130">
         <v>1</v>
       </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
       <c r="AC130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6881644</v>
+        <v>6881643</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,76 +12121,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M131">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N131">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P131">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6881646</v>
+        <v>6881644</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,56 +12210,56 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>51</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N132">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
+        <v>1.925</v>
+      </c>
+      <c r="T132">
+        <v>2.75</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
         <v>1.8</v>
       </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
-      <c r="T132">
-        <v>2.5</v>
-      </c>
-      <c r="U132">
-        <v>1.9</v>
-      </c>
-      <c r="V132">
-        <v>1.9</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
@@ -12267,19 +12267,19 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
+        <v>0.925</v>
+      </c>
+      <c r="AB132">
         <v>1</v>
       </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6881647</v>
+        <v>6881646</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,76 +12299,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K133">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N133">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
         <v>2</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB133">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6881330</v>
+        <v>6881647</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,7 +12388,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12397,67 +12397,67 @@
         <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134">
+        <v>2.375</v>
+      </c>
+      <c r="L134">
+        <v>3.25</v>
+      </c>
+      <c r="M134">
+        <v>2.8</v>
+      </c>
+      <c r="N134">
         <v>2.4</v>
       </c>
-      <c r="L134">
+      <c r="O134">
         <v>3.4</v>
       </c>
-      <c r="M134">
+      <c r="P134">
         <v>2.625</v>
-      </c>
-      <c r="N134">
-        <v>2.45</v>
-      </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>2.55</v>
       </c>
       <c r="Q134">
         <v>0</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6881331</v>
+        <v>6881650</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,73 +13192,73 @@
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N143">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6881650</v>
+        <v>6881331</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,73 +13281,73 @@
         <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>50</v>
+      </c>
+      <c r="K144">
+        <v>2.15</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>2.9</v>
+      </c>
+      <c r="N144">
+        <v>2.2</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>2.8</v>
+      </c>
+      <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>1.8</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="J144" t="s">
-        <v>51</v>
-      </c>
-      <c r="K144">
-        <v>1.75</v>
-      </c>
-      <c r="L144">
-        <v>4</v>
-      </c>
-      <c r="M144">
-        <v>3.8</v>
-      </c>
-      <c r="N144">
-        <v>1.615</v>
-      </c>
-      <c r="O144">
-        <v>4</v>
-      </c>
-      <c r="P144">
-        <v>4.5</v>
-      </c>
-      <c r="Q144">
-        <v>-0.75</v>
-      </c>
-      <c r="R144">
-        <v>1.825</v>
-      </c>
-      <c r="S144">
-        <v>1.975</v>
-      </c>
-      <c r="T144">
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
         <v>2.75</v>
       </c>
-      <c r="U144">
-        <v>1.9</v>
-      </c>
-      <c r="V144">
-        <v>1.9</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
       <c r="Y144">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -14171,7 +14171,7 @@
         <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14349,7 +14349,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14702,7 +14702,7 @@
         <v>45259.625</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
         <v>40</v>
@@ -14791,7 +14791,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
         <v>34</v>
@@ -15058,7 +15058,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15595,7 +15595,7 @@
         <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15862,7 +15862,7 @@
         <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16749,7 +16749,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G183" t="s">
         <v>33</v>
@@ -17105,7 +17105,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G187" t="s">
         <v>31</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6880368</v>
+        <v>6881339</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45279.625</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L189">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N189">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X189">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6881338</v>
+        <v>6881677</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,76 +17372,76 @@
         <v>45279.625</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I190">
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L190">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6881339</v>
+        <v>6880368</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45279.625</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K191">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L191">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M191">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N191">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O191">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W191">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6881676</v>
+        <v>6881338</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,10 +17550,10 @@
         <v>45279.625</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17565,40 +17565,40 @@
         <v>51</v>
       </c>
       <c r="K192">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M192">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N192">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
         <v>2.025</v>
       </c>
       <c r="S192">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
         <v>-1</v>
@@ -17607,19 +17607,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6881677</v>
+        <v>6881676</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,73 +17639,73 @@
         <v>45279.625</v>
       </c>
       <c r="F193" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N193">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q193">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
+        <v>2.025</v>
+      </c>
+      <c r="S193">
+        <v>1.775</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
         <v>1.9</v>
       </c>
-      <c r="S193">
+      <c r="V193">
         <v>1.9</v>
       </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.85</v>
-      </c>
-      <c r="V193">
-        <v>1.95</v>
-      </c>
       <c r="W193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB193">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
-      <c r="AB193">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17817,7 +17817,7 @@
         <v>45280.625</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
         <v>35</v>
@@ -18621,7 +18621,7 @@
         <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6880344</v>
+        <v>6881685</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45314.625</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K207">
-        <v>4.8</v>
+        <v>2.75</v>
       </c>
       <c r="L207">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M207">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N207">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O207">
         <v>3.4</v>
       </c>
       <c r="P207">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q207">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S207">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
         <v>1.925</v>
       </c>
-      <c r="V207">
-        <v>1.875</v>
-      </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y207">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA207">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6880524</v>
+        <v>6881688</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45314.625</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K208">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L208">
         <v>3.4</v>
       </c>
       <c r="M208">
+        <v>2.4</v>
+      </c>
+      <c r="N208">
         <v>2.9</v>
       </c>
-      <c r="N208">
-        <v>2.05</v>
-      </c>
       <c r="O208">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
         <v>1.825</v>
       </c>
       <c r="S208">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V208">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y208">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA208">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6881684</v>
+        <v>6880524</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19063,73 +19063,73 @@
         <v>45314.625</v>
       </c>
       <c r="F209" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>3</v>
       </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L209">
+        <v>3.4</v>
+      </c>
+      <c r="M209">
+        <v>2.9</v>
+      </c>
+      <c r="N209">
+        <v>2.05</v>
+      </c>
+      <c r="O209">
         <v>3.6</v>
       </c>
-      <c r="M209">
-        <v>3.2</v>
-      </c>
-      <c r="N209">
-        <v>2.15</v>
-      </c>
-      <c r="O209">
-        <v>3.5</v>
-      </c>
       <c r="P209">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T209">
         <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19140,7 +19140,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6881688</v>
+        <v>6880344</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19152,76 +19152,76 @@
         <v>45314.625</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K210">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="L210">
+        <v>3.75</v>
+      </c>
+      <c r="M210">
+        <v>1.615</v>
+      </c>
+      <c r="N210">
+        <v>4</v>
+      </c>
+      <c r="O210">
         <v>3.4</v>
       </c>
-      <c r="M210">
-        <v>2.4</v>
-      </c>
-      <c r="N210">
-        <v>2.9</v>
-      </c>
-      <c r="O210">
-        <v>3.5</v>
-      </c>
       <c r="P210">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z210">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6881685</v>
+        <v>6881684</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45314.625</v>
       </c>
       <c r="F211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G211" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>3.6</v>
+      </c>
+      <c r="M211">
+        <v>3.2</v>
+      </c>
+      <c r="N211">
+        <v>2.15</v>
+      </c>
+      <c r="O211">
+        <v>3.5</v>
+      </c>
+      <c r="P211">
+        <v>2.9</v>
+      </c>
+      <c r="Q211">
+        <v>-0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
         <v>2.75</v>
       </c>
-      <c r="L211">
-        <v>3.5</v>
-      </c>
-      <c r="M211">
-        <v>2.25</v>
-      </c>
-      <c r="N211">
-        <v>3</v>
-      </c>
-      <c r="O211">
-        <v>3.4</v>
-      </c>
-      <c r="P211">
-        <v>2.15</v>
-      </c>
-      <c r="Q211">
-        <v>0.25</v>
-      </c>
-      <c r="R211">
-        <v>1.875</v>
-      </c>
-      <c r="S211">
-        <v>1.925</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC211">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>45315.625</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
         <v>36</v>
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6880371</v>
+        <v>6881689</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,34 +19864,34 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N218">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
         <v>3.5</v>
@@ -19900,40 +19900,40 @@
         <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
+        <v>1.9</v>
+      </c>
+      <c r="T218">
+        <v>2.75</v>
+      </c>
+      <c r="U218">
+        <v>2</v>
+      </c>
+      <c r="V218">
         <v>1.8</v>
       </c>
-      <c r="T218">
-        <v>2.5</v>
-      </c>
-      <c r="U218">
-        <v>1.925</v>
-      </c>
-      <c r="V218">
-        <v>1.875</v>
-      </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA218">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC218">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6881691</v>
+        <v>6880371</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,76 +19953,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K219">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L219">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N219">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O219">
         <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S219">
         <v>1.8</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W219">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z219">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6881689</v>
+        <v>6880525</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,76 +20042,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L220">
+        <v>3.8</v>
+      </c>
+      <c r="M220">
+        <v>4.333</v>
+      </c>
+      <c r="N220">
+        <v>1.85</v>
+      </c>
+      <c r="O220">
+        <v>3.4</v>
+      </c>
+      <c r="P220">
         <v>3.6</v>
-      </c>
-      <c r="M220">
-        <v>3.3</v>
-      </c>
-      <c r="N220">
-        <v>1.909</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>3.5</v>
       </c>
       <c r="Q220">
         <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S220">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB220">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6881692</v>
+        <v>6881691</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,70 +20131,70 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
       <c r="J221" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
+        <v>3.6</v>
+      </c>
+      <c r="M221">
         <v>3.5</v>
       </c>
-      <c r="M221">
-        <v>2</v>
-      </c>
       <c r="N221">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="O221">
         <v>3.4</v>
       </c>
       <c r="P221">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
         <v>1.8</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V221">
         <v>1.85</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
         <v>-1</v>
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6880525</v>
+        <v>6881692</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,76 +20220,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K222">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L222">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N222">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="O222">
         <v>3.4</v>
       </c>
       <c r="P222">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S222">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
+        <v>0.8</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB222">
-        <v>0.875</v>
-      </c>
-      <c r="AC222">
-        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20668,7 +20668,7 @@
         <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20831,7 +20831,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6881344</v>
+        <v>6880482</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20843,55 +20843,55 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>50</v>
       </c>
       <c r="K229">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
         <v>3.3</v>
       </c>
       <c r="M229">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N229">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O229">
         <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q229">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20903,16 +20903,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6880482</v>
+        <v>6881344</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,55 +21021,55 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
         <v>50</v>
       </c>
       <c r="K231">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L231">
         <v>3.3</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N231">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O231">
         <v>3.3</v>
       </c>
       <c r="P231">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21081,16 +21081,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
+        <v>0.475</v>
+      </c>
+      <c r="AA231">
         <v>-0.5</v>
       </c>
-      <c r="AA231">
-        <v>0.4</v>
-      </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21199,7 +21199,7 @@
         <v>45325.52083333334</v>
       </c>
       <c r="F233" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G233" t="s">
         <v>32</v>
@@ -22270,7 +22270,7 @@
         <v>37</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -23157,7 +23157,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F255" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23249,7 +23249,7 @@
         <v>45</v>
       </c>
       <c r="G256" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -23516,7 +23516,7 @@
         <v>32</v>
       </c>
       <c r="G259" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H259">
         <v>2</v>
@@ -24314,10 +24314,10 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F268" t="s">
+        <v>43</v>
+      </c>
+      <c r="G268" t="s">
         <v>44</v>
-      </c>
-      <c r="G268" t="s">
-        <v>43</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6881718</v>
+        <v>6881719</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,67 +24581,67 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271">
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K271">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L271">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M271">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N271">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O271">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P271">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q271">
         <v>0.75</v>
       </c>
       <c r="R271">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S271">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T271">
+        <v>2.75</v>
+      </c>
+      <c r="U271">
+        <v>2</v>
+      </c>
+      <c r="V271">
+        <v>1.8</v>
+      </c>
+      <c r="W271">
+        <v>-1</v>
+      </c>
+      <c r="X271">
         <v>3</v>
       </c>
-      <c r="U271">
-        <v>1.95</v>
-      </c>
-      <c r="V271">
-        <v>1.9</v>
-      </c>
-      <c r="W271">
-        <v>3.75</v>
-      </c>
-      <c r="X271">
-        <v>-1</v>
-      </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA271">
         <v>-1</v>
@@ -24650,7 +24650,7 @@
         <v>-1</v>
       </c>
       <c r="AC271">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6881719</v>
+        <v>6881721</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,76 +24670,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G272" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K272">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L272">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M272">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N272">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O272">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P272">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q272">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R272">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S272">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T272">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X272">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC272">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24747,7 +24747,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6881721</v>
+        <v>6943476</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24759,37 +24759,37 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G273" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H273">
+        <v>2</v>
+      </c>
+      <c r="I273">
         <v>3</v>
       </c>
-      <c r="I273">
-        <v>1</v>
-      </c>
       <c r="J273" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K273">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L273">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M273">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N273">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O273">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P273">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q273">
         <v>-0.25</v>
@@ -24801,31 +24801,31 @@
         <v>1.85</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V273">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W273">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z273">
+        <v>-1</v>
+      </c>
+      <c r="AA273">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB273">
         <v>0.95</v>
-      </c>
-      <c r="AA273">
-        <v>-1</v>
-      </c>
-      <c r="AB273">
-        <v>0.825</v>
       </c>
       <c r="AC273">
         <v>-1</v>
@@ -24836,7 +24836,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6943476</v>
+        <v>6881718</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24848,76 +24848,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G274" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K274">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="L274">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M274">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="N274">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O274">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P274">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q274">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R274">
         <v>1.95</v>
       </c>
       <c r="S274">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T274">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U274">
         <v>1.95</v>
       </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA274">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25204,7 +25204,7 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G278" t="s">
         <v>47</v>
@@ -25471,7 +25471,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G281" t="s">
         <v>38</v>
@@ -25652,7 +25652,7 @@
         <v>46</v>
       </c>
       <c r="G283" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6881725</v>
+        <v>6881724</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25738,76 +25738,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284" t="s">
+        <v>50</v>
+      </c>
+      <c r="K284">
+        <v>2.55</v>
+      </c>
+      <c r="L284">
+        <v>3.4</v>
+      </c>
+      <c r="M284">
+        <v>2.6</v>
+      </c>
+      <c r="N284">
+        <v>2.45</v>
+      </c>
+      <c r="O284">
+        <v>3.4</v>
+      </c>
+      <c r="P284">
+        <v>2.7</v>
+      </c>
+      <c r="Q284">
         <v>0</v>
       </c>
-      <c r="J284" t="s">
-        <v>49</v>
-      </c>
-      <c r="K284">
-        <v>2.625</v>
-      </c>
-      <c r="L284">
-        <v>3.3</v>
-      </c>
-      <c r="M284">
-        <v>2.55</v>
-      </c>
-      <c r="N284">
-        <v>2.875</v>
-      </c>
-      <c r="O284">
-        <v>3.3</v>
-      </c>
-      <c r="P284">
-        <v>2.375</v>
-      </c>
-      <c r="Q284">
-        <v>0.25</v>
-      </c>
       <c r="R284">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S284">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T284">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U284">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V284">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W284">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB284">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6881724</v>
+        <v>6881725</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25827,76 +25827,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G285" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K285">
+        <v>2.625</v>
+      </c>
+      <c r="L285">
+        <v>3.3</v>
+      </c>
+      <c r="M285">
         <v>2.55</v>
       </c>
-      <c r="L285">
-        <v>3.4</v>
-      </c>
-      <c r="M285">
-        <v>2.6</v>
-      </c>
       <c r="N285">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="O285">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P285">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q285">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R285">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T285">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U285">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V285">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X285">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA285">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC285">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26275,7 +26275,7 @@
         <v>45</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26631,7 +26631,7 @@
         <v>40</v>
       </c>
       <c r="G294" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H294">
         <v>2</v>
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7060659</v>
+        <v>7060660</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27159,49 +27159,49 @@
         <v>28</v>
       </c>
       <c r="E300" s="2">
-        <v>45381.41666666666</v>
+        <v>45382.35416666666</v>
       </c>
       <c r="F300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K300">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L300">
+        <v>3.75</v>
+      </c>
+      <c r="M300">
         <v>3.6</v>
       </c>
-      <c r="M300">
-        <v>4</v>
-      </c>
       <c r="N300">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O300">
         <v>3.6</v>
       </c>
       <c r="P300">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R300">
+        <v>1.85</v>
+      </c>
+      <c r="S300">
+        <v>2</v>
+      </c>
+      <c r="T300">
+        <v>2.75</v>
+      </c>
+      <c r="U300">
         <v>1.925</v>
       </c>
-      <c r="S300">
+      <c r="V300">
         <v>1.925</v>
-      </c>
-      <c r="T300">
-        <v>2.5</v>
-      </c>
-      <c r="U300">
-        <v>1.875</v>
-      </c>
-      <c r="V300">
-        <v>1.975</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -27224,7 +27224,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7028878</v>
+        <v>7023565</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27233,49 +27233,49 @@
         <v>28</v>
       </c>
       <c r="E301" s="2">
-        <v>45381.41666666666</v>
+        <v>45382.47916666666</v>
       </c>
       <c r="F301" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G301" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K301">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="L301">
         <v>3.6</v>
       </c>
       <c r="M301">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N301">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O301">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P301">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q301">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S301">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T301">
         <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V301">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27298,7 +27298,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7027629</v>
+        <v>7027628</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27307,43 +27307,43 @@
         <v>28</v>
       </c>
       <c r="E302" s="2">
-        <v>45381.41666666666</v>
+        <v>45382.60416666666</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G302" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K302">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="L302">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M302">
         <v>4</v>
       </c>
       <c r="N302">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O302">
         <v>3.6</v>
       </c>
       <c r="P302">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q302">
         <v>-0.5</v>
       </c>
       <c r="R302">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S302">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
         <v>1.925</v>
@@ -27364,450 +27364,6 @@
         <v>0</v>
       </c>
       <c r="AA302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:29">
-      <c r="A303" s="1">
-        <v>301</v>
-      </c>
-      <c r="B303">
-        <v>7024923</v>
-      </c>
-      <c r="C303" t="s">
-        <v>28</v>
-      </c>
-      <c r="D303" t="s">
-        <v>28</v>
-      </c>
-      <c r="E303" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F303" t="s">
-        <v>34</v>
-      </c>
-      <c r="G303" t="s">
-        <v>35</v>
-      </c>
-      <c r="K303">
-        <v>3.1</v>
-      </c>
-      <c r="L303">
-        <v>3.6</v>
-      </c>
-      <c r="M303">
-        <v>2.15</v>
-      </c>
-      <c r="N303">
-        <v>3</v>
-      </c>
-      <c r="O303">
-        <v>3.5</v>
-      </c>
-      <c r="P303">
-        <v>2.25</v>
-      </c>
-      <c r="Q303">
-        <v>0.25</v>
-      </c>
-      <c r="R303">
-        <v>1.85</v>
-      </c>
-      <c r="S303">
-        <v>2</v>
-      </c>
-      <c r="T303">
-        <v>2.75</v>
-      </c>
-      <c r="U303">
-        <v>1.875</v>
-      </c>
-      <c r="V303">
-        <v>1.975</v>
-      </c>
-      <c r="W303">
-        <v>0</v>
-      </c>
-      <c r="X303">
-        <v>0</v>
-      </c>
-      <c r="Y303">
-        <v>0</v>
-      </c>
-      <c r="Z303">
-        <v>0</v>
-      </c>
-      <c r="AA303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:29">
-      <c r="A304" s="1">
-        <v>302</v>
-      </c>
-      <c r="B304">
-        <v>7023562</v>
-      </c>
-      <c r="C304" t="s">
-        <v>28</v>
-      </c>
-      <c r="D304" t="s">
-        <v>28</v>
-      </c>
-      <c r="E304" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F304" t="s">
-        <v>46</v>
-      </c>
-      <c r="G304" t="s">
-        <v>45</v>
-      </c>
-      <c r="K304">
-        <v>3</v>
-      </c>
-      <c r="L304">
-        <v>3.5</v>
-      </c>
-      <c r="M304">
-        <v>2.25</v>
-      </c>
-      <c r="N304">
-        <v>3.1</v>
-      </c>
-      <c r="O304">
-        <v>3.5</v>
-      </c>
-      <c r="P304">
-        <v>2.15</v>
-      </c>
-      <c r="Q304">
-        <v>0.25</v>
-      </c>
-      <c r="R304">
-        <v>1.925</v>
-      </c>
-      <c r="S304">
-        <v>1.925</v>
-      </c>
-      <c r="T304">
-        <v>2.75</v>
-      </c>
-      <c r="U304">
-        <v>1.875</v>
-      </c>
-      <c r="V304">
-        <v>1.975</v>
-      </c>
-      <c r="W304">
-        <v>0</v>
-      </c>
-      <c r="X304">
-        <v>0</v>
-      </c>
-      <c r="Y304">
-        <v>0</v>
-      </c>
-      <c r="Z304">
-        <v>0</v>
-      </c>
-      <c r="AA304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:27">
-      <c r="A305" s="1">
-        <v>303</v>
-      </c>
-      <c r="B305">
-        <v>7023566</v>
-      </c>
-      <c r="C305" t="s">
-        <v>28</v>
-      </c>
-      <c r="D305" t="s">
-        <v>28</v>
-      </c>
-      <c r="E305" s="2">
-        <v>45381.52083333334</v>
-      </c>
-      <c r="F305" t="s">
-        <v>37</v>
-      </c>
-      <c r="G305" t="s">
-        <v>31</v>
-      </c>
-      <c r="K305">
-        <v>3.6</v>
-      </c>
-      <c r="L305">
-        <v>3.3</v>
-      </c>
-      <c r="M305">
-        <v>2.05</v>
-      </c>
-      <c r="N305">
-        <v>3.6</v>
-      </c>
-      <c r="O305">
-        <v>3.3</v>
-      </c>
-      <c r="P305">
-        <v>2.05</v>
-      </c>
-      <c r="Q305">
-        <v>0.5</v>
-      </c>
-      <c r="R305">
-        <v>1.825</v>
-      </c>
-      <c r="S305">
-        <v>2.025</v>
-      </c>
-      <c r="T305">
-        <v>2.5</v>
-      </c>
-      <c r="U305">
-        <v>2.05</v>
-      </c>
-      <c r="V305">
-        <v>1.8</v>
-      </c>
-      <c r="W305">
-        <v>0</v>
-      </c>
-      <c r="X305">
-        <v>0</v>
-      </c>
-      <c r="Y305">
-        <v>0</v>
-      </c>
-      <c r="Z305">
-        <v>0</v>
-      </c>
-      <c r="AA305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:27">
-      <c r="A306" s="1">
-        <v>304</v>
-      </c>
-      <c r="B306">
-        <v>7060660</v>
-      </c>
-      <c r="C306" t="s">
-        <v>28</v>
-      </c>
-      <c r="D306" t="s">
-        <v>28</v>
-      </c>
-      <c r="E306" s="2">
-        <v>45382.35416666666</v>
-      </c>
-      <c r="F306" t="s">
-        <v>32</v>
-      </c>
-      <c r="G306" t="s">
-        <v>30</v>
-      </c>
-      <c r="K306">
-        <v>1.909</v>
-      </c>
-      <c r="L306">
-        <v>3.75</v>
-      </c>
-      <c r="M306">
-        <v>3.6</v>
-      </c>
-      <c r="N306">
-        <v>2</v>
-      </c>
-      <c r="O306">
-        <v>3.6</v>
-      </c>
-      <c r="P306">
-        <v>3.3</v>
-      </c>
-      <c r="Q306">
-        <v>-0.5</v>
-      </c>
-      <c r="R306">
-        <v>2.025</v>
-      </c>
-      <c r="S306">
-        <v>1.825</v>
-      </c>
-      <c r="T306">
-        <v>2.75</v>
-      </c>
-      <c r="U306">
-        <v>1.925</v>
-      </c>
-      <c r="V306">
-        <v>1.925</v>
-      </c>
-      <c r="W306">
-        <v>0</v>
-      </c>
-      <c r="X306">
-        <v>0</v>
-      </c>
-      <c r="Y306">
-        <v>0</v>
-      </c>
-      <c r="Z306">
-        <v>0</v>
-      </c>
-      <c r="AA306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:27">
-      <c r="A307" s="1">
-        <v>305</v>
-      </c>
-      <c r="B307">
-        <v>7023565</v>
-      </c>
-      <c r="C307" t="s">
-        <v>28</v>
-      </c>
-      <c r="D307" t="s">
-        <v>28</v>
-      </c>
-      <c r="E307" s="2">
-        <v>45382.47916666666</v>
-      </c>
-      <c r="F307" t="s">
-        <v>47</v>
-      </c>
-      <c r="G307" t="s">
-        <v>39</v>
-      </c>
-      <c r="K307">
-        <v>2.15</v>
-      </c>
-      <c r="L307">
-        <v>3.6</v>
-      </c>
-      <c r="M307">
-        <v>3.1</v>
-      </c>
-      <c r="N307">
-        <v>2.15</v>
-      </c>
-      <c r="O307">
-        <v>3.6</v>
-      </c>
-      <c r="P307">
-        <v>3.1</v>
-      </c>
-      <c r="Q307">
-        <v>-0.25</v>
-      </c>
-      <c r="R307">
-        <v>1.975</v>
-      </c>
-      <c r="S307">
-        <v>1.875</v>
-      </c>
-      <c r="T307">
-        <v>2.75</v>
-      </c>
-      <c r="U307">
-        <v>2</v>
-      </c>
-      <c r="V307">
-        <v>1.85</v>
-      </c>
-      <c r="W307">
-        <v>0</v>
-      </c>
-      <c r="X307">
-        <v>0</v>
-      </c>
-      <c r="Y307">
-        <v>0</v>
-      </c>
-      <c r="Z307">
-        <v>0</v>
-      </c>
-      <c r="AA307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:27">
-      <c r="A308" s="1">
-        <v>306</v>
-      </c>
-      <c r="B308">
-        <v>7027628</v>
-      </c>
-      <c r="C308" t="s">
-        <v>28</v>
-      </c>
-      <c r="D308" t="s">
-        <v>28</v>
-      </c>
-      <c r="E308" s="2">
-        <v>45382.60416666666</v>
-      </c>
-      <c r="F308" t="s">
-        <v>43</v>
-      </c>
-      <c r="G308" t="s">
-        <v>40</v>
-      </c>
-      <c r="K308">
-        <v>1.833</v>
-      </c>
-      <c r="L308">
-        <v>3.75</v>
-      </c>
-      <c r="M308">
-        <v>4</v>
-      </c>
-      <c r="N308">
-        <v>1.833</v>
-      </c>
-      <c r="O308">
-        <v>3.75</v>
-      </c>
-      <c r="P308">
-        <v>4</v>
-      </c>
-      <c r="Q308">
-        <v>-0.5</v>
-      </c>
-      <c r="R308">
-        <v>1.825</v>
-      </c>
-      <c r="S308">
-        <v>2.025</v>
-      </c>
-      <c r="T308">
-        <v>2.75</v>
-      </c>
-      <c r="U308">
-        <v>1.875</v>
-      </c>
-      <c r="V308">
-        <v>1.975</v>
-      </c>
-      <c r="W308">
-        <v>0</v>
-      </c>
-      <c r="X308">
-        <v>0</v>
-      </c>
-      <c r="Y308">
-        <v>0</v>
-      </c>
-      <c r="Z308">
-        <v>0</v>
-      </c>
-      <c r="AA308">
         <v>0</v>
       </c>
     </row>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6880519</v>
+        <v>6881653</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K152">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N152">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P152">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6881653</v>
+        <v>6880519</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L153">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N153">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q153">
         <v>-0.5</v>
       </c>
       <c r="R153">
+        <v>1.875</v>
+      </c>
+      <c r="S153">
+        <v>1.925</v>
+      </c>
+      <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
         <v>1.9</v>
       </c>
-      <c r="S153">
+      <c r="V153">
         <v>1.9</v>
       </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB153">
-        <v>-1</v>
-      </c>
-      <c r="AC153">
-        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6880341</v>
+        <v>6880367</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,13 +16749,13 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16764,34 +16764,34 @@
         <v>49</v>
       </c>
       <c r="K183">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L183">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N183">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O183">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
         <v>1.9</v>
@@ -16800,7 +16800,7 @@
         <v>1.9</v>
       </c>
       <c r="W183">
-        <v>1.6</v>
+        <v>0.909</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16809,7 +16809,7 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA183">
         <v>-1</v>
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6880367</v>
+        <v>6880341</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,13 +16838,13 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16853,34 +16853,34 @@
         <v>49</v>
       </c>
       <c r="K184">
+        <v>2.4</v>
+      </c>
+      <c r="L184">
+        <v>3.3</v>
+      </c>
+      <c r="M184">
+        <v>2.6</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>3.25</v>
+      </c>
+      <c r="P184">
+        <v>2.45</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
         <v>1.95</v>
       </c>
-      <c r="L184">
-        <v>3.5</v>
-      </c>
-      <c r="M184">
-        <v>3.5</v>
-      </c>
-      <c r="N184">
-        <v>1.909</v>
-      </c>
-      <c r="O184">
-        <v>3.5</v>
-      </c>
-      <c r="P184">
-        <v>3.5</v>
-      </c>
-      <c r="Q184">
-        <v>-0.5</v>
-      </c>
-      <c r="R184">
-        <v>2</v>
-      </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
         <v>1.9</v>
@@ -16889,7 +16889,7 @@
         <v>1.9</v>
       </c>
       <c r="W184">
-        <v>0.909</v>
+        <v>1.6</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16898,7 +16898,7 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA184">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6881339</v>
+        <v>6881676</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,73 +17283,73 @@
         <v>45279.625</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L189">
+        <v>3.3</v>
+      </c>
+      <c r="M189">
+        <v>2.25</v>
+      </c>
+      <c r="N189">
+        <v>3.2</v>
+      </c>
+      <c r="O189">
         <v>3.4</v>
       </c>
-      <c r="M189">
-        <v>3.3</v>
-      </c>
-      <c r="N189">
-        <v>2.15</v>
-      </c>
-      <c r="O189">
-        <v>3.2</v>
-      </c>
       <c r="P189">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB189">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6881338</v>
+        <v>6881339</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,76 +17372,76 @@
         <v>45279.625</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>2</v>
-      </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L190">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N190">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P190">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6881676</v>
+        <v>6881338</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,10 +17639,10 @@
         <v>45279.625</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17654,40 +17654,40 @@
         <v>51</v>
       </c>
       <c r="K193">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M193">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N193">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P193">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q193">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
         <v>2.025</v>
       </c>
       <c r="S193">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
         <v>-1</v>
@@ -17696,19 +17696,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17716,7 +17716,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6880342</v>
+        <v>6881679</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17728,76 +17728,76 @@
         <v>45280.625</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>1</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>3.75</v>
+      </c>
+      <c r="M194">
+        <v>3.4</v>
+      </c>
+      <c r="N194">
+        <v>2.05</v>
+      </c>
+      <c r="O194">
+        <v>3.6</v>
+      </c>
+      <c r="P194">
+        <v>3.25</v>
+      </c>
+      <c r="Q194">
+        <v>-0.25</v>
+      </c>
+      <c r="R194">
+        <v>1.825</v>
+      </c>
+      <c r="S194">
+        <v>1.975</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>1.825</v>
+      </c>
+      <c r="V194">
+        <v>1.975</v>
+      </c>
+      <c r="W194">
+        <v>-1</v>
+      </c>
+      <c r="X194">
         <v>2.6</v>
       </c>
-      <c r="L194">
-        <v>3.4</v>
-      </c>
-      <c r="M194">
-        <v>2.625</v>
-      </c>
-      <c r="N194">
-        <v>2.8</v>
-      </c>
-      <c r="O194">
-        <v>3.4</v>
-      </c>
-      <c r="P194">
-        <v>2.45</v>
-      </c>
-      <c r="Q194">
-        <v>0</v>
-      </c>
-      <c r="R194">
-        <v>2</v>
-      </c>
-      <c r="S194">
-        <v>1.8</v>
-      </c>
-      <c r="T194">
-        <v>2.5</v>
-      </c>
-      <c r="U194">
-        <v>1.875</v>
-      </c>
-      <c r="V194">
-        <v>1.925</v>
-      </c>
-      <c r="W194">
-        <v>1.8</v>
-      </c>
-      <c r="X194">
-        <v>-1</v>
-      </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6880522</v>
+        <v>6881675</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17817,40 +17817,40 @@
         <v>45280.625</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K195">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N195">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O195">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
         <v>1.95</v>
@@ -17859,34 +17859,34 @@
         <v>1.85</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6881675</v>
+        <v>6880522</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17906,40 +17906,40 @@
         <v>45280.625</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L196">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N196">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O196">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P196">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
         <v>1.95</v>
@@ -17948,34 +17948,34 @@
         <v>1.85</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17983,7 +17983,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6881679</v>
+        <v>6880342</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17995,76 +17995,76 @@
         <v>45280.625</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>49</v>
+      </c>
+      <c r="K197">
+        <v>2.6</v>
+      </c>
+      <c r="L197">
+        <v>3.4</v>
+      </c>
+      <c r="M197">
+        <v>2.625</v>
+      </c>
+      <c r="N197">
+        <v>2.8</v>
+      </c>
+      <c r="O197">
+        <v>3.4</v>
+      </c>
+      <c r="P197">
+        <v>2.45</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>1.8</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>1.875</v>
+      </c>
+      <c r="V197">
+        <v>1.925</v>
+      </c>
+      <c r="W197">
+        <v>1.8</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
         <v>1</v>
       </c>
-      <c r="J197" t="s">
-        <v>50</v>
-      </c>
-      <c r="K197">
-        <v>2</v>
-      </c>
-      <c r="L197">
-        <v>3.75</v>
-      </c>
-      <c r="M197">
-        <v>3.4</v>
-      </c>
-      <c r="N197">
-        <v>2.05</v>
-      </c>
-      <c r="O197">
-        <v>3.6</v>
-      </c>
-      <c r="P197">
-        <v>3.25</v>
-      </c>
-      <c r="Q197">
-        <v>-0.25</v>
-      </c>
-      <c r="R197">
-        <v>1.825</v>
-      </c>
-      <c r="S197">
-        <v>1.975</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.825</v>
-      </c>
-      <c r="V197">
-        <v>1.975</v>
-      </c>
-      <c r="W197">
-        <v>-1</v>
-      </c>
-      <c r="X197">
-        <v>2.6</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
-      <c r="Z197">
-        <v>-0.5</v>
-      </c>
       <c r="AA197">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -23768,7 +23768,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6881713</v>
+        <v>6881711</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,49 +23780,49 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G262" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K262">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L262">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M262">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N262">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="O262">
         <v>3.5</v>
       </c>
       <c r="P262">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q262">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S262">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T262">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
         <v>1.85</v>
@@ -23831,25 +23831,25 @@
         <v>1.95</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X262">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA262">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC262">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23857,7 +23857,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6882785</v>
+        <v>6881713</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23869,10 +23869,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -23884,61 +23884,61 @@
         <v>50</v>
       </c>
       <c r="K263">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M263">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N263">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O263">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P263">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q263">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U263">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB263">
         <v>-1</v>
       </c>
       <c r="AC263">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6881715</v>
+        <v>6882785</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,76 +23958,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K264">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L264">
+        <v>3.3</v>
+      </c>
+      <c r="M264">
+        <v>3.2</v>
+      </c>
+      <c r="N264">
+        <v>2.2</v>
+      </c>
+      <c r="O264">
         <v>3.4</v>
       </c>
-      <c r="M264">
-        <v>3.6</v>
-      </c>
-      <c r="N264">
-        <v>2.05</v>
-      </c>
-      <c r="O264">
-        <v>3.5</v>
-      </c>
       <c r="P264">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q264">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R264">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V264">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y264">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA264">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AB264">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6881711</v>
+        <v>6881715</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,76 +24047,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G265" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K265">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L265">
         <v>3.4</v>
       </c>
       <c r="M265">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N265">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="O265">
         <v>3.5</v>
       </c>
       <c r="P265">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q265">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R265">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S265">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
+        <v>1.95</v>
+      </c>
+      <c r="V265">
         <v>1.85</v>
       </c>
-      <c r="V265">
-        <v>1.95</v>
-      </c>
       <c r="W265">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z265">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB265">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6881721</v>
+        <v>6881718</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,58 +24670,58 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G272" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="s">
         <v>49</v>
       </c>
       <c r="K272">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L272">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M272">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="N272">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="O272">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P272">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q272">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R272">
         <v>1.95</v>
       </c>
       <c r="S272">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U272">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W272">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24736,10 +24736,10 @@
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24747,7 +24747,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6881718</v>
+        <v>6881349</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24759,40 +24759,40 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G273" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
         <v>1</v>
       </c>
-      <c r="I273">
-        <v>0</v>
-      </c>
       <c r="J273" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K273">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="L273">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M273">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="N273">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O273">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P273">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q273">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R273">
         <v>1.95</v>
@@ -24801,34 +24801,34 @@
         <v>1.9</v>
       </c>
       <c r="T273">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U273">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V273">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W273">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z273">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB273">
         <v>-1</v>
       </c>
       <c r="AC273">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24836,7 +24836,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6881349</v>
+        <v>6881721</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24848,76 +24848,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G274" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I274">
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K274">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L274">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M274">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N274">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O274">
         <v>3.3</v>
       </c>
       <c r="P274">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="Q274">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R274">
         <v>1.95</v>
       </c>
       <c r="S274">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T274">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U274">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V274">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA274">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC274">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -26349,7 +26349,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6994640</v>
+        <v>6881351</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26361,76 +26361,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G291" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291">
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K291">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="L291">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M291">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N291">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O291">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P291">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q291">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R291">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S291">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T291">
         <v>2.5</v>
       </c>
       <c r="U291">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V291">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W291">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X291">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
+        <v>-1</v>
+      </c>
+      <c r="AA291">
+        <v>0.8</v>
+      </c>
+      <c r="AB291">
+        <v>-1</v>
+      </c>
+      <c r="AC291">
         <v>0.875</v>
-      </c>
-      <c r="AA291">
-        <v>-1</v>
-      </c>
-      <c r="AB291">
-        <v>-1</v>
-      </c>
-      <c r="AC291">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26438,7 +26438,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6994641</v>
+        <v>6994640</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26450,76 +26450,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G292" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K292">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L292">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M292">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N292">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O292">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P292">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q292">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R292">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T292">
         <v>2.5</v>
       </c>
       <c r="U292">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V292">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA292">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26527,7 +26527,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7023561</v>
+        <v>6994641</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26539,76 +26539,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F293" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H293">
         <v>1</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K293">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M293">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N293">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P293">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="Q293">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R293">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S293">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T293">
         <v>2.5</v>
       </c>
       <c r="U293">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V293">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W293">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z293">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC293">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6993224</v>
+        <v>7023561</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,58 +26628,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
         <v>49</v>
       </c>
       <c r="K294">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L294">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="N294">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O294">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P294">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R294">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S294">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T294">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U294">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V294">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W294">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26688,16 +26688,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6881351</v>
+        <v>6993224</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,76 +26717,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G295" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K295">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L295">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M295">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N295">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O295">
         <v>3.4</v>
       </c>
       <c r="P295">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q295">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S295">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T295">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U295">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V295">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X295">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC295">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27978,22 +27978,22 @@
         <v>3.3</v>
       </c>
       <c r="N309">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O309">
         <v>3.6</v>
       </c>
       <c r="P309">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q309">
         <v>-0.25</v>
       </c>
       <c r="R309">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T309">
         <v>2.75</v>
@@ -28025,7 +28025,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7092356</v>
+        <v>7095782</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28037,46 +28037,46 @@
         <v>45388.375</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G310" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K310">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L310">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M310">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N310">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P310">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q310">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S310">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U310">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V310">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7092361</v>
+        <v>7097481</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28111,46 +28111,46 @@
         <v>45388.375</v>
       </c>
       <c r="F311" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G311" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K311">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L311">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M311">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N311">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O311">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P311">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q311">
         <v>-0.5</v>
       </c>
       <c r="R311">
+        <v>2.05</v>
+      </c>
+      <c r="S311">
+        <v>1.8</v>
+      </c>
+      <c r="T311">
+        <v>2.5</v>
+      </c>
+      <c r="U311">
         <v>1.85</v>
       </c>
-      <c r="S311">
-        <v>2</v>
-      </c>
-      <c r="T311">
-        <v>2.75</v>
-      </c>
-      <c r="U311">
-        <v>1.9</v>
-      </c>
       <c r="V311">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28173,7 +28173,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7095782</v>
+        <v>7092361</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28185,31 +28185,31 @@
         <v>45388.375</v>
       </c>
       <c r="F312" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K312">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L312">
+        <v>3.75</v>
+      </c>
+      <c r="M312">
         <v>4</v>
       </c>
-      <c r="M312">
-        <v>4.75</v>
-      </c>
       <c r="N312">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="O312">
+        <v>3.75</v>
+      </c>
+      <c r="P312">
         <v>4</v>
       </c>
-      <c r="P312">
-        <v>4.75</v>
-      </c>
       <c r="Q312">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R312">
         <v>1.875</v>
@@ -28218,7 +28218,7 @@
         <v>1.975</v>
       </c>
       <c r="T312">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U312">
         <v>1.925</v>
@@ -28247,7 +28247,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7097481</v>
+        <v>7092356</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28259,46 +28259,46 @@
         <v>45388.375</v>
       </c>
       <c r="F313" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G313" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K313">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L313">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M313">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N313">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O313">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P313">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q313">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R313">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S313">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T313">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U313">
+        <v>2.025</v>
+      </c>
+      <c r="V313">
         <v>1.825</v>
-      </c>
-      <c r="V313">
-        <v>2.025</v>
       </c>
       <c r="W313">
         <v>0</v>
@@ -28360,10 +28360,10 @@
         <v>-0.75</v>
       </c>
       <c r="R314">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S314">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T314">
         <v>2.75</v>
@@ -28443,10 +28443,10 @@
         <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V315">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28496,31 +28496,31 @@
         <v>3.8</v>
       </c>
       <c r="N316">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O316">
         <v>3.6</v>
       </c>
       <c r="P316">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q316">
         <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S316">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T316">
         <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V316">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28591,10 +28591,10 @@
         <v>2.75</v>
       </c>
       <c r="U317">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V317">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28656,19 +28656,19 @@
         <v>0.25</v>
       </c>
       <c r="R318">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S318">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T318">
         <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V318">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W318">
         <v>0</v>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC318"/>
+  <dimension ref="A1:AC319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6881653</v>
+        <v>6880519</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N152">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O152">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
+        <v>1.875</v>
+      </c>
+      <c r="S152">
+        <v>1.925</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
         <v>1.9</v>
       </c>
-      <c r="S152">
+      <c r="V152">
         <v>1.9</v>
       </c>
-      <c r="T152">
-        <v>2.5</v>
-      </c>
-      <c r="U152">
-        <v>2</v>
-      </c>
-      <c r="V152">
-        <v>1.8</v>
-      </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
-      </c>
-      <c r="AC152">
-        <v>0.8</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880519</v>
+        <v>6881653</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M153">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P153">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q153">
         <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6880367</v>
+        <v>6880341</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,13 +16749,13 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16764,34 +16764,34 @@
         <v>49</v>
       </c>
       <c r="K183">
+        <v>2.4</v>
+      </c>
+      <c r="L183">
+        <v>3.3</v>
+      </c>
+      <c r="M183">
+        <v>2.6</v>
+      </c>
+      <c r="N183">
+        <v>2.6</v>
+      </c>
+      <c r="O183">
+        <v>3.25</v>
+      </c>
+      <c r="P183">
+        <v>2.45</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
         <v>1.95</v>
       </c>
-      <c r="L183">
-        <v>3.5</v>
-      </c>
-      <c r="M183">
-        <v>3.5</v>
-      </c>
-      <c r="N183">
-        <v>1.909</v>
-      </c>
-      <c r="O183">
-        <v>3.5</v>
-      </c>
-      <c r="P183">
-        <v>3.5</v>
-      </c>
-      <c r="Q183">
-        <v>-0.5</v>
-      </c>
-      <c r="R183">
-        <v>2</v>
-      </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
         <v>1.9</v>
@@ -16800,7 +16800,7 @@
         <v>1.9</v>
       </c>
       <c r="W183">
-        <v>0.909</v>
+        <v>1.6</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16809,7 +16809,7 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA183">
         <v>-1</v>
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6880341</v>
+        <v>6880367</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,13 +16838,13 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16853,34 +16853,34 @@
         <v>49</v>
       </c>
       <c r="K184">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N184">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O184">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
         <v>1.9</v>
@@ -16889,7 +16889,7 @@
         <v>1.9</v>
       </c>
       <c r="W184">
-        <v>1.6</v>
+        <v>0.909</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16898,7 +16898,7 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA184">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6881676</v>
+        <v>6881339</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,73 +17283,73 @@
         <v>45279.625</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L189">
+        <v>3.4</v>
+      </c>
+      <c r="M189">
         <v>3.3</v>
       </c>
-      <c r="M189">
+      <c r="N189">
+        <v>2.15</v>
+      </c>
+      <c r="O189">
+        <v>3.2</v>
+      </c>
+      <c r="P189">
+        <v>3.1</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>1.85</v>
+      </c>
+      <c r="T189">
         <v>2.25</v>
       </c>
-      <c r="N189">
-        <v>3.2</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>2.05</v>
-      </c>
-      <c r="Q189">
-        <v>0.25</v>
-      </c>
-      <c r="R189">
-        <v>2.025</v>
-      </c>
-      <c r="S189">
-        <v>1.775</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6881339</v>
+        <v>6881338</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,76 +17372,76 @@
         <v>45279.625</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L190">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M190">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N190">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O190">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6881338</v>
+        <v>6881676</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,10 +17639,10 @@
         <v>45279.625</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17654,40 +17654,40 @@
         <v>51</v>
       </c>
       <c r="K193">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L193">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N193">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="O193">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q193">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
         <v>2.025</v>
       </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
         <v>-1</v>
@@ -17696,19 +17696,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17716,7 +17716,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6881679</v>
+        <v>6880342</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17728,76 +17728,76 @@
         <v>45280.625</v>
       </c>
       <c r="F194" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H194">
         <v>1</v>
       </c>
       <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>49</v>
+      </c>
+      <c r="K194">
+        <v>2.6</v>
+      </c>
+      <c r="L194">
+        <v>3.4</v>
+      </c>
+      <c r="M194">
+        <v>2.625</v>
+      </c>
+      <c r="N194">
+        <v>2.8</v>
+      </c>
+      <c r="O194">
+        <v>3.4</v>
+      </c>
+      <c r="P194">
+        <v>2.45</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
+        <v>1.8</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
+        <v>1.875</v>
+      </c>
+      <c r="V194">
+        <v>1.925</v>
+      </c>
+      <c r="W194">
+        <v>1.8</v>
+      </c>
+      <c r="X194">
+        <v>-1</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
         <v>1</v>
       </c>
-      <c r="J194" t="s">
-        <v>50</v>
-      </c>
-      <c r="K194">
-        <v>2</v>
-      </c>
-      <c r="L194">
-        <v>3.75</v>
-      </c>
-      <c r="M194">
-        <v>3.4</v>
-      </c>
-      <c r="N194">
-        <v>2.05</v>
-      </c>
-      <c r="O194">
-        <v>3.6</v>
-      </c>
-      <c r="P194">
-        <v>3.25</v>
-      </c>
-      <c r="Q194">
-        <v>-0.25</v>
-      </c>
-      <c r="R194">
-        <v>1.825</v>
-      </c>
-      <c r="S194">
-        <v>1.975</v>
-      </c>
-      <c r="T194">
-        <v>2.75</v>
-      </c>
-      <c r="U194">
-        <v>1.825</v>
-      </c>
-      <c r="V194">
-        <v>1.975</v>
-      </c>
-      <c r="W194">
-        <v>-1</v>
-      </c>
-      <c r="X194">
-        <v>2.6</v>
-      </c>
-      <c r="Y194">
-        <v>-1</v>
-      </c>
-      <c r="Z194">
-        <v>-0.5</v>
-      </c>
       <c r="AA194">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6881675</v>
+        <v>6880522</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17817,40 +17817,40 @@
         <v>45280.625</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K195">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L195">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N195">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P195">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
         <v>1.95</v>
@@ -17859,34 +17859,34 @@
         <v>1.85</v>
       </c>
       <c r="T195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6880522</v>
+        <v>6881675</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17906,40 +17906,40 @@
         <v>45280.625</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L196">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M196">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N196">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O196">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P196">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
         <v>1.95</v>
@@ -17948,34 +17948,34 @@
         <v>1.85</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17983,7 +17983,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6880342</v>
+        <v>6881679</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17995,76 +17995,76 @@
         <v>45280.625</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>3.75</v>
+      </c>
+      <c r="M197">
+        <v>3.4</v>
+      </c>
+      <c r="N197">
+        <v>2.05</v>
+      </c>
+      <c r="O197">
+        <v>3.6</v>
+      </c>
+      <c r="P197">
+        <v>3.25</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>1.825</v>
+      </c>
+      <c r="S197">
+        <v>1.975</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.825</v>
+      </c>
+      <c r="V197">
+        <v>1.975</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
         <v>2.6</v>
       </c>
-      <c r="L197">
-        <v>3.4</v>
-      </c>
-      <c r="M197">
-        <v>2.625</v>
-      </c>
-      <c r="N197">
-        <v>2.8</v>
-      </c>
-      <c r="O197">
-        <v>3.4</v>
-      </c>
-      <c r="P197">
-        <v>2.45</v>
-      </c>
-      <c r="Q197">
-        <v>0</v>
-      </c>
-      <c r="R197">
-        <v>2</v>
-      </c>
-      <c r="S197">
-        <v>1.8</v>
-      </c>
-      <c r="T197">
-        <v>2.5</v>
-      </c>
-      <c r="U197">
-        <v>1.875</v>
-      </c>
-      <c r="V197">
-        <v>1.925</v>
-      </c>
-      <c r="W197">
-        <v>1.8</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -23768,7 +23768,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6881711</v>
+        <v>6881713</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,49 +23780,49 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G262" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K262">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L262">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M262">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N262">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O262">
         <v>3.5</v>
       </c>
       <c r="P262">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q262">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S262">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U262">
         <v>1.85</v>
@@ -23831,25 +23831,25 @@
         <v>1.95</v>
       </c>
       <c r="W262">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB262">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23857,7 +23857,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6881713</v>
+        <v>6882785</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23869,10 +23869,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G263" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -23884,61 +23884,61 @@
         <v>50</v>
       </c>
       <c r="K263">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L263">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M263">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N263">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O263">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P263">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q263">
+        <v>-0.25</v>
+      </c>
+      <c r="R263">
+        <v>1.875</v>
+      </c>
+      <c r="S263">
+        <v>1.925</v>
+      </c>
+      <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
+        <v>2</v>
+      </c>
+      <c r="V263">
+        <v>1.8</v>
+      </c>
+      <c r="W263">
+        <v>-1</v>
+      </c>
+      <c r="X263">
+        <v>2.4</v>
+      </c>
+      <c r="Y263">
+        <v>-1</v>
+      </c>
+      <c r="Z263">
         <v>-0.5</v>
       </c>
-      <c r="R263">
-        <v>1.9</v>
-      </c>
-      <c r="S263">
-        <v>1.9</v>
-      </c>
-      <c r="T263">
-        <v>2.5</v>
-      </c>
-      <c r="U263">
-        <v>1.85</v>
-      </c>
-      <c r="V263">
-        <v>1.95</v>
-      </c>
-      <c r="W263">
-        <v>-1</v>
-      </c>
-      <c r="X263">
-        <v>2.5</v>
-      </c>
-      <c r="Y263">
-        <v>-1</v>
-      </c>
-      <c r="Z263">
-        <v>-1</v>
-      </c>
       <c r="AA263">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB263">
         <v>-1</v>
       </c>
       <c r="AC263">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6882785</v>
+        <v>6881715</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,76 +23958,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K264">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L264">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M264">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N264">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O264">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R264">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V264">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6881715</v>
+        <v>6881711</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,76 +24047,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L265">
         <v>3.4</v>
       </c>
       <c r="M265">
+        <v>3</v>
+      </c>
+      <c r="N265">
         <v>3.6</v>
-      </c>
-      <c r="N265">
-        <v>2.05</v>
       </c>
       <c r="O265">
         <v>3.5</v>
       </c>
       <c r="P265">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
+        <v>1.85</v>
+      </c>
+      <c r="V265">
         <v>1.95</v>
       </c>
-      <c r="V265">
-        <v>1.85</v>
-      </c>
       <c r="W265">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA265">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6881718</v>
+        <v>6881721</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,58 +24670,58 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G272" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H272">
+        <v>3</v>
+      </c>
+      <c r="I272">
         <v>1</v>
-      </c>
-      <c r="I272">
-        <v>0</v>
       </c>
       <c r="J272" t="s">
         <v>49</v>
       </c>
       <c r="K272">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="L272">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M272">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="N272">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="O272">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P272">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q272">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R272">
         <v>1.95</v>
       </c>
       <c r="S272">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T272">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V272">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W272">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24736,10 +24736,10 @@
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC272">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24747,7 +24747,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6881349</v>
+        <v>6881718</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24759,40 +24759,40 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K273">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="L273">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M273">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="N273">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O273">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P273">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="Q273">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R273">
         <v>1.95</v>
@@ -24801,34 +24801,34 @@
         <v>1.9</v>
       </c>
       <c r="T273">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U273">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V273">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA273">
+        <v>-1</v>
+      </c>
+      <c r="AB273">
+        <v>-1</v>
+      </c>
+      <c r="AC273">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB273">
-        <v>-1</v>
-      </c>
-      <c r="AC273">
-        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24836,7 +24836,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6881721</v>
+        <v>6881349</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24848,76 +24848,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G274" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274">
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K274">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L274">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M274">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N274">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O274">
         <v>3.3</v>
       </c>
       <c r="P274">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q274">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R274">
         <v>1.95</v>
       </c>
       <c r="S274">
+        <v>1.9</v>
+      </c>
+      <c r="T274">
+        <v>2.25</v>
+      </c>
+      <c r="U274">
         <v>1.85</v>
       </c>
-      <c r="T274">
-        <v>2.5</v>
-      </c>
-      <c r="U274">
-        <v>1.825</v>
-      </c>
       <c r="V274">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W274">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z274">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB274">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -26349,7 +26349,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6881351</v>
+        <v>6994640</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26361,76 +26361,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G291" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291">
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K291">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="L291">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M291">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N291">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O291">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P291">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q291">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R291">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S291">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T291">
         <v>2.5</v>
       </c>
       <c r="U291">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V291">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X291">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA291">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
         <v>-1</v>
       </c>
       <c r="AC291">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26438,7 +26438,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6994640</v>
+        <v>6994641</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26450,76 +26450,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G292" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K292">
+        <v>2.375</v>
+      </c>
+      <c r="L292">
         <v>3.5</v>
       </c>
-      <c r="L292">
-        <v>3.6</v>
-      </c>
       <c r="M292">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N292">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O292">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P292">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q292">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R292">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S292">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T292">
         <v>2.5</v>
       </c>
       <c r="U292">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V292">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W292">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z292">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB292">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC292">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26527,7 +26527,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6994641</v>
+        <v>7023561</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26539,76 +26539,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G293" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H293">
         <v>1</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K293">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M293">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N293">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P293">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R293">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S293">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T293">
         <v>2.5</v>
       </c>
       <c r="U293">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA293">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7023561</v>
+        <v>6993224</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,58 +26628,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G294" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H294">
+        <v>2</v>
+      </c>
+      <c r="I294">
         <v>1</v>
-      </c>
-      <c r="I294">
-        <v>0</v>
       </c>
       <c r="J294" t="s">
         <v>49</v>
       </c>
       <c r="K294">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M294">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="N294">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="O294">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P294">
+        <v>3</v>
+      </c>
+      <c r="Q294">
+        <v>-0.25</v>
+      </c>
+      <c r="R294">
+        <v>1.85</v>
+      </c>
+      <c r="S294">
         <v>1.95</v>
       </c>
-      <c r="Q294">
-        <v>0.5</v>
-      </c>
-      <c r="R294">
-        <v>1.825</v>
-      </c>
-      <c r="S294">
-        <v>1.975</v>
-      </c>
       <c r="T294">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V294">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W294">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26688,16 +26688,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC294">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6993224</v>
+        <v>6881351</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,76 +26717,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L295">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M295">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N295">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O295">
         <v>3.4</v>
       </c>
       <c r="P295">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q295">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S295">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB295">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27999,10 +27999,10 @@
         <v>2.75</v>
       </c>
       <c r="U309">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7095782</v>
+        <v>7088786</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28037,46 +28037,46 @@
         <v>45388.375</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G310" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K310">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L310">
         <v>4</v>
       </c>
       <c r="M310">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N310">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O310">
         <v>4</v>
       </c>
       <c r="P310">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q310">
         <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S310">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7097481</v>
+        <v>7092356</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28111,46 +28111,46 @@
         <v>45388.375</v>
       </c>
       <c r="F311" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G311" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K311">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L311">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M311">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N311">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O311">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P311">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q311">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R311">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S311">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T311">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V311">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28247,7 +28247,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7092356</v>
+        <v>7095782</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28259,46 +28259,46 @@
         <v>45388.375</v>
       </c>
       <c r="F313" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G313" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K313">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L313">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M313">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N313">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O313">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P313">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q313">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R313">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S313">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T313">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U313">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V313">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W313">
         <v>0</v>
@@ -28321,7 +28321,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7088786</v>
+        <v>7097481</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28333,46 +28333,46 @@
         <v>45388.375</v>
       </c>
       <c r="F314" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G314" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K314">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M314">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N314">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P314">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S314">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T314">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V314">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W314">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7092359</v>
+        <v>7088786</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28404,49 +28404,49 @@
         <v>28</v>
       </c>
       <c r="E315" s="2">
-        <v>45388.47916666666</v>
+        <v>45388.375</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G315" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K315">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L315">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M315">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N315">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O315">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P315">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S315">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U315">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28469,7 +28469,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7089370</v>
+        <v>7092359</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28478,49 +28478,49 @@
         <v>28</v>
       </c>
       <c r="E316" s="2">
-        <v>45389.35416666666</v>
+        <v>45388.47916666666</v>
       </c>
       <c r="F316" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G316" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K316">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L316">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M316">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N316">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O316">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P316">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q316">
         <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S316">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T316">
         <v>2.5</v>
       </c>
       <c r="U316">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V316">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28543,7 +28543,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7092360</v>
+        <v>7089370</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28552,49 +28552,49 @@
         <v>28</v>
       </c>
       <c r="E317" s="2">
-        <v>45389.47916666666</v>
+        <v>45389.35416666666</v>
       </c>
       <c r="F317" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G317" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K317">
         <v>1.909</v>
       </c>
       <c r="L317">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M317">
+        <v>3.8</v>
+      </c>
+      <c r="N317">
+        <v>1.833</v>
+      </c>
+      <c r="O317">
         <v>3.6</v>
       </c>
-      <c r="N317">
-        <v>1.909</v>
-      </c>
-      <c r="O317">
-        <v>3.75</v>
-      </c>
       <c r="P317">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q317">
         <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S317">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T317">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V317">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28617,72 +28617,146 @@
         <v>316</v>
       </c>
       <c r="B318">
+        <v>7092360</v>
+      </c>
+      <c r="C318" t="s">
+        <v>28</v>
+      </c>
+      <c r="D318" t="s">
+        <v>28</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45389.47916666666</v>
+      </c>
+      <c r="F318" t="s">
+        <v>48</v>
+      </c>
+      <c r="G318" t="s">
+        <v>42</v>
+      </c>
+      <c r="K318">
+        <v>1.909</v>
+      </c>
+      <c r="L318">
+        <v>3.75</v>
+      </c>
+      <c r="M318">
+        <v>3.6</v>
+      </c>
+      <c r="N318">
+        <v>1.909</v>
+      </c>
+      <c r="O318">
+        <v>3.75</v>
+      </c>
+      <c r="P318">
+        <v>3.6</v>
+      </c>
+      <c r="Q318">
+        <v>-0.5</v>
+      </c>
+      <c r="R318">
+        <v>1.925</v>
+      </c>
+      <c r="S318">
+        <v>1.925</v>
+      </c>
+      <c r="T318">
+        <v>2.75</v>
+      </c>
+      <c r="U318">
+        <v>1.825</v>
+      </c>
+      <c r="V318">
+        <v>2.025</v>
+      </c>
+      <c r="W318">
+        <v>0</v>
+      </c>
+      <c r="X318">
+        <v>0</v>
+      </c>
+      <c r="Y318">
+        <v>0</v>
+      </c>
+      <c r="Z318">
+        <v>0</v>
+      </c>
+      <c r="AA318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
         <v>7092358</v>
       </c>
-      <c r="C318" t="s">
-        <v>28</v>
-      </c>
-      <c r="D318" t="s">
-        <v>28</v>
-      </c>
-      <c r="E318" s="2">
+      <c r="C319" t="s">
+        <v>28</v>
+      </c>
+      <c r="D319" t="s">
+        <v>28</v>
+      </c>
+      <c r="E319" s="2">
         <v>45389.60416666666</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F319" t="s">
         <v>29</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G319" t="s">
         <v>36</v>
       </c>
-      <c r="K318">
+      <c r="K319">
         <v>2.9</v>
       </c>
-      <c r="L318">
+      <c r="L319">
         <v>3.5</v>
       </c>
-      <c r="M318">
+      <c r="M319">
         <v>2.3</v>
       </c>
-      <c r="N318">
+      <c r="N319">
         <v>2.9</v>
       </c>
-      <c r="O318">
+      <c r="O319">
         <v>3.5</v>
       </c>
-      <c r="P318">
+      <c r="P319">
         <v>2.3</v>
       </c>
-      <c r="Q318">
+      <c r="Q319">
         <v>0.25</v>
       </c>
-      <c r="R318">
-        <v>1.85</v>
-      </c>
-      <c r="S318">
-        <v>2</v>
-      </c>
-      <c r="T318">
+      <c r="R319">
+        <v>1.825</v>
+      </c>
+      <c r="S319">
+        <v>2.025</v>
+      </c>
+      <c r="T319">
         <v>2.5</v>
       </c>
-      <c r="U318">
+      <c r="U319">
         <v>1.875</v>
       </c>
-      <c r="V318">
+      <c r="V319">
         <v>1.975</v>
       </c>
-      <c r="W318">
-        <v>0</v>
-      </c>
-      <c r="X318">
-        <v>0</v>
-      </c>
-      <c r="Y318">
-        <v>0</v>
-      </c>
-      <c r="Z318">
-        <v>0</v>
-      </c>
-      <c r="AA318">
+      <c r="W319">
+        <v>0</v>
+      </c>
+      <c r="X319">
+        <v>0</v>
+      </c>
+      <c r="Y319">
+        <v>0</v>
+      </c>
+      <c r="Z319">
+        <v>0</v>
+      </c>
+      <c r="AA319">
         <v>0</v>
       </c>
     </row>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Jahn Regensburg</t>
   </si>
   <si>
-    <t>FC Viktoria Kln</t>
+    <t>1860 Munich</t>
   </si>
   <si>
-    <t>1860 Munich</t>
+    <t>FC Viktoria Kln</t>
   </si>
   <si>
     <t>Dynamo Dresden</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC318"/>
+  <dimension ref="A1:AC312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6881307</v>
+        <v>6880239</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,55 +999,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q6">
         <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1056,16 +1056,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6880239</v>
+        <v>6881307</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,55 +1088,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L7">
         <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1145,16 +1145,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1711,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2408,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6881596</v>
+        <v>6880508</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,76 +2420,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N22">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880353</v>
+        <v>6880327</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,13 +2509,13 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2524,43 +2524,43 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2569,16 +2569,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880327</v>
+        <v>6881596</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,70 +2598,70 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N24">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O24">
         <v>4</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q24">
         <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
       <c r="W24">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z24">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880508</v>
+        <v>6880353</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,34 +2687,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
         <v>2.8</v>
@@ -2723,40 +2723,40 @@
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA25">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3132,7 +3132,7 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>48</v>
@@ -3669,7 +3669,7 @@
         <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3847,7 +3847,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -4734,7 +4734,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -5001,7 +5001,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5538,7 +5538,7 @@
         <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5627,7 +5627,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6247,7 +6247,7 @@
         <v>45192.375</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6517,7 +6517,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>45199.375</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>47</v>
@@ -7229,7 +7229,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7852,7 +7852,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6880469</v>
+        <v>6881621</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,58 +8294,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N88">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P88">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
+        <v>1.85</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
         <v>1.8</v>
       </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.925</v>
-      </c>
-      <c r="V88">
-        <v>1.875</v>
-      </c>
       <c r="W88">
-        <v>1.05</v>
+        <v>0.444</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8354,16 +8354,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6881622</v>
+        <v>6880469</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,10 +8383,10 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>4</v>
@@ -8398,25 +8398,25 @@
         <v>49</v>
       </c>
       <c r="K89">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L89">
         <v>3.5</v>
       </c>
       <c r="M89">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N89">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O89">
         <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
         <v>1.8</v>
@@ -8425,16 +8425,16 @@
         <v>2</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
+        <v>1.925</v>
+      </c>
+      <c r="V89">
         <v>1.875</v>
       </c>
-      <c r="V89">
-        <v>1.925</v>
-      </c>
       <c r="W89">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8449,7 +8449,7 @@
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6881621</v>
+        <v>6881622</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,58 +8472,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>49</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L90">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N90">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O90">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8532,16 +8532,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC90">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8739,7 +8739,7 @@
         <v>45206.375</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8920,7 +8920,7 @@
         <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6881626</v>
+        <v>6881628</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,73 +9006,73 @@
         <v>45206.375</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N96">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q96">
         <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y96">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
+        <v>0.425</v>
+      </c>
+      <c r="AB96">
         <v>0.825</v>
-      </c>
-      <c r="AB96">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6881628</v>
+        <v>6881626</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,73 +9095,73 @@
         <v>45206.375</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K97">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N97">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q97">
         <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9807,7 +9807,7 @@
         <v>45213.375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -10166,7 +10166,7 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10344,7 +10344,7 @@
         <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10430,7 +10430,7 @@
         <v>45220.375</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6881328</v>
+        <v>6881641</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45227.375</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L123">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.825</v>
       </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6880362</v>
+        <v>6881328</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,73 +11498,73 @@
         <v>45227.375</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M124">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O124">
         <v>4</v>
       </c>
       <c r="P124">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
         <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
         <v>0.8</v>
       </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
       <c r="AB124">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6881641</v>
+        <v>6880362</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,58 +11587,58 @@
         <v>45227.375</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>49</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="N125">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11647,16 +11647,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6881646</v>
+        <v>6881647</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,76 +12299,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N133">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
         <v>2</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6881647</v>
+        <v>6881646</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L134">
         <v>3.25</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N134">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
         <v>2</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB134">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12747,7 +12747,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12833,7 +12833,7 @@
         <v>45240.625</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
         <v>35</v>
@@ -13088,7 +13088,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6881650</v>
+        <v>6881331</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13100,76 +13100,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142">
+        <v>2.15</v>
+      </c>
+      <c r="L142">
+        <v>3.6</v>
+      </c>
+      <c r="M142">
+        <v>2.9</v>
+      </c>
+      <c r="N142">
+        <v>2.2</v>
+      </c>
+      <c r="O142">
+        <v>3.75</v>
+      </c>
+      <c r="P142">
+        <v>2.8</v>
+      </c>
+      <c r="Q142">
+        <v>-0.25</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
         <v>3</v>
       </c>
-      <c r="J142" t="s">
-        <v>51</v>
-      </c>
-      <c r="K142">
-        <v>1.75</v>
-      </c>
-      <c r="L142">
-        <v>4</v>
-      </c>
-      <c r="M142">
-        <v>3.8</v>
-      </c>
-      <c r="N142">
-        <v>1.615</v>
-      </c>
-      <c r="O142">
-        <v>4</v>
-      </c>
-      <c r="P142">
-        <v>4.5</v>
-      </c>
-      <c r="Q142">
-        <v>-0.75</v>
-      </c>
-      <c r="R142">
-        <v>1.825</v>
-      </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
         <v>2.75</v>
       </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
       <c r="Y142">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6881331</v>
+        <v>6881651</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,76 +13189,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M143">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O143">
         <v>3.75</v>
       </c>
       <c r="P143">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
         <v>3</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X143">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6881651</v>
+        <v>6881650</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,73 +13278,73 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
         <v>3</v>
       </c>
-      <c r="I144">
-        <v>2</v>
-      </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K144">
         <v>1.75</v>
       </c>
       <c r="L144">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M144">
+        <v>3.8</v>
+      </c>
+      <c r="N144">
+        <v>1.615</v>
+      </c>
+      <c r="O144">
         <v>4</v>
       </c>
-      <c r="N144">
-        <v>1.833</v>
-      </c>
-      <c r="O144">
-        <v>3.75</v>
-      </c>
       <c r="P144">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13990,7 +13990,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>43</v>
@@ -14527,7 +14527,7 @@
         <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6881334</v>
+        <v>6881660</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,76 +14880,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N162">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
         <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
         <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y162">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6881660</v>
+        <v>6880520</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
+        <v>2.35</v>
+      </c>
+      <c r="L163">
+        <v>3.4</v>
+      </c>
+      <c r="M163">
+        <v>2.9</v>
+      </c>
+      <c r="N163">
+        <v>2.15</v>
+      </c>
+      <c r="O163">
+        <v>3.4</v>
+      </c>
+      <c r="P163">
+        <v>3.3</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.8</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>1.85</v>
+      </c>
+      <c r="V163">
         <v>1.95</v>
       </c>
-      <c r="L163">
-        <v>3.6</v>
-      </c>
-      <c r="M163">
-        <v>3.6</v>
-      </c>
-      <c r="N163">
-        <v>1.909</v>
-      </c>
-      <c r="O163">
-        <v>3.6</v>
-      </c>
-      <c r="P163">
-        <v>3.8</v>
-      </c>
-      <c r="Q163">
-        <v>-0.5</v>
-      </c>
-      <c r="R163">
-        <v>1.875</v>
-      </c>
-      <c r="S163">
-        <v>1.925</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.95</v>
-      </c>
-      <c r="V163">
-        <v>1.85</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X163">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA163">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6880520</v>
+        <v>6881334</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,22 +15058,22 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L164">
         <v>3.4</v>
@@ -15082,52 +15082,52 @@
         <v>2.9</v>
       </c>
       <c r="N164">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O164">
+        <v>3.5</v>
+      </c>
+      <c r="P164">
         <v>3.4</v>
       </c>
-      <c r="P164">
-        <v>3.3</v>
-      </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC164">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15236,7 +15236,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15506,7 +15506,7 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -16129,7 +16129,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -17108,7 +17108,7 @@
         <v>42</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17194,7 +17194,7 @@
         <v>45277.64583333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6881676</v>
+        <v>6881677</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,73 +17372,73 @@
         <v>45279.625</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I190">
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA190">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6881677</v>
+        <v>6881676</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,73 +17461,73 @@
         <v>45279.625</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K191">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L191">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N191">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q191">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
+        <v>2.025</v>
+      </c>
+      <c r="S191">
+        <v>1.775</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
         <v>1.9</v>
       </c>
-      <c r="S191">
+      <c r="V191">
         <v>1.9</v>
       </c>
-      <c r="T191">
-        <v>2.75</v>
-      </c>
-      <c r="U191">
-        <v>1.85</v>
-      </c>
-      <c r="V191">
-        <v>1.95</v>
-      </c>
       <c r="W191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB191">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA191">
-        <v>-1</v>
-      </c>
-      <c r="AB191">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6880368</v>
+        <v>6881338</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,34 +17550,34 @@
         <v>45279.625</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K192">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M192">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N192">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O192">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
         <v>4</v>
@@ -17586,40 +17586,40 @@
         <v>-0.75</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T192">
         <v>3</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
         <v>3</v>
       </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC192">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6881338</v>
+        <v>6880368</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,34 +17639,34 @@
         <v>45279.625</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H193">
         <v>1</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K193">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L193">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N193">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O193">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P193">
         <v>4</v>
@@ -17675,40 +17675,40 @@
         <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T193">
         <v>3</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y193">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17731,7 +17731,7 @@
         <v>47</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17909,7 +17909,7 @@
         <v>45</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18529,7 +18529,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6881685</v>
+        <v>6880524</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45314.625</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K207">
+        <v>2.2</v>
+      </c>
+      <c r="L207">
+        <v>3.4</v>
+      </c>
+      <c r="M207">
+        <v>2.9</v>
+      </c>
+      <c r="N207">
+        <v>2.05</v>
+      </c>
+      <c r="O207">
+        <v>3.6</v>
+      </c>
+      <c r="P207">
+        <v>3.1</v>
+      </c>
+      <c r="Q207">
+        <v>-0.25</v>
+      </c>
+      <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
+        <v>2.025</v>
+      </c>
+      <c r="T207">
         <v>2.75</v>
       </c>
-      <c r="L207">
-        <v>3.5</v>
-      </c>
-      <c r="M207">
-        <v>2.25</v>
-      </c>
-      <c r="N207">
-        <v>3</v>
-      </c>
-      <c r="O207">
-        <v>3.4</v>
-      </c>
-      <c r="P207">
-        <v>2.15</v>
-      </c>
-      <c r="Q207">
-        <v>0.25</v>
-      </c>
-      <c r="R207">
-        <v>1.875</v>
-      </c>
-      <c r="S207">
-        <v>1.925</v>
-      </c>
-      <c r="T207">
-        <v>2.5</v>
-      </c>
       <c r="U207">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V207">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z207">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6880344</v>
+        <v>6881688</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45314.625</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K208">
-        <v>4.8</v>
+        <v>2.625</v>
       </c>
       <c r="L208">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N208">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q208">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y208">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA208">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6881684</v>
+        <v>6880344</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19063,76 +19063,76 @@
         <v>45314.625</v>
       </c>
       <c r="F209" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G209" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="L209">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M209">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N209">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W209">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19140,7 +19140,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6880524</v>
+        <v>6881685</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19152,76 +19152,76 @@
         <v>45314.625</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>50</v>
+      </c>
+      <c r="K210">
+        <v>2.75</v>
+      </c>
+      <c r="L210">
+        <v>3.5</v>
+      </c>
+      <c r="M210">
+        <v>2.25</v>
+      </c>
+      <c r="N210">
         <v>3</v>
       </c>
-      <c r="J210" t="s">
-        <v>51</v>
-      </c>
-      <c r="K210">
-        <v>2.2</v>
-      </c>
-      <c r="L210">
+      <c r="O210">
         <v>3.4</v>
       </c>
-      <c r="M210">
-        <v>2.9</v>
-      </c>
-      <c r="N210">
-        <v>2.05</v>
-      </c>
-      <c r="O210">
-        <v>3.6</v>
-      </c>
       <c r="P210">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T210">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA210">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6881688</v>
+        <v>6881684</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45314.625</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G211" t="s">
         <v>34</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K211">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L211">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M211">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N211">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O211">
         <v>3.5</v>
       </c>
       <c r="P211">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X211">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC211">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6880370</v>
+        <v>6880480</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,19 +19330,19 @@
         <v>45315.625</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19354,52 +19354,52 @@
         <v>3.25</v>
       </c>
       <c r="N212">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O212">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X212">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6880480</v>
+        <v>6880370</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,19 +19419,19 @@
         <v>45315.625</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19443,52 +19443,52 @@
         <v>3.25</v>
       </c>
       <c r="N213">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
         <v>1.95</v>
       </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
       <c r="W213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19496,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6881687</v>
+        <v>6881342</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19508,76 +19508,76 @@
         <v>45315.625</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K214">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L214">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N214">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V214">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W214">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z214">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6881342</v>
+        <v>6881687</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45315.625</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
         <v>0</v>
       </c>
-      <c r="I216">
-        <v>2</v>
-      </c>
       <c r="J216" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K216">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M216">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N216">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P216">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S216">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA216">
+        <v>-0.5</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB216">
-        <v>-1</v>
-      </c>
-      <c r="AC216">
-        <v>1.025</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6880525</v>
+        <v>6881689</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,76 +19953,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H219">
         <v>2</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K219">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L219">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M219">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N219">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X219">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6881691</v>
+        <v>6880525</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,76 +20042,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L220">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M220">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N220">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O220">
         <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6881692</v>
+        <v>6881691</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,70 +20131,70 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
       <c r="J221" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
+        <v>3.6</v>
+      </c>
+      <c r="M221">
         <v>3.5</v>
       </c>
-      <c r="M221">
-        <v>2</v>
-      </c>
       <c r="N221">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="O221">
         <v>3.4</v>
       </c>
       <c r="P221">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
         <v>1.8</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V221">
         <v>1.85</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
         <v>-1</v>
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6881689</v>
+        <v>6881692</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,76 +20220,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G222" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K222">
+        <v>3.1</v>
+      </c>
+      <c r="L222">
+        <v>3.5</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>3.3</v>
+      </c>
+      <c r="O222">
+        <v>3.4</v>
+      </c>
+      <c r="P222">
+        <v>2</v>
+      </c>
+      <c r="Q222">
+        <v>0.25</v>
+      </c>
+      <c r="R222">
+        <v>2</v>
+      </c>
+      <c r="S222">
+        <v>1.8</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
         <v>1.95</v>
       </c>
-      <c r="L222">
-        <v>3.6</v>
-      </c>
-      <c r="M222">
-        <v>3.3</v>
-      </c>
-      <c r="N222">
-        <v>1.909</v>
-      </c>
-      <c r="O222">
-        <v>3.6</v>
-      </c>
-      <c r="P222">
-        <v>3.5</v>
-      </c>
-      <c r="Q222">
-        <v>-0.5</v>
-      </c>
-      <c r="R222">
-        <v>1.9</v>
-      </c>
-      <c r="S222">
-        <v>1.9</v>
-      </c>
-      <c r="T222">
-        <v>2.75</v>
-      </c>
-      <c r="U222">
-        <v>2</v>
-      </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20487,7 +20487,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
         <v>39</v>
@@ -21113,7 +21113,7 @@
         <v>38</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21202,7 +21202,7 @@
         <v>42</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21555,7 +21555,7 @@
         <v>45328.625</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
         <v>48</v>
@@ -21733,7 +21733,7 @@
         <v>45331.625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
         <v>46</v>
@@ -21899,7 +21899,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6882786</v>
+        <v>6881702</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21911,22 +21911,22 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
         <v>3</v>
       </c>
-      <c r="I241">
-        <v>1</v>
-      </c>
       <c r="J241" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K241">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L241">
         <v>3.6</v>
@@ -21935,49 +21935,49 @@
         <v>4</v>
       </c>
       <c r="N241">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O241">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P241">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S241">
+        <v>2.025</v>
+      </c>
+      <c r="T241">
+        <v>2.75</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
         <v>1.8</v>
       </c>
-      <c r="T241">
+      <c r="W241">
+        <v>-1</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
         <v>2.5</v>
       </c>
-      <c r="U241">
-        <v>1.875</v>
-      </c>
-      <c r="V241">
-        <v>1.925</v>
-      </c>
-      <c r="W241">
-        <v>0.75</v>
-      </c>
-      <c r="X241">
-        <v>-1</v>
-      </c>
-      <c r="Y241">
-        <v>-1</v>
-      </c>
       <c r="Z241">
+        <v>-1</v>
+      </c>
+      <c r="AA241">
+        <v>1.025</v>
+      </c>
+      <c r="AB241">
         <v>1</v>
-      </c>
-      <c r="AA241">
-        <v>-1</v>
-      </c>
-      <c r="AB241">
-        <v>0.875</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -21988,7 +21988,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6881702</v>
+        <v>6881701</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22000,10 +22000,10 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G242" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22015,40 +22015,40 @@
         <v>51</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L242">
         <v>3.6</v>
       </c>
       <c r="M242">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N242">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O242">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P242">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S242">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T242">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V242">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W242">
         <v>-1</v>
@@ -22057,16 +22057,16 @@
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB242">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22077,7 +22077,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6881701</v>
+        <v>6882786</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22089,73 +22089,73 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H243">
+        <v>3</v>
+      </c>
+      <c r="I243">
         <v>1</v>
       </c>
-      <c r="I243">
-        <v>3</v>
-      </c>
       <c r="J243" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L243">
         <v>3.6</v>
       </c>
       <c r="M243">
+        <v>4</v>
+      </c>
+      <c r="N243">
+        <v>1.75</v>
+      </c>
+      <c r="O243">
         <v>3.6</v>
       </c>
-      <c r="N243">
-        <v>1.909</v>
-      </c>
-      <c r="O243">
-        <v>3.5</v>
-      </c>
       <c r="P243">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S243">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T243">
         <v>2.5</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V243">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA243">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC243">
         <v>-1</v>
@@ -22445,7 +22445,7 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G247" t="s">
         <v>40</v>
@@ -22700,7 +22700,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6881707</v>
+        <v>6881706</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22712,16 +22712,16 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F250" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G250" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H250">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J250" t="s">
         <v>49</v>
@@ -22736,34 +22736,34 @@
         <v>2.625</v>
       </c>
       <c r="N250">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O250">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P250">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q250">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R250">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S250">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T250">
         <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W250">
-        <v>1.9</v>
+        <v>0.909</v>
       </c>
       <c r="X250">
         <v>-1</v>
@@ -22772,16 +22772,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22789,7 +22789,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6881706</v>
+        <v>6881704</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22801,76 +22801,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J251" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K251">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L251">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N251">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O251">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P251">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T251">
         <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V251">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W251">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z251">
+        <v>-1</v>
+      </c>
+      <c r="AA251">
         <v>1</v>
       </c>
-      <c r="AA251">
-        <v>-1</v>
-      </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC251">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23056,7 +23056,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6881704</v>
+        <v>6881707</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23068,46 +23068,46 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F254" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G254" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K254">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M254">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N254">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O254">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P254">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q254">
         <v>0.25</v>
       </c>
       <c r="R254">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S254">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
         <v>2.75</v>
@@ -23116,28 +23116,28 @@
         <v>1.925</v>
       </c>
       <c r="V254">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA254">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23424,7 +23424,7 @@
         <v>45340.64583333334</v>
       </c>
       <c r="F258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
         <v>29</v>
@@ -23513,7 +23513,7 @@
         <v>45343.625</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
         <v>44</v>
@@ -23869,7 +23869,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G263" t="s">
         <v>39</v>
@@ -24139,7 +24139,7 @@
         <v>47</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24759,7 +24759,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
         <v>36</v>
@@ -25118,7 +25118,7 @@
         <v>40</v>
       </c>
       <c r="G277" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -25385,7 +25385,7 @@
         <v>35</v>
       </c>
       <c r="G280" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H280">
         <v>2</v>
@@ -25738,7 +25738,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G284" t="s">
         <v>45</v>
@@ -26361,7 +26361,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G291" t="s">
         <v>30</v>
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6993224</v>
+        <v>6994640</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,59 +26628,59 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G294" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
         <v>49</v>
       </c>
       <c r="K294">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L294">
+        <v>3.6</v>
+      </c>
+      <c r="M294">
+        <v>2</v>
+      </c>
+      <c r="N294">
+        <v>3.75</v>
+      </c>
+      <c r="O294">
+        <v>3.6</v>
+      </c>
+      <c r="P294">
+        <v>1.909</v>
+      </c>
+      <c r="Q294">
+        <v>0.5</v>
+      </c>
+      <c r="R294">
+        <v>1.875</v>
+      </c>
+      <c r="S294">
+        <v>1.925</v>
+      </c>
+      <c r="T294">
+        <v>2.5</v>
+      </c>
+      <c r="U294">
+        <v>1.9</v>
+      </c>
+      <c r="V294">
+        <v>1.9</v>
+      </c>
+      <c r="W294">
         <v>2.75</v>
       </c>
-      <c r="M294">
-        <v>3.8</v>
-      </c>
-      <c r="N294">
-        <v>2.05</v>
-      </c>
-      <c r="O294">
-        <v>3.4</v>
-      </c>
-      <c r="P294">
-        <v>3</v>
-      </c>
-      <c r="Q294">
-        <v>-0.25</v>
-      </c>
-      <c r="R294">
-        <v>1.85</v>
-      </c>
-      <c r="S294">
-        <v>1.95</v>
-      </c>
-      <c r="T294">
-        <v>2.75</v>
-      </c>
-      <c r="U294">
-        <v>1.85</v>
-      </c>
-      <c r="V294">
-        <v>1.95</v>
-      </c>
-      <c r="W294">
-        <v>1.05</v>
-      </c>
       <c r="X294">
         <v>-1</v>
       </c>
@@ -26688,16 +26688,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6994640</v>
+        <v>6993224</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,58 +26717,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G295" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H295">
         <v>2</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
         <v>49</v>
       </c>
       <c r="K295">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L295">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M295">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="N295">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O295">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P295">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q295">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S295">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T295">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U295">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V295">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W295">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X295">
         <v>-1</v>
@@ -26777,16 +26777,16 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA295">
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC295">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27610,7 +27610,7 @@
         <v>37</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -27696,7 +27696,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G306" t="s">
         <v>31</v>
@@ -28040,7 +28040,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7092356</v>
+        <v>7089370</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28049,49 +28049,49 @@
         <v>28</v>
       </c>
       <c r="E310" s="2">
-        <v>45388.375</v>
+        <v>45389.35416666666</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G310" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K310">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L310">
         <v>3.6</v>
       </c>
       <c r="M310">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N310">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P310">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q310">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S310">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U310">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V310">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7092361</v>
+        <v>7092360</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28123,49 +28123,49 @@
         <v>28</v>
       </c>
       <c r="E311" s="2">
-        <v>45388.375</v>
+        <v>45389.47916666666</v>
       </c>
       <c r="F311" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G311" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K311">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L311">
         <v>3.75</v>
       </c>
       <c r="M311">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N311">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O311">
         <v>3.75</v>
       </c>
       <c r="P311">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q311">
         <v>-0.5</v>
       </c>
       <c r="R311">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S311">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T311">
         <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V311">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28188,7 +28188,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7095782</v>
+        <v>7092358</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28197,49 +28197,49 @@
         <v>28</v>
       </c>
       <c r="E312" s="2">
-        <v>45388.375</v>
+        <v>45389.60416666666</v>
       </c>
       <c r="F312" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K312">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M312">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N312">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="O312">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P312">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q312">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R312">
+        <v>2</v>
+      </c>
+      <c r="S312">
         <v>1.85</v>
-      </c>
-      <c r="S312">
-        <v>2</v>
       </c>
       <c r="T312">
         <v>2.5</v>
       </c>
       <c r="U312">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V312">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W312">
         <v>0</v>
@@ -28254,450 +28254,6 @@
         <v>0</v>
       </c>
       <c r="AA312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:29">
-      <c r="A313" s="1">
-        <v>311</v>
-      </c>
-      <c r="B313">
-        <v>7097481</v>
-      </c>
-      <c r="C313" t="s">
-        <v>28</v>
-      </c>
-      <c r="D313" t="s">
-        <v>28</v>
-      </c>
-      <c r="E313" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F313" t="s">
-        <v>30</v>
-      </c>
-      <c r="G313" t="s">
-        <v>32</v>
-      </c>
-      <c r="K313">
-        <v>2.05</v>
-      </c>
-      <c r="L313">
-        <v>3.5</v>
-      </c>
-      <c r="M313">
-        <v>3.4</v>
-      </c>
-      <c r="N313">
-        <v>2</v>
-      </c>
-      <c r="O313">
-        <v>3.5</v>
-      </c>
-      <c r="P313">
-        <v>3.5</v>
-      </c>
-      <c r="Q313">
-        <v>-0.5</v>
-      </c>
-      <c r="R313">
-        <v>2.025</v>
-      </c>
-      <c r="S313">
-        <v>1.825</v>
-      </c>
-      <c r="T313">
-        <v>2.5</v>
-      </c>
-      <c r="U313">
-        <v>1.85</v>
-      </c>
-      <c r="V313">
-        <v>2</v>
-      </c>
-      <c r="W313">
-        <v>0</v>
-      </c>
-      <c r="X313">
-        <v>0</v>
-      </c>
-      <c r="Y313">
-        <v>0</v>
-      </c>
-      <c r="Z313">
-        <v>0</v>
-      </c>
-      <c r="AA313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:29">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314">
-        <v>7088786</v>
-      </c>
-      <c r="C314" t="s">
-        <v>28</v>
-      </c>
-      <c r="D314" t="s">
-        <v>28</v>
-      </c>
-      <c r="E314" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F314" t="s">
-        <v>39</v>
-      </c>
-      <c r="G314" t="s">
-        <v>46</v>
-      </c>
-      <c r="K314">
-        <v>1.727</v>
-      </c>
-      <c r="L314">
-        <v>4</v>
-      </c>
-      <c r="M314">
-        <v>4.333</v>
-      </c>
-      <c r="N314">
-        <v>1.727</v>
-      </c>
-      <c r="O314">
-        <v>4</v>
-      </c>
-      <c r="P314">
-        <v>4.333</v>
-      </c>
-      <c r="Q314">
-        <v>-0.75</v>
-      </c>
-      <c r="R314">
-        <v>1.925</v>
-      </c>
-      <c r="S314">
-        <v>1.925</v>
-      </c>
-      <c r="T314">
-        <v>2.75</v>
-      </c>
-      <c r="U314">
-        <v>1.8</v>
-      </c>
-      <c r="V314">
-        <v>2.05</v>
-      </c>
-      <c r="W314">
-        <v>0</v>
-      </c>
-      <c r="X314">
-        <v>0</v>
-      </c>
-      <c r="Y314">
-        <v>0</v>
-      </c>
-      <c r="Z314">
-        <v>0</v>
-      </c>
-      <c r="AA314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:29">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>7092359</v>
-      </c>
-      <c r="C315" t="s">
-        <v>28</v>
-      </c>
-      <c r="D315" t="s">
-        <v>28</v>
-      </c>
-      <c r="E315" s="2">
-        <v>45388.47916666666</v>
-      </c>
-      <c r="F315" t="s">
-        <v>45</v>
-      </c>
-      <c r="G315" t="s">
-        <v>43</v>
-      </c>
-      <c r="K315">
-        <v>2.05</v>
-      </c>
-      <c r="L315">
-        <v>3.5</v>
-      </c>
-      <c r="M315">
-        <v>3.4</v>
-      </c>
-      <c r="N315">
-        <v>1.95</v>
-      </c>
-      <c r="O315">
-        <v>3.5</v>
-      </c>
-      <c r="P315">
-        <v>3.75</v>
-      </c>
-      <c r="Q315">
-        <v>-0.5</v>
-      </c>
-      <c r="R315">
-        <v>1.925</v>
-      </c>
-      <c r="S315">
-        <v>1.925</v>
-      </c>
-      <c r="T315">
-        <v>2.5</v>
-      </c>
-      <c r="U315">
-        <v>1.85</v>
-      </c>
-      <c r="V315">
-        <v>2</v>
-      </c>
-      <c r="W315">
-        <v>0</v>
-      </c>
-      <c r="X315">
-        <v>0</v>
-      </c>
-      <c r="Y315">
-        <v>0</v>
-      </c>
-      <c r="Z315">
-        <v>0</v>
-      </c>
-      <c r="AA315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:29">
-      <c r="A316" s="1">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>7089370</v>
-      </c>
-      <c r="C316" t="s">
-        <v>28</v>
-      </c>
-      <c r="D316" t="s">
-        <v>28</v>
-      </c>
-      <c r="E316" s="2">
-        <v>45389.35416666666</v>
-      </c>
-      <c r="F316" t="s">
-        <v>35</v>
-      </c>
-      <c r="G316" t="s">
-        <v>44</v>
-      </c>
-      <c r="K316">
-        <v>1.909</v>
-      </c>
-      <c r="L316">
-        <v>3.6</v>
-      </c>
-      <c r="M316">
-        <v>3.8</v>
-      </c>
-      <c r="N316">
-        <v>1.833</v>
-      </c>
-      <c r="O316">
-        <v>3.6</v>
-      </c>
-      <c r="P316">
-        <v>4.2</v>
-      </c>
-      <c r="Q316">
-        <v>-0.5</v>
-      </c>
-      <c r="R316">
-        <v>1.825</v>
-      </c>
-      <c r="S316">
-        <v>2.025</v>
-      </c>
-      <c r="T316">
-        <v>2.5</v>
-      </c>
-      <c r="U316">
-        <v>1.975</v>
-      </c>
-      <c r="V316">
-        <v>1.875</v>
-      </c>
-      <c r="W316">
-        <v>0</v>
-      </c>
-      <c r="X316">
-        <v>0</v>
-      </c>
-      <c r="Y316">
-        <v>0</v>
-      </c>
-      <c r="Z316">
-        <v>0</v>
-      </c>
-      <c r="AA316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:29">
-      <c r="A317" s="1">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>7092360</v>
-      </c>
-      <c r="C317" t="s">
-        <v>28</v>
-      </c>
-      <c r="D317" t="s">
-        <v>28</v>
-      </c>
-      <c r="E317" s="2">
-        <v>45389.47916666666</v>
-      </c>
-      <c r="F317" t="s">
-        <v>48</v>
-      </c>
-      <c r="G317" t="s">
-        <v>41</v>
-      </c>
-      <c r="K317">
-        <v>1.909</v>
-      </c>
-      <c r="L317">
-        <v>3.75</v>
-      </c>
-      <c r="M317">
-        <v>3.6</v>
-      </c>
-      <c r="N317">
-        <v>1.909</v>
-      </c>
-      <c r="O317">
-        <v>3.75</v>
-      </c>
-      <c r="P317">
-        <v>3.6</v>
-      </c>
-      <c r="Q317">
-        <v>-0.5</v>
-      </c>
-      <c r="R317">
-        <v>1.925</v>
-      </c>
-      <c r="S317">
-        <v>1.925</v>
-      </c>
-      <c r="T317">
-        <v>2.75</v>
-      </c>
-      <c r="U317">
-        <v>1.825</v>
-      </c>
-      <c r="V317">
-        <v>2.025</v>
-      </c>
-      <c r="W317">
-        <v>0</v>
-      </c>
-      <c r="X317">
-        <v>0</v>
-      </c>
-      <c r="Y317">
-        <v>0</v>
-      </c>
-      <c r="Z317">
-        <v>0</v>
-      </c>
-      <c r="AA317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:29">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>7092358</v>
-      </c>
-      <c r="C318" t="s">
-        <v>28</v>
-      </c>
-      <c r="D318" t="s">
-        <v>28</v>
-      </c>
-      <c r="E318" s="2">
-        <v>45389.60416666666</v>
-      </c>
-      <c r="F318" t="s">
-        <v>29</v>
-      </c>
-      <c r="G318" t="s">
-        <v>36</v>
-      </c>
-      <c r="K318">
-        <v>2.9</v>
-      </c>
-      <c r="L318">
-        <v>3.5</v>
-      </c>
-      <c r="M318">
-        <v>2.3</v>
-      </c>
-      <c r="N318">
-        <v>2.9</v>
-      </c>
-      <c r="O318">
-        <v>3.5</v>
-      </c>
-      <c r="P318">
-        <v>2.3</v>
-      </c>
-      <c r="Q318">
-        <v>0.25</v>
-      </c>
-      <c r="R318">
-        <v>1.825</v>
-      </c>
-      <c r="S318">
-        <v>2.025</v>
-      </c>
-      <c r="T318">
-        <v>2.5</v>
-      </c>
-      <c r="U318">
-        <v>1.875</v>
-      </c>
-      <c r="V318">
-        <v>1.975</v>
-      </c>
-      <c r="W318">
-        <v>0</v>
-      </c>
-      <c r="X318">
-        <v>0</v>
-      </c>
-      <c r="Y318">
-        <v>0</v>
-      </c>
-      <c r="Z318">
-        <v>0</v>
-      </c>
-      <c r="AA318">
         <v>0</v>
       </c>
     </row>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +106,19 @@
     <t>Hallescher FC</t>
   </si>
   <si>
-    <t>Vfb Lubeck</t>
+    <t>SC Preussen Munster</t>
   </si>
   <si>
     <t>Jahn Regensburg</t>
   </si>
   <si>
-    <t>SC Preussen Munster</t>
+    <t>Vfb Lubeck</t>
+  </si>
+  <si>
+    <t>1860 Munich</t>
   </si>
   <si>
     <t>FC Viktoria Kln</t>
-  </si>
-  <si>
-    <t>1860 Munich</t>
   </si>
   <si>
     <t>Dynamo Dresden</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC327"/>
+  <dimension ref="A1:AC328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6881308</v>
+        <v>6881586</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,7 +732,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -744,61 +744,61 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
+        <v>3.4</v>
+      </c>
+      <c r="M3">
+        <v>3.2</v>
+      </c>
+      <c r="N3">
+        <v>1.85</v>
+      </c>
+      <c r="O3">
+        <v>3.6</v>
+      </c>
+      <c r="P3">
         <v>3.75</v>
       </c>
-      <c r="M3">
-        <v>1.8</v>
-      </c>
-      <c r="N3">
-        <v>3.1</v>
-      </c>
-      <c r="O3">
-        <v>3.5</v>
-      </c>
-      <c r="P3">
-        <v>2.1</v>
-      </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6881586</v>
+        <v>6881308</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -922,61 +922,61 @@
         <v>50</v>
       </c>
       <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>1.8</v>
+      </c>
+      <c r="N5">
+        <v>3.1</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
         <v>2.1</v>
       </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>3.2</v>
-      </c>
-      <c r="N5">
+      <c r="Q5">
+        <v>0.25</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
         <v>1.85</v>
-      </c>
-      <c r="O5">
-        <v>3.6</v>
-      </c>
-      <c r="P5">
-        <v>3.75</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.925</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6881307</v>
+        <v>6880239</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,55 +999,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q6">
         <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1056,16 +1056,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6880239</v>
+        <v>6881307</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,55 +1088,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L7">
         <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1145,16 +1145,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2509,10 +2509,10 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -3132,7 +3132,7 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>48</v>
@@ -3488,7 +3488,7 @@
         <v>45164.375</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -3758,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3847,7 +3847,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -4114,7 +4114,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4289,7 +4289,7 @@
         <v>45171.375</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4648,7 +4648,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4734,7 +4734,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -5001,7 +5001,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>44</v>
@@ -5357,7 +5357,7 @@
         <v>45185.375</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5449,7 +5449,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5538,7 +5538,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5627,7 +5627,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6158,10 +6158,10 @@
         <v>45192.375</v>
       </c>
       <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
         <v>32</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6336,7 +6336,7 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
@@ -6517,7 +6517,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6881619</v>
+        <v>6882788</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,13 +7048,13 @@
         <v>45199.375</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7072,34 +7072,34 @@
         <v>2.8</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q74">
         <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7108,16 +7108,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6882788</v>
+        <v>6880331</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,58 +7137,58 @@
         <v>45199.375</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7197,13 +7197,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6881320</v>
+        <v>6880513</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45199.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>50</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
+        <v>2.7</v>
+      </c>
+      <c r="N76">
+        <v>2.55</v>
+      </c>
+      <c r="O76">
         <v>3.4</v>
       </c>
-      <c r="N76">
-        <v>2.15</v>
-      </c>
-      <c r="O76">
-        <v>3.25</v>
-      </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
         <v>1.925</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.8</v>
-      </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6880513</v>
+        <v>6881619</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45199.375</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
         <v>3.4</v>
       </c>
       <c r="M77">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N77">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
         <v>3.4</v>
       </c>
       <c r="P77">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X77">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880331</v>
+        <v>6881320</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,73 +7404,73 @@
         <v>45199.375</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7493,7 +7493,7 @@
         <v>45199.47916666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -7941,7 +7941,7 @@
         <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8205,7 +8205,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
         <v>40</v>
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6881622</v>
+        <v>6880469</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,10 +8294,10 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8309,25 +8309,25 @@
         <v>49</v>
       </c>
       <c r="K88">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L88">
         <v>3.5</v>
       </c>
       <c r="M88">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O88">
         <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
         <v>1.8</v>
@@ -8336,16 +8336,16 @@
         <v>2</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
+        <v>1.925</v>
+      </c>
+      <c r="V88">
         <v>1.875</v>
       </c>
-      <c r="V88">
-        <v>1.925</v>
-      </c>
       <c r="W88">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8360,7 +8360,7 @@
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6880469</v>
+        <v>6880332</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,13 +8383,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -8419,13 +8419,13 @@
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
         <v>1.925</v>
@@ -8443,16 +8443,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6881621</v>
+        <v>6881622</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,58 +8472,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>49</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L90">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N90">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O90">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8532,16 +8532,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC90">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6880332</v>
+        <v>6881621</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,58 +8561,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>49</v>
       </c>
       <c r="K91">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N91">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P91">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>1.05</v>
+        <v>0.444</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8621,16 +8621,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8831,7 +8831,7 @@
         <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9006,7 +9006,7 @@
         <v>45206.375</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>35</v>
@@ -9273,7 +9273,7 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>37</v>
@@ -9365,7 +9365,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9718,7 +9718,7 @@
         <v>45213.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>38</v>
@@ -9899,7 +9899,7 @@
         <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10163,10 +10163,10 @@
         <v>45214.47916666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10430,10 +10430,10 @@
         <v>45220.375</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10522,7 +10522,7 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10608,7 +10608,7 @@
         <v>45220.375</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
         <v>37</v>
@@ -11587,10 +11587,10 @@
         <v>45227.375</v>
       </c>
       <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
         <v>33</v>
-      </c>
-      <c r="G125" t="s">
-        <v>34</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11679,7 +11679,7 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11768,7 +11768,7 @@
         <v>47</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -12210,7 +12210,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12388,7 +12388,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
@@ -12655,7 +12655,7 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12747,7 +12747,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12833,7 +12833,7 @@
         <v>45240.625</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
         <v>35</v>
@@ -13192,7 +13192,7 @@
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13370,7 +13370,7 @@
         <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13459,7 +13459,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13812,7 +13812,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6880519</v>
+        <v>6880476</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,10 +13901,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13916,43 +13916,43 @@
         <v>49</v>
       </c>
       <c r="K151">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M151">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P151">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W151">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13961,7 +13961,7 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA151">
         <v>-1</v>
@@ -13970,7 +13970,7 @@
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6880476</v>
+        <v>6880365</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,58 +13990,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H152">
         <v>2</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>49</v>
       </c>
       <c r="K152">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L152">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
         <v>3</v>
       </c>
       <c r="N152">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W152">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14050,16 +14050,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC152">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880365</v>
+        <v>6881654</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>0.95</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
         <v>1</v>
       </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>1</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
       <c r="AB153">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6881654</v>
+        <v>6880519</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,76 +14168,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N154">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P154">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14346,7 +14346,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>44</v>
@@ -14524,10 +14524,10 @@
         <v>45256.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -14883,7 +14883,7 @@
         <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6880340</v>
+        <v>6880520</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>3.25</v>
+        <v>2.35</v>
       </c>
       <c r="L164">
         <v>3.4</v>
       </c>
       <c r="M164">
+        <v>2.9</v>
+      </c>
+      <c r="N164">
         <v>2.15</v>
       </c>
-      <c r="N164">
-        <v>3.1</v>
-      </c>
       <c r="O164">
+        <v>3.4</v>
+      </c>
+      <c r="P164">
         <v>3.3</v>
       </c>
-      <c r="P164">
-        <v>2.3</v>
-      </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X164">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6880520</v>
+        <v>6880340</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="L165">
         <v>3.4</v>
       </c>
       <c r="M165">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N165">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15236,7 +15236,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15506,7 +15506,7 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15859,7 +15859,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
         <v>40</v>
@@ -16129,7 +16129,7 @@
         <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16304,7 +16304,7 @@
         <v>45270.64583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
         <v>47</v>
@@ -16396,7 +16396,7 @@
         <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6880341</v>
+        <v>6880367</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,13 +16749,13 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16764,34 +16764,34 @@
         <v>49</v>
       </c>
       <c r="K183">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L183">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N183">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O183">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
         <v>1.9</v>
@@ -16800,7 +16800,7 @@
         <v>1.9</v>
       </c>
       <c r="W183">
-        <v>1.6</v>
+        <v>0.909</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16809,7 +16809,7 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA183">
         <v>-1</v>
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6880367</v>
+        <v>6880341</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,13 +16838,13 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16853,34 +16853,34 @@
         <v>49</v>
       </c>
       <c r="K184">
+        <v>2.4</v>
+      </c>
+      <c r="L184">
+        <v>3.3</v>
+      </c>
+      <c r="M184">
+        <v>2.6</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>3.25</v>
+      </c>
+      <c r="P184">
+        <v>2.45</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
         <v>1.95</v>
       </c>
-      <c r="L184">
-        <v>3.5</v>
-      </c>
-      <c r="M184">
-        <v>3.5</v>
-      </c>
-      <c r="N184">
-        <v>1.909</v>
-      </c>
-      <c r="O184">
-        <v>3.5</v>
-      </c>
-      <c r="P184">
-        <v>3.5</v>
-      </c>
-      <c r="Q184">
-        <v>-0.5</v>
-      </c>
-      <c r="R184">
-        <v>2</v>
-      </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
         <v>1.9</v>
@@ -16889,7 +16889,7 @@
         <v>1.9</v>
       </c>
       <c r="W184">
-        <v>0.909</v>
+        <v>1.6</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16898,7 +16898,7 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA184">
         <v>-1</v>
@@ -16930,7 +16930,7 @@
         <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>3</v>
@@ -17108,7 +17108,7 @@
         <v>44</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17194,7 +17194,7 @@
         <v>45277.64583333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17553,7 +17553,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17731,7 +17731,7 @@
         <v>45</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17805,7 +17805,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6881675</v>
+        <v>6880522</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17817,40 +17817,40 @@
         <v>45280.625</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K195">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L195">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N195">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P195">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
         <v>1.95</v>
@@ -17859,34 +17859,34 @@
         <v>1.85</v>
       </c>
       <c r="T195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6881679</v>
+        <v>6881675</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17906,76 +17906,76 @@
         <v>45280.625</v>
       </c>
       <c r="F196" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L196">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M196">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N196">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O196">
         <v>3.6</v>
       </c>
       <c r="P196">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
+        <v>1.95</v>
+      </c>
+      <c r="S196">
+        <v>1.85</v>
+      </c>
+      <c r="T196">
+        <v>3</v>
+      </c>
+      <c r="U196">
+        <v>1.975</v>
+      </c>
+      <c r="V196">
         <v>1.825</v>
       </c>
-      <c r="S196">
-        <v>1.975</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
-      <c r="V196">
-        <v>1.975</v>
-      </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17983,7 +17983,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6880522</v>
+        <v>6881679</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17995,76 +17995,76 @@
         <v>45280.625</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K197">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L197">
         <v>3.75</v>
       </c>
       <c r="M197">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N197">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q197">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18529,7 +18529,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
         <v>42</v>
@@ -18618,7 +18618,7 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
         <v>44</v>
@@ -18888,7 +18888,7 @@
         <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19063,10 +19063,10 @@
         <v>45314.625</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6881687</v>
+        <v>6880370</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45315.625</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K212">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L212">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M212">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N212">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O212">
+        <v>4</v>
+      </c>
+      <c r="P212">
         <v>3.75</v>
-      </c>
-      <c r="P212">
-        <v>4.2</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
         <v>1.95</v>
       </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
       <c r="W212">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6881686</v>
+        <v>6880480</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,10 +19419,10 @@
         <v>45315.625</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19434,25 +19434,25 @@
         <v>49</v>
       </c>
       <c r="K213">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N213">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
         <v>2.05</v>
@@ -19464,13 +19464,13 @@
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19488,7 +19488,7 @@
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6880480</v>
+        <v>6881686</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,10 +19597,10 @@
         <v>45315.625</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19612,25 +19612,25 @@
         <v>49</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
         <v>2.05</v>
@@ -19642,13 +19642,13 @@
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19666,7 +19666,7 @@
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6880370</v>
+        <v>6881687</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45315.625</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K216">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M216">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N216">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P216">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q216">
         <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
+        <v>1.95</v>
+      </c>
+      <c r="V216">
         <v>1.85</v>
       </c>
-      <c r="V216">
-        <v>1.95</v>
-      </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X216">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6880525</v>
+        <v>6881689</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,76 +20042,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L220">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N220">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
         <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X220">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6881689</v>
+        <v>6881691</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,46 +20131,46 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H221">
         <v>2</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>49</v>
       </c>
       <c r="K221">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
         <v>3.6</v>
       </c>
       <c r="M221">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N221">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T221">
         <v>2.75</v>
@@ -20179,10 +20179,10 @@
         <v>2</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20191,16 +20191,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6881691</v>
+        <v>6880525</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,76 +20220,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H222">
         <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K222">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M222">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N222">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O222">
         <v>3.4</v>
       </c>
       <c r="P222">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20312,7 +20312,7 @@
         <v>38</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20398,7 +20398,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
         <v>48</v>
@@ -20487,7 +20487,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
         <v>39</v>
@@ -20742,7 +20742,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6881696</v>
+        <v>6881345</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20754,76 +20754,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H228">
         <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K228">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M228">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N228">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O228">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U228">
+        <v>1.975</v>
+      </c>
+      <c r="V228">
         <v>1.825</v>
       </c>
-      <c r="V228">
-        <v>1.975</v>
-      </c>
       <c r="W228">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20831,7 +20831,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6881694</v>
+        <v>6881696</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20843,58 +20843,58 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>49</v>
       </c>
       <c r="K229">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N229">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P229">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q229">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20903,16 +20903,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20920,7 +20920,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6881345</v>
+        <v>6881694</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20932,76 +20932,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G230" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K230">
+        <v>1.55</v>
+      </c>
+      <c r="L230">
+        <v>3.9</v>
+      </c>
+      <c r="M230">
+        <v>5.5</v>
+      </c>
+      <c r="N230">
+        <v>1.5</v>
+      </c>
+      <c r="O230">
+        <v>4</v>
+      </c>
+      <c r="P230">
+        <v>5.75</v>
+      </c>
+      <c r="Q230">
+        <v>-1</v>
+      </c>
+      <c r="R230">
         <v>1.85</v>
       </c>
-      <c r="L230">
-        <v>3.5</v>
-      </c>
-      <c r="M230">
-        <v>3.75</v>
-      </c>
-      <c r="N230">
+      <c r="S230">
+        <v>1.95</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.95</v>
+      </c>
+      <c r="V230">
         <v>1.85</v>
       </c>
-      <c r="O230">
-        <v>3.6</v>
-      </c>
-      <c r="P230">
-        <v>3.6</v>
-      </c>
-      <c r="Q230">
-        <v>-0.5</v>
-      </c>
-      <c r="R230">
-        <v>1.875</v>
-      </c>
-      <c r="S230">
-        <v>1.925</v>
-      </c>
-      <c r="T230">
-        <v>3</v>
-      </c>
-      <c r="U230">
-        <v>1.975</v>
-      </c>
-      <c r="V230">
-        <v>1.825</v>
-      </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X230">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6880482</v>
+        <v>6881344</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,55 +21021,55 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
         <v>50</v>
       </c>
       <c r="K231">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L231">
         <v>3.3</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N231">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O231">
         <v>3.3</v>
       </c>
       <c r="P231">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21081,16 +21081,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
+        <v>0.475</v>
+      </c>
+      <c r="AA231">
         <v>-0.5</v>
       </c>
-      <c r="AA231">
-        <v>0.4</v>
-      </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6881344</v>
+        <v>6880482</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,55 +21110,55 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G232" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>50</v>
       </c>
       <c r="K232">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L232">
         <v>3.3</v>
       </c>
       <c r="M232">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N232">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O232">
         <v>3.3</v>
       </c>
       <c r="P232">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21170,16 +21170,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21202,7 +21202,7 @@
         <v>44</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21380,7 +21380,7 @@
         <v>45</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21555,7 +21555,7 @@
         <v>45328.625</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
         <v>48</v>
@@ -21733,7 +21733,7 @@
         <v>45331.625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
         <v>46</v>
@@ -22000,7 +22000,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G242" t="s">
         <v>39</v>
@@ -22181,7 +22181,7 @@
         <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H244">
         <v>7</v>
@@ -22445,7 +22445,7 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G247" t="s">
         <v>40</v>
@@ -22537,7 +22537,7 @@
         <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22715,7 +22715,7 @@
         <v>42</v>
       </c>
       <c r="G250" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22801,10 +22801,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F251" t="s">
+        <v>32</v>
+      </c>
+      <c r="G251" t="s">
         <v>30</v>
-      </c>
-      <c r="G251" t="s">
-        <v>32</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>45340.64583333334</v>
       </c>
       <c r="F258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
         <v>29</v>
@@ -23513,7 +23513,7 @@
         <v>45343.625</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
         <v>43</v>
@@ -23602,7 +23602,7 @@
         <v>45345.625</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G260" t="s">
         <v>42</v>
@@ -23958,7 +23958,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G264" t="s">
         <v>39</v>
@@ -24139,7 +24139,7 @@
         <v>47</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24228,7 +24228,7 @@
         <v>29</v>
       </c>
       <c r="G267" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6881718</v>
+        <v>6881349</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,40 +24581,40 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G271" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
         <v>1</v>
       </c>
-      <c r="I271">
-        <v>0</v>
-      </c>
       <c r="J271" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K271">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="L271">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M271">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="N271">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O271">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P271">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q271">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R271">
         <v>1.95</v>
@@ -24623,34 +24623,34 @@
         <v>1.9</v>
       </c>
       <c r="T271">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U271">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W271">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z271">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB271">
         <v>-1</v>
       </c>
       <c r="AC271">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6881349</v>
+        <v>6881718</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,40 +24670,40 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G272" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K272">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="L272">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M272">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="N272">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O272">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P272">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="Q272">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R272">
         <v>1.95</v>
@@ -24712,34 +24712,34 @@
         <v>1.9</v>
       </c>
       <c r="T272">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U272">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA272">
+        <v>-1</v>
+      </c>
+      <c r="AB272">
+        <v>-1</v>
+      </c>
+      <c r="AC272">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB272">
-        <v>-1</v>
-      </c>
-      <c r="AC272">
-        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24759,7 +24759,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G273" t="s">
         <v>43</v>
@@ -24836,7 +24836,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6881721</v>
+        <v>6943476</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24848,37 +24848,37 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H274">
+        <v>2</v>
+      </c>
+      <c r="I274">
         <v>3</v>
       </c>
-      <c r="I274">
-        <v>1</v>
-      </c>
       <c r="J274" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K274">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L274">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M274">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N274">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O274">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P274">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q274">
         <v>-0.25</v>
@@ -24890,31 +24890,31 @@
         <v>1.85</v>
       </c>
       <c r="T274">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U274">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V274">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z274">
+        <v>-1</v>
+      </c>
+      <c r="AA274">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB274">
         <v>0.95</v>
-      </c>
-      <c r="AA274">
-        <v>-1</v>
-      </c>
-      <c r="AB274">
-        <v>0.825</v>
       </c>
       <c r="AC274">
         <v>-1</v>
@@ -24925,7 +24925,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6943476</v>
+        <v>6881721</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24937,37 +24937,37 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G275" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K275">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L275">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M275">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N275">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O275">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P275">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q275">
         <v>-0.25</v>
@@ -24979,31 +24979,31 @@
         <v>1.85</v>
       </c>
       <c r="T275">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V275">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA275">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC275">
         <v>-1</v>
@@ -25118,7 +25118,7 @@
         <v>40</v>
       </c>
       <c r="G277" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -25385,7 +25385,7 @@
         <v>35</v>
       </c>
       <c r="G280" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H280">
         <v>2</v>
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6957875</v>
+        <v>6881724</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,76 +25471,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G281" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K281">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L281">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M281">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N281">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="O281">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P281">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q281">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R281">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S281">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
         <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V281">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W281">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6881724</v>
+        <v>6957875</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,76 +25560,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G282" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K282">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="L282">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M282">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N282">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O282">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P282">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R282">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T282">
         <v>2.75</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X282">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA282">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25652,7 +25652,7 @@
         <v>37</v>
       </c>
       <c r="G283" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H283">
         <v>3</v>
@@ -25827,7 +25827,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G285" t="s">
         <v>45</v>
@@ -25916,7 +25916,7 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F286" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G286" t="s">
         <v>29</v>
@@ -26364,7 +26364,7 @@
         <v>38</v>
       </c>
       <c r="G291" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -26539,10 +26539,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -26628,7 +26628,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G294" t="s">
         <v>31</v>
@@ -27429,7 +27429,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
         <v>35</v>
@@ -27610,7 +27610,7 @@
         <v>37</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -27696,10 +27696,10 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G306" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -28052,7 +28052,7 @@
         <v>45388.375</v>
       </c>
       <c r="F310" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G310" t="s">
         <v>31</v>
@@ -28230,7 +28230,7 @@
         <v>45388.375</v>
       </c>
       <c r="F312" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
         <v>47</v>
@@ -28408,10 +28408,10 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F314" t="s">
+        <v>33</v>
+      </c>
+      <c r="G314" t="s">
         <v>34</v>
-      </c>
-      <c r="G314" t="s">
-        <v>33</v>
       </c>
       <c r="H314">
         <v>3</v>
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7950193</v>
+        <v>7107166</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28850,49 +28850,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45392.58333333334</v>
+        <v>45394.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G319" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K319">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L319">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M319">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N319">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O319">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P319">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q319">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R319">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S319">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T319">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U319">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28915,7 +28915,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7107166</v>
+        <v>7107169</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28924,49 +28924,49 @@
         <v>28</v>
       </c>
       <c r="E320" s="2">
-        <v>45394.58333333334</v>
+        <v>45395.375</v>
       </c>
       <c r="F320" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G320" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K320">
+        <v>1.909</v>
+      </c>
+      <c r="L320">
+        <v>3.75</v>
+      </c>
+      <c r="M320">
+        <v>3.1</v>
+      </c>
+      <c r="N320">
+        <v>1.95</v>
+      </c>
+      <c r="O320">
+        <v>3.75</v>
+      </c>
+      <c r="P320">
+        <v>3</v>
+      </c>
+      <c r="Q320">
+        <v>-0.25</v>
+      </c>
+      <c r="R320">
+        <v>1.8</v>
+      </c>
+      <c r="S320">
+        <v>2.05</v>
+      </c>
+      <c r="T320">
         <v>2.75</v>
       </c>
-      <c r="L320">
-        <v>3.3</v>
-      </c>
-      <c r="M320">
-        <v>2.4</v>
-      </c>
-      <c r="N320">
-        <v>2.75</v>
-      </c>
-      <c r="O320">
-        <v>3.3</v>
-      </c>
-      <c r="P320">
-        <v>2.4</v>
-      </c>
-      <c r="Q320">
-        <v>0</v>
-      </c>
-      <c r="R320">
-        <v>2.05</v>
-      </c>
-      <c r="S320">
-        <v>1.8</v>
-      </c>
-      <c r="T320">
-        <v>2.5</v>
-      </c>
       <c r="U320">
+        <v>2</v>
+      </c>
+      <c r="V320">
         <v>1.85</v>
-      </c>
-      <c r="V320">
-        <v>2</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -29078,7 +29078,7 @@
         <v>36</v>
       </c>
       <c r="G322" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K322">
         <v>2.1</v>
@@ -29149,7 +29149,7 @@
         <v>45395.375</v>
       </c>
       <c r="F323" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G323" t="s">
         <v>29</v>
@@ -29176,10 +29176,10 @@
         <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S323">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T323">
         <v>2.75</v>
@@ -29250,10 +29250,10 @@
         <v>0.5</v>
       </c>
       <c r="R324">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S324">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T324">
         <v>3</v>
@@ -29285,7 +29285,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7107167</v>
+        <v>7113031</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29294,49 +29294,49 @@
         <v>28</v>
       </c>
       <c r="E325" s="2">
-        <v>45396.35416666666</v>
+        <v>45395.47916666666</v>
       </c>
       <c r="F325" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G325" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K325">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L325">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M325">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N325">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O325">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P325">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q325">
         <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V325">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29359,7 +29359,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7107171</v>
+        <v>7107167</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29368,49 +29368,49 @@
         <v>28</v>
       </c>
       <c r="E326" s="2">
-        <v>45396.47916666666</v>
+        <v>45396.35416666666</v>
       </c>
       <c r="F326" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G326" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K326">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L326">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M326">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N326">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O326">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P326">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q326">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
+        <v>2.025</v>
+      </c>
+      <c r="S326">
         <v>1.825</v>
       </c>
-      <c r="S326">
-        <v>2.025</v>
-      </c>
       <c r="T326">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U326">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V326">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W326">
         <v>0</v>
@@ -29433,72 +29433,146 @@
         <v>325</v>
       </c>
       <c r="B327">
+        <v>7107171</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45396.47916666666</v>
+      </c>
+      <c r="F327" t="s">
+        <v>44</v>
+      </c>
+      <c r="G327" t="s">
+        <v>48</v>
+      </c>
+      <c r="K327">
+        <v>2.05</v>
+      </c>
+      <c r="L327">
+        <v>3.6</v>
+      </c>
+      <c r="M327">
+        <v>3.1</v>
+      </c>
+      <c r="N327">
+        <v>2</v>
+      </c>
+      <c r="O327">
+        <v>3.6</v>
+      </c>
+      <c r="P327">
+        <v>3.25</v>
+      </c>
+      <c r="Q327">
+        <v>-0.5</v>
+      </c>
+      <c r="R327">
+        <v>2</v>
+      </c>
+      <c r="S327">
+        <v>1.85</v>
+      </c>
+      <c r="T327">
+        <v>3</v>
+      </c>
+      <c r="U327">
+        <v>1.975</v>
+      </c>
+      <c r="V327">
+        <v>1.875</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:27">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
         <v>7107170</v>
       </c>
-      <c r="C327" t="s">
-        <v>28</v>
-      </c>
-      <c r="D327" t="s">
-        <v>28</v>
-      </c>
-      <c r="E327" s="2">
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="2">
         <v>45396.60416666666</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F328" t="s">
         <v>37</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G328" t="s">
         <v>35</v>
       </c>
-      <c r="K327">
+      <c r="K328">
         <v>6</v>
       </c>
-      <c r="L327">
+      <c r="L328">
         <v>4.2</v>
       </c>
-      <c r="M327">
+      <c r="M328">
         <v>1.45</v>
       </c>
-      <c r="N327">
+      <c r="N328">
         <v>6</v>
       </c>
-      <c r="O327">
+      <c r="O328">
         <v>4.2</v>
       </c>
-      <c r="P327">
+      <c r="P328">
         <v>1.45</v>
       </c>
-      <c r="Q327">
+      <c r="Q328">
         <v>1.25</v>
       </c>
-      <c r="R327">
+      <c r="R328">
         <v>1.825</v>
       </c>
-      <c r="S327">
+      <c r="S328">
         <v>2.025</v>
       </c>
-      <c r="T327">
+      <c r="T328">
         <v>2.75</v>
       </c>
-      <c r="U327">
+      <c r="U328">
         <v>1.925</v>
       </c>
-      <c r="V327">
+      <c r="V328">
         <v>1.925</v>
       </c>
-      <c r="W327">
-        <v>0</v>
-      </c>
-      <c r="X327">
-        <v>0</v>
-      </c>
-      <c r="Y327">
-        <v>0</v>
-      </c>
-      <c r="Z327">
-        <v>0</v>
-      </c>
-      <c r="AA327">
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
         <v>0</v>
       </c>
     </row>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,9 @@
     <t>Hallescher FC</t>
   </si>
   <si>
+    <t>1860 Munich</t>
+  </si>
+  <si>
     <t>Jahn Regensburg</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
   </si>
   <si>
     <t>FC Viktoria Kln</t>
-  </si>
-  <si>
-    <t>1860 Munich</t>
   </si>
   <si>
     <t>Dynamo Dresden</t>
@@ -145,10 +145,10 @@
     <t>Unterhaching</t>
   </si>
   <si>
-    <t>Saarbrucken</t>
+    <t>Arminia Bielefeld</t>
   </si>
   <si>
-    <t>Arminia Bielefeld</t>
+    <t>Saarbrucken</t>
   </si>
   <si>
     <t>Waldhof Mannheim</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC339"/>
+  <dimension ref="A1:AC331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6881588</v>
+        <v>6880239</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6881586</v>
+        <v>6881588</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,25 +821,25 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>1.85</v>
@@ -848,16 +848,16 @@
         <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
         <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.75</v>
@@ -881,7 +881,7 @@
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6881308</v>
+        <v>6881586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -922,61 +922,61 @@
         <v>50</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>3.2</v>
+      </c>
+      <c r="N5">
+        <v>1.85</v>
+      </c>
+      <c r="O5">
+        <v>3.6</v>
+      </c>
+      <c r="P5">
         <v>3.75</v>
       </c>
-      <c r="M5">
-        <v>1.8</v>
-      </c>
-      <c r="N5">
-        <v>3.1</v>
-      </c>
-      <c r="O5">
-        <v>3.5</v>
-      </c>
-      <c r="P5">
-        <v>2.1</v>
-      </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6881307</v>
+        <v>6881308</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,46 +999,46 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
         <v>3.5</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
         <v>1.925</v>
@@ -1047,25 +1047,25 @@
         <v>1.875</v>
       </c>
       <c r="W6">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.475</v>
+      </c>
+      <c r="AA6">
+        <v>-0.5</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.875</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0.925</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6880239</v>
+        <v>6881307</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,55 +1088,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L7">
         <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1145,16 +1145,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6881590</v>
+        <v>6881592</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,73 +1889,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L16">
+        <v>3.6</v>
+      </c>
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="M16">
-        <v>4.5</v>
-      </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6881592</v>
+        <v>6881590</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,73 +1978,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17">
+        <v>1.666</v>
+      </c>
+      <c r="L17">
         <v>4</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17">
-        <v>1.75</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
       <c r="M17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N17">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2245,7 +2245,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -2687,10 +2687,10 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6881597</v>
+        <v>6881595</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,10 +2865,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2880,25 +2880,25 @@
         <v>50</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N27">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>1.85</v>
@@ -2910,31 +2910,31 @@
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6881593</v>
+        <v>6881594</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2954,76 +2954,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
+        <v>4.75</v>
+      </c>
+      <c r="N28">
+        <v>1.75</v>
+      </c>
+      <c r="O28">
+        <v>3.8</v>
+      </c>
+      <c r="P28">
+        <v>3.8</v>
+      </c>
+      <c r="Q28">
+        <v>-0.75</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>2.15</v>
-      </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>3</v>
-      </c>
-      <c r="Q28">
-        <v>-0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.875</v>
-      </c>
-      <c r="S28">
-        <v>1.925</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
       <c r="U28">
+        <v>1.85</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="V28">
-        <v>1.85</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X28">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>0.5</v>
+      </c>
+      <c r="AA28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.4625</v>
-      </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6881594</v>
+        <v>6880463</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,59 +3043,59 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
       </c>
       <c r="K29">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N29">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
+        <v>2.025</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
+        <v>1.975</v>
+      </c>
+      <c r="V29">
+        <v>1.875</v>
+      </c>
+      <c r="W29">
         <v>1.8</v>
       </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>0.75</v>
-      </c>
       <c r="X29">
         <v>-1</v>
       </c>
@@ -3103,16 +3103,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
+        <v>0.4875</v>
+      </c>
+      <c r="AC29">
         <v>-0.5</v>
-      </c>
-      <c r="AB29">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6880463</v>
+        <v>6881597</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB30">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6881595</v>
+        <v>6881593</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,10 +3221,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3236,31 +3236,31 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
         <v>3.4</v>
       </c>
       <c r="P31">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.75</v>
@@ -3281,10 +3281,10 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6881601</v>
+        <v>6880464</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,76 +3488,76 @@
         <v>45164.375</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>2.375</v>
+      </c>
+      <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>2.625</v>
+      </c>
+      <c r="N34">
+        <v>2.3</v>
+      </c>
+      <c r="O34">
+        <v>3.5</v>
+      </c>
+      <c r="P34">
+        <v>2.7</v>
+      </c>
+      <c r="Q34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34">
-        <v>3.5</v>
-      </c>
-      <c r="L34">
-        <v>3.75</v>
-      </c>
-      <c r="M34">
-        <v>1.85</v>
-      </c>
-      <c r="N34">
-        <v>3.6</v>
-      </c>
-      <c r="O34">
-        <v>3.75</v>
-      </c>
-      <c r="P34">
-        <v>1.833</v>
-      </c>
-      <c r="Q34">
-        <v>0.5</v>
-      </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
+        <v>-0</v>
+      </c>
+      <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
         <v>0.825</v>
-      </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
-      <c r="AC34">
-        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6880464</v>
+        <v>6881601</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45164.375</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3669,7 +3669,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3758,7 +3758,7 @@
         <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3847,7 +3847,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3933,10 +3933,10 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6881315</v>
+        <v>6881604</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,28 +4289,28 @@
         <v>45171.375</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
         <v>3.5</v>
       </c>
       <c r="M43">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N43">
         <v>1.909</v>
@@ -4319,46 +4319,46 @@
         <v>3.5</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
         <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB43">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6881604</v>
+        <v>6880329</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,76 +4378,76 @@
         <v>45171.375</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
         <v>1.909</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q44">
         <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6880329</v>
+        <v>6880355</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,76 +4467,76 @@
         <v>45171.375</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45">
+        <v>1.615</v>
+      </c>
+      <c r="L45">
+        <v>3.75</v>
+      </c>
+      <c r="M45">
+        <v>4.75</v>
+      </c>
+      <c r="N45">
+        <v>1.727</v>
+      </c>
+      <c r="O45">
+        <v>3.75</v>
+      </c>
+      <c r="P45">
+        <v>4.5</v>
+      </c>
+      <c r="Q45">
+        <v>-0.75</v>
+      </c>
+      <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
+        <v>1.825</v>
+      </c>
+      <c r="T45">
         <v>3</v>
       </c>
-      <c r="J45" t="s">
-        <v>51</v>
-      </c>
-      <c r="K45">
-        <v>2.45</v>
-      </c>
-      <c r="L45">
-        <v>3.4</v>
-      </c>
-      <c r="M45">
-        <v>2.75</v>
-      </c>
-      <c r="N45">
-        <v>1.909</v>
-      </c>
-      <c r="O45">
-        <v>3.6</v>
-      </c>
-      <c r="P45">
-        <v>3.8</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.85</v>
-      </c>
-      <c r="S45">
-        <v>1.95</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6880355</v>
+        <v>6881315</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,13 +4556,13 @@
         <v>45171.375</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4571,43 +4571,43 @@
         <v>49</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
+        <v>1.95</v>
+      </c>
+      <c r="T46">
+        <v>2.75</v>
+      </c>
+      <c r="U46">
+        <v>2.025</v>
+      </c>
+      <c r="V46">
         <v>1.825</v>
       </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>2</v>
-      </c>
-      <c r="V46">
-        <v>1.8</v>
-      </c>
       <c r="W46">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4616,16 +4616,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC46">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4734,7 +4734,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -4912,7 +4912,7 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -5001,10 +5001,10 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5182,7 +5182,7 @@
         <v>48</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>45185.375</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
         <v>35</v>
@@ -5360,7 +5360,7 @@
         <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5446,7 +5446,7 @@
         <v>45185.375</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
         <v>37</v>
@@ -5538,7 +5538,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5627,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5894,7 +5894,7 @@
         <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>45192.375</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -6247,7 +6247,7 @@
         <v>45192.375</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -6336,10 +6336,10 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>45192.375</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>39</v>
@@ -6517,7 +6517,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6959,10 +6959,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s">
         <v>44</v>
-      </c>
-      <c r="G73" t="s">
-        <v>43</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7140,7 +7140,7 @@
         <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7229,7 +7229,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7404,7 +7404,7 @@
         <v>45199.375</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>47</v>
@@ -7493,7 +7493,7 @@
         <v>45199.47916666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -7763,7 +7763,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6881624</v>
+        <v>6881623</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N83">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6881623</v>
+        <v>6881624</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G84" t="s">
         <v>43</v>
       </c>
-      <c r="G84" t="s">
-        <v>32</v>
-      </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8116,7 +8116,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6881622</v>
+        <v>6881621</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,58 +8294,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P88">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
+        <v>1.85</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
         <v>1.8</v>
       </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>1.875</v>
-      </c>
-      <c r="V88">
-        <v>1.925</v>
-      </c>
       <c r="W88">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8354,16 +8354,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB88">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6881621</v>
+        <v>6881622</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,58 +8383,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>49</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L89">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N89">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O89">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8443,16 +8443,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8472,7 +8472,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8561,7 +8561,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8739,7 +8739,7 @@
         <v>45206.375</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -8920,7 +8920,7 @@
         <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9095,7 +9095,7 @@
         <v>45206.375</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9187,7 +9187,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9273,7 +9273,7 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>37</v>
@@ -9365,7 +9365,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9629,10 +9629,10 @@
         <v>45213.375</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6881324</v>
+        <v>6880471</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,76 +9807,76 @@
         <v>45213.375</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>50</v>
       </c>
       <c r="K105">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6880471</v>
+        <v>6881324</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,76 +9896,76 @@
         <v>45213.375</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>50</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N106">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9985,7 +9985,7 @@
         <v>45213.47916666666</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
         <v>45</v>
@@ -10163,10 +10163,10 @@
         <v>45214.47916666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10433,7 +10433,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>45220.375</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>37</v>
@@ -10611,7 +10611,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10697,10 +10697,10 @@
         <v>45220.375</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10789,7 +10789,7 @@
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10967,7 +10967,7 @@
         <v>48</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11409,7 +11409,7 @@
         <v>45227.375</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
         <v>41</v>
@@ -11587,10 +11587,10 @@
         <v>45227.375</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11676,10 +11676,10 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11768,7 +11768,7 @@
         <v>47</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -12035,7 +12035,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6881643</v>
+        <v>6881644</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,76 +12121,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K131">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="N131">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O131">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.925</v>
+      </c>
+      <c r="AB131">
         <v>1</v>
       </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
       <c r="AC131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12210,10 +12210,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12302,7 +12302,7 @@
         <v>48</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6881644</v>
+        <v>6881643</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M134">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N134">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P134">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R134">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12747,7 +12747,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12833,7 +12833,7 @@
         <v>45240.625</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
         <v>35</v>
@@ -12922,7 +12922,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
         <v>39</v>
@@ -13189,10 +13189,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13370,7 +13370,7 @@
         <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13459,7 +13459,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13634,7 +13634,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13990,7 +13990,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
         <v>42</v>
@@ -14082,7 +14082,7 @@
         <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14346,10 +14346,10 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14438,7 +14438,7 @@
         <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14524,10 +14524,10 @@
         <v>45256.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -14702,7 +14702,7 @@
         <v>45259.625</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
         <v>40</v>
@@ -14794,7 +14794,7 @@
         <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14880,10 +14880,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
         <v>38</v>
@@ -15236,7 +15236,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15414,7 +15414,7 @@
         <v>45263.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>
@@ -15506,7 +15506,7 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15595,7 +15595,7 @@
         <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15684,7 +15684,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15948,7 +15948,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16126,10 +16126,10 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16304,7 +16304,7 @@
         <v>45270.64583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
         <v>47</v>
@@ -16396,7 +16396,7 @@
         <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6881669</v>
+        <v>6881337</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,49 +16482,49 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L180">
         <v>3.4</v>
       </c>
       <c r="M180">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N180">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O180">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P180">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
         <v>1.85</v>
@@ -16536,22 +16536,22 @@
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB180">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6881337</v>
+        <v>6881669</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,49 +16571,49 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L181">
         <v>3.4</v>
       </c>
       <c r="M181">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N181">
+        <v>1.909</v>
+      </c>
+      <c r="O181">
+        <v>3.3</v>
+      </c>
+      <c r="P181">
+        <v>3.75</v>
+      </c>
+      <c r="Q181">
+        <v>-0.5</v>
+      </c>
+      <c r="R181">
+        <v>1.9</v>
+      </c>
+      <c r="S181">
+        <v>1.9</v>
+      </c>
+      <c r="T181">
         <v>2.25</v>
-      </c>
-      <c r="O181">
-        <v>3.4</v>
-      </c>
-      <c r="P181">
-        <v>2.75</v>
-      </c>
-      <c r="Q181">
-        <v>-0.25</v>
-      </c>
-      <c r="R181">
-        <v>2.025</v>
-      </c>
-      <c r="S181">
-        <v>1.775</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
       </c>
       <c r="U181">
         <v>1.85</v>
@@ -16625,22 +16625,22 @@
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y181">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16930,7 +16930,7 @@
         <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H185">
         <v>3</v>
@@ -17105,10 +17105,10 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17194,7 +17194,7 @@
         <v>45277.64583333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6881677</v>
+        <v>6881339</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,58 +17372,58 @@
         <v>45279.625</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>49</v>
       </c>
       <c r="K190">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L190">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N190">
+        <v>2.15</v>
+      </c>
+      <c r="O190">
+        <v>3.2</v>
+      </c>
+      <c r="P190">
+        <v>3.1</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
         <v>1.85</v>
       </c>
-      <c r="O190">
-        <v>3.6</v>
-      </c>
-      <c r="P190">
-        <v>3.6</v>
-      </c>
-      <c r="Q190">
-        <v>-0.5</v>
-      </c>
-      <c r="R190">
-        <v>1.9</v>
-      </c>
-      <c r="S190">
-        <v>1.9</v>
-      </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
+        <v>1.95</v>
+      </c>
+      <c r="V190">
         <v>1.85</v>
       </c>
-      <c r="V190">
-        <v>1.95</v>
-      </c>
       <c r="W190">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17432,13 +17432,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17464,7 +17464,7 @@
         <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6881339</v>
+        <v>6881677</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,58 +17550,58 @@
         <v>45279.625</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>49</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O192">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
+        <v>1.9</v>
+      </c>
+      <c r="S192">
+        <v>1.9</v>
+      </c>
+      <c r="T192">
+        <v>2.75</v>
+      </c>
+      <c r="U192">
+        <v>1.85</v>
+      </c>
+      <c r="V192">
         <v>1.95</v>
       </c>
-      <c r="S192">
-        <v>1.85</v>
-      </c>
-      <c r="T192">
-        <v>2.25</v>
-      </c>
-      <c r="U192">
-        <v>1.95</v>
-      </c>
-      <c r="V192">
-        <v>1.85</v>
-      </c>
       <c r="W192">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17610,13 +17610,13 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17642,7 +17642,7 @@
         <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6880522</v>
+        <v>6880342</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17728,58 +17728,58 @@
         <v>45280.625</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>49</v>
       </c>
       <c r="K194">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="L194">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N194">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="O194">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P194">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17788,16 +17788,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6881679</v>
+        <v>6881675</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17817,76 +17817,76 @@
         <v>45280.625</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K195">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N195">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O195">
         <v>3.6</v>
       </c>
       <c r="P195">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
+        <v>1.95</v>
+      </c>
+      <c r="S195">
+        <v>1.85</v>
+      </c>
+      <c r="T195">
+        <v>3</v>
+      </c>
+      <c r="U195">
+        <v>1.975</v>
+      </c>
+      <c r="V195">
         <v>1.825</v>
       </c>
-      <c r="S195">
-        <v>1.975</v>
-      </c>
-      <c r="T195">
-        <v>2.75</v>
-      </c>
-      <c r="U195">
-        <v>1.825</v>
-      </c>
-      <c r="V195">
-        <v>1.975</v>
-      </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6881675</v>
+        <v>6881679</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17906,76 +17906,76 @@
         <v>45280.625</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K196">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L196">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
+        <v>3.4</v>
+      </c>
+      <c r="N196">
         <v>2.05</v>
-      </c>
-      <c r="N196">
-        <v>2.9</v>
       </c>
       <c r="O196">
         <v>3.6</v>
       </c>
       <c r="P196">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
+        <v>1.825</v>
+      </c>
+      <c r="V196">
         <v>1.975</v>
       </c>
-      <c r="V196">
-        <v>1.825</v>
-      </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y196">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17983,7 +17983,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6880342</v>
+        <v>6880522</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17995,58 +17995,58 @@
         <v>45280.625</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>49</v>
       </c>
       <c r="K197">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M197">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N197">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18055,16 +18055,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18161,7 +18161,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6881683</v>
+        <v>6880369</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18173,76 +18173,76 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M199">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N199">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O199">
         <v>3.4</v>
       </c>
       <c r="P199">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
+        <v>1.925</v>
+      </c>
+      <c r="T199">
+        <v>3</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
         <v>1.8</v>
       </c>
-      <c r="T199">
-        <v>2.75</v>
-      </c>
-      <c r="U199">
-        <v>1.875</v>
-      </c>
-      <c r="V199">
-        <v>1.975</v>
-      </c>
       <c r="W199">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X199">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6881341</v>
+        <v>6881683</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,76 +18262,76 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K200">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L200">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N200">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
         <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y200">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6880343</v>
+        <v>6881341</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,76 +18351,76 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K201">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M201">
+        <v>5</v>
+      </c>
+      <c r="N201">
+        <v>1.571</v>
+      </c>
+      <c r="O201">
+        <v>3.6</v>
+      </c>
+      <c r="P201">
+        <v>4.75</v>
+      </c>
+      <c r="Q201">
+        <v>-0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.775</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
         <v>2.75</v>
       </c>
-      <c r="N201">
-        <v>2.375</v>
-      </c>
-      <c r="O201">
-        <v>3.2</v>
-      </c>
-      <c r="P201">
-        <v>2.6</v>
-      </c>
-      <c r="Q201">
-        <v>0</v>
-      </c>
-      <c r="R201">
-        <v>1.825</v>
-      </c>
-      <c r="S201">
-        <v>1.975</v>
-      </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W201">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z201">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18428,7 +18428,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6880369</v>
+        <v>6880343</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18440,13 +18440,13 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -18455,43 +18455,43 @@
         <v>49</v>
       </c>
       <c r="K202">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L202">
         <v>3.25</v>
       </c>
       <c r="M202">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N202">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P202">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18500,13 +18500,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18529,7 +18529,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
         <v>40</v>
@@ -18618,10 +18618,10 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6880344</v>
+        <v>6881688</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45314.625</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K207">
-        <v>4.8</v>
+        <v>2.625</v>
       </c>
       <c r="L207">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N207">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O207">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P207">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q207">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y207">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA207">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6880524</v>
+        <v>6881685</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45314.625</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="s">
+        <v>50</v>
+      </c>
+      <c r="K208">
+        <v>2.75</v>
+      </c>
+      <c r="L208">
+        <v>3.5</v>
+      </c>
+      <c r="M208">
+        <v>2.25</v>
+      </c>
+      <c r="N208">
         <v>3</v>
       </c>
-      <c r="J208" t="s">
-        <v>51</v>
-      </c>
-      <c r="K208">
-        <v>2.2</v>
-      </c>
-      <c r="L208">
+      <c r="O208">
         <v>3.4</v>
       </c>
-      <c r="M208">
-        <v>2.9</v>
-      </c>
-      <c r="N208">
-        <v>2.05</v>
-      </c>
-      <c r="O208">
-        <v>3.6</v>
-      </c>
       <c r="P208">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S208">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y208">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA208">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6881685</v>
+        <v>6881684</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19063,76 +19063,76 @@
         <v>45314.625</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>3.6</v>
+      </c>
+      <c r="M209">
+        <v>3.2</v>
+      </c>
+      <c r="N209">
+        <v>2.15</v>
+      </c>
+      <c r="O209">
+        <v>3.5</v>
+      </c>
+      <c r="P209">
+        <v>2.9</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
+        <v>1.85</v>
+      </c>
+      <c r="T209">
         <v>2.75</v>
       </c>
-      <c r="L209">
-        <v>3.5</v>
-      </c>
-      <c r="M209">
-        <v>2.25</v>
-      </c>
-      <c r="N209">
-        <v>3</v>
-      </c>
-      <c r="O209">
-        <v>3.4</v>
-      </c>
-      <c r="P209">
-        <v>2.15</v>
-      </c>
-      <c r="Q209">
-        <v>0.25</v>
-      </c>
-      <c r="R209">
-        <v>1.875</v>
-      </c>
-      <c r="S209">
-        <v>1.925</v>
-      </c>
-      <c r="T209">
-        <v>2.5</v>
-      </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19140,7 +19140,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6881688</v>
+        <v>6880344</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19152,76 +19152,76 @@
         <v>45314.625</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K210">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="L210">
+        <v>3.75</v>
+      </c>
+      <c r="M210">
+        <v>1.615</v>
+      </c>
+      <c r="N210">
+        <v>4</v>
+      </c>
+      <c r="O210">
         <v>3.4</v>
       </c>
-      <c r="M210">
-        <v>2.4</v>
-      </c>
-      <c r="N210">
-        <v>2.9</v>
-      </c>
-      <c r="O210">
-        <v>3.5</v>
-      </c>
       <c r="P210">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z210">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6881684</v>
+        <v>6880524</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,73 +19241,73 @@
         <v>45314.625</v>
       </c>
       <c r="F211" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
         <v>3</v>
       </c>
-      <c r="I211">
-        <v>1</v>
-      </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L211">
+        <v>3.4</v>
+      </c>
+      <c r="M211">
+        <v>2.9</v>
+      </c>
+      <c r="N211">
+        <v>2.05</v>
+      </c>
+      <c r="O211">
         <v>3.6</v>
       </c>
-      <c r="M211">
-        <v>3.2</v>
-      </c>
-      <c r="N211">
-        <v>2.15</v>
-      </c>
-      <c r="O211">
-        <v>3.5</v>
-      </c>
       <c r="P211">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q211">
         <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T211">
         <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W211">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB211">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC211">
         <v>-1</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6880370</v>
+        <v>6881686</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,7 +19330,7 @@
         <v>45315.625</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G212" t="s">
         <v>31</v>
@@ -19339,67 +19339,67 @@
         <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K212">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L212">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N212">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O212">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
         <v>1.825</v>
       </c>
-      <c r="T212">
-        <v>3</v>
-      </c>
-      <c r="U212">
-        <v>1.85</v>
-      </c>
-      <c r="V212">
-        <v>1.95</v>
-      </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X212">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.825</v>
-      </c>
-      <c r="AB212">
-        <v>-1</v>
-      </c>
-      <c r="AC212">
-        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6881687</v>
+        <v>6880370</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,76 +19419,76 @@
         <v>45315.625</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N213">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
+        <v>4</v>
+      </c>
+      <c r="P213">
         <v>3.75</v>
-      </c>
-      <c r="P213">
-        <v>4.2</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
         <v>1.95</v>
       </c>
-      <c r="V213">
-        <v>1.85</v>
-      </c>
       <c r="W213">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19496,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6881686</v>
+        <v>6881687</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19508,10 +19508,10 @@
         <v>45315.625</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19523,43 +19523,43 @@
         <v>49</v>
       </c>
       <c r="K214">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M214">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N214">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19568,16 +19568,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>45315.625</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
         <v>36</v>
@@ -19953,7 +19953,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
         <v>41</v>
@@ -20042,7 +20042,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
         <v>42</v>
@@ -20220,10 +20220,10 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20312,7 +20312,7 @@
         <v>38</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20398,7 +20398,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
         <v>48</v>
@@ -20487,7 +20487,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G225" t="s">
         <v>39</v>
@@ -20668,7 +20668,7 @@
         <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>38</v>
       </c>
       <c r="G228" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20843,7 +20843,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G229" t="s">
         <v>36</v>
@@ -20920,7 +20920,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6881345</v>
+        <v>6881694</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20932,76 +20932,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G230" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K230">
+        <v>1.55</v>
+      </c>
+      <c r="L230">
+        <v>3.9</v>
+      </c>
+      <c r="M230">
+        <v>5.5</v>
+      </c>
+      <c r="N230">
+        <v>1.5</v>
+      </c>
+      <c r="O230">
+        <v>4</v>
+      </c>
+      <c r="P230">
+        <v>5.75</v>
+      </c>
+      <c r="Q230">
+        <v>-1</v>
+      </c>
+      <c r="R230">
         <v>1.85</v>
       </c>
-      <c r="L230">
-        <v>3.5</v>
-      </c>
-      <c r="M230">
-        <v>3.75</v>
-      </c>
-      <c r="N230">
+      <c r="S230">
+        <v>1.95</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.95</v>
+      </c>
+      <c r="V230">
         <v>1.85</v>
       </c>
-      <c r="O230">
-        <v>3.6</v>
-      </c>
-      <c r="P230">
-        <v>3.6</v>
-      </c>
-      <c r="Q230">
-        <v>-0.5</v>
-      </c>
-      <c r="R230">
-        <v>1.875</v>
-      </c>
-      <c r="S230">
-        <v>1.925</v>
-      </c>
-      <c r="T230">
-        <v>3</v>
-      </c>
-      <c r="U230">
-        <v>1.975</v>
-      </c>
-      <c r="V230">
-        <v>1.825</v>
-      </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X230">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6881694</v>
+        <v>6881345</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>50</v>
+      </c>
+      <c r="K231">
+        <v>1.85</v>
+      </c>
+      <c r="L231">
+        <v>3.5</v>
+      </c>
+      <c r="M231">
+        <v>3.75</v>
+      </c>
+      <c r="N231">
+        <v>1.85</v>
+      </c>
+      <c r="O231">
+        <v>3.6</v>
+      </c>
+      <c r="P231">
+        <v>3.6</v>
+      </c>
+      <c r="Q231">
+        <v>-0.5</v>
+      </c>
+      <c r="R231">
+        <v>1.875</v>
+      </c>
+      <c r="S231">
+        <v>1.925</v>
+      </c>
+      <c r="T231">
         <v>3</v>
       </c>
-      <c r="J231" t="s">
-        <v>49</v>
-      </c>
-      <c r="K231">
-        <v>1.55</v>
-      </c>
-      <c r="L231">
-        <v>3.9</v>
-      </c>
-      <c r="M231">
-        <v>5.5</v>
-      </c>
-      <c r="N231">
-        <v>1.5</v>
-      </c>
-      <c r="O231">
-        <v>4</v>
-      </c>
-      <c r="P231">
-        <v>5.75</v>
-      </c>
-      <c r="Q231">
-        <v>-1</v>
-      </c>
-      <c r="R231">
-        <v>1.85</v>
-      </c>
-      <c r="S231">
-        <v>1.95</v>
-      </c>
-      <c r="T231">
-        <v>2.75</v>
-      </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB231">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21199,10 +21199,10 @@
         <v>45325.52083333334</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21380,7 +21380,7 @@
         <v>45</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21469,7 +21469,7 @@
         <v>40</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21555,7 +21555,7 @@
         <v>45328.625</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
         <v>48</v>
@@ -21733,7 +21733,7 @@
         <v>45331.625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
         <v>46</v>
@@ -22000,7 +22000,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G242" t="s">
         <v>48</v>
@@ -22089,7 +22089,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
         <v>39</v>
@@ -22181,7 +22181,7 @@
         <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H244">
         <v>7</v>
@@ -22270,7 +22270,7 @@
         <v>37</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -22445,7 +22445,7 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G247" t="s">
         <v>41</v>
@@ -22537,7 +22537,7 @@
         <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22715,7 +22715,7 @@
         <v>40</v>
       </c>
       <c r="G250" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22890,10 +22890,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F252" t="s">
+        <v>33</v>
+      </c>
+      <c r="G252" t="s">
         <v>32</v>
-      </c>
-      <c r="G252" t="s">
-        <v>31</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -22982,7 +22982,7 @@
         <v>39</v>
       </c>
       <c r="G253" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H253">
         <v>6</v>
@@ -23157,7 +23157,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23249,7 +23249,7 @@
         <v>45</v>
       </c>
       <c r="G256" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>45340.64583333334</v>
       </c>
       <c r="F258" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
         <v>29</v>
@@ -23513,10 +23513,10 @@
         <v>45343.625</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H259">
         <v>2</v>
@@ -23602,7 +23602,7 @@
         <v>45345.625</v>
       </c>
       <c r="F260" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G260" t="s">
         <v>40</v>
@@ -23691,7 +23691,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G261" t="s">
         <v>39</v>
@@ -23768,7 +23768,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6881713</v>
+        <v>6881715</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,76 +23780,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G262" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J262" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K262">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L262">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M262">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N262">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O262">
         <v>3.5</v>
       </c>
       <c r="P262">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q262">
         <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S262">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
+        <v>2.75</v>
+      </c>
+      <c r="U262">
+        <v>1.95</v>
+      </c>
+      <c r="V262">
+        <v>1.85</v>
+      </c>
+      <c r="W262">
+        <v>-1</v>
+      </c>
+      <c r="X262">
+        <v>-1</v>
+      </c>
+      <c r="Y262">
         <v>2.5</v>
       </c>
-      <c r="U262">
-        <v>1.85</v>
-      </c>
-      <c r="V262">
-        <v>1.95</v>
-      </c>
-      <c r="W262">
-        <v>-1</v>
-      </c>
-      <c r="X262">
-        <v>2.5</v>
-      </c>
-      <c r="Y262">
-        <v>-1</v>
-      </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC262">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6882785</v>
+        <v>6881713</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,10 +23958,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -23973,61 +23973,61 @@
         <v>50</v>
       </c>
       <c r="K264">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L264">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M264">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N264">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O264">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R264">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S264">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB264">
         <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6881715</v>
+        <v>6882785</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,76 +24047,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K265">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L265">
+        <v>3.3</v>
+      </c>
+      <c r="M265">
+        <v>3.2</v>
+      </c>
+      <c r="N265">
+        <v>2.2</v>
+      </c>
+      <c r="O265">
         <v>3.4</v>
       </c>
-      <c r="M265">
-        <v>3.6</v>
-      </c>
-      <c r="N265">
-        <v>2.05</v>
-      </c>
-      <c r="O265">
-        <v>3.5</v>
-      </c>
       <c r="P265">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V265">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y265">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA265">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AB265">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24139,7 +24139,7 @@
         <v>47</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24228,7 +24228,7 @@
         <v>29</v>
       </c>
       <c r="G267" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24314,10 +24314,10 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F268" t="s">
+        <v>44</v>
+      </c>
+      <c r="G268" t="s">
         <v>43</v>
-      </c>
-      <c r="G268" t="s">
-        <v>44</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -24581,7 +24581,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
         <v>36</v>
@@ -24759,10 +24759,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -24851,7 +24851,7 @@
         <v>45</v>
       </c>
       <c r="G274" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H274">
         <v>3</v>
@@ -24940,7 +24940,7 @@
         <v>38</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H275">
         <v>2</v>
@@ -25118,7 +25118,7 @@
         <v>41</v>
       </c>
       <c r="G277" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -25204,7 +25204,7 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G278" t="s">
         <v>47</v>
@@ -25385,7 +25385,7 @@
         <v>35</v>
       </c>
       <c r="G280" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H280">
         <v>2</v>
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6881727</v>
+        <v>6957875</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,76 +25471,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G281" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H281">
+        <v>2</v>
+      </c>
+      <c r="I281">
         <v>0</v>
       </c>
-      <c r="I281">
-        <v>2</v>
-      </c>
       <c r="J281" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K281">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L281">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M281">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N281">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="O281">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P281">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="Q281">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R281">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S281">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T281">
         <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6957875</v>
+        <v>6881727</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,76 +25560,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F282" t="s">
+        <v>46</v>
+      </c>
+      <c r="G282" t="s">
         <v>43</v>
       </c>
-      <c r="G282" t="s">
-        <v>38</v>
-      </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L282">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M282">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N282">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="O282">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P282">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="Q282">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R282">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S282">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T282">
         <v>2.75</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W282">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z282">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB282">
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25637,7 +25637,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6881725</v>
+        <v>6920822</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25649,73 +25649,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K283">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L283">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M283">
         <v>2.55</v>
       </c>
       <c r="N283">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="O283">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P283">
         <v>2.375</v>
       </c>
       <c r="Q283">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R283">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S283">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T283">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U283">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V283">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W283">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB283">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25738,7 +25738,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G284" t="s">
         <v>41</v>
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6920822</v>
+        <v>6881725</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25827,73 +25827,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F285" t="s">
+        <v>37</v>
+      </c>
+      <c r="G285" t="s">
         <v>33</v>
       </c>
-      <c r="G285" t="s">
-        <v>45</v>
-      </c>
       <c r="H285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K285">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L285">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M285">
         <v>2.55</v>
       </c>
       <c r="N285">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O285">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P285">
         <v>2.375</v>
       </c>
       <c r="Q285">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R285">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S285">
+        <v>2.05</v>
+      </c>
+      <c r="T285">
+        <v>2.25</v>
+      </c>
+      <c r="U285">
         <v>1.8</v>
       </c>
-      <c r="T285">
-        <v>2.75</v>
-      </c>
-      <c r="U285">
-        <v>1.925</v>
-      </c>
       <c r="V285">
+        <v>2</v>
+      </c>
+      <c r="W285">
         <v>1.875</v>
       </c>
-      <c r="W285">
-        <v>-1</v>
-      </c>
       <c r="X285">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA285">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC285">
         <v>-1</v>
@@ -25916,7 +25916,7 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F286" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G286" t="s">
         <v>29</v>
@@ -26275,7 +26275,7 @@
         <v>45</v>
       </c>
       <c r="G290" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26453,7 +26453,7 @@
         <v>38</v>
       </c>
       <c r="G292" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -26542,7 +26542,7 @@
         <v>40</v>
       </c>
       <c r="G293" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H293">
         <v>2</v>
@@ -26628,10 +26628,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G294" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -26717,10 +26717,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G295" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -27251,7 +27251,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G301" t="s">
         <v>29</v>
@@ -27518,7 +27518,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G304" t="s">
         <v>35</v>
@@ -27610,7 +27610,7 @@
         <v>37</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -27696,10 +27696,10 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F306" t="s">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
         <v>33</v>
-      </c>
-      <c r="G306" t="s">
-        <v>32</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -27874,7 +27874,7 @@
         <v>45382.60416666666</v>
       </c>
       <c r="F308" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G308" t="s">
         <v>40</v>
@@ -27966,7 +27966,7 @@
         <v>41</v>
       </c>
       <c r="G309" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28141,7 +28141,7 @@
         <v>45388.375</v>
       </c>
       <c r="F311" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G311" t="s">
         <v>47</v>
@@ -28319,10 +28319,10 @@
         <v>45388.375</v>
       </c>
       <c r="F313" t="s">
+        <v>32</v>
+      </c>
+      <c r="G313" t="s">
         <v>31</v>
-      </c>
-      <c r="G313" t="s">
-        <v>30</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28408,10 +28408,10 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F314" t="s">
+        <v>30</v>
+      </c>
+      <c r="G314" t="s">
         <v>34</v>
-      </c>
-      <c r="G314" t="s">
-        <v>33</v>
       </c>
       <c r="H314">
         <v>3</v>
@@ -28589,7 +28589,7 @@
         <v>35</v>
       </c>
       <c r="G316" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -28853,7 +28853,7 @@
         <v>45392.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G319" t="s">
         <v>42</v>
@@ -29019,7 +29019,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7107169</v>
+        <v>7111591</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29031,13 +29031,13 @@
         <v>45395.375</v>
       </c>
       <c r="F321" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G321" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H321">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I321">
         <v>1</v>
@@ -29046,43 +29046,43 @@
         <v>49</v>
       </c>
       <c r="K321">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L321">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M321">
         <v>3.1</v>
       </c>
       <c r="N321">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O321">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P321">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R321">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S321">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T321">
         <v>2.75</v>
       </c>
       <c r="U321">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W321">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X321">
         <v>-1</v>
@@ -29091,13 +29091,13 @@
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA321">
         <v>-1</v>
       </c>
       <c r="AB321">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC321">
         <v>-1</v>
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7107168</v>
+        <v>7107169</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,58 +29120,58 @@
         <v>45395.375</v>
       </c>
       <c r="F322" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G322" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
         <v>49</v>
       </c>
       <c r="K322">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L322">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M322">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N322">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O322">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P322">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q322">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S322">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T322">
         <v>2.75</v>
       </c>
       <c r="U322">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V322">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W322">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X322">
         <v>-1</v>
@@ -29180,16 +29180,16 @@
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA322">
         <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC322">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7106357</v>
+        <v>7107168</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,58 +29209,58 @@
         <v>45395.375</v>
       </c>
       <c r="F323" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G323" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H323">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I323">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>49</v>
       </c>
       <c r="K323">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L323">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M323">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N323">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O323">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P323">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q323">
         <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S323">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T323">
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V323">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W323">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29269,16 +29269,16 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29286,7 +29286,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7106356</v>
+        <v>7106357</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29298,76 +29298,76 @@
         <v>45395.375</v>
       </c>
       <c r="F324" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G324" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K324">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L324">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M324">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="N324">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="O324">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P324">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q324">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S324">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T324">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U324">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V324">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X324">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA324">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC324">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29375,7 +29375,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7111591</v>
+        <v>7106356</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29387,76 +29387,76 @@
         <v>45395.375</v>
       </c>
       <c r="F325" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G325" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H325">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I325">
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K325">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L325">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M325">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N325">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="O325">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P325">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R325">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S325">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T325">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U325">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V325">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W325">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X325">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y325">
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB325">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29476,7 +29476,7 @@
         <v>45395.47916666666</v>
       </c>
       <c r="F326" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G326" t="s">
         <v>39</v>
@@ -29565,10 +29565,10 @@
         <v>45396.35416666666</v>
       </c>
       <c r="F327" t="s">
+        <v>31</v>
+      </c>
+      <c r="G327" t="s">
         <v>30</v>
-      </c>
-      <c r="G327" t="s">
-        <v>34</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -29654,7 +29654,7 @@
         <v>45396.47916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G328" t="s">
         <v>48</v>
@@ -29835,7 +29835,7 @@
         <v>39</v>
       </c>
       <c r="G330" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H330">
         <v>1</v>
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7127721</v>
+        <v>7124230</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29918,49 +29918,49 @@
         <v>28</v>
       </c>
       <c r="E331" s="2">
-        <v>45402.375</v>
+        <v>45403.60416666666</v>
       </c>
       <c r="F331" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G331" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K331">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="L331">
+        <v>3.4</v>
+      </c>
+      <c r="M331">
+        <v>3.6</v>
+      </c>
+      <c r="N331">
+        <v>2.1</v>
+      </c>
+      <c r="O331">
+        <v>3.3</v>
+      </c>
+      <c r="P331">
         <v>3.5</v>
       </c>
-      <c r="M331">
-        <v>2.15</v>
-      </c>
-      <c r="N331">
-        <v>3.3</v>
-      </c>
-      <c r="O331">
-        <v>3.5</v>
-      </c>
-      <c r="P331">
-        <v>2.1</v>
-      </c>
       <c r="Q331">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S331">
+        <v>2.025</v>
+      </c>
+      <c r="T331">
+        <v>2.25</v>
+      </c>
+      <c r="U331">
         <v>1.85</v>
       </c>
-      <c r="T331">
-        <v>2.5</v>
-      </c>
-      <c r="U331">
-        <v>1.9</v>
-      </c>
       <c r="V331">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29975,598 +29975,6 @@
         <v>0</v>
       </c>
       <c r="AA331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:29">
-      <c r="A332" s="1">
-        <v>330</v>
-      </c>
-      <c r="B332">
-        <v>7127722</v>
-      </c>
-      <c r="C332" t="s">
-        <v>28</v>
-      </c>
-      <c r="D332" t="s">
-        <v>28</v>
-      </c>
-      <c r="E332" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F332" t="s">
-        <v>32</v>
-      </c>
-      <c r="G332" t="s">
-        <v>46</v>
-      </c>
-      <c r="K332">
-        <v>2.45</v>
-      </c>
-      <c r="L332">
-        <v>3.5</v>
-      </c>
-      <c r="M332">
-        <v>2.7</v>
-      </c>
-      <c r="N332">
-        <v>2.45</v>
-      </c>
-      <c r="O332">
-        <v>3.5</v>
-      </c>
-      <c r="P332">
-        <v>2.7</v>
-      </c>
-      <c r="Q332">
-        <v>0</v>
-      </c>
-      <c r="R332">
-        <v>1.85</v>
-      </c>
-      <c r="S332">
-        <v>2</v>
-      </c>
-      <c r="T332">
-        <v>2.75</v>
-      </c>
-      <c r="U332">
-        <v>1.95</v>
-      </c>
-      <c r="V332">
-        <v>1.9</v>
-      </c>
-      <c r="W332">
-        <v>0</v>
-      </c>
-      <c r="X332">
-        <v>0</v>
-      </c>
-      <c r="Y332">
-        <v>0</v>
-      </c>
-      <c r="Z332">
-        <v>0</v>
-      </c>
-      <c r="AA332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:29">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333">
-        <v>7127611</v>
-      </c>
-      <c r="C333" t="s">
-        <v>28</v>
-      </c>
-      <c r="D333" t="s">
-        <v>28</v>
-      </c>
-      <c r="E333" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F333" t="s">
-        <v>35</v>
-      </c>
-      <c r="G333" t="s">
-        <v>33</v>
-      </c>
-      <c r="K333">
-        <v>1.363</v>
-      </c>
-      <c r="L333">
-        <v>5.5</v>
-      </c>
-      <c r="M333">
-        <v>7</v>
-      </c>
-      <c r="N333">
-        <v>1.4</v>
-      </c>
-      <c r="O333">
-        <v>5</v>
-      </c>
-      <c r="P333">
-        <v>6.5</v>
-      </c>
-      <c r="Q333">
-        <v>-1.25</v>
-      </c>
-      <c r="R333">
-        <v>1.825</v>
-      </c>
-      <c r="S333">
-        <v>2.025</v>
-      </c>
-      <c r="T333">
-        <v>3.25</v>
-      </c>
-      <c r="U333">
-        <v>2.025</v>
-      </c>
-      <c r="V333">
-        <v>1.825</v>
-      </c>
-      <c r="W333">
-        <v>0</v>
-      </c>
-      <c r="X333">
-        <v>0</v>
-      </c>
-      <c r="Y333">
-        <v>0</v>
-      </c>
-      <c r="Z333">
-        <v>0</v>
-      </c>
-      <c r="AA333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:29">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334">
-        <v>7127610</v>
-      </c>
-      <c r="C334" t="s">
-        <v>28</v>
-      </c>
-      <c r="D334" t="s">
-        <v>28</v>
-      </c>
-      <c r="E334" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F334" t="s">
-        <v>38</v>
-      </c>
-      <c r="G334" t="s">
-        <v>42</v>
-      </c>
-      <c r="K334">
-        <v>2</v>
-      </c>
-      <c r="L334">
-        <v>3.6</v>
-      </c>
-      <c r="M334">
-        <v>3.5</v>
-      </c>
-      <c r="N334">
-        <v>2</v>
-      </c>
-      <c r="O334">
-        <v>3.4</v>
-      </c>
-      <c r="P334">
-        <v>3.75</v>
-      </c>
-      <c r="Q334">
-        <v>-0.5</v>
-      </c>
-      <c r="R334">
-        <v>2.025</v>
-      </c>
-      <c r="S334">
-        <v>1.825</v>
-      </c>
-      <c r="T334">
-        <v>2.75</v>
-      </c>
-      <c r="U334">
-        <v>1.925</v>
-      </c>
-      <c r="V334">
-        <v>1.925</v>
-      </c>
-      <c r="W334">
-        <v>0</v>
-      </c>
-      <c r="X334">
-        <v>0</v>
-      </c>
-      <c r="Y334">
-        <v>0</v>
-      </c>
-      <c r="Z334">
-        <v>0</v>
-      </c>
-      <c r="AA334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:29">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335">
-        <v>7127723</v>
-      </c>
-      <c r="C335" t="s">
-        <v>28</v>
-      </c>
-      <c r="D335" t="s">
-        <v>28</v>
-      </c>
-      <c r="E335" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F335" t="s">
-        <v>29</v>
-      </c>
-      <c r="G335" t="s">
-        <v>47</v>
-      </c>
-      <c r="K335">
-        <v>2.55</v>
-      </c>
-      <c r="L335">
-        <v>3.5</v>
-      </c>
-      <c r="M335">
-        <v>2.625</v>
-      </c>
-      <c r="N335">
-        <v>2.6</v>
-      </c>
-      <c r="O335">
-        <v>3.3</v>
-      </c>
-      <c r="P335">
-        <v>2.7</v>
-      </c>
-      <c r="Q335">
-        <v>0</v>
-      </c>
-      <c r="R335">
-        <v>1.875</v>
-      </c>
-      <c r="S335">
-        <v>1.975</v>
-      </c>
-      <c r="T335">
-        <v>2.5</v>
-      </c>
-      <c r="U335">
-        <v>1.875</v>
-      </c>
-      <c r="V335">
-        <v>1.975</v>
-      </c>
-      <c r="W335">
-        <v>0</v>
-      </c>
-      <c r="X335">
-        <v>0</v>
-      </c>
-      <c r="Y335">
-        <v>0</v>
-      </c>
-      <c r="Z335">
-        <v>0</v>
-      </c>
-      <c r="AA335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:29">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="B336">
-        <v>7123378</v>
-      </c>
-      <c r="C336" t="s">
-        <v>28</v>
-      </c>
-      <c r="D336" t="s">
-        <v>28</v>
-      </c>
-      <c r="E336" s="2">
-        <v>45402.47916666666</v>
-      </c>
-      <c r="F336" t="s">
-        <v>41</v>
-      </c>
-      <c r="G336" t="s">
-        <v>40</v>
-      </c>
-      <c r="K336">
-        <v>1.7</v>
-      </c>
-      <c r="L336">
-        <v>4</v>
-      </c>
-      <c r="M336">
-        <v>4.5</v>
-      </c>
-      <c r="N336">
-        <v>1.7</v>
-      </c>
-      <c r="O336">
-        <v>4</v>
-      </c>
-      <c r="P336">
-        <v>4.5</v>
-      </c>
-      <c r="Q336">
-        <v>-0.75</v>
-      </c>
-      <c r="R336">
-        <v>1.875</v>
-      </c>
-      <c r="S336">
-        <v>1.975</v>
-      </c>
-      <c r="T336">
-        <v>3</v>
-      </c>
-      <c r="U336">
-        <v>2</v>
-      </c>
-      <c r="V336">
-        <v>1.85</v>
-      </c>
-      <c r="W336">
-        <v>0</v>
-      </c>
-      <c r="X336">
-        <v>0</v>
-      </c>
-      <c r="Y336">
-        <v>0</v>
-      </c>
-      <c r="Z336">
-        <v>0</v>
-      </c>
-      <c r="AA336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="B337">
-        <v>7133264</v>
-      </c>
-      <c r="C337" t="s">
-        <v>28</v>
-      </c>
-      <c r="D337" t="s">
-        <v>28</v>
-      </c>
-      <c r="E337" s="2">
-        <v>45403.35416666666</v>
-      </c>
-      <c r="F337" t="s">
-        <v>45</v>
-      </c>
-      <c r="G337" t="s">
-        <v>48</v>
-      </c>
-      <c r="K337">
-        <v>2.15</v>
-      </c>
-      <c r="L337">
-        <v>3.6</v>
-      </c>
-      <c r="M337">
-        <v>3.1</v>
-      </c>
-      <c r="N337">
-        <v>2.15</v>
-      </c>
-      <c r="O337">
-        <v>3.6</v>
-      </c>
-      <c r="P337">
-        <v>3.1</v>
-      </c>
-      <c r="Q337">
-        <v>-0.25</v>
-      </c>
-      <c r="R337">
-        <v>1.925</v>
-      </c>
-      <c r="S337">
-        <v>1.925</v>
-      </c>
-      <c r="T337">
-        <v>2.75</v>
-      </c>
-      <c r="U337">
-        <v>1.825</v>
-      </c>
-      <c r="V337">
-        <v>2.025</v>
-      </c>
-      <c r="W337">
-        <v>0</v>
-      </c>
-      <c r="X337">
-        <v>0</v>
-      </c>
-      <c r="Y337">
-        <v>0</v>
-      </c>
-      <c r="Z337">
-        <v>0</v>
-      </c>
-      <c r="AA337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27">
-      <c r="A338" s="1">
-        <v>336</v>
-      </c>
-      <c r="B338">
-        <v>7127612</v>
-      </c>
-      <c r="C338" t="s">
-        <v>28</v>
-      </c>
-      <c r="D338" t="s">
-        <v>28</v>
-      </c>
-      <c r="E338" s="2">
-        <v>45403.47916666666</v>
-      </c>
-      <c r="F338" t="s">
-        <v>31</v>
-      </c>
-      <c r="G338" t="s">
-        <v>37</v>
-      </c>
-      <c r="K338">
-        <v>1.444</v>
-      </c>
-      <c r="L338">
-        <v>4.5</v>
-      </c>
-      <c r="M338">
-        <v>7.5</v>
-      </c>
-      <c r="N338">
-        <v>1.45</v>
-      </c>
-      <c r="O338">
-        <v>4.333</v>
-      </c>
-      <c r="P338">
-        <v>7</v>
-      </c>
-      <c r="Q338">
-        <v>-1.25</v>
-      </c>
-      <c r="R338">
-        <v>2</v>
-      </c>
-      <c r="S338">
-        <v>1.85</v>
-      </c>
-      <c r="T338">
-        <v>2.75</v>
-      </c>
-      <c r="U338">
-        <v>1.875</v>
-      </c>
-      <c r="V338">
-        <v>1.975</v>
-      </c>
-      <c r="W338">
-        <v>0</v>
-      </c>
-      <c r="X338">
-        <v>0</v>
-      </c>
-      <c r="Y338">
-        <v>0</v>
-      </c>
-      <c r="Z338">
-        <v>0</v>
-      </c>
-      <c r="AA338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="B339">
-        <v>7124230</v>
-      </c>
-      <c r="C339" t="s">
-        <v>28</v>
-      </c>
-      <c r="D339" t="s">
-        <v>28</v>
-      </c>
-      <c r="E339" s="2">
-        <v>45403.60416666666</v>
-      </c>
-      <c r="F339" t="s">
-        <v>36</v>
-      </c>
-      <c r="G339" t="s">
-        <v>30</v>
-      </c>
-      <c r="K339">
-        <v>2.05</v>
-      </c>
-      <c r="L339">
-        <v>3.4</v>
-      </c>
-      <c r="M339">
-        <v>3.6</v>
-      </c>
-      <c r="N339">
-        <v>2.05</v>
-      </c>
-      <c r="O339">
-        <v>3.4</v>
-      </c>
-      <c r="P339">
-        <v>3.6</v>
-      </c>
-      <c r="Q339">
-        <v>-0.25</v>
-      </c>
-      <c r="R339">
-        <v>1.8</v>
-      </c>
-      <c r="S339">
-        <v>2.05</v>
-      </c>
-      <c r="T339">
-        <v>2.5</v>
-      </c>
-      <c r="U339">
-        <v>2</v>
-      </c>
-      <c r="V339">
-        <v>1.85</v>
-      </c>
-      <c r="W339">
-        <v>0</v>
-      </c>
-      <c r="X339">
-        <v>0</v>
-      </c>
-      <c r="Y339">
-        <v>0</v>
-      </c>
-      <c r="Z339">
-        <v>0</v>
-      </c>
-      <c r="AA339">
         <v>0</v>
       </c>
     </row>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -100,9 +100,6 @@
     <t>7218890</t>
   </si>
   <si>
-    <t>7221958</t>
-  </si>
-  <si>
     <t>7221961</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>7221959</t>
+  </si>
+  <si>
+    <t>7221958</t>
   </si>
   <si>
     <t>7218893</t>
@@ -133,9 +133,6 @@
     <t>Hallescher FC</t>
   </si>
   <si>
-    <t>Vfb Lubeck</t>
-  </si>
-  <si>
     <t>1860 Munich</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Jahn Regensburg</t>
+  </si>
+  <si>
+    <t>Vfb Lubeck</t>
   </si>
   <si>
     <t>Dynamo Dresden</t>
@@ -163,6 +163,9 @@
     <t>Sandhausen</t>
   </si>
   <si>
+    <t>Unterhaching</t>
+  </si>
+  <si>
     <t>FC Ingolstadt</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
   </si>
   <si>
     <t>Arminia Bielefeld</t>
-  </si>
-  <si>
-    <t>Unterhaching</t>
   </si>
   <si>
     <t>Waldhof Mannheim</t>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6881308</v>
+        <v>6880239</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -750,73 +750,73 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
+        <v>2.9</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3.6</v>
+      </c>
+      <c r="O3">
+        <v>3.25</v>
+      </c>
+      <c r="P3">
+        <v>-0.25</v>
+      </c>
+      <c r="Q3">
+        <v>1.775</v>
+      </c>
+      <c r="R3">
+        <v>2.025</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
         <v>1.8</v>
       </c>
-      <c r="M3">
-        <v>3.1</v>
-      </c>
-      <c r="N3">
-        <v>3.5</v>
-      </c>
-      <c r="O3">
-        <v>2.1</v>
-      </c>
-      <c r="P3">
-        <v>0.25</v>
-      </c>
-      <c r="Q3">
-        <v>1.95</v>
-      </c>
-      <c r="R3">
-        <v>1.85</v>
-      </c>
-      <c r="S3">
-        <v>2.75</v>
-      </c>
-      <c r="T3">
-        <v>1.925</v>
-      </c>
-      <c r="U3">
-        <v>1.875</v>
-      </c>
       <c r="V3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6880239</v>
+        <v>6881307</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -836,55 +836,55 @@
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>58</v>
       </c>
       <c r="J4">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K4">
         <v>3.5</v>
       </c>
       <c r="L4">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -893,16 +893,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6881307</v>
+        <v>6881586</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -922,37 +922,37 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5">
         <v>2.1</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q5">
         <v>1.875</v>
@@ -961,34 +961,34 @@
         <v>1.925</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6881586</v>
+        <v>6881588</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1008,25 +1008,25 @@
         <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>59</v>
       </c>
       <c r="J6">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>1.85</v>
@@ -1035,16 +1035,16 @@
         <v>3.6</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
         <v>-0.5</v>
       </c>
       <c r="Q6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
         <v>2.75</v>
@@ -1068,7 +1068,7 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6881588</v>
+        <v>6881308</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1094,73 +1094,73 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>59</v>
       </c>
       <c r="J7">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="M7">
+        <v>3.1</v>
+      </c>
+      <c r="N7">
+        <v>3.5</v>
+      </c>
+      <c r="O7">
+        <v>2.1</v>
+      </c>
+      <c r="P7">
+        <v>0.25</v>
+      </c>
+      <c r="Q7">
+        <v>1.95</v>
+      </c>
+      <c r="R7">
         <v>1.85</v>
-      </c>
-      <c r="N7">
-        <v>3.6</v>
-      </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
-      <c r="P7">
-        <v>-0.5</v>
-      </c>
-      <c r="Q7">
-        <v>1.9</v>
-      </c>
-      <c r="R7">
-        <v>1.9</v>
       </c>
       <c r="S7">
         <v>2.75</v>
       </c>
       <c r="T7">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z7">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1180,7 +1180,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1266,7 +1266,7 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6880352</v>
+        <v>6881311</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1610,55 +1610,55 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>58</v>
       </c>
       <c r="J13">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N13">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S13">
         <v>2.75</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>0.8</v>
+        <v>1.375</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1667,13 +1667,13 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6880507</v>
+        <v>6880352</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1696,73 +1696,73 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J14">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="K14">
+        <v>3.6</v>
+      </c>
+      <c r="L14">
         <v>3.4</v>
       </c>
-      <c r="L14">
-        <v>2.6</v>
-      </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O14">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S14">
         <v>2.75</v>
       </c>
       <c r="T14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6881590</v>
+        <v>6880507</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1782,37 +1782,37 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>60</v>
       </c>
       <c r="J15">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P15">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1836,7 +1836,7 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Y15">
         <v>-1</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6881592</v>
+        <v>6881590</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -1868,73 +1868,73 @@
         <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>1.666</v>
+      </c>
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16">
-        <v>1.75</v>
-      </c>
-      <c r="K16">
-        <v>3.6</v>
-      </c>
       <c r="L16">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O16">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
         <v>2.75</v>
       </c>
       <c r="T16">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6881311</v>
+        <v>6881592</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -1954,55 +1954,55 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>58</v>
       </c>
       <c r="J17">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K17">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P17">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R17">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
         <v>2.75</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2011,13 +2011,13 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2212,7 +2212,7 @@
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2458,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6881313</v>
+        <v>6880508</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2467,76 +2467,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J23">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L23">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M23">
+        <v>2.15</v>
+      </c>
+      <c r="N23">
+        <v>3.6</v>
+      </c>
+      <c r="O23">
         <v>2.8</v>
       </c>
-      <c r="N23">
-        <v>3.5</v>
-      </c>
-      <c r="O23">
-        <v>2.25</v>
-      </c>
       <c r="P23">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2544,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880508</v>
+        <v>6881313</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2553,76 +2553,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="K24">
+        <v>3.4</v>
+      </c>
+      <c r="L24">
+        <v>2.05</v>
+      </c>
+      <c r="M24">
+        <v>2.8</v>
+      </c>
+      <c r="N24">
         <v>3.5</v>
       </c>
-      <c r="L24">
-        <v>2.6</v>
-      </c>
-      <c r="M24">
-        <v>2.15</v>
-      </c>
-      <c r="N24">
-        <v>3.6</v>
-      </c>
       <c r="O24">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="P24">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q24">
+        <v>1.825</v>
+      </c>
+      <c r="R24">
+        <v>1.975</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
         <v>1.95</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>1.85</v>
       </c>
-      <c r="S24">
-        <v>2.75</v>
-      </c>
-      <c r="T24">
+      <c r="V24">
         <v>1.8</v>
       </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>-1</v>
-      </c>
       <c r="W24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z24">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2639,10 +2639,10 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2725,10 +2725,10 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2811,7 +2811,7 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
@@ -2888,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6881595</v>
+        <v>6881594</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -2897,76 +2897,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="K28">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L28">
         <v>4.75</v>
       </c>
       <c r="M28">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="N28">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O28">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>1.8</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
         <v>1.85</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>1.95</v>
       </c>
-      <c r="S28">
-        <v>2.75</v>
-      </c>
-      <c r="T28">
-        <v>1.95</v>
-      </c>
-      <c r="U28">
-        <v>1.85</v>
-      </c>
       <c r="V28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W28">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2983,7 +2983,7 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
         <v>57</v>
@@ -3060,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6881594</v>
+        <v>6880463</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -3069,59 +3069,59 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>58</v>
       </c>
       <c r="J30">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="K30">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M30">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N30">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
+        <v>2.75</v>
+      </c>
+      <c r="T30">
+        <v>1.975</v>
+      </c>
+      <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
         <v>1.8</v>
       </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
-      <c r="T30">
-        <v>1.85</v>
-      </c>
-      <c r="U30">
-        <v>1.95</v>
-      </c>
-      <c r="V30">
-        <v>0.75</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
@@ -3129,16 +3129,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
+        <v>0.4875</v>
+      </c>
+      <c r="AB30">
         <v>-0.5</v>
-      </c>
-      <c r="AA30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3146,7 +3146,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6880463</v>
+        <v>6881595</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -3155,76 +3155,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J31">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L31">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="M31">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N31">
         <v>3.4</v>
       </c>
       <c r="O31">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="P31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
         <v>2.75</v>
       </c>
       <c r="T31">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3241,7 +3241,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>45</v>
@@ -3327,10 +3327,10 @@
         <v>45164.375</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3413,7 +3413,7 @@
         <v>45164.375</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
         <v>47</v>
@@ -3671,10 +3671,10 @@
         <v>45164.375</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3760,7 +3760,7 @@
         <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3843,10 +3843,10 @@
         <v>45165.35416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4018,7 +4018,7 @@
         <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4101,7 +4101,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
         <v>55</v>
@@ -4273,7 +4273,7 @@
         <v>45171.375</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
         <v>54</v>
@@ -4362,7 +4362,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4448,7 +4448,7 @@
         <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4617,7 +4617,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
         <v>47</v>
@@ -4789,10 +4789,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4875,10 +4875,10 @@
         <v>45172.60416666666</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4961,7 +4961,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
         <v>56</v>
@@ -5050,7 +5050,7 @@
         <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6881608</v>
+        <v>6881610</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -5133,76 +5133,76 @@
         <v>45185.375</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J54">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="K54">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="M54">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O54">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q54">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
         <v>2.75</v>
       </c>
       <c r="T54">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y54">
+        <v>-0.5</v>
+      </c>
+      <c r="Z54">
+        <v>0.4375</v>
+      </c>
+      <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
         <v>1.025</v>
-      </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
-      <c r="AA54">
-        <v>0.45</v>
-      </c>
-      <c r="AB54">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5210,7 +5210,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6881607</v>
+        <v>6881608</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5219,76 +5219,76 @@
         <v>45185.375</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J55">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K55">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="M55">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="P55">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S55">
         <v>2.75</v>
       </c>
       <c r="T55">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5308,7 +5308,7 @@
         <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6881610</v>
+        <v>6881607</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -5391,55 +5391,55 @@
         <v>45185.375</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="s">
         <v>60</v>
       </c>
       <c r="J57">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="K57">
         <v>3.75</v>
       </c>
       <c r="L57">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N57">
         <v>3.8</v>
       </c>
       <c r="O57">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q57">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
         <v>2.75</v>
       </c>
       <c r="T57">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
         <v>-1</v>
@@ -5448,19 +5448,19 @@
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5477,10 +5477,10 @@
         <v>45185.47916666666</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5735,10 +5735,10 @@
         <v>45186.60416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5821,10 +5821,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
         <v>53</v>
-      </c>
-      <c r="F62" t="s">
-        <v>52</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5898,7 +5898,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880330</v>
+        <v>6880512</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
@@ -5907,76 +5907,76 @@
         <v>45192.375</v>
       </c>
       <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
         <v>51</v>
       </c>
-      <c r="F63" t="s">
-        <v>54</v>
-      </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J63">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="K63">
         <v>3.75</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="N63">
         <v>3.75</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T63">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W63">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5984,7 +5984,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6881615</v>
+        <v>6880330</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
@@ -5993,76 +5993,76 @@
         <v>45192.375</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J64">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="N64">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q64">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
         <v>-1</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X64">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6070,7 +6070,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6881612</v>
+        <v>6881615</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -6079,76 +6079,76 @@
         <v>45192.375</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K65">
         <v>3.6</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N65">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q65">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T65">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
         <v>-1</v>
       </c>
       <c r="W65">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6156,7 +6156,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6881318</v>
+        <v>6881612</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -6165,76 +6165,76 @@
         <v>45192.375</v>
       </c>
       <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s">
         <v>43</v>
-      </c>
-      <c r="F66" t="s">
-        <v>48</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J66">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="K66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N66">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>-0.75</v>
+      </c>
+      <c r="Q66">
+        <v>1.975</v>
+      </c>
+      <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
         <v>2.75</v>
       </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>1.8</v>
-      </c>
-      <c r="R66">
-        <v>2</v>
-      </c>
-      <c r="S66">
-        <v>2.5</v>
-      </c>
       <c r="T66">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
         <v>-1</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X66">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6242,7 +6242,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6880512</v>
+        <v>6881318</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -6251,76 +6251,76 @@
         <v>45192.375</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J67">
+        <v>2.15</v>
+      </c>
+      <c r="K67">
+        <v>3.5</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>2.4</v>
+      </c>
+      <c r="N67">
+        <v>3.3</v>
+      </c>
+      <c r="O67">
+        <v>2.75</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>1.8</v>
       </c>
-      <c r="K67">
-        <v>3.75</v>
-      </c>
-      <c r="L67">
-        <v>3.75</v>
-      </c>
-      <c r="M67">
-        <v>1.833</v>
-      </c>
-      <c r="N67">
-        <v>3.75</v>
-      </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
-      <c r="P67">
-        <v>-0.5</v>
-      </c>
-      <c r="Q67">
-        <v>1.875</v>
-      </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T67">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V67">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6340,7 +6340,7 @@
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6684,7 +6684,7 @@
         <v>55</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6767,10 +6767,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" t="s">
         <v>52</v>
-      </c>
-      <c r="F73" t="s">
-        <v>51</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6853,7 +6853,7 @@
         <v>45199.375</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
         <v>45</v>
@@ -6939,7 +6939,7 @@
         <v>45199.375</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
         <v>56</v>
@@ -7028,7 +7028,7 @@
         <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7111,10 +7111,10 @@
         <v>45199.375</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7283,7 +7283,7 @@
         <v>45199.47916666666</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
         <v>38</v>
@@ -7458,7 +7458,7 @@
         <v>55</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7544,7 +7544,7 @@
         <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7618,7 +7618,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6881322</v>
+        <v>6881321</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
@@ -7627,76 +7627,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J83">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="K83">
         <v>3.4</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="M83">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O83">
+        <v>2.1</v>
+      </c>
+      <c r="P83">
+        <v>0.25</v>
+      </c>
+      <c r="Q83">
+        <v>1.9</v>
+      </c>
+      <c r="R83">
+        <v>1.9</v>
+      </c>
+      <c r="S83">
         <v>2.75</v>
       </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1.75</v>
-      </c>
-      <c r="R83">
-        <v>2.05</v>
-      </c>
-      <c r="S83">
-        <v>2.5</v>
-      </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y83">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7704,7 +7704,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6881623</v>
+        <v>6880358</v>
       </c>
       <c r="C84" t="s">
         <v>37</v>
@@ -7713,49 +7713,49 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J84">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L84">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="M84">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="P84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T84">
         <v>1.875</v>
@@ -7764,19 +7764,19 @@
         <v>1.925</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7802,7 +7802,7 @@
         <v>56</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7876,7 +7876,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6881321</v>
+        <v>6881623</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
@@ -7885,76 +7885,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J86">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="K86">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L86">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N86">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O86">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="P86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q86">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T86">
+        <v>1.875</v>
+      </c>
+      <c r="U86">
         <v>1.925</v>
       </c>
-      <c r="U86">
-        <v>1.875</v>
-      </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X86">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7962,7 +7962,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6880358</v>
+        <v>6881322</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -7971,10 +7971,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7986,43 +7986,43 @@
         <v>58</v>
       </c>
       <c r="J87">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K87">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L87">
+        <v>2.875</v>
+      </c>
+      <c r="M87">
+        <v>2.3</v>
+      </c>
+      <c r="N87">
+        <v>3.3</v>
+      </c>
+      <c r="O87">
+        <v>2.75</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>1.75</v>
+      </c>
+      <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
         <v>2.5</v>
       </c>
-      <c r="M87">
-        <v>2.1</v>
-      </c>
-      <c r="N87">
-        <v>3.75</v>
-      </c>
-      <c r="O87">
-        <v>2.875</v>
-      </c>
-      <c r="P87">
-        <v>-0.25</v>
-      </c>
-      <c r="Q87">
-        <v>1.925</v>
-      </c>
-      <c r="R87">
-        <v>1.875</v>
-      </c>
-      <c r="S87">
-        <v>2.75</v>
-      </c>
       <c r="T87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8031,7 +8031,7 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="Z87">
         <v>-1</v>
@@ -8040,7 +8040,7 @@
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8048,7 +8048,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6881621</v>
+        <v>6880332</v>
       </c>
       <c r="C88" t="s">
         <v>37</v>
@@ -8057,58 +8057,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G88">
         <v>2</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
         <v>58</v>
       </c>
       <c r="J88">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="K88">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="N88">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P88">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>0.444</v>
+        <v>1.05</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8117,16 +8117,16 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z88">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8134,7 +8134,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6880332</v>
+        <v>6881621</v>
       </c>
       <c r="C89" t="s">
         <v>37</v>
@@ -8143,58 +8143,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>2</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="s">
         <v>58</v>
       </c>
       <c r="J89">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="K89">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M89">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P89">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.05</v>
+        <v>0.444</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8203,16 +8203,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8229,7 +8229,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
         <v>47</v>
@@ -8315,7 +8315,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
         <v>57</v>
@@ -8573,7 +8573,7 @@
         <v>45206.375</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94" t="s">
         <v>55</v>
@@ -8659,7 +8659,7 @@
         <v>45206.375</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
         <v>44</v>
@@ -8745,10 +8745,10 @@
         <v>45206.375</v>
       </c>
       <c r="E96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F96" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>54</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -9003,7 +9003,7 @@
         <v>45207.35416666666</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
         <v>46</v>
@@ -9092,7 +9092,7 @@
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9175,10 +9175,10 @@
         <v>45207.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9347,10 +9347,10 @@
         <v>45213.375</v>
       </c>
       <c r="E103" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103" t="s">
         <v>43</v>
-      </c>
-      <c r="F103" t="s">
-        <v>39</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9433,7 +9433,7 @@
         <v>45213.375</v>
       </c>
       <c r="E104" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F104" t="s">
         <v>48</v>
@@ -9522,7 +9522,7 @@
         <v>56</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45213.375</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
         <v>47</v>
@@ -9691,7 +9691,7 @@
         <v>45213.47916666666</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F107" t="s">
         <v>54</v>
@@ -9863,10 +9863,10 @@
         <v>45214.47916666666</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10035,10 +10035,10 @@
         <v>45220.375</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -10124,7 +10124,7 @@
         <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10207,7 +10207,7 @@
         <v>45220.375</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
         <v>46</v>
@@ -10296,7 +10296,7 @@
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10379,10 +10379,10 @@
         <v>45220.375</v>
       </c>
       <c r="E115" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" t="s">
         <v>49</v>
-      </c>
-      <c r="F115" t="s">
-        <v>53</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10465,10 +10465,10 @@
         <v>45220.47916666666</v>
       </c>
       <c r="E116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>57</v>
       </c>
       <c r="F118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10809,7 +10809,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F120" t="s">
         <v>54</v>
@@ -10895,10 +10895,10 @@
         <v>45227.375</v>
       </c>
       <c r="E121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G121">
         <v>4</v>
@@ -10981,7 +10981,7 @@
         <v>45227.375</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F122" t="s">
         <v>57</v>
@@ -11153,10 +11153,10 @@
         <v>45227.375</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11325,10 +11325,10 @@
         <v>45227.47916666666</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11414,7 +11414,7 @@
         <v>56</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -11672,7 +11672,7 @@
         <v>57</v>
       </c>
       <c r="F130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11758,7 +11758,7 @@
         <v>48</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11927,10 +11927,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -12013,10 +12013,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12099,7 +12099,7 @@
         <v>45234.52083333334</v>
       </c>
       <c r="E135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F135" t="s">
         <v>55</v>
@@ -12188,7 +12188,7 @@
         <v>54</v>
       </c>
       <c r="F136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>45235.52083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
         <v>45</v>
@@ -12360,7 +12360,7 @@
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12443,7 +12443,7 @@
         <v>45240.625</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
         <v>44</v>
@@ -12529,7 +12529,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F140" t="s">
         <v>48</v>
@@ -12615,7 +12615,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F141" t="s">
         <v>47</v>
@@ -12701,10 +12701,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12873,10 +12873,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E144" t="s">
+        <v>51</v>
+      </c>
+      <c r="F144" t="s">
         <v>50</v>
-      </c>
-      <c r="F144" t="s">
-        <v>49</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12962,7 +12962,7 @@
         <v>55</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13048,7 +13048,7 @@
         <v>46</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13217,7 +13217,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
         <v>45</v>
@@ -13389,7 +13389,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F150" t="s">
         <v>57</v>
@@ -13475,10 +13475,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13736,7 +13736,7 @@
         <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13905,10 +13905,10 @@
         <v>45256.39583333334</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13994,7 +13994,7 @@
         <v>44</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -14077,10 +14077,10 @@
         <v>45256.64583333334</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14249,10 +14249,10 @@
         <v>45259.625</v>
       </c>
       <c r="E160" t="s">
+        <v>52</v>
+      </c>
+      <c r="F160" t="s">
         <v>51</v>
-      </c>
-      <c r="F160" t="s">
-        <v>50</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14335,10 +14335,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14507,10 +14507,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14593,7 +14593,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F164" t="s">
         <v>47</v>
@@ -14682,7 +14682,7 @@
         <v>54</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14765,7 +14765,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
         <v>45</v>
@@ -14937,7 +14937,7 @@
         <v>45263.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
         <v>46</v>
@@ -15026,7 +15026,7 @@
         <v>55</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -15112,7 +15112,7 @@
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15198,7 +15198,7 @@
         <v>46</v>
       </c>
       <c r="F171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15453,10 +15453,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15542,7 +15542,7 @@
         <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15625,10 +15625,10 @@
         <v>45270.39583333334</v>
       </c>
       <c r="E176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15714,7 +15714,7 @@
         <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15797,7 +15797,7 @@
         <v>45270.64583333334</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
         <v>56</v>
@@ -15886,7 +15886,7 @@
         <v>57</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15969,10 +15969,10 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -16313,7 +16313,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F184" t="s">
         <v>48</v>
@@ -16399,10 +16399,10 @@
         <v>45276.52083333334</v>
       </c>
       <c r="E185" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G185">
         <v>3</v>
@@ -16485,7 +16485,7 @@
         <v>45277.39583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F186" t="s">
         <v>44</v>
@@ -16571,10 +16571,10 @@
         <v>45277.52083333334</v>
       </c>
       <c r="E187" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16657,7 +16657,7 @@
         <v>45277.64583333334</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
         <v>46</v>
@@ -16746,7 +16746,7 @@
         <v>48</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16829,7 +16829,7 @@
         <v>45279.625</v>
       </c>
       <c r="E190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F190" t="s">
         <v>47</v>
@@ -16915,7 +16915,7 @@
         <v>45279.625</v>
       </c>
       <c r="E191" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F191" t="s">
         <v>45</v>
@@ -17001,10 +17001,10 @@
         <v>45279.625</v>
       </c>
       <c r="E192" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -17176,7 +17176,7 @@
         <v>56</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17262,7 +17262,7 @@
         <v>54</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17345,7 +17345,7 @@
         <v>45280.625</v>
       </c>
       <c r="E196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F196" t="s">
         <v>44</v>
@@ -17431,7 +17431,7 @@
         <v>45280.625</v>
       </c>
       <c r="E197" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F197" t="s">
         <v>46</v>
@@ -17606,7 +17606,7 @@
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17689,7 +17689,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F200" t="s">
         <v>54</v>
@@ -17775,7 +17775,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F201" t="s">
         <v>56</v>
@@ -17947,10 +17947,10 @@
         <v>45311.52083333334</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G203">
         <v>4</v>
@@ -18033,10 +18033,10 @@
         <v>45312.39583333334</v>
       </c>
       <c r="E204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18122,7 +18122,7 @@
         <v>45</v>
       </c>
       <c r="F205" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18282,7 +18282,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6880524</v>
+        <v>6880344</v>
       </c>
       <c r="C207" t="s">
         <v>37</v>
@@ -18291,55 +18291,55 @@
         <v>45314.625</v>
       </c>
       <c r="E207" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="s">
         <v>60</v>
       </c>
       <c r="J207">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="K207">
+        <v>3.75</v>
+      </c>
+      <c r="L207">
+        <v>1.615</v>
+      </c>
+      <c r="M207">
+        <v>4</v>
+      </c>
+      <c r="N207">
         <v>3.4</v>
       </c>
-      <c r="L207">
-        <v>2.9</v>
-      </c>
-      <c r="M207">
-        <v>2.05</v>
-      </c>
-      <c r="N207">
-        <v>3.6</v>
-      </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="P207">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q207">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R207">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S207">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T207">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U207">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V207">
         <v>-1</v>
@@ -18348,19 +18348,19 @@
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.1</v>
+        <v>0.833</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA207">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18368,7 +18368,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6880344</v>
+        <v>6881684</v>
       </c>
       <c r="C208" t="s">
         <v>37</v>
@@ -18377,76 +18377,76 @@
         <v>45314.625</v>
       </c>
       <c r="E208" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J208">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="K208">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L208">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N208">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O208">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="P208">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q208">
+        <v>1.95</v>
+      </c>
+      <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>2.75</v>
+      </c>
+      <c r="T208">
         <v>1.9</v>
       </c>
-      <c r="R208">
+      <c r="U208">
         <v>1.9</v>
       </c>
-      <c r="S208">
-        <v>2.5</v>
-      </c>
-      <c r="T208">
-        <v>1.925</v>
-      </c>
-      <c r="U208">
-        <v>1.875</v>
-      </c>
       <c r="V208">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
       <c r="AB208">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18454,7 +18454,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6881685</v>
+        <v>6880524</v>
       </c>
       <c r="C209" t="s">
         <v>37</v>
@@ -18463,76 +18463,76 @@
         <v>45314.625</v>
       </c>
       <c r="E209" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J209">
+        <v>2.2</v>
+      </c>
+      <c r="K209">
+        <v>3.4</v>
+      </c>
+      <c r="L209">
+        <v>2.9</v>
+      </c>
+      <c r="M209">
+        <v>2.05</v>
+      </c>
+      <c r="N209">
+        <v>3.6</v>
+      </c>
+      <c r="O209">
+        <v>3.1</v>
+      </c>
+      <c r="P209">
+        <v>-0.25</v>
+      </c>
+      <c r="Q209">
+        <v>1.825</v>
+      </c>
+      <c r="R209">
+        <v>2.025</v>
+      </c>
+      <c r="S209">
         <v>2.75</v>
       </c>
-      <c r="K209">
-        <v>3.5</v>
-      </c>
-      <c r="L209">
-        <v>2.25</v>
-      </c>
-      <c r="M209">
-        <v>3</v>
-      </c>
-      <c r="N209">
-        <v>3.4</v>
-      </c>
-      <c r="O209">
-        <v>2.15</v>
-      </c>
-      <c r="P209">
-        <v>0.25</v>
-      </c>
-      <c r="Q209">
-        <v>1.875</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
-      <c r="S209">
-        <v>2.5</v>
-      </c>
       <c r="T209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
         <v>-1</v>
       </c>
       <c r="W209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y209">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18540,7 +18540,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6881688</v>
+        <v>6881685</v>
       </c>
       <c r="C210" t="s">
         <v>37</v>
@@ -18549,34 +18549,34 @@
         <v>45314.625</v>
       </c>
       <c r="E210" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="s">
         <v>59</v>
       </c>
       <c r="J210">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="K210">
+        <v>3.5</v>
+      </c>
+      <c r="L210">
+        <v>2.25</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
         <v>3.4</v>
-      </c>
-      <c r="L210">
-        <v>2.4</v>
-      </c>
-      <c r="M210">
-        <v>2.9</v>
-      </c>
-      <c r="N210">
-        <v>3.5</v>
       </c>
       <c r="O210">
         <v>2.15</v>
@@ -18585,31 +18585,31 @@
         <v>0.25</v>
       </c>
       <c r="Q210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
         <v>2.5</v>
       </c>
       <c r="T210">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U210">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
         <v>-1</v>
       </c>
       <c r="W210">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="Z210">
         <v>-0.5</v>
@@ -18618,7 +18618,7 @@
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18626,7 +18626,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6881684</v>
+        <v>6881688</v>
       </c>
       <c r="C211" t="s">
         <v>37</v>
@@ -18635,76 +18635,76 @@
         <v>45314.625</v>
       </c>
       <c r="E211" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J211">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="K211">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="M211">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N211">
         <v>3.5</v>
       </c>
       <c r="O211">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="P211">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T211">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18712,7 +18712,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6880480</v>
+        <v>6880370</v>
       </c>
       <c r="C212" t="s">
         <v>37</v>
@@ -18721,19 +18721,19 @@
         <v>45315.625</v>
       </c>
       <c r="E212" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F212" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G212">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J212">
         <v>2</v>
@@ -18745,52 +18745,52 @@
         <v>3.25</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="N212">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P212">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q212">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R212">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S212">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T212">
+        <v>1.85</v>
+      </c>
+      <c r="U212">
         <v>1.95</v>
       </c>
-      <c r="U212">
-        <v>1.9</v>
-      </c>
       <c r="V212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18798,7 +18798,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6880370</v>
+        <v>6880480</v>
       </c>
       <c r="C213" t="s">
         <v>37</v>
@@ -18807,19 +18807,19 @@
         <v>45315.625</v>
       </c>
       <c r="E213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G213">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J213">
         <v>2</v>
@@ -18831,52 +18831,52 @@
         <v>3.25</v>
       </c>
       <c r="M213">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N213">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O213">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q213">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T213">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W213">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18893,7 +18893,7 @@
         <v>45315.625</v>
       </c>
       <c r="E214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F214" t="s">
         <v>45</v>
@@ -18979,7 +18979,7 @@
         <v>45315.625</v>
       </c>
       <c r="E215" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F215" t="s">
         <v>46</v>
@@ -19068,7 +19068,7 @@
         <v>55</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19237,10 +19237,10 @@
         <v>45318.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F218" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19323,10 +19323,10 @@
         <v>45318.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F219" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19495,10 +19495,10 @@
         <v>45318.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -19584,7 +19584,7 @@
         <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19670,7 +19670,7 @@
         <v>47</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19753,7 +19753,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
         <v>57</v>
@@ -19839,7 +19839,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F225" t="s">
         <v>48</v>
@@ -20014,7 +20014,7 @@
         <v>55</v>
       </c>
       <c r="F227" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -20186,7 +20186,7 @@
         <v>47</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -20269,7 +20269,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F230" t="s">
         <v>45</v>
@@ -20441,7 +20441,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F232" t="s">
         <v>56</v>
@@ -20527,10 +20527,10 @@
         <v>45325.52083333334</v>
       </c>
       <c r="E233" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -20613,7 +20613,7 @@
         <v>45326.39583333334</v>
       </c>
       <c r="E234" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F234" t="s">
         <v>44</v>
@@ -20702,7 +20702,7 @@
         <v>54</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20785,10 +20785,10 @@
         <v>45326.64583333334</v>
       </c>
       <c r="E236" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -20871,7 +20871,7 @@
         <v>45328.625</v>
       </c>
       <c r="E237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F237" t="s">
         <v>57</v>
@@ -20957,7 +20957,7 @@
         <v>45329.625</v>
       </c>
       <c r="E238" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F238" t="s">
         <v>38</v>
@@ -21043,7 +21043,7 @@
         <v>45331.625</v>
       </c>
       <c r="E239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F239" t="s">
         <v>55</v>
@@ -21215,7 +21215,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E241" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s">
         <v>48</v>
@@ -21304,7 +21304,7 @@
         <v>56</v>
       </c>
       <c r="F242" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21387,7 +21387,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E243" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F243" t="s">
         <v>57</v>
@@ -21476,7 +21476,7 @@
         <v>44</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G244">
         <v>7</v>
@@ -21562,7 +21562,7 @@
         <v>46</v>
       </c>
       <c r="F245" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -21731,10 +21731,10 @@
         <v>45333.52083333334</v>
       </c>
       <c r="E247" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21820,7 +21820,7 @@
         <v>55</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21903,7 +21903,7 @@
         <v>45338.625</v>
       </c>
       <c r="E249" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F249" t="s">
         <v>46</v>
@@ -22075,10 +22075,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E251" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F251" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22161,10 +22161,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E252" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -22250,7 +22250,7 @@
         <v>48</v>
       </c>
       <c r="F253" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G253">
         <v>6</v>
@@ -22419,10 +22419,10 @@
         <v>45339.52083333334</v>
       </c>
       <c r="E255" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F255" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -22508,7 +22508,7 @@
         <v>54</v>
       </c>
       <c r="F256" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>45340.64583333334</v>
       </c>
       <c r="E258" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F258" t="s">
         <v>38</v>
@@ -22763,10 +22763,10 @@
         <v>45343.625</v>
       </c>
       <c r="E259" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F259" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -22849,10 +22849,10 @@
         <v>45345.625</v>
       </c>
       <c r="E260" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F260" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G260">
         <v>3</v>
@@ -22935,7 +22935,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E261" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F261" t="s">
         <v>48</v>
@@ -23107,7 +23107,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E263" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F263" t="s">
         <v>47</v>
@@ -23193,7 +23193,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F264" t="s">
         <v>55</v>
@@ -23282,7 +23282,7 @@
         <v>45</v>
       </c>
       <c r="F265" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23368,7 +23368,7 @@
         <v>56</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -23454,7 +23454,7 @@
         <v>38</v>
       </c>
       <c r="F267" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G267">
         <v>3</v>
@@ -23537,10 +23537,10 @@
         <v>45347.52083333334</v>
       </c>
       <c r="E268" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F268" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23881,7 +23881,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F272" t="s">
         <v>45</v>
@@ -23967,10 +23967,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E273" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F273" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -24056,7 +24056,7 @@
         <v>47</v>
       </c>
       <c r="F274" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G274">
         <v>2</v>
@@ -24142,7 +24142,7 @@
         <v>54</v>
       </c>
       <c r="F275" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G275">
         <v>3</v>
@@ -24228,7 +24228,7 @@
         <v>57</v>
       </c>
       <c r="F276" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -24311,10 +24311,10 @@
         <v>45354.39583333334</v>
       </c>
       <c r="E277" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -24397,7 +24397,7 @@
         <v>45354.52083333334</v>
       </c>
       <c r="E278" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F278" t="s">
         <v>56</v>
@@ -24483,7 +24483,7 @@
         <v>45354.64583333334</v>
       </c>
       <c r="E279" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F279" t="s">
         <v>55</v>
@@ -24572,7 +24572,7 @@
         <v>44</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G280">
         <v>2</v>
@@ -24655,7 +24655,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F281" t="s">
         <v>47</v>
@@ -24741,7 +24741,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F282" t="s">
         <v>54</v>
@@ -24827,10 +24827,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E283" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F283" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -24916,7 +24916,7 @@
         <v>55</v>
       </c>
       <c r="F284" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -25002,7 +25002,7 @@
         <v>46</v>
       </c>
       <c r="F285" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G285">
         <v>3</v>
@@ -25085,7 +25085,7 @@
         <v>45360.52083333334</v>
       </c>
       <c r="E286" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F286" t="s">
         <v>38</v>
@@ -25171,10 +25171,10 @@
         <v>45361.39583333334</v>
       </c>
       <c r="E287" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F287" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -25432,7 +25432,7 @@
         <v>54</v>
       </c>
       <c r="F290" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -25515,10 +25515,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E291" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F291" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25601,10 +25601,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E292" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F292" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G292">
         <v>2</v>
@@ -25687,10 +25687,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E293" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F293" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -25862,7 +25862,7 @@
         <v>47</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G295">
         <v>2</v>
@@ -26120,7 +26120,7 @@
         <v>48</v>
       </c>
       <c r="F298" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -26203,7 +26203,7 @@
         <v>45368.64583333334</v>
       </c>
       <c r="E299" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F299" t="s">
         <v>56</v>
@@ -26461,7 +26461,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E302" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F302" t="s">
         <v>44</v>
@@ -26547,7 +26547,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E303" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F303" t="s">
         <v>38</v>
@@ -26633,10 +26633,10 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E304" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>46</v>
       </c>
       <c r="F305" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -26805,10 +26805,10 @@
         <v>45382.35416666666</v>
       </c>
       <c r="E306" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F306" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -26977,10 +26977,10 @@
         <v>45382.60416666666</v>
       </c>
       <c r="E308" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F308" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G308">
         <v>2</v>
@@ -27063,10 +27063,10 @@
         <v>45387.58333333334</v>
       </c>
       <c r="E309" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F309" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G309">
         <v>1</v>
@@ -27235,7 +27235,7 @@
         <v>45388.375</v>
       </c>
       <c r="E311" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F311" t="s">
         <v>56</v>
@@ -27407,10 +27407,10 @@
         <v>45388.375</v>
       </c>
       <c r="E313" t="s">
+        <v>41</v>
+      </c>
+      <c r="F313" t="s">
         <v>42</v>
-      </c>
-      <c r="F313" t="s">
-        <v>43</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -27493,10 +27493,10 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E314" t="s">
+        <v>39</v>
+      </c>
+      <c r="F314" t="s">
         <v>40</v>
-      </c>
-      <c r="F314" t="s">
-        <v>41</v>
       </c>
       <c r="G314">
         <v>3</v>
@@ -27582,7 +27582,7 @@
         <v>54</v>
       </c>
       <c r="F315" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G315">
         <v>6</v>
@@ -27668,7 +27668,7 @@
         <v>44</v>
       </c>
       <c r="F316" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G316">
         <v>1</v>
@@ -27754,7 +27754,7 @@
         <v>57</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G317">
         <v>4</v>
@@ -27923,10 +27923,10 @@
         <v>45392.58333333334</v>
       </c>
       <c r="E319" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F319" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G319">
         <v>2</v>
@@ -28009,7 +28009,7 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E320" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F320" t="s">
         <v>54</v>
@@ -28098,7 +28098,7 @@
         <v>45</v>
       </c>
       <c r="F321" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G321">
         <v>2</v>
@@ -28181,7 +28181,7 @@
         <v>45395.375</v>
       </c>
       <c r="E322" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F322" t="s">
         <v>38</v>
@@ -28270,7 +28270,7 @@
         <v>55</v>
       </c>
       <c r="F323" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G323">
         <v>1</v>
@@ -28439,10 +28439,10 @@
         <v>45395.375</v>
       </c>
       <c r="E325" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F325" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G325">
         <v>4</v>
@@ -28525,7 +28525,7 @@
         <v>45395.47916666666</v>
       </c>
       <c r="E326" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F326" t="s">
         <v>48</v>
@@ -28611,10 +28611,10 @@
         <v>45396.35416666666</v>
       </c>
       <c r="E327" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F327" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -28697,7 +28697,7 @@
         <v>45396.47916666666</v>
       </c>
       <c r="E328" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F328" t="s">
         <v>57</v>
@@ -28872,7 +28872,7 @@
         <v>48</v>
       </c>
       <c r="F330" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G330">
         <v>1</v>
@@ -28955,10 +28955,10 @@
         <v>45402.375</v>
       </c>
       <c r="E331" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F331" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G331">
         <v>1</v>
@@ -29041,7 +29041,7 @@
         <v>45402.375</v>
       </c>
       <c r="E332" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F332" t="s">
         <v>55</v>
@@ -29216,7 +29216,7 @@
         <v>47</v>
       </c>
       <c r="F334" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G334">
         <v>2</v>
@@ -29302,7 +29302,7 @@
         <v>44</v>
       </c>
       <c r="F335" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G335">
         <v>0</v>
@@ -29385,10 +29385,10 @@
         <v>45402.47916666666</v>
       </c>
       <c r="E336" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F336" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G336">
         <v>2</v>
@@ -29557,7 +29557,7 @@
         <v>45403.47916666666</v>
       </c>
       <c r="E338" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F338" t="s">
         <v>46</v>
@@ -29646,7 +29646,7 @@
         <v>45</v>
       </c>
       <c r="F339" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G339">
         <v>1</v>
@@ -29729,7 +29729,7 @@
         <v>45406.58333333334</v>
       </c>
       <c r="E340" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F340" t="s">
         <v>57</v>
@@ -29815,10 +29815,10 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E341" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F341" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -29901,10 +29901,10 @@
         <v>45409.375</v>
       </c>
       <c r="E342" t="s">
+        <v>40</v>
+      </c>
+      <c r="F342" t="s">
         <v>41</v>
-      </c>
-      <c r="F342" t="s">
-        <v>42</v>
       </c>
       <c r="G342">
         <v>3</v>
@@ -29987,7 +29987,7 @@
         <v>45409.375</v>
       </c>
       <c r="E343" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F343" t="s">
         <v>48</v>
@@ -30073,7 +30073,7 @@
         <v>45409.375</v>
       </c>
       <c r="E344" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F344" t="s">
         <v>44</v>
@@ -30245,7 +30245,7 @@
         <v>45409.375</v>
       </c>
       <c r="E346" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F346" t="s">
         <v>38</v>
@@ -30420,7 +30420,7 @@
         <v>57</v>
       </c>
       <c r="F348" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G348">
         <v>4</v>
@@ -30589,10 +30589,10 @@
         <v>45410.60416666666</v>
       </c>
       <c r="E350" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F350" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G350">
         <v>2</v>
@@ -30675,10 +30675,10 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E351" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F351" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J351">
         <v>3</v>
@@ -30711,10 +30711,10 @@
         <v>2.5</v>
       </c>
       <c r="T351">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U351">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V351">
         <v>0</v>
@@ -30740,46 +30740,46 @@
         <v>45416.375</v>
       </c>
       <c r="E352" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F352" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J352">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="K352">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L352">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="M352">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N352">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O352">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="P352">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q352">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R352">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S352">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T352">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U352">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V352">
         <v>0</v>
@@ -30805,46 +30805,46 @@
         <v>45416.375</v>
       </c>
       <c r="E353" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F353" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J353">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="K353">
         <v>3.6</v>
       </c>
       <c r="L353">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="M353">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N353">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O353">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="P353">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q353">
+        <v>1.95</v>
+      </c>
+      <c r="R353">
         <v>1.9</v>
-      </c>
-      <c r="R353">
-        <v>1.95</v>
       </c>
       <c r="S353">
         <v>2.75</v>
       </c>
       <c r="T353">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U353">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V353">
         <v>0</v>
@@ -30870,46 +30870,46 @@
         <v>45416.375</v>
       </c>
       <c r="E354" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F354" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J354">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="K354">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L354">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="M354">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="N354">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O354">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="P354">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q354">
+        <v>1.9</v>
+      </c>
+      <c r="R354">
         <v>1.95</v>
       </c>
-      <c r="R354">
-        <v>1.9</v>
-      </c>
       <c r="S354">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T354">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U354">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V354">
         <v>0</v>
@@ -30935,46 +30935,46 @@
         <v>45416.375</v>
       </c>
       <c r="E355" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F355" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J355">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="K355">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="L355">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="M355">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="N355">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O355">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="P355">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q355">
+        <v>2</v>
+      </c>
+      <c r="R355">
+        <v>1.85</v>
+      </c>
+      <c r="S355">
+        <v>2.5</v>
+      </c>
+      <c r="T355">
         <v>1.9</v>
       </c>
-      <c r="R355">
+      <c r="U355">
         <v>1.95</v>
-      </c>
-      <c r="S355">
-        <v>2.75</v>
-      </c>
-      <c r="T355">
-        <v>1.875</v>
-      </c>
-      <c r="U355">
-        <v>1.975</v>
       </c>
       <c r="V355">
         <v>0</v>
@@ -31101,10 +31101,10 @@
         <v>3</v>
       </c>
       <c r="T357">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U357">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V357">
         <v>0</v>
@@ -31130,10 +31130,10 @@
         <v>45417.35416666666</v>
       </c>
       <c r="E358" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F358" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J358">
         <v>2.3</v>
@@ -31145,31 +31145,31 @@
         <v>2.8</v>
       </c>
       <c r="M358">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N358">
         <v>3.75</v>
       </c>
       <c r="O358">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P358">
         <v>-0.25</v>
       </c>
       <c r="Q358">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R358">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S358">
         <v>2.75</v>
       </c>
       <c r="T358">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U358">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V358">
         <v>0</v>
@@ -31198,7 +31198,7 @@
         <v>38</v>
       </c>
       <c r="F359" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J359">
         <v>2</v>
@@ -31210,22 +31210,22 @@
         <v>3.5</v>
       </c>
       <c r="M359">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N359">
         <v>3.6</v>
       </c>
       <c r="O359">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P359">
         <v>-0.5</v>
       </c>
       <c r="Q359">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R359">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S359">
         <v>2.75</v>
@@ -31260,7 +31260,7 @@
         <v>45417.60416666666</v>
       </c>
       <c r="E360" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F360" t="s">
         <v>54</v>
@@ -31275,22 +31275,22 @@
         <v>3.1</v>
       </c>
       <c r="M360">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N360">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O360">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="P360">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q360">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R360">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S360">
         <v>3</v>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -106,13 +106,13 @@
     <t>7251305</t>
   </si>
   <si>
+    <t>7251304</t>
+  </si>
+  <si>
     <t>7247912</t>
   </si>
   <si>
     <t>7247911</t>
-  </si>
-  <si>
-    <t>7251304</t>
   </si>
   <si>
     <t>7251303</t>
@@ -31562,10 +31562,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q361">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R361">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S361">
         <v>2.75</v>
@@ -31636,10 +31636,10 @@
         <v>2.75</v>
       </c>
       <c r="T362">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U362">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V362">
         <v>0</v>
@@ -31730,46 +31730,46 @@
         <v>45423.375</v>
       </c>
       <c r="E364" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F364" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J364">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="K364">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L364">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="M364">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="N364">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O364">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="P364">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q364">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R364">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S364">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T364">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U364">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V364">
         <v>0</v>
@@ -31795,46 +31795,46 @@
         <v>45423.375</v>
       </c>
       <c r="E365" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F365" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J365">
+        <v>1.7</v>
+      </c>
+      <c r="K365">
         <v>4</v>
       </c>
-      <c r="K365">
-        <v>3.8</v>
-      </c>
       <c r="L365">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="M365">
+        <v>1.727</v>
+      </c>
+      <c r="N365">
         <v>4</v>
       </c>
-      <c r="N365">
-        <v>3.8</v>
-      </c>
       <c r="O365">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="P365">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q365">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R365">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S365">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T365">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U365">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V365">
         <v>0</v>
@@ -31860,37 +31860,37 @@
         <v>45423.375</v>
       </c>
       <c r="E366" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F366" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J366">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K366">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L366">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M366">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N366">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O366">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="P366">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q366">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R366">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S366">
         <v>2.75</v>
@@ -32017,10 +32017,10 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R368">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S368">
         <v>3</v>
@@ -32091,10 +32091,10 @@
         <v>3</v>
       </c>
       <c r="T369">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U369">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V369">
         <v>0</v>
@@ -32135,31 +32135,31 @@
         <v>8.5</v>
       </c>
       <c r="M370">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="N370">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O370">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="P370">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q370">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R370">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S370">
         <v>3</v>
       </c>
       <c r="T370">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U370">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V370">
         <v>0</v>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7281395</t>
+    <t>7269531</t>
   </si>
   <si>
-    <t>7278383</t>
+    <t>7280802</t>
   </si>
   <si>
     <t>7280801</t>
@@ -115,13 +115,13 @@
     <t>7280381</t>
   </si>
   <si>
-    <t>7280802</t>
+    <t>7278383</t>
+  </si>
+  <si>
+    <t>7281395</t>
   </si>
   <si>
     <t>7278382</t>
-  </si>
-  <si>
-    <t>7269531</t>
   </si>
   <si>
     <t>7268840</t>
@@ -2372,7 +2372,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6881313</v>
+        <v>6881596</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -2381,46 +2381,46 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J22">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="K22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L22">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="M22">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="N22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="P22">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q22">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
         <v>3</v>
@@ -2432,25 +2432,25 @@
         <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2458,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6881596</v>
+        <v>6881313</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2467,46 +2467,46 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J23">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="K23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="M23">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="P23">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q23">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
         <v>3</v>
@@ -2518,25 +2518,25 @@
         <v>1.85</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2544,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880327</v>
+        <v>6880353</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2553,13 +2553,13 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2568,43 +2568,43 @@
         <v>58</v>
       </c>
       <c r="J24">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="K24">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M24">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2613,16 +2613,16 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2630,7 +2630,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880353</v>
+        <v>6880327</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2639,13 +2639,13 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2654,43 +2654,43 @@
         <v>58</v>
       </c>
       <c r="J25">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="K25">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L25">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M25">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="N25">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O25">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q25">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R25">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2699,16 +2699,16 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2802,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6881595</v>
+        <v>6881594</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -2811,76 +2811,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J27">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="K27">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L27">
         <v>4.75</v>
       </c>
       <c r="M27">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="N27">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O27">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>1.8</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
         <v>1.85</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>1.95</v>
       </c>
-      <c r="S27">
-        <v>2.75</v>
-      </c>
-      <c r="T27">
-        <v>1.95</v>
-      </c>
-      <c r="U27">
-        <v>1.85</v>
-      </c>
       <c r="V27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W27">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2888,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6881597</v>
+        <v>6881593</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -2897,10 +2897,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2912,46 +2912,46 @@
         <v>59</v>
       </c>
       <c r="J28">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="K28">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P28">
         <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
         <v>2.75</v>
       </c>
       <c r="T28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
         <v>-1</v>
       </c>
       <c r="W28">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2960,13 +2960,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2974,7 +2974,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6881593</v>
+        <v>6881597</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -2983,10 +2983,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2998,46 +2998,46 @@
         <v>59</v>
       </c>
       <c r="J29">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
         <v>-0.25</v>
       </c>
       <c r="Q29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
         <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
         <v>-1</v>
       </c>
       <c r="W29">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3046,13 +3046,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z29">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3060,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6880463</v>
+        <v>6881595</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -3069,76 +3069,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J30">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L30">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N30">
         <v>3.4</v>
       </c>
       <c r="O30">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="P30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
         <v>2.75</v>
       </c>
       <c r="T30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3146,7 +3146,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6881594</v>
+        <v>6880463</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -3155,59 +3155,59 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>58</v>
       </c>
       <c r="J31">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="K31">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M31">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N31">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="P31">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
+        <v>2.75</v>
+      </c>
+      <c r="T31">
+        <v>1.975</v>
+      </c>
+      <c r="U31">
+        <v>1.875</v>
+      </c>
+      <c r="V31">
         <v>1.8</v>
       </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
-      <c r="T31">
-        <v>1.85</v>
-      </c>
-      <c r="U31">
-        <v>1.95</v>
-      </c>
-      <c r="V31">
-        <v>0.75</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3215,16 +3215,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
+        <v>0.4875</v>
+      </c>
+      <c r="AB31">
         <v>-0.5</v>
-      </c>
-      <c r="AA31">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -5038,7 +5038,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6881607</v>
+        <v>6881611</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -5047,76 +5047,76 @@
         <v>45185.375</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J53">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
+        <v>2.625</v>
+      </c>
+      <c r="M53">
+        <v>2.1</v>
+      </c>
+      <c r="N53">
         <v>3.5</v>
       </c>
-      <c r="M53">
-        <v>1.75</v>
-      </c>
-      <c r="N53">
-        <v>3.8</v>
-      </c>
       <c r="O53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q53">
+        <v>1.85</v>
+      </c>
+      <c r="R53">
+        <v>1.95</v>
+      </c>
+      <c r="S53">
+        <v>2.5</v>
+      </c>
+      <c r="T53">
+        <v>1.825</v>
+      </c>
+      <c r="U53">
         <v>1.975</v>
       </c>
-      <c r="R53">
-        <v>1.825</v>
-      </c>
-      <c r="S53">
-        <v>2.75</v>
-      </c>
-      <c r="T53">
-        <v>1.95</v>
-      </c>
-      <c r="U53">
-        <v>1.85</v>
-      </c>
       <c r="V53">
         <v>-1</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X53">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z53">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5124,7 +5124,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6881317</v>
+        <v>6881607</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -5133,10 +5133,10 @@
         <v>45185.375</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5148,40 +5148,40 @@
         <v>60</v>
       </c>
       <c r="J54">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="K54">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N54">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O54">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q54">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R54">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
         <v>2.75</v>
       </c>
       <c r="T54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
         <v>-1</v>
@@ -5190,19 +5190,19 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5210,7 +5210,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6881608</v>
+        <v>6881317</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5219,46 +5219,46 @@
         <v>45185.375</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J55">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="K55">
+        <v>3.6</v>
+      </c>
+      <c r="L55">
         <v>3.4</v>
       </c>
-      <c r="L55">
-        <v>2.625</v>
-      </c>
       <c r="M55">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O55">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
+        <v>1.775</v>
+      </c>
+      <c r="R55">
         <v>2.025</v>
-      </c>
-      <c r="R55">
-        <v>1.775</v>
       </c>
       <c r="S55">
         <v>2.75</v>
@@ -5270,25 +5270,25 @@
         <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
         <v>1.025</v>
       </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
       <c r="AA55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5296,7 +5296,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6881610</v>
+        <v>6881608</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -5305,76 +5305,76 @@
         <v>45185.375</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J56">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="K56">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="M56">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N56">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O56">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="P56">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S56">
         <v>2.75</v>
       </c>
       <c r="T56">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
+        <v>1.025</v>
+      </c>
+      <c r="Z56">
+        <v>-1</v>
+      </c>
+      <c r="AA56">
+        <v>0.45</v>
+      </c>
+      <c r="AB56">
         <v>-0.5</v>
-      </c>
-      <c r="Z56">
-        <v>0.4375</v>
-      </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5382,7 +5382,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6881611</v>
+        <v>6881610</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -5391,76 +5391,76 @@
         <v>45185.375</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J57">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="K57">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L57">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="M57">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="P57">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T57">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
         <v>-1</v>
       </c>
       <c r="W57">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y57">
         <v>-0.5</v>
       </c>
       <c r="Z57">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5898,7 +5898,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6881318</v>
+        <v>6881612</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
@@ -5907,76 +5907,76 @@
         <v>45192.375</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J63">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N63">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63">
+        <v>-0.75</v>
+      </c>
+      <c r="Q63">
+        <v>1.975</v>
+      </c>
+      <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
         <v>2.75</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>1.8</v>
-      </c>
-      <c r="R63">
-        <v>2</v>
-      </c>
-      <c r="S63">
-        <v>2.5</v>
-      </c>
       <c r="T63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X63">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5984,7 +5984,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6880330</v>
+        <v>6880512</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
@@ -5993,76 +5993,76 @@
         <v>45192.375</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J64">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="K64">
         <v>3.75</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M64">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="N64">
         <v>3.75</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q64">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T64">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U64">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W64">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6070,7 +6070,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6880512</v>
+        <v>6881318</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -6079,76 +6079,76 @@
         <v>45192.375</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J65">
+        <v>2.15</v>
+      </c>
+      <c r="K65">
+        <v>3.5</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>2.4</v>
+      </c>
+      <c r="N65">
+        <v>3.3</v>
+      </c>
+      <c r="O65">
+        <v>2.75</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>1.8</v>
       </c>
-      <c r="K65">
-        <v>3.75</v>
-      </c>
-      <c r="L65">
-        <v>3.75</v>
-      </c>
-      <c r="M65">
-        <v>1.833</v>
-      </c>
-      <c r="N65">
-        <v>3.75</v>
-      </c>
-      <c r="O65">
-        <v>3.6</v>
-      </c>
-      <c r="P65">
-        <v>-0.5</v>
-      </c>
-      <c r="Q65">
-        <v>1.875</v>
-      </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6156,7 +6156,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6881612</v>
+        <v>6881615</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -6165,76 +6165,76 @@
         <v>45192.375</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K66">
         <v>3.6</v>
       </c>
       <c r="L66">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N66">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P66">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q66">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T66">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
         <v>-1</v>
       </c>
       <c r="W66">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6242,7 +6242,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6881615</v>
+        <v>6880330</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -6251,76 +6251,76 @@
         <v>45192.375</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J67">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K67">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="N67">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V67">
         <v>-1</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X67">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6844,7 +6844,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6881320</v>
+        <v>6882788</v>
       </c>
       <c r="C74" t="s">
         <v>37</v>
@@ -6853,73 +6853,73 @@
         <v>45199.375</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K74">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
+        <v>2.8</v>
+      </c>
+      <c r="M74">
+        <v>2.25</v>
+      </c>
+      <c r="N74">
         <v>3.4</v>
       </c>
-      <c r="M74">
-        <v>2.15</v>
-      </c>
-      <c r="N74">
-        <v>3.25</v>
-      </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P74">
         <v>-0.25</v>
       </c>
       <c r="Q74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
         <v>2.75</v>
       </c>
       <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.8</v>
       </c>
-      <c r="U74">
-        <v>2</v>
-      </c>
       <c r="V74">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W74">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z74">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -6930,7 +6930,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6882788</v>
+        <v>6881619</v>
       </c>
       <c r="C75" t="s">
         <v>37</v>
@@ -6939,13 +6939,13 @@
         <v>45199.375</v>
       </c>
       <c r="E75" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -6963,34 +6963,34 @@
         <v>2.8</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N75">
         <v>3.4</v>
       </c>
       <c r="O75">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P75">
         <v>-0.25</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -6999,16 +6999,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7016,7 +7016,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6881619</v>
+        <v>6881320</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
@@ -7025,76 +7025,76 @@
         <v>45199.375</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K76">
+        <v>3.3</v>
+      </c>
+      <c r="L76">
         <v>3.4</v>
-      </c>
-      <c r="L76">
-        <v>2.8</v>
       </c>
       <c r="M76">
         <v>2.15</v>
       </c>
       <c r="N76">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O76">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
         <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7618,7 +7618,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6881623</v>
+        <v>6881322</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
@@ -7627,76 +7627,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J83">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O83">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="P83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7704,7 +7704,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6881322</v>
+        <v>6881623</v>
       </c>
       <c r="C84" t="s">
         <v>37</v>
@@ -7713,76 +7713,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J84">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="K84">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M84">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N84">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O84">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q84">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R84">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7790,7 +7790,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6880358</v>
+        <v>6881321</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -7799,76 +7799,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J85">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="K85">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L85">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M85">
+        <v>2.9</v>
+      </c>
+      <c r="N85">
+        <v>3.6</v>
+      </c>
+      <c r="O85">
         <v>2.1</v>
       </c>
-      <c r="N85">
-        <v>3.75</v>
-      </c>
-      <c r="O85">
-        <v>2.875</v>
-      </c>
       <c r="P85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
         <v>2.75</v>
       </c>
       <c r="T85">
+        <v>1.925</v>
+      </c>
+      <c r="U85">
         <v>1.875</v>
       </c>
-      <c r="U85">
-        <v>1.925</v>
-      </c>
       <c r="V85">
+        <v>-1</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>1.1</v>
       </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
       <c r="Y85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7876,7 +7876,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6881321</v>
+        <v>6881624</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
@@ -7885,76 +7885,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J86">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="K86">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L86">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N86">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O86">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="P86">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7962,7 +7962,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6881624</v>
+        <v>6880358</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -7971,55 +7971,55 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
         <v>58</v>
       </c>
       <c r="J87">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="K87">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L87">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M87">
         <v>2.1</v>
       </c>
       <c r="N87">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O87">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P87">
         <v>-0.25</v>
       </c>
       <c r="Q87">
+        <v>1.925</v>
+      </c>
+      <c r="R87">
         <v>1.875</v>
       </c>
-      <c r="R87">
+      <c r="S87">
+        <v>2.75</v>
+      </c>
+      <c r="T87">
+        <v>1.875</v>
+      </c>
+      <c r="U87">
         <v>1.925</v>
-      </c>
-      <c r="S87">
-        <v>3</v>
-      </c>
-      <c r="T87">
-        <v>1.95</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
       </c>
       <c r="V87">
         <v>1.1</v>
@@ -8031,16 +8031,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8220,7 +8220,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6881622</v>
+        <v>6881621</v>
       </c>
       <c r="C90" t="s">
         <v>37</v>
@@ -8229,58 +8229,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
         <v>58</v>
       </c>
       <c r="J90">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="K90">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L90">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="M90">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O90">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q90">
+        <v>1.95</v>
+      </c>
+      <c r="R90">
+        <v>1.85</v>
+      </c>
+      <c r="S90">
+        <v>3.25</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
         <v>1.8</v>
       </c>
-      <c r="R90">
-        <v>2</v>
-      </c>
-      <c r="S90">
-        <v>2.5</v>
-      </c>
-      <c r="T90">
-        <v>1.875</v>
-      </c>
-      <c r="U90">
-        <v>1.925</v>
-      </c>
       <c r="V90">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8289,16 +8289,16 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8306,7 +8306,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6881621</v>
+        <v>6881622</v>
       </c>
       <c r="C91" t="s">
         <v>37</v>
@@ -8315,58 +8315,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
         <v>58</v>
       </c>
       <c r="J91">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="K91">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L91">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="M91">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="N91">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O91">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="P91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8375,16 +8375,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z91">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -9338,7 +9338,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6880360</v>
+        <v>6880471</v>
       </c>
       <c r="C103" t="s">
         <v>37</v>
@@ -9347,10 +9347,10 @@
         <v>45213.375</v>
       </c>
       <c r="E103" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9362,58 +9362,58 @@
         <v>59</v>
       </c>
       <c r="J103">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="K103">
         <v>3.5</v>
       </c>
       <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>1.7</v>
+      </c>
+      <c r="N103">
+        <v>3.75</v>
+      </c>
+      <c r="O103">
+        <v>4.2</v>
+      </c>
+      <c r="P103">
+        <v>-0.75</v>
+      </c>
+      <c r="Q103">
+        <v>2</v>
+      </c>
+      <c r="R103">
+        <v>1.8</v>
+      </c>
+      <c r="S103">
         <v>2.75</v>
       </c>
-      <c r="M103">
-        <v>2.2</v>
-      </c>
-      <c r="N103">
-        <v>3.6</v>
-      </c>
-      <c r="O103">
-        <v>2.8</v>
-      </c>
-      <c r="P103">
-        <v>-0.25</v>
-      </c>
-      <c r="Q103">
+      <c r="T103">
+        <v>1.825</v>
+      </c>
+      <c r="U103">
         <v>1.975</v>
       </c>
-      <c r="R103">
-        <v>1.825</v>
-      </c>
-      <c r="S103">
-        <v>3</v>
-      </c>
-      <c r="T103">
-        <v>1.925</v>
-      </c>
-      <c r="U103">
-        <v>1.875</v>
-      </c>
       <c r="V103">
         <v>-1</v>
       </c>
       <c r="W103">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9424,7 +9424,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6880471</v>
+        <v>6880360</v>
       </c>
       <c r="C104" t="s">
         <v>37</v>
@@ -9433,10 +9433,10 @@
         <v>45213.375</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9448,58 +9448,58 @@
         <v>59</v>
       </c>
       <c r="J104">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="K104">
         <v>3.5</v>
       </c>
       <c r="L104">
+        <v>2.75</v>
+      </c>
+      <c r="M104">
+        <v>2.2</v>
+      </c>
+      <c r="N104">
         <v>3.6</v>
       </c>
-      <c r="M104">
-        <v>1.7</v>
-      </c>
-      <c r="N104">
-        <v>3.75</v>
-      </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -10886,7 +10886,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6881641</v>
+        <v>6881328</v>
       </c>
       <c r="C121" t="s">
         <v>37</v>
@@ -10895,76 +10895,76 @@
         <v>45227.375</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>2</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J121">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="K121">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M121">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N121">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P121">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q121">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
         <v>2.75</v>
       </c>
       <c r="T121">
+        <v>1.825</v>
+      </c>
+      <c r="U121">
         <v>1.975</v>
       </c>
-      <c r="U121">
-        <v>1.825</v>
-      </c>
       <c r="V121">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10972,7 +10972,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6881328</v>
+        <v>6881327</v>
       </c>
       <c r="C122" t="s">
         <v>37</v>
@@ -10981,55 +10981,55 @@
         <v>45227.375</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="s">
         <v>60</v>
       </c>
       <c r="J122">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="K122">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L122">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="M122">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O122">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="P122">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
         <v>2.75</v>
       </c>
       <c r="T122">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
         <v>-1</v>
@@ -11038,19 +11038,19 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3.333</v>
+        <v>1.375</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11230,7 +11230,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6881327</v>
+        <v>6881641</v>
       </c>
       <c r="C125" t="s">
         <v>37</v>
@@ -11239,40 +11239,40 @@
         <v>45227.375</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
         <v>1</v>
       </c>
-      <c r="H125">
-        <v>2</v>
-      </c>
       <c r="I125" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J125">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K125">
         <v>3.5</v>
       </c>
       <c r="L125">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N125">
         <v>3.5</v>
       </c>
       <c r="O125">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q125">
         <v>2.025</v>
@@ -11284,28 +11284,28 @@
         <v>2.75</v>
       </c>
       <c r="T125">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z125">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB125">
         <v>-0.5</v>
@@ -12778,7 +12778,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6881651</v>
+        <v>6881331</v>
       </c>
       <c r="C143" t="s">
         <v>37</v>
@@ -12787,76 +12787,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J143">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="K143">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M143">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N143">
         <v>3.75</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
         <v>3</v>
       </c>
       <c r="T143">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12864,7 +12864,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6881331</v>
+        <v>6881651</v>
       </c>
       <c r="C144" t="s">
         <v>37</v>
@@ -12873,76 +12873,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J144">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="K144">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L144">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N144">
         <v>3.75</v>
       </c>
       <c r="O144">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
         <v>3</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W144">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z144">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -13466,7 +13466,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6880519</v>
+        <v>6880476</v>
       </c>
       <c r="C151" t="s">
         <v>37</v>
@@ -13475,10 +13475,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F151" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13490,43 +13490,43 @@
         <v>58</v>
       </c>
       <c r="J151">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="K151">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L151">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M151">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N151">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P151">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q151">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S151">
         <v>2.75</v>
       </c>
       <c r="T151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V151">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13535,7 +13535,7 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z151">
         <v>-1</v>
@@ -13544,7 +13544,7 @@
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13552,7 +13552,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6880476</v>
+        <v>6880519</v>
       </c>
       <c r="C152" t="s">
         <v>37</v>
@@ -13561,10 +13561,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13576,43 +13576,43 @@
         <v>58</v>
       </c>
       <c r="J152">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="K152">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L152">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M152">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N152">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O152">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q152">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R152">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
         <v>2.75</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.375</v>
+        <v>0.833</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -13621,7 +13621,7 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z152">
         <v>-1</v>
@@ -13630,7 +13630,7 @@
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13638,7 +13638,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6881653</v>
+        <v>6881654</v>
       </c>
       <c r="C153" t="s">
         <v>37</v>
@@ -13647,55 +13647,55 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="s">
         <v>60</v>
       </c>
       <c r="J153">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="K153">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L153">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="M153">
+        <v>3.5</v>
+      </c>
+      <c r="N153">
+        <v>3.5</v>
+      </c>
+      <c r="O153">
+        <v>1.95</v>
+      </c>
+      <c r="P153">
+        <v>0.5</v>
+      </c>
+      <c r="Q153">
+        <v>1.8</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>2.75</v>
+      </c>
+      <c r="T153">
         <v>1.85</v>
       </c>
-      <c r="N153">
-        <v>3.25</v>
-      </c>
-      <c r="O153">
-        <v>4.2</v>
-      </c>
-      <c r="P153">
-        <v>-0.5</v>
-      </c>
-      <c r="Q153">
-        <v>1.9</v>
-      </c>
-      <c r="R153">
-        <v>1.9</v>
-      </c>
-      <c r="S153">
-        <v>2.5</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
         <v>-1</v>
@@ -13704,19 +13704,19 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3.2</v>
+        <v>0.95</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13724,7 +13724,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6881654</v>
+        <v>6881653</v>
       </c>
       <c r="C154" t="s">
         <v>37</v>
@@ -13733,56 +13733,56 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="s">
         <v>60</v>
       </c>
       <c r="J154">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K154">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L154">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N154">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O154">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="P154">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q154">
+        <v>1.9</v>
+      </c>
+      <c r="R154">
+        <v>1.9</v>
+      </c>
+      <c r="S154">
+        <v>2.5</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
         <v>1.8</v>
       </c>
-      <c r="R154">
-        <v>2</v>
-      </c>
-      <c r="S154">
-        <v>2.75</v>
-      </c>
-      <c r="T154">
-        <v>1.85</v>
-      </c>
-      <c r="U154">
-        <v>1.95</v>
-      </c>
       <c r="V154">
         <v>-1</v>
       </c>
@@ -13790,19 +13790,19 @@
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>0.95</v>
+        <v>3.2</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -14412,7 +14412,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6881660</v>
+        <v>6880477</v>
       </c>
       <c r="C162" t="s">
         <v>37</v>
@@ -14421,76 +14421,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="s">
         <v>59</v>
       </c>
       <c r="J162">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N162">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O162">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S162">
         <v>2.75</v>
       </c>
       <c r="T162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
         <v>-1</v>
       </c>
       <c r="W162">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z162">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14498,7 +14498,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6880477</v>
+        <v>6880520</v>
       </c>
       <c r="C163" t="s">
         <v>37</v>
@@ -14507,28 +14507,28 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J163">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="K163">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M163">
         <v>2.15</v>
@@ -14537,7 +14537,7 @@
         <v>3.4</v>
       </c>
       <c r="O163">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
         <v>-0.25</v>
@@ -14549,34 +14549,34 @@
         <v>2</v>
       </c>
       <c r="S163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T163">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W163">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z163">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14584,7 +14584,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6880520</v>
+        <v>6881660</v>
       </c>
       <c r="C164" t="s">
         <v>37</v>
@@ -14593,76 +14593,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J164">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="K164">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L164">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N164">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q164">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T164">
+        <v>1.95</v>
+      </c>
+      <c r="U164">
         <v>1.85</v>
       </c>
-      <c r="U164">
-        <v>1.95</v>
-      </c>
       <c r="V164">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -15960,7 +15960,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6881669</v>
+        <v>6881671</v>
       </c>
       <c r="C180" t="s">
         <v>37</v>
@@ -15969,19 +15969,19 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G180">
         <v>2</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J180">
         <v>2.2</v>
@@ -15990,55 +15990,55 @@
         <v>3.4</v>
       </c>
       <c r="L180">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M180">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N180">
         <v>3.3</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P180">
+        <v>-0.25</v>
+      </c>
+      <c r="Q180">
+        <v>2.025</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>2.75</v>
+      </c>
+      <c r="T180">
+        <v>1.925</v>
+      </c>
+      <c r="U180">
+        <v>1.925</v>
+      </c>
+      <c r="V180">
+        <v>1.3</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>1.025</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>0.4625</v>
+      </c>
+      <c r="AB180">
         <v>-0.5</v>
-      </c>
-      <c r="Q180">
-        <v>1.9</v>
-      </c>
-      <c r="R180">
-        <v>1.9</v>
-      </c>
-      <c r="S180">
-        <v>2.25</v>
-      </c>
-      <c r="T180">
-        <v>1.85</v>
-      </c>
-      <c r="U180">
-        <v>1.95</v>
-      </c>
-      <c r="V180">
-        <v>-1</v>
-      </c>
-      <c r="W180">
-        <v>2.3</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA180">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16046,7 +16046,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6880367</v>
+        <v>6881669</v>
       </c>
       <c r="C181" t="s">
         <v>37</v>
@@ -16055,73 +16055,73 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J181">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="K181">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M181">
         <v>1.909</v>
       </c>
       <c r="N181">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
         <v>-0.5</v>
       </c>
       <c r="Q181">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
         <v>-1</v>
@@ -16132,7 +16132,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6880341</v>
+        <v>6880367</v>
       </c>
       <c r="C182" t="s">
         <v>37</v>
@@ -16141,13 +16141,13 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16156,34 +16156,34 @@
         <v>58</v>
       </c>
       <c r="J182">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K182">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L182">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N182">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O182">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q182">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T182">
         <v>1.9</v>
@@ -16192,7 +16192,7 @@
         <v>1.9</v>
       </c>
       <c r="V182">
-        <v>1.6</v>
+        <v>0.909</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16201,7 +16201,7 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
@@ -16218,7 +16218,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6881671</v>
+        <v>6880341</v>
       </c>
       <c r="C183" t="s">
         <v>37</v>
@@ -16227,58 +16227,58 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="s">
         <v>58</v>
       </c>
       <c r="J183">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K183">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M183">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N183">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O183">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="P183">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q183">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T183">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16287,16 +16287,16 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16906,7 +16906,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6881676</v>
+        <v>6880368</v>
       </c>
       <c r="C191" t="s">
         <v>37</v>
@@ -16915,76 +16915,76 @@
         <v>45279.625</v>
       </c>
       <c r="E191" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J191">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="K191">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L191">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="M191">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N191">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O191">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="P191">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q191">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R191">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T191">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
         <v>-1</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X191">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17078,7 +17078,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6880368</v>
+        <v>6881676</v>
       </c>
       <c r="C193" t="s">
         <v>37</v>
@@ -17087,76 +17087,76 @@
         <v>45279.625</v>
       </c>
       <c r="E193" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F193" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J193">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="K193">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M193">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="P193">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q193">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S193">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T193">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
         <v>-1</v>
       </c>
       <c r="W193">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -18282,7 +18282,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6881688</v>
+        <v>6881684</v>
       </c>
       <c r="C207" t="s">
         <v>37</v>
@@ -18291,76 +18291,76 @@
         <v>45314.625</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J207">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="K207">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L207">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N207">
         <v>3.5</v>
       </c>
       <c r="O207">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="P207">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q207">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S207">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T207">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W207">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="Z207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB207">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18368,7 +18368,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6881684</v>
+        <v>6881688</v>
       </c>
       <c r="C208" t="s">
         <v>37</v>
@@ -18377,76 +18377,76 @@
         <v>45314.625</v>
       </c>
       <c r="E208" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J208">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="K208">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="M208">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N208">
         <v>3.5</v>
       </c>
       <c r="O208">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="P208">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q208">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R208">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T208">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18454,7 +18454,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6880344</v>
+        <v>6880524</v>
       </c>
       <c r="C209" t="s">
         <v>37</v>
@@ -18463,55 +18463,55 @@
         <v>45314.625</v>
       </c>
       <c r="E209" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I209" t="s">
         <v>60</v>
       </c>
       <c r="J209">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="K209">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L209">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="M209">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="N209">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O209">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q209">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T209">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
         <v>-1</v>
@@ -18520,19 +18520,19 @@
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>0.833</v>
+        <v>2.1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18540,7 +18540,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6880524</v>
+        <v>6881685</v>
       </c>
       <c r="C210" t="s">
         <v>37</v>
@@ -18549,76 +18549,76 @@
         <v>45314.625</v>
       </c>
       <c r="E210" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" t="s">
+        <v>59</v>
+      </c>
+      <c r="J210">
+        <v>2.75</v>
+      </c>
+      <c r="K210">
+        <v>3.5</v>
+      </c>
+      <c r="L210">
+        <v>2.25</v>
+      </c>
+      <c r="M210">
         <v>3</v>
       </c>
-      <c r="I210" t="s">
-        <v>60</v>
-      </c>
-      <c r="J210">
-        <v>2.2</v>
-      </c>
-      <c r="K210">
+      <c r="N210">
         <v>3.4</v>
       </c>
-      <c r="L210">
-        <v>2.9</v>
-      </c>
-      <c r="M210">
-        <v>2.05</v>
-      </c>
-      <c r="N210">
-        <v>3.6</v>
-      </c>
       <c r="O210">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="P210">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R210">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U210">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
         <v>-1</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X210">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z210">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18626,7 +18626,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6881685</v>
+        <v>6880344</v>
       </c>
       <c r="C211" t="s">
         <v>37</v>
@@ -18635,76 +18635,76 @@
         <v>45314.625</v>
       </c>
       <c r="E211" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F211" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J211">
-        <v>2.75</v>
+        <v>4.8</v>
       </c>
       <c r="K211">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L211">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N211">
         <v>3.4</v>
       </c>
       <c r="O211">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="P211">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q211">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
         <v>2.5</v>
       </c>
       <c r="T211">
+        <v>1.925</v>
+      </c>
+      <c r="U211">
         <v>1.875</v>
       </c>
-      <c r="U211">
-        <v>1.925</v>
-      </c>
       <c r="V211">
         <v>-1</v>
       </c>
       <c r="W211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y211">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -22152,7 +22152,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6881347</v>
+        <v>6881348</v>
       </c>
       <c r="C252" t="s">
         <v>37</v>
@@ -22161,19 +22161,19 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E252" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G252">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J252">
         <v>2.375</v>
@@ -22185,52 +22185,52 @@
         <v>2.625</v>
       </c>
       <c r="M252">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N252">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O252">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P252">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q252">
+        <v>1.775</v>
+      </c>
+      <c r="R252">
         <v>2.025</v>
       </c>
-      <c r="R252">
-        <v>1.775</v>
-      </c>
       <c r="S252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T252">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V252">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W252">
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
         <v>1.025</v>
       </c>
-      <c r="Z252">
-        <v>-1</v>
-      </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22238,7 +22238,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6881348</v>
+        <v>6881347</v>
       </c>
       <c r="C253" t="s">
         <v>37</v>
@@ -22247,19 +22247,19 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E253" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I253" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J253">
         <v>2.375</v>
@@ -22271,52 +22271,52 @@
         <v>2.625</v>
       </c>
       <c r="M253">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N253">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O253">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P253">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q253">
+        <v>2.025</v>
+      </c>
+      <c r="R253">
         <v>1.775</v>
       </c>
-      <c r="R253">
-        <v>2.025</v>
-      </c>
       <c r="S253">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T253">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V253">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z253">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -24646,7 +24646,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6881727</v>
+        <v>6957875</v>
       </c>
       <c r="C281" t="s">
         <v>37</v>
@@ -24655,76 +24655,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F281" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J281">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="K281">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L281">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="M281">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="N281">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O281">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="P281">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q281">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R281">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
         <v>2.75</v>
       </c>
       <c r="T281">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U281">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
         <v>-1</v>
       </c>
       <c r="AB281">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:28">
@@ -24904,7 +24904,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6920822</v>
+        <v>6881727</v>
       </c>
       <c r="C284" t="s">
         <v>37</v>
@@ -24913,76 +24913,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E284" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F284" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G284">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H284">
         <v>2</v>
       </c>
       <c r="I284" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J284">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="K284">
         <v>3.6</v>
       </c>
       <c r="L284">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="M284">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N284">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O284">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="P284">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q284">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R284">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S284">
         <v>2.75</v>
       </c>
       <c r="T284">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U284">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V284">
         <v>-1</v>
       </c>
       <c r="W284">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA284">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="285" spans="1:28">
@@ -24990,7 +24990,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6957875</v>
+        <v>6920822</v>
       </c>
       <c r="C285" t="s">
         <v>37</v>
@@ -24999,76 +24999,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E285" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F285" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G285">
         <v>2</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J285">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="K285">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L285">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="M285">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="N285">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O285">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="P285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q285">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R285">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S285">
         <v>2.75</v>
       </c>
       <c r="T285">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U285">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V285">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB285">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:28">
@@ -26366,7 +26366,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7027629</v>
+        <v>7028878</v>
       </c>
       <c r="C301" t="s">
         <v>37</v>
@@ -26375,76 +26375,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E301" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F301" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I301" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J301">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="K301">
         <v>3.6</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M301">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N301">
         <v>3.6</v>
       </c>
       <c r="O301">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="P301">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q301">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R301">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S301">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T301">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U301">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V301">
         <v>-1</v>
       </c>
       <c r="W301">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X301">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y301">
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA301">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="302" spans="1:28">
@@ -26452,7 +26452,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7024923</v>
+        <v>7027629</v>
       </c>
       <c r="C302" t="s">
         <v>37</v>
@@ -26461,76 +26461,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E302" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F302" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J302">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="K302">
         <v>3.6</v>
       </c>
       <c r="L302">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="M302">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N302">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O302">
+        <v>4.2</v>
+      </c>
+      <c r="P302">
+        <v>-0.75</v>
+      </c>
+      <c r="Q302">
+        <v>2</v>
+      </c>
+      <c r="R302">
+        <v>1.8</v>
+      </c>
+      <c r="S302">
         <v>2.5</v>
       </c>
-      <c r="P302">
-        <v>0</v>
-      </c>
-      <c r="Q302">
-        <v>1.95</v>
-      </c>
-      <c r="R302">
-        <v>1.85</v>
-      </c>
-      <c r="S302">
-        <v>2.75</v>
-      </c>
       <c r="T302">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U302">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB302">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:28">
@@ -26538,7 +26538,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7023562</v>
+        <v>7024923</v>
       </c>
       <c r="C303" t="s">
         <v>37</v>
@@ -26547,76 +26547,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E303" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F303" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G303">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J303">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K303">
+        <v>3.6</v>
+      </c>
+      <c r="L303">
+        <v>2.15</v>
+      </c>
+      <c r="M303">
+        <v>2.625</v>
+      </c>
+      <c r="N303">
         <v>3.5</v>
       </c>
-      <c r="L303">
-        <v>2.25</v>
-      </c>
-      <c r="M303">
-        <v>3.3</v>
-      </c>
-      <c r="N303">
-        <v>3.6</v>
-      </c>
       <c r="O303">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P303">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q303">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S303">
         <v>2.75</v>
       </c>
       <c r="T303">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V303">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W303">
         <v>-1</v>
       </c>
       <c r="X303">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z303">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:28">
@@ -26624,7 +26624,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7028878</v>
+        <v>7023562</v>
       </c>
       <c r="C304" t="s">
         <v>37</v>
@@ -26633,56 +26633,56 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E304" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F304" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="s">
         <v>60</v>
       </c>
       <c r="J304">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K304">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L304">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M304">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N304">
         <v>3.6</v>
       </c>
       <c r="O304">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P304">
         <v>0.25</v>
       </c>
       <c r="Q304">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R304">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S304">
         <v>2.75</v>
       </c>
       <c r="T304">
+        <v>1.85</v>
+      </c>
+      <c r="U304">
         <v>1.95</v>
       </c>
-      <c r="U304">
-        <v>1.9</v>
-      </c>
       <c r="V304">
         <v>-1</v>
       </c>
@@ -26690,16 +26690,16 @@
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA304">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AB304">
         <v>-0.5</v>
@@ -28946,7 +28946,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7127723</v>
+        <v>7127610</v>
       </c>
       <c r="C331" t="s">
         <v>37</v>
@@ -28955,58 +28955,58 @@
         <v>45402.375</v>
       </c>
       <c r="E331" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F331" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G331">
+        <v>2</v>
+      </c>
+      <c r="H331">
         <v>1</v>
-      </c>
-      <c r="H331">
-        <v>0</v>
       </c>
       <c r="I331" t="s">
         <v>58</v>
       </c>
       <c r="J331">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="K331">
+        <v>3.6</v>
+      </c>
+      <c r="L331">
         <v>3.5</v>
       </c>
-      <c r="L331">
-        <v>2.625</v>
-      </c>
       <c r="M331">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N331">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O331">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P331">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q331">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S331">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T331">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U331">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V331">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -29015,16 +29015,16 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB331">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="332" spans="1:28">
@@ -29032,7 +29032,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7127722</v>
+        <v>7127721</v>
       </c>
       <c r="C332" t="s">
         <v>37</v>
@@ -29041,76 +29041,76 @@
         <v>45402.375</v>
       </c>
       <c r="E332" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F332" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H332">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J332">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="K332">
         <v>3.5</v>
       </c>
       <c r="L332">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="M332">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N332">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O332">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="P332">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q332">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R332">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S332">
         <v>2.5</v>
       </c>
       <c r="T332">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V332">
         <v>-1</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X332">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z332">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29118,7 +29118,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7127721</v>
+        <v>7127722</v>
       </c>
       <c r="C333" t="s">
         <v>37</v>
@@ -29127,76 +29127,76 @@
         <v>45402.375</v>
       </c>
       <c r="E333" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F333" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I333" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J333">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="K333">
         <v>3.5</v>
       </c>
       <c r="L333">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="M333">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N333">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O333">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P333">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q333">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R333">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S333">
         <v>2.5</v>
       </c>
       <c r="T333">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U333">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V333">
         <v>-1</v>
       </c>
       <c r="W333">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X333">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y333">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB333">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -29204,7 +29204,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7127610</v>
+        <v>7127723</v>
       </c>
       <c r="C334" t="s">
         <v>37</v>
@@ -29213,58 +29213,58 @@
         <v>45402.375</v>
       </c>
       <c r="E334" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F334" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="s">
         <v>58</v>
       </c>
       <c r="J334">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="K334">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L334">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="M334">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N334">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O334">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P334">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q334">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R334">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S334">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T334">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U334">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V334">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="W334">
         <v>-1</v>
@@ -29273,16 +29273,16 @@
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z334">
         <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -31010,7 +31010,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7218893</v>
+        <v>7221958</v>
       </c>
       <c r="C355" t="s">
         <v>37</v>
@@ -31019,76 +31019,76 @@
         <v>45416.375</v>
       </c>
       <c r="E355" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F355" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G355">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H355">
         <v>1</v>
       </c>
       <c r="I355" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J355">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="K355">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L355">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="M355">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="N355">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O355">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="P355">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q355">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R355">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S355">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T355">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U355">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V355">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="W355">
         <v>-1</v>
       </c>
       <c r="X355">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z355">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB355">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:28">
@@ -31096,7 +31096,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7221958</v>
+        <v>7218893</v>
       </c>
       <c r="C356" t="s">
         <v>37</v>
@@ -31105,76 +31105,76 @@
         <v>45416.375</v>
       </c>
       <c r="E356" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F356" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G356">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H356">
         <v>1</v>
       </c>
       <c r="I356" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J356">
+        <v>1.5</v>
+      </c>
+      <c r="K356">
         <v>4.75</v>
       </c>
-      <c r="K356">
-        <v>3.8</v>
-      </c>
       <c r="L356">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="M356">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="N356">
+        <v>4.5</v>
+      </c>
+      <c r="O356">
+        <v>5</v>
+      </c>
+      <c r="P356">
+        <v>-1</v>
+      </c>
+      <c r="Q356">
+        <v>1.9</v>
+      </c>
+      <c r="R356">
+        <v>1.9</v>
+      </c>
+      <c r="S356">
+        <v>3</v>
+      </c>
+      <c r="T356">
+        <v>1.95</v>
+      </c>
+      <c r="U356">
+        <v>1.85</v>
+      </c>
+      <c r="V356">
+        <v>-1</v>
+      </c>
+      <c r="W356">
+        <v>-1</v>
+      </c>
+      <c r="X356">
         <v>4</v>
       </c>
-      <c r="O356">
-        <v>1.6</v>
-      </c>
-      <c r="P356">
-        <v>1</v>
-      </c>
-      <c r="Q356">
-        <v>1.775</v>
-      </c>
-      <c r="R356">
-        <v>2.025</v>
-      </c>
-      <c r="S356">
-        <v>2.5</v>
-      </c>
-      <c r="T356">
-        <v>1.875</v>
-      </c>
-      <c r="U356">
-        <v>1.925</v>
-      </c>
-      <c r="V356">
-        <v>4.25</v>
-      </c>
-      <c r="W356">
-        <v>-1</v>
-      </c>
-      <c r="X356">
-        <v>-1</v>
-      </c>
       <c r="Y356">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA356">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:28">
@@ -32395,46 +32395,46 @@
         <v>45430.35416666666</v>
       </c>
       <c r="E371" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F371" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J371">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="K371">
         <v>3.75</v>
       </c>
       <c r="L371">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="M371">
+        <v>2.1</v>
+      </c>
+      <c r="N371">
+        <v>3.9</v>
+      </c>
+      <c r="O371">
+        <v>2.8</v>
+      </c>
+      <c r="P371">
+        <v>-0.25</v>
+      </c>
+      <c r="Q371">
+        <v>1.925</v>
+      </c>
+      <c r="R371">
+        <v>1.925</v>
+      </c>
+      <c r="S371">
         <v>3.25</v>
       </c>
-      <c r="N371">
-        <v>3.8</v>
-      </c>
-      <c r="O371">
-        <v>1.95</v>
-      </c>
-      <c r="P371">
-        <v>0.5</v>
-      </c>
-      <c r="Q371">
-        <v>1.875</v>
-      </c>
-      <c r="R371">
-        <v>1.975</v>
-      </c>
-      <c r="S371">
-        <v>3</v>
-      </c>
       <c r="T371">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U371">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V371">
         <v>0</v>
@@ -32460,46 +32460,46 @@
         <v>45430.35416666666</v>
       </c>
       <c r="E372" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F372" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J372">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="K372">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L372">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="M372">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N372">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="O372">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="P372">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q372">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R372">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S372">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T372">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U372">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V372">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>2.625</v>
       </c>
       <c r="M373">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N373">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O373">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P373">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q373">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R373">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S373">
         <v>3</v>
       </c>
       <c r="T373">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U373">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V373">
         <v>0</v>
@@ -32617,10 +32617,10 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R374">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S374">
         <v>3.25</v>
@@ -32747,10 +32747,10 @@
         <v>-1.25</v>
       </c>
       <c r="Q376">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R376">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S376">
         <v>3.25</v>
@@ -32785,46 +32785,46 @@
         <v>45430.35416666666</v>
       </c>
       <c r="E377" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F377" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J377">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="K377">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L377">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="M377">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N377">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="O377">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="P377">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q377">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R377">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S377">
         <v>2.75</v>
       </c>
       <c r="T377">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U377">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V377">
         <v>0</v>
@@ -32850,46 +32850,46 @@
         <v>45430.35416666666</v>
       </c>
       <c r="E378" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F378" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J378">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="K378">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L378">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="M378">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N378">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O378">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="P378">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q378">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R378">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S378">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T378">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U378">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V378">
         <v>0</v>
@@ -32915,46 +32915,46 @@
         <v>45430.35416666666</v>
       </c>
       <c r="E379" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F379" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J379">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K379">
+        <v>3.6</v>
+      </c>
+      <c r="L379">
+        <v>2.9</v>
+      </c>
+      <c r="M379">
+        <v>2</v>
+      </c>
+      <c r="N379">
         <v>3.75</v>
       </c>
-      <c r="L379">
-        <v>2.8</v>
-      </c>
-      <c r="M379">
-        <v>2.15</v>
-      </c>
-      <c r="N379">
-        <v>3.8</v>
-      </c>
       <c r="O379">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P379">
         <v>-0.25</v>
       </c>
       <c r="Q379">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R379">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S379">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T379">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U379">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V379">
         <v>0</v>

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -2342,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6881313</v>
+        <v>6880508</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2351,76 +2351,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J22">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="K22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M22">
+        <v>2.15</v>
+      </c>
+      <c r="N22">
+        <v>3.6</v>
+      </c>
+      <c r="O22">
         <v>2.8</v>
       </c>
-      <c r="N22">
-        <v>3.5</v>
-      </c>
-      <c r="O22">
-        <v>2.25</v>
-      </c>
       <c r="P22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q22">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2428,7 +2428,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880508</v>
+        <v>6881313</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2437,76 +2437,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="K23">
+        <v>3.4</v>
+      </c>
+      <c r="L23">
+        <v>2.05</v>
+      </c>
+      <c r="M23">
+        <v>2.8</v>
+      </c>
+      <c r="N23">
         <v>3.5</v>
       </c>
-      <c r="L23">
-        <v>2.6</v>
-      </c>
-      <c r="M23">
-        <v>2.15</v>
-      </c>
-      <c r="N23">
-        <v>3.6</v>
-      </c>
       <c r="O23">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="P23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q23">
+        <v>1.825</v>
+      </c>
+      <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
         <v>1.95</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>1.85</v>
       </c>
-      <c r="S23">
-        <v>2.75</v>
-      </c>
-      <c r="T23">
+      <c r="V23">
         <v>1.8</v>
       </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>-1</v>
-      </c>
       <c r="W23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z23">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2514,7 +2514,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880353</v>
+        <v>6881596</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2523,76 +2523,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <v>1.615</v>
+      </c>
+      <c r="K24">
+        <v>3.75</v>
+      </c>
+      <c r="L24">
+        <v>4.75</v>
+      </c>
+      <c r="M24">
+        <v>1.615</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>-0.75</v>
+      </c>
+      <c r="Q24">
+        <v>1.775</v>
+      </c>
+      <c r="R24">
+        <v>2.025</v>
+      </c>
+      <c r="S24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24">
-        <v>2.3</v>
-      </c>
-      <c r="K24">
-        <v>3.4</v>
-      </c>
-      <c r="L24">
-        <v>2.8</v>
-      </c>
-      <c r="M24">
-        <v>2.25</v>
-      </c>
-      <c r="N24">
-        <v>3.2</v>
-      </c>
-      <c r="O24">
-        <v>2.8</v>
-      </c>
-      <c r="P24">
-        <v>-0.25</v>
-      </c>
-      <c r="Q24">
-        <v>2.025</v>
-      </c>
-      <c r="R24">
-        <v>1.775</v>
-      </c>
-      <c r="S24">
-        <v>2.75</v>
-      </c>
       <c r="T24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
         <v>1.025</v>
       </c>
-      <c r="Z24">
-        <v>-1</v>
-      </c>
       <c r="AA24">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2686,7 +2686,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6881596</v>
+        <v>6880353</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2695,76 +2695,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J26">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="K26">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L26">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="M26">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O26">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="P26">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q26">
+        <v>2.025</v>
+      </c>
+      <c r="R26">
         <v>1.775</v>
       </c>
-      <c r="R26">
-        <v>2.025</v>
-      </c>
       <c r="S26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -4148,7 +4148,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6880329</v>
+        <v>6881315</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4157,43 +4157,43 @@
         <v>45171.375</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J43">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L43">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
         <v>1.909</v>
       </c>
       <c r="N43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P43">
         <v>-0.5</v>
       </c>
       <c r="Q43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R43">
         <v>1.95</v>
@@ -4202,31 +4202,31 @@
         <v>2.75</v>
       </c>
       <c r="T43">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4234,7 +4234,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6880355</v>
+        <v>6880329</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4243,76 +4243,76 @@
         <v>45171.375</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J44">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="K44">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L44">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="M44">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="N44">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4320,7 +4320,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6881315</v>
+        <v>6880355</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -4329,13 +4329,13 @@
         <v>45171.375</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4344,43 +4344,43 @@
         <v>48</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="K45">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M45">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N45">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P45">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4389,16 +4389,16 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -6814,7 +6814,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6880513</v>
+        <v>6880331</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6823,76 +6823,76 @@
         <v>45199.375</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J74">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L74">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O74">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q74">
+        <v>1.85</v>
+      </c>
+      <c r="R74">
         <v>1.95</v>
       </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
       <c r="S74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U74">
         <v>1.875</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W74">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6900,7 +6900,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6881320</v>
+        <v>6880513</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6909,76 +6909,76 @@
         <v>45199.375</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
         <v>49</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K75">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L75">
+        <v>2.7</v>
+      </c>
+      <c r="M75">
+        <v>2.55</v>
+      </c>
+      <c r="N75">
         <v>3.4</v>
       </c>
-      <c r="M75">
-        <v>2.15</v>
-      </c>
-      <c r="N75">
-        <v>3.25</v>
-      </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="P75">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q75">
+        <v>1.95</v>
+      </c>
+      <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
+        <v>3</v>
+      </c>
+      <c r="T75">
         <v>1.925</v>
       </c>
-      <c r="R75">
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="S75">
-        <v>2.75</v>
-      </c>
-      <c r="T75">
-        <v>1.8</v>
-      </c>
-      <c r="U75">
-        <v>2</v>
-      </c>
       <c r="V75">
         <v>-1</v>
       </c>
       <c r="W75">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z75">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6986,7 +6986,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6881619</v>
+        <v>6881320</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6995,76 +6995,76 @@
         <v>45199.375</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K76">
+        <v>3.3</v>
+      </c>
+      <c r="L76">
         <v>3.4</v>
-      </c>
-      <c r="L76">
-        <v>2.8</v>
       </c>
       <c r="M76">
         <v>2.15</v>
       </c>
       <c r="N76">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O76">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
         <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7072,7 +7072,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6882788</v>
+        <v>6881619</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7081,13 +7081,13 @@
         <v>45199.375</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7105,34 +7105,34 @@
         <v>2.8</v>
       </c>
       <c r="M77">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N77">
         <v>3.4</v>
       </c>
       <c r="O77">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P77">
         <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7141,16 +7141,16 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7158,7 +7158,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880331</v>
+        <v>6882788</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7167,58 +7167,58 @@
         <v>45199.375</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
         <v>48</v>
       </c>
       <c r="J78">
+        <v>2.25</v>
+      </c>
+      <c r="K78">
+        <v>3.4</v>
+      </c>
+      <c r="L78">
+        <v>2.8</v>
+      </c>
+      <c r="M78">
+        <v>2.25</v>
+      </c>
+      <c r="N78">
+        <v>3.4</v>
+      </c>
+      <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
+        <v>-0.25</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78">
         <v>1.8</v>
-      </c>
-      <c r="K78">
-        <v>3.6</v>
-      </c>
-      <c r="L78">
-        <v>3.75</v>
-      </c>
-      <c r="M78">
-        <v>1.833</v>
-      </c>
-      <c r="N78">
-        <v>3.6</v>
-      </c>
-      <c r="O78">
-        <v>3.6</v>
-      </c>
-      <c r="P78">
-        <v>-0.5</v>
-      </c>
-      <c r="Q78">
-        <v>1.85</v>
-      </c>
-      <c r="R78">
-        <v>1.95</v>
       </c>
       <c r="S78">
         <v>2.75</v>
       </c>
       <c r="T78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7227,13 +7227,13 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7588,7 +7588,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6880358</v>
+        <v>6881624</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7597,55 +7597,55 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
         <v>1</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
       </c>
       <c r="I83" t="s">
         <v>48</v>
       </c>
       <c r="J83">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="K83">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L83">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
         <v>2.1</v>
       </c>
       <c r="N83">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O83">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
         <v>-0.25</v>
       </c>
       <c r="Q83">
+        <v>1.875</v>
+      </c>
+      <c r="R83">
         <v>1.925</v>
       </c>
-      <c r="R83">
-        <v>1.875</v>
-      </c>
       <c r="S83">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
         <v>1.1</v>
@@ -7657,16 +7657,16 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7674,7 +7674,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6881624</v>
+        <v>6880358</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7683,55 +7683,55 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>48</v>
       </c>
       <c r="J84">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="K84">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M84">
         <v>2.1</v>
       </c>
       <c r="N84">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P84">
         <v>-0.25</v>
       </c>
       <c r="Q84">
+        <v>1.925</v>
+      </c>
+      <c r="R84">
         <v>1.875</v>
       </c>
-      <c r="R84">
+      <c r="S84">
+        <v>2.75</v>
+      </c>
+      <c r="T84">
+        <v>1.875</v>
+      </c>
+      <c r="U84">
         <v>1.925</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
-      </c>
-      <c r="T84">
-        <v>1.95</v>
-      </c>
-      <c r="U84">
-        <v>1.85</v>
       </c>
       <c r="V84">
         <v>1.1</v>
@@ -7743,16 +7743,16 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7846,7 +7846,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6881321</v>
+        <v>6881322</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7855,76 +7855,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J86">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="K86">
         <v>3.4</v>
       </c>
       <c r="L86">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O86">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q86">
+        <v>1.75</v>
+      </c>
+      <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>2.5</v>
+      </c>
+      <c r="T86">
         <v>1.9</v>
       </c>
-      <c r="R86">
+      <c r="U86">
         <v>1.9</v>
       </c>
-      <c r="S86">
-        <v>2.75</v>
-      </c>
-      <c r="T86">
-        <v>1.925</v>
-      </c>
-      <c r="U86">
-        <v>1.875</v>
-      </c>
       <c r="V86">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7932,7 +7932,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6881322</v>
+        <v>6881321</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7941,76 +7941,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J87">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="K87">
         <v>3.4</v>
       </c>
       <c r="L87">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O87">
+        <v>2.1</v>
+      </c>
+      <c r="P87">
+        <v>0.25</v>
+      </c>
+      <c r="Q87">
+        <v>1.9</v>
+      </c>
+      <c r="R87">
+        <v>1.9</v>
+      </c>
+      <c r="S87">
         <v>2.75</v>
       </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>1.75</v>
-      </c>
-      <c r="R87">
-        <v>2.05</v>
-      </c>
-      <c r="S87">
-        <v>2.5</v>
-      </c>
       <c r="T87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8190,7 +8190,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6880332</v>
+        <v>6880469</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8199,13 +8199,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8235,13 +8235,13 @@
         <v>-0.25</v>
       </c>
       <c r="Q90">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T90">
         <v>1.925</v>
@@ -8259,16 +8259,16 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8276,7 +8276,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6880469</v>
+        <v>6880332</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8285,13 +8285,13 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         <v>-0.25</v>
       </c>
       <c r="Q91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T91">
         <v>1.925</v>
@@ -8345,16 +8345,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -9394,7 +9394,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6880471</v>
+        <v>6881324</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9403,76 +9403,76 @@
         <v>45213.375</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>49</v>
       </c>
       <c r="J104">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="K104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="M104">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="N104">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P104">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
         <v>2.75</v>
       </c>
       <c r="T104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9480,7 +9480,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6881324</v>
+        <v>6880471</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9489,76 +9489,76 @@
         <v>45213.375</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
         <v>49</v>
       </c>
       <c r="J105">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="K105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L105">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N105">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O105">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q105">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
         <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
         <v>-1</v>
       </c>
       <c r="W105">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -10856,7 +10856,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6881328</v>
+        <v>6881641</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10865,76 +10865,76 @@
         <v>45227.375</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G121">
         <v>2</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J121">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="K121">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L121">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N121">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O121">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q121">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
         <v>2.75</v>
       </c>
       <c r="T121">
+        <v>1.975</v>
+      </c>
+      <c r="U121">
         <v>1.825</v>
       </c>
-      <c r="U121">
-        <v>1.975</v>
-      </c>
       <c r="V121">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10942,7 +10942,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6881641</v>
+        <v>6881328</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10951,76 +10951,76 @@
         <v>45227.375</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G122">
         <v>2</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J122">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="K122">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M122">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N122">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P122">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q122">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
         <v>2.75</v>
       </c>
       <c r="T122">
+        <v>1.825</v>
+      </c>
+      <c r="U122">
         <v>1.975</v>
       </c>
-      <c r="U122">
-        <v>1.825</v>
-      </c>
       <c r="V122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA122">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -13522,7 +13522,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6880365</v>
+        <v>6880476</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13531,58 +13531,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G152">
         <v>2</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>48</v>
       </c>
       <c r="J152">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K152">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L152">
         <v>3</v>
       </c>
       <c r="M152">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N152">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P152">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q152">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R152">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S152">
         <v>2.75</v>
       </c>
       <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
         <v>1.8</v>
       </c>
-      <c r="U152">
-        <v>2</v>
-      </c>
       <c r="V152">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -13591,16 +13591,16 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13608,7 +13608,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880476</v>
+        <v>6880365</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13617,58 +13617,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G153">
         <v>2</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="s">
         <v>48</v>
       </c>
       <c r="J153">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K153">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L153">
         <v>3</v>
       </c>
       <c r="M153">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N153">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O153">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q153">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
         <v>2.75</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13677,16 +13677,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB153">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -16704,7 +16704,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6881339</v>
+        <v>6880368</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16713,76 +16713,76 @@
         <v>45279.625</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J189">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K189">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L189">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="N189">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q189">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16876,7 +16876,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6881338</v>
+        <v>6881676</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -16885,10 +16885,10 @@
         <v>45279.625</v>
       </c>
       <c r="E191" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16900,40 +16900,40 @@
         <v>50</v>
       </c>
       <c r="J191">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="K191">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L191">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="M191">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="N191">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O191">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="P191">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q191">
         <v>2.025</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S191">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T191">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
         <v>-1</v>
@@ -16942,19 +16942,19 @@
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -16962,7 +16962,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6880368</v>
+        <v>6881338</v>
       </c>
       <c r="C192" t="s">
         <v>27</v>
@@ -16971,34 +16971,34 @@
         <v>45279.625</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J192">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K192">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M192">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="N192">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O192">
         <v>4</v>
@@ -17007,40 +17007,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q192">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S192">
         <v>3</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U192">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
         <v>-1</v>
       </c>
       <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
         <v>3</v>
       </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB192">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -17048,7 +17048,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6881676</v>
+        <v>6881339</v>
       </c>
       <c r="C193" t="s">
         <v>27</v>
@@ -17057,73 +17057,73 @@
         <v>45279.625</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
         <v>1</v>
       </c>
-      <c r="H193">
-        <v>2</v>
-      </c>
       <c r="I193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J193">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="K193">
+        <v>3.4</v>
+      </c>
+      <c r="L193">
         <v>3.3</v>
       </c>
-      <c r="L193">
+      <c r="M193">
+        <v>2.15</v>
+      </c>
+      <c r="N193">
+        <v>3.2</v>
+      </c>
+      <c r="O193">
+        <v>3.1</v>
+      </c>
+      <c r="P193">
+        <v>-0.25</v>
+      </c>
+      <c r="Q193">
+        <v>1.95</v>
+      </c>
+      <c r="R193">
+        <v>1.85</v>
+      </c>
+      <c r="S193">
         <v>2.25</v>
       </c>
-      <c r="M193">
-        <v>3.2</v>
-      </c>
-      <c r="N193">
-        <v>3.4</v>
-      </c>
-      <c r="O193">
-        <v>2.05</v>
-      </c>
-      <c r="P193">
-        <v>0.25</v>
-      </c>
-      <c r="Q193">
-        <v>2.025</v>
-      </c>
-      <c r="R193">
-        <v>1.775</v>
-      </c>
-      <c r="S193">
-        <v>2.5</v>
-      </c>
       <c r="T193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z193">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB193">
         <v>-1</v>
@@ -17134,7 +17134,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6880342</v>
+        <v>6881679</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17143,76 +17143,76 @@
         <v>45280.625</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G194">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="K194">
+        <v>3.75</v>
+      </c>
+      <c r="L194">
+        <v>3.4</v>
+      </c>
+      <c r="M194">
+        <v>2.05</v>
+      </c>
+      <c r="N194">
+        <v>3.6</v>
+      </c>
+      <c r="O194">
+        <v>3.25</v>
+      </c>
+      <c r="P194">
+        <v>-0.25</v>
+      </c>
+      <c r="Q194">
+        <v>1.825</v>
+      </c>
+      <c r="R194">
+        <v>1.975</v>
+      </c>
+      <c r="S194">
+        <v>2.75</v>
+      </c>
+      <c r="T194">
+        <v>1.825</v>
+      </c>
+      <c r="U194">
+        <v>1.975</v>
+      </c>
+      <c r="V194">
+        <v>-1</v>
+      </c>
+      <c r="W194">
         <v>2.6</v>
       </c>
-      <c r="K194">
-        <v>3.4</v>
-      </c>
-      <c r="L194">
-        <v>2.625</v>
-      </c>
-      <c r="M194">
-        <v>2.8</v>
-      </c>
-      <c r="N194">
-        <v>3.4</v>
-      </c>
-      <c r="O194">
-        <v>2.45</v>
-      </c>
-      <c r="P194">
-        <v>0</v>
-      </c>
-      <c r="Q194">
-        <v>2</v>
-      </c>
-      <c r="R194">
-        <v>1.8</v>
-      </c>
-      <c r="S194">
-        <v>2.5</v>
-      </c>
-      <c r="T194">
-        <v>1.875</v>
-      </c>
-      <c r="U194">
-        <v>1.925</v>
-      </c>
-      <c r="V194">
-        <v>1.8</v>
-      </c>
-      <c r="W194">
-        <v>-1</v>
-      </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17220,7 +17220,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6880522</v>
+        <v>6881675</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17229,40 +17229,40 @@
         <v>45280.625</v>
       </c>
       <c r="E195" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J195">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="K195">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L195">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="M195">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="N195">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O195">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="P195">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q195">
         <v>1.95</v>
@@ -17271,34 +17271,34 @@
         <v>1.85</v>
       </c>
       <c r="S195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T195">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17306,7 +17306,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6881679</v>
+        <v>6880522</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17315,76 +17315,76 @@
         <v>45280.625</v>
       </c>
       <c r="E196" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J196">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K196">
         <v>3.75</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M196">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="N196">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P196">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T196">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W196">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z196">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17392,7 +17392,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6881675</v>
+        <v>6880342</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
@@ -17401,76 +17401,76 @@
         <v>45280.625</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
         <v>0</v>
       </c>
-      <c r="H197">
+      <c r="I197" t="s">
+        <v>48</v>
+      </c>
+      <c r="J197">
+        <v>2.6</v>
+      </c>
+      <c r="K197">
+        <v>3.4</v>
+      </c>
+      <c r="L197">
+        <v>2.625</v>
+      </c>
+      <c r="M197">
+        <v>2.8</v>
+      </c>
+      <c r="N197">
+        <v>3.4</v>
+      </c>
+      <c r="O197">
+        <v>2.45</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>2</v>
+      </c>
+      <c r="R197">
+        <v>1.8</v>
+      </c>
+      <c r="S197">
+        <v>2.5</v>
+      </c>
+      <c r="T197">
+        <v>1.875</v>
+      </c>
+      <c r="U197">
+        <v>1.925</v>
+      </c>
+      <c r="V197">
+        <v>1.8</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
         <v>1</v>
       </c>
-      <c r="I197" t="s">
-        <v>50</v>
-      </c>
-      <c r="J197">
-        <v>3.2</v>
-      </c>
-      <c r="K197">
-        <v>3.5</v>
-      </c>
-      <c r="L197">
-        <v>2.05</v>
-      </c>
-      <c r="M197">
-        <v>2.9</v>
-      </c>
-      <c r="N197">
-        <v>3.6</v>
-      </c>
-      <c r="O197">
-        <v>2.1</v>
-      </c>
-      <c r="P197">
-        <v>0.25</v>
-      </c>
-      <c r="Q197">
-        <v>1.95</v>
-      </c>
-      <c r="R197">
-        <v>1.85</v>
-      </c>
-      <c r="S197">
-        <v>3</v>
-      </c>
-      <c r="T197">
-        <v>1.975</v>
-      </c>
-      <c r="U197">
-        <v>1.825</v>
-      </c>
-      <c r="V197">
-        <v>-1</v>
-      </c>
-      <c r="W197">
-        <v>-1</v>
-      </c>
-      <c r="X197">
-        <v>1.1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -18252,7 +18252,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6880524</v>
+        <v>6881684</v>
       </c>
       <c r="C207" t="s">
         <v>27</v>
@@ -18261,73 +18261,73 @@
         <v>45314.625</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F207" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J207">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K207">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L207">
+        <v>3.2</v>
+      </c>
+      <c r="M207">
+        <v>2.15</v>
+      </c>
+      <c r="N207">
+        <v>3.5</v>
+      </c>
+      <c r="O207">
         <v>2.9</v>
-      </c>
-      <c r="M207">
-        <v>2.05</v>
-      </c>
-      <c r="N207">
-        <v>3.6</v>
-      </c>
-      <c r="O207">
-        <v>3.1</v>
       </c>
       <c r="P207">
         <v>-0.25</v>
       </c>
       <c r="Q207">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R207">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S207">
         <v>2.75</v>
       </c>
       <c r="T207">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U207">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z207">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB207">
         <v>-1</v>
@@ -18338,7 +18338,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6880344</v>
+        <v>6881685</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
@@ -18347,76 +18347,76 @@
         <v>45314.625</v>
       </c>
       <c r="E208" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J208">
-        <v>4.8</v>
+        <v>2.75</v>
       </c>
       <c r="K208">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L208">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M208">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N208">
         <v>3.4</v>
       </c>
       <c r="O208">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="P208">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q208">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
         <v>2.5</v>
       </c>
       <c r="T208">
+        <v>1.875</v>
+      </c>
+      <c r="U208">
         <v>1.925</v>
       </c>
-      <c r="U208">
-        <v>1.875</v>
-      </c>
       <c r="V208">
         <v>-1</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X208">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z208">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18510,7 +18510,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6881685</v>
+        <v>6880524</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18519,76 +18519,76 @@
         <v>45314.625</v>
       </c>
       <c r="E210" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J210">
+        <v>2.2</v>
+      </c>
+      <c r="K210">
+        <v>3.4</v>
+      </c>
+      <c r="L210">
+        <v>2.9</v>
+      </c>
+      <c r="M210">
+        <v>2.05</v>
+      </c>
+      <c r="N210">
+        <v>3.6</v>
+      </c>
+      <c r="O210">
+        <v>3.1</v>
+      </c>
+      <c r="P210">
+        <v>-0.25</v>
+      </c>
+      <c r="Q210">
+        <v>1.825</v>
+      </c>
+      <c r="R210">
+        <v>2.025</v>
+      </c>
+      <c r="S210">
         <v>2.75</v>
       </c>
-      <c r="K210">
-        <v>3.5</v>
-      </c>
-      <c r="L210">
-        <v>2.25</v>
-      </c>
-      <c r="M210">
-        <v>3</v>
-      </c>
-      <c r="N210">
-        <v>3.4</v>
-      </c>
-      <c r="O210">
-        <v>2.15</v>
-      </c>
-      <c r="P210">
-        <v>0.25</v>
-      </c>
-      <c r="Q210">
-        <v>1.875</v>
-      </c>
-      <c r="R210">
-        <v>1.925</v>
-      </c>
-      <c r="S210">
-        <v>2.5</v>
-      </c>
       <c r="T210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V210">
         <v>-1</v>
       </c>
       <c r="W210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y210">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB210">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18596,7 +18596,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6881684</v>
+        <v>6880344</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18605,76 +18605,76 @@
         <v>45314.625</v>
       </c>
       <c r="E211" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G211">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J211">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="K211">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="M211">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N211">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O211">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="P211">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q211">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T211">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18682,7 +18682,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6881687</v>
+        <v>6880370</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18691,76 +18691,76 @@
         <v>45315.625</v>
       </c>
       <c r="E212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G212">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J212">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K212">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L212">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M212">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212">
         <v>3.75</v>
-      </c>
-      <c r="O212">
-        <v>4.2</v>
       </c>
       <c r="P212">
         <v>-0.75</v>
       </c>
       <c r="Q212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R212">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S212">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T212">
+        <v>1.85</v>
+      </c>
+      <c r="U212">
         <v>1.95</v>
       </c>
-      <c r="U212">
-        <v>1.85</v>
-      </c>
       <c r="V212">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18768,7 +18768,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6880370</v>
+        <v>6881687</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18777,76 +18777,76 @@
         <v>45315.625</v>
       </c>
       <c r="E213" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J213">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K213">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M213">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N213">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O213">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P213">
         <v>-0.75</v>
       </c>
       <c r="Q213">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S213">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T213">
+        <v>1.95</v>
+      </c>
+      <c r="U213">
         <v>1.85</v>
       </c>
-      <c r="U213">
-        <v>1.95</v>
-      </c>
       <c r="V213">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W213">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -20144,7 +20144,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6881345</v>
+        <v>6881344</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -20153,10 +20153,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F229" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20168,61 +20168,61 @@
         <v>49</v>
       </c>
       <c r="J229">
+        <v>3.3</v>
+      </c>
+      <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>2.05</v>
+      </c>
+      <c r="M229">
+        <v>3.3</v>
+      </c>
+      <c r="N229">
+        <v>3.3</v>
+      </c>
+      <c r="O229">
+        <v>2.05</v>
+      </c>
+      <c r="P229">
+        <v>0.25</v>
+      </c>
+      <c r="Q229">
+        <v>1.95</v>
+      </c>
+      <c r="R229">
         <v>1.85</v>
       </c>
-      <c r="K229">
-        <v>3.5</v>
-      </c>
-      <c r="L229">
-        <v>3.75</v>
-      </c>
-      <c r="M229">
+      <c r="S229">
+        <v>2.5</v>
+      </c>
+      <c r="T229">
+        <v>1.95</v>
+      </c>
+      <c r="U229">
         <v>1.85</v>
       </c>
-      <c r="N229">
-        <v>3.6</v>
-      </c>
-      <c r="O229">
-        <v>3.6</v>
-      </c>
-      <c r="P229">
+      <c r="V229">
+        <v>-1</v>
+      </c>
+      <c r="W229">
+        <v>2.3</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>0.475</v>
+      </c>
+      <c r="Z229">
         <v>-0.5</v>
       </c>
-      <c r="Q229">
-        <v>1.875</v>
-      </c>
-      <c r="R229">
-        <v>1.925</v>
-      </c>
-      <c r="S229">
-        <v>3</v>
-      </c>
-      <c r="T229">
-        <v>1.975</v>
-      </c>
-      <c r="U229">
-        <v>1.825</v>
-      </c>
-      <c r="V229">
-        <v>-1</v>
-      </c>
-      <c r="W229">
-        <v>2.6</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>0.925</v>
-      </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20402,7 +20402,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6881344</v>
+        <v>6881345</v>
       </c>
       <c r="C232" t="s">
         <v>27</v>
@@ -20411,10 +20411,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20426,61 +20426,61 @@
         <v>49</v>
       </c>
       <c r="J232">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="K232">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L232">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="M232">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N232">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O232">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
         <v>-1</v>
       </c>
       <c r="W232">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="233" spans="1:28">
@@ -23154,7 +23154,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6882785</v>
+        <v>6881715</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23163,76 +23163,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I264" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J264">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="K264">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L264">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N264">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O264">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q264">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R264">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S264">
         <v>2.75</v>
       </c>
       <c r="T264">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U264">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
         <v>-1</v>
       </c>
       <c r="W264">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -23240,7 +23240,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6881715</v>
+        <v>6882785</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23249,76 +23249,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E265" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G265">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J265">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="K265">
+        <v>3.3</v>
+      </c>
+      <c r="L265">
+        <v>3.2</v>
+      </c>
+      <c r="M265">
+        <v>2.2</v>
+      </c>
+      <c r="N265">
         <v>3.4</v>
       </c>
-      <c r="L265">
-        <v>3.6</v>
-      </c>
-      <c r="M265">
-        <v>2.05</v>
-      </c>
-      <c r="N265">
-        <v>3.5</v>
-      </c>
       <c r="O265">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P265">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q265">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R265">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
         <v>2.75</v>
       </c>
       <c r="T265">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U265">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V265">
         <v>-1</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X265">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z265">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AA265">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23928,7 +23928,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6881718</v>
+        <v>6881349</v>
       </c>
       <c r="C273" t="s">
         <v>27</v>
@@ -23937,40 +23937,40 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E273" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
         <v>1</v>
       </c>
-      <c r="H273">
+      <c r="I273" t="s">
+        <v>50</v>
+      </c>
+      <c r="J273">
+        <v>2.6</v>
+      </c>
+      <c r="K273">
+        <v>3.4</v>
+      </c>
+      <c r="L273">
+        <v>2.6</v>
+      </c>
+      <c r="M273">
+        <v>2.6</v>
+      </c>
+      <c r="N273">
+        <v>3.3</v>
+      </c>
+      <c r="O273">
+        <v>2.625</v>
+      </c>
+      <c r="P273">
         <v>0</v>
-      </c>
-      <c r="I273" t="s">
-        <v>48</v>
-      </c>
-      <c r="J273">
-        <v>4.75</v>
-      </c>
-      <c r="K273">
-        <v>3.8</v>
-      </c>
-      <c r="L273">
-        <v>1.7</v>
-      </c>
-      <c r="M273">
-        <v>4.75</v>
-      </c>
-      <c r="N273">
-        <v>3.8</v>
-      </c>
-      <c r="O273">
-        <v>1.7</v>
-      </c>
-      <c r="P273">
-        <v>0.75</v>
       </c>
       <c r="Q273">
         <v>1.95</v>
@@ -23979,34 +23979,34 @@
         <v>1.9</v>
       </c>
       <c r="S273">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T273">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U273">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V273">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="W273">
         <v>-1</v>
       </c>
       <c r="X273">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y273">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA273">
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24014,7 +24014,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6881349</v>
+        <v>6881718</v>
       </c>
       <c r="C274" t="s">
         <v>27</v>
@@ -24023,40 +24023,40 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E274" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
         <v>0</v>
       </c>
-      <c r="H274">
-        <v>1</v>
-      </c>
       <c r="I274" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J274">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="K274">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L274">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="M274">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N274">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O274">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="P274">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q274">
         <v>1.95</v>
@@ -24065,34 +24065,34 @@
         <v>1.9</v>
       </c>
       <c r="S274">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T274">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U274">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V274">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="W274">
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z274">
+        <v>-1</v>
+      </c>
+      <c r="AA274">
+        <v>-1</v>
+      </c>
+      <c r="AB274">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA274">
-        <v>-1</v>
-      </c>
-      <c r="AB274">
-        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:28">
@@ -24616,7 +24616,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6957875</v>
+        <v>6881724</v>
       </c>
       <c r="C281" t="s">
         <v>27</v>
@@ -24625,76 +24625,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F281" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281" t="s">
+        <v>49</v>
+      </c>
+      <c r="J281">
+        <v>2.55</v>
+      </c>
+      <c r="K281">
+        <v>3.4</v>
+      </c>
+      <c r="L281">
+        <v>2.6</v>
+      </c>
+      <c r="M281">
+        <v>2.45</v>
+      </c>
+      <c r="N281">
+        <v>3.4</v>
+      </c>
+      <c r="O281">
+        <v>2.7</v>
+      </c>
+      <c r="P281">
         <v>0</v>
       </c>
-      <c r="I281" t="s">
-        <v>48</v>
-      </c>
-      <c r="J281">
-        <v>1.727</v>
-      </c>
-      <c r="K281">
-        <v>3.75</v>
-      </c>
-      <c r="L281">
-        <v>4.5</v>
-      </c>
-      <c r="M281">
-        <v>1.6</v>
-      </c>
-      <c r="N281">
-        <v>4</v>
-      </c>
-      <c r="O281">
-        <v>5</v>
-      </c>
-      <c r="P281">
-        <v>-1</v>
-      </c>
       <c r="Q281">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S281">
         <v>2.75</v>
       </c>
       <c r="T281">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U281">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V281">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA281">
         <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="282" spans="1:28">
@@ -24702,7 +24702,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6881724</v>
+        <v>6881725</v>
       </c>
       <c r="C282" t="s">
         <v>27</v>
@@ -24711,76 +24711,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E282" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F282" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J282">
+        <v>2.625</v>
+      </c>
+      <c r="K282">
+        <v>3.3</v>
+      </c>
+      <c r="L282">
         <v>2.55</v>
       </c>
-      <c r="K282">
-        <v>3.4</v>
-      </c>
-      <c r="L282">
-        <v>2.6</v>
-      </c>
       <c r="M282">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="N282">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O282">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="P282">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q282">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="R282">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S282">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T282">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U282">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V282">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W282">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:28">
@@ -24788,7 +24788,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6881725</v>
+        <v>6881727</v>
       </c>
       <c r="C283" t="s">
         <v>27</v>
@@ -24797,76 +24797,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E283" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F283" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G283">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J283">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="K283">
+        <v>3.6</v>
+      </c>
+      <c r="L283">
+        <v>2.25</v>
+      </c>
+      <c r="M283">
         <v>3.3</v>
       </c>
-      <c r="L283">
-        <v>2.55</v>
-      </c>
-      <c r="M283">
-        <v>2.875</v>
-      </c>
       <c r="N283">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O283">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="P283">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q283">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S283">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T283">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U283">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V283">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y283">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA283">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="284" spans="1:28">
@@ -24874,7 +24874,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6881727</v>
+        <v>6920822</v>
       </c>
       <c r="C284" t="s">
         <v>27</v>
@@ -24883,76 +24883,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E284" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F284" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H284">
         <v>2</v>
       </c>
       <c r="I284" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J284">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="K284">
         <v>3.6</v>
       </c>
       <c r="L284">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="M284">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N284">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O284">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="P284">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q284">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R284">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S284">
         <v>2.75</v>
       </c>
       <c r="T284">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U284">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V284">
         <v>-1</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X284">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z284">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB284">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:28">
@@ -24960,7 +24960,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6920822</v>
+        <v>6957875</v>
       </c>
       <c r="C285" t="s">
         <v>27</v>
@@ -24969,76 +24969,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E285" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F285" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G285">
         <v>2</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J285">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="K285">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L285">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="M285">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="N285">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O285">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="P285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q285">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R285">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S285">
         <v>2.75</v>
       </c>
       <c r="T285">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U285">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V285">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W285">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="286" spans="1:28">
@@ -25476,7 +25476,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6881351</v>
+        <v>6994640</v>
       </c>
       <c r="C291" t="s">
         <v>27</v>
@@ -25485,76 +25485,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E291" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H291">
         <v>0</v>
       </c>
       <c r="I291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J291">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="K291">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L291">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M291">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="N291">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O291">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="P291">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q291">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R291">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S291">
         <v>2.5</v>
       </c>
       <c r="T291">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U291">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V291">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W291">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z291">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="292" spans="1:28">
@@ -25562,7 +25562,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6993224</v>
+        <v>6881351</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -25571,76 +25571,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E292" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G292">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J292">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K292">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L292">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M292">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N292">
         <v>3.4</v>
       </c>
       <c r="O292">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P292">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q292">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R292">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S292">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T292">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U292">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V292">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA292">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="293" spans="1:28">
@@ -25648,7 +25648,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6994641</v>
+        <v>7023561</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -25657,76 +25657,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E293" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G293">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J293">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="K293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L293">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="M293">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O293">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="P293">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q293">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R293">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S293">
         <v>2.5</v>
       </c>
       <c r="T293">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U293">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z293">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -25734,7 +25734,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6994640</v>
+        <v>6993224</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -25743,58 +25743,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E294" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F294" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G294">
         <v>2</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294" t="s">
         <v>48</v>
       </c>
       <c r="J294">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K294">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="L294">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="M294">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="N294">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O294">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="P294">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q294">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T294">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V294">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -25803,16 +25803,16 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB294">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -25820,7 +25820,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7023561</v>
+        <v>6994641</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -25829,76 +25829,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E295" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F295" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G295">
         <v>1</v>
       </c>
       <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295" t="s">
+        <v>50</v>
+      </c>
+      <c r="J295">
+        <v>2.375</v>
+      </c>
+      <c r="K295">
+        <v>3.5</v>
+      </c>
+      <c r="L295">
+        <v>2.8</v>
+      </c>
+      <c r="M295">
+        <v>2.5</v>
+      </c>
+      <c r="N295">
+        <v>3.5</v>
+      </c>
+      <c r="O295">
+        <v>2.7</v>
+      </c>
+      <c r="P295">
         <v>0</v>
       </c>
-      <c r="I295" t="s">
-        <v>48</v>
-      </c>
-      <c r="J295">
-        <v>3.2</v>
-      </c>
-      <c r="K295">
-        <v>3.6</v>
-      </c>
-      <c r="L295">
-        <v>2.1</v>
-      </c>
-      <c r="M295">
-        <v>3.6</v>
-      </c>
-      <c r="N295">
-        <v>3.6</v>
-      </c>
-      <c r="O295">
-        <v>1.95</v>
-      </c>
-      <c r="P295">
-        <v>0.5</v>
-      </c>
       <c r="Q295">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R295">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S295">
         <v>2.5</v>
       </c>
       <c r="T295">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U295">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V295">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB295">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:28">
@@ -27110,7 +27110,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7088786</v>
+        <v>7095782</v>
       </c>
       <c r="C310" t="s">
         <v>27</v>
@@ -27119,58 +27119,58 @@
         <v>45388.375</v>
       </c>
       <c r="E310" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F310" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G310">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="s">
         <v>48</v>
       </c>
       <c r="J310">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K310">
         <v>4</v>
       </c>
       <c r="L310">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M310">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="N310">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O310">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P310">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q310">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R310">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
         <v>2.75</v>
       </c>
       <c r="T310">
+        <v>1.95</v>
+      </c>
+      <c r="U310">
         <v>1.85</v>
       </c>
-      <c r="U310">
-        <v>1.95</v>
-      </c>
       <c r="V310">
-        <v>0.8</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W310">
         <v>-1</v>
@@ -27179,16 +27179,16 @@
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="311" spans="1:28">
@@ -27196,7 +27196,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7095782</v>
+        <v>7097481</v>
       </c>
       <c r="C311" t="s">
         <v>27</v>
@@ -27205,76 +27205,76 @@
         <v>45388.375</v>
       </c>
       <c r="E311" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F311" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H311">
+        <v>3</v>
+      </c>
+      <c r="I311" t="s">
+        <v>50</v>
+      </c>
+      <c r="J311">
+        <v>2.05</v>
+      </c>
+      <c r="K311">
+        <v>3.5</v>
+      </c>
+      <c r="L311">
+        <v>3.4</v>
+      </c>
+      <c r="M311">
+        <v>2.05</v>
+      </c>
+      <c r="N311">
+        <v>3.5</v>
+      </c>
+      <c r="O311">
+        <v>3.4</v>
+      </c>
+      <c r="P311">
+        <v>-0.25</v>
+      </c>
+      <c r="Q311">
+        <v>1.8</v>
+      </c>
+      <c r="R311">
+        <v>2</v>
+      </c>
+      <c r="S311">
+        <v>2.5</v>
+      </c>
+      <c r="T311">
+        <v>1.85</v>
+      </c>
+      <c r="U311">
+        <v>1.95</v>
+      </c>
+      <c r="V311">
+        <v>-1</v>
+      </c>
+      <c r="W311">
+        <v>-1</v>
+      </c>
+      <c r="X311">
+        <v>2.4</v>
+      </c>
+      <c r="Y311">
+        <v>-1</v>
+      </c>
+      <c r="Z311">
         <v>1</v>
       </c>
-      <c r="I311" t="s">
-        <v>48</v>
-      </c>
-      <c r="J311">
-        <v>1.666</v>
-      </c>
-      <c r="K311">
-        <v>4</v>
-      </c>
-      <c r="L311">
-        <v>4.75</v>
-      </c>
-      <c r="M311">
-        <v>1.65</v>
-      </c>
-      <c r="N311">
-        <v>4.2</v>
-      </c>
-      <c r="O311">
-        <v>4.75</v>
-      </c>
-      <c r="P311">
-        <v>-0.75</v>
-      </c>
-      <c r="Q311">
-        <v>1.775</v>
-      </c>
-      <c r="R311">
-        <v>2.025</v>
-      </c>
-      <c r="S311">
-        <v>2.75</v>
-      </c>
-      <c r="T311">
-        <v>1.95</v>
-      </c>
-      <c r="U311">
-        <v>1.85</v>
-      </c>
-      <c r="V311">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="W311">
-        <v>-1</v>
-      </c>
-      <c r="X311">
-        <v>-1</v>
-      </c>
-      <c r="Y311">
-        <v>0.3875</v>
-      </c>
-      <c r="Z311">
-        <v>-0.5</v>
-      </c>
       <c r="AA311">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB311">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:28">
@@ -27282,7 +27282,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7097481</v>
+        <v>7092356</v>
       </c>
       <c r="C312" t="s">
         <v>27</v>
@@ -27291,76 +27291,76 @@
         <v>45388.375</v>
       </c>
       <c r="E312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F312" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H312">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J312">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="K312">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L312">
+        <v>2.2</v>
+      </c>
+      <c r="M312">
+        <v>2.7</v>
+      </c>
+      <c r="N312">
         <v>3.4</v>
       </c>
-      <c r="M312">
-        <v>2.05</v>
-      </c>
-      <c r="N312">
-        <v>3.5</v>
-      </c>
       <c r="O312">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="P312">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q312">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R312">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S312">
         <v>2.5</v>
       </c>
       <c r="T312">
+        <v>1.95</v>
+      </c>
+      <c r="U312">
         <v>1.85</v>
       </c>
-      <c r="U312">
-        <v>1.95</v>
-      </c>
       <c r="V312">
         <v>-1</v>
       </c>
       <c r="W312">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X312">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA312">
+        <v>-1</v>
+      </c>
+      <c r="AB312">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB312">
-        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:28">
@@ -27368,7 +27368,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7092356</v>
+        <v>7088786</v>
       </c>
       <c r="C313" t="s">
         <v>27</v>
@@ -27377,76 +27377,76 @@
         <v>45388.375</v>
       </c>
       <c r="E313" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F313" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G313">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J313">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="K313">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L313">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="M313">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N313">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O313">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="P313">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q313">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R313">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S313">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T313">
+        <v>1.85</v>
+      </c>
+      <c r="U313">
         <v>1.95</v>
       </c>
-      <c r="U313">
-        <v>1.85</v>
-      </c>
       <c r="V313">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W313">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z313">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA313">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB313">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:28">
@@ -28056,7 +28056,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7107169</v>
+        <v>7106357</v>
       </c>
       <c r="C321" t="s">
         <v>27</v>
@@ -28065,58 +28065,58 @@
         <v>45395.375</v>
       </c>
       <c r="E321" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F321" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G321">
         <v>4</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="s">
         <v>48</v>
       </c>
       <c r="J321">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K321">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L321">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M321">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N321">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O321">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P321">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q321">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R321">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S321">
         <v>2.75</v>
       </c>
       <c r="T321">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U321">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V321">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="W321">
         <v>-1</v>
@@ -28125,13 +28125,13 @@
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB321">
         <v>-1</v>
@@ -28142,7 +28142,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7111591</v>
+        <v>7107168</v>
       </c>
       <c r="C322" t="s">
         <v>27</v>
@@ -28151,55 +28151,55 @@
         <v>45395.375</v>
       </c>
       <c r="E322" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F322" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G322">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="s">
         <v>48</v>
       </c>
       <c r="J322">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K322">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L322">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M322">
         <v>2.1</v>
       </c>
       <c r="N322">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O322">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P322">
         <v>-0.25</v>
       </c>
       <c r="Q322">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R322">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S322">
         <v>2.75</v>
       </c>
       <c r="T322">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U322">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V322">
         <v>1.1</v>
@@ -28211,16 +28211,16 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z322">
         <v>-1</v>
       </c>
       <c r="AA322">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="323" spans="1:28">
@@ -28228,7 +28228,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7107168</v>
+        <v>7107169</v>
       </c>
       <c r="C323" t="s">
         <v>27</v>
@@ -28237,58 +28237,58 @@
         <v>45395.375</v>
       </c>
       <c r="E323" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F323" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G323">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323" t="s">
         <v>48</v>
       </c>
       <c r="J323">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K323">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L323">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M323">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N323">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O323">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P323">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q323">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R323">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S323">
         <v>2.75</v>
       </c>
       <c r="T323">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U323">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V323">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -28297,16 +28297,16 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z323">
         <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB323">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:28">
@@ -28314,7 +28314,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7106357</v>
+        <v>7111591</v>
       </c>
       <c r="C324" t="s">
         <v>27</v>
@@ -28323,58 +28323,58 @@
         <v>45395.375</v>
       </c>
       <c r="E324" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F324" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G324">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="s">
         <v>48</v>
       </c>
       <c r="J324">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="K324">
         <v>3.5</v>
       </c>
       <c r="L324">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M324">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N324">
         <v>3.5</v>
       </c>
       <c r="O324">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P324">
         <v>-0.25</v>
       </c>
       <c r="Q324">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R324">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S324">
         <v>2.75</v>
       </c>
       <c r="T324">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U324">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V324">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="W324">
         <v>-1</v>
@@ -28383,13 +28383,13 @@
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z324">
         <v>-1</v>
       </c>
       <c r="AA324">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB324">
         <v>-1</v>
@@ -29174,7 +29174,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7127722</v>
+        <v>7127723</v>
       </c>
       <c r="C334" t="s">
         <v>27</v>
@@ -29183,76 +29183,76 @@
         <v>45402.375</v>
       </c>
       <c r="E334" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F334" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
         <v>0</v>
       </c>
-      <c r="H334">
-        <v>5</v>
-      </c>
       <c r="I334" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J334">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="K334">
         <v>3.5</v>
       </c>
       <c r="L334">
+        <v>2.625</v>
+      </c>
+      <c r="M334">
+        <v>2.6</v>
+      </c>
+      <c r="N334">
+        <v>3.25</v>
+      </c>
+      <c r="O334">
         <v>2.7</v>
       </c>
-      <c r="M334">
-        <v>3.2</v>
-      </c>
-      <c r="N334">
-        <v>3.4</v>
-      </c>
-      <c r="O334">
-        <v>2.25</v>
-      </c>
       <c r="P334">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q334">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R334">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S334">
         <v>2.5</v>
       </c>
       <c r="T334">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U334">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V334">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z334">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -29260,7 +29260,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7127723</v>
+        <v>7127722</v>
       </c>
       <c r="C335" t="s">
         <v>27</v>
@@ -29269,76 +29269,76 @@
         <v>45402.375</v>
       </c>
       <c r="E335" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F335" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I335" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J335">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="K335">
         <v>3.5</v>
       </c>
       <c r="L335">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="M335">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N335">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O335">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="P335">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q335">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R335">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S335">
         <v>2.5</v>
       </c>
       <c r="T335">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U335">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V335">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y335">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA335">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB335">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -30894,7 +30894,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7221960</v>
+        <v>7221959</v>
       </c>
       <c r="C354" t="s">
         <v>27</v>
@@ -30903,13 +30903,13 @@
         <v>45416.375</v>
       </c>
       <c r="E354" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F354" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354">
         <v>0</v>
@@ -30918,43 +30918,43 @@
         <v>48</v>
       </c>
       <c r="J354">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="K354">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L354">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="M354">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N354">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O354">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q354">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R354">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S354">
         <v>2.75</v>
       </c>
       <c r="T354">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U354">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V354">
-        <v>1.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W354">
         <v>-1</v>
@@ -30963,7 +30963,7 @@
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Z354">
         <v>-1</v>
@@ -30972,7 +30972,7 @@
         <v>-1</v>
       </c>
       <c r="AB354">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="355" spans="1:28">
@@ -30980,7 +30980,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7221959</v>
+        <v>7218893</v>
       </c>
       <c r="C355" t="s">
         <v>27</v>
@@ -30989,76 +30989,76 @@
         <v>45416.375</v>
       </c>
       <c r="E355" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F355" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G355">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I355" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J355">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="K355">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="L355">
         <v>5.5</v>
       </c>
       <c r="M355">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="N355">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O355">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P355">
         <v>-1</v>
       </c>
       <c r="Q355">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R355">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S355">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T355">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U355">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V355">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W355">
         <v>-1</v>
       </c>
       <c r="X355">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y355">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA355">
         <v>-1</v>
       </c>
       <c r="AB355">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="356" spans="1:28">
@@ -31066,7 +31066,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7218893</v>
+        <v>7221960</v>
       </c>
       <c r="C356" t="s">
         <v>27</v>
@@ -31075,76 +31075,76 @@
         <v>45416.375</v>
       </c>
       <c r="E356" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F356" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
         <v>0</v>
       </c>
-      <c r="H356">
+      <c r="I356" t="s">
+        <v>48</v>
+      </c>
+      <c r="J356">
+        <v>2.9</v>
+      </c>
+      <c r="K356">
+        <v>3.6</v>
+      </c>
+      <c r="L356">
+        <v>2.25</v>
+      </c>
+      <c r="M356">
+        <v>2.6</v>
+      </c>
+      <c r="N356">
+        <v>3.5</v>
+      </c>
+      <c r="O356">
+        <v>2.45</v>
+      </c>
+      <c r="P356">
+        <v>0</v>
+      </c>
+      <c r="Q356">
+        <v>2</v>
+      </c>
+      <c r="R356">
+        <v>1.8</v>
+      </c>
+      <c r="S356">
+        <v>2.75</v>
+      </c>
+      <c r="T356">
+        <v>1.875</v>
+      </c>
+      <c r="U356">
+        <v>1.925</v>
+      </c>
+      <c r="V356">
+        <v>1.6</v>
+      </c>
+      <c r="W356">
+        <v>-1</v>
+      </c>
+      <c r="X356">
+        <v>-1</v>
+      </c>
+      <c r="Y356">
         <v>1</v>
       </c>
-      <c r="I356" t="s">
-        <v>50</v>
-      </c>
-      <c r="J356">
-        <v>1.5</v>
-      </c>
-      <c r="K356">
-        <v>4.75</v>
-      </c>
-      <c r="L356">
-        <v>5.5</v>
-      </c>
-      <c r="M356">
-        <v>1.55</v>
-      </c>
-      <c r="N356">
-        <v>4.5</v>
-      </c>
-      <c r="O356">
-        <v>5</v>
-      </c>
-      <c r="P356">
-        <v>-1</v>
-      </c>
-      <c r="Q356">
-        <v>1.9</v>
-      </c>
-      <c r="R356">
-        <v>1.9</v>
-      </c>
-      <c r="S356">
-        <v>3</v>
-      </c>
-      <c r="T356">
-        <v>1.95</v>
-      </c>
-      <c r="U356">
-        <v>1.85</v>
-      </c>
-      <c r="V356">
-        <v>-1</v>
-      </c>
-      <c r="W356">
-        <v>-1</v>
-      </c>
-      <c r="X356">
-        <v>4</v>
-      </c>
-      <c r="Y356">
-        <v>-1</v>
-      </c>
       <c r="Z356">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
         <v>-1</v>
       </c>
       <c r="AB356">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="357" spans="1:28">
@@ -31840,7 +31840,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7251305</v>
+        <v>7251308</v>
       </c>
       <c r="C365" t="s">
         <v>27</v>
@@ -31849,76 +31849,76 @@
         <v>45423.375</v>
       </c>
       <c r="E365" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F365" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G365">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J365">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="K365">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L365">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="M365">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N365">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O365">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P365">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q365">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R365">
         <v>1.9</v>
       </c>
       <c r="S365">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T365">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U365">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V365">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W365">
         <v>-1</v>
       </c>
       <c r="X365">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z365">
-        <v>-1</v>
-      </c>
       <c r="AA365">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB365">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="366" spans="1:28">
@@ -31926,7 +31926,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7251308</v>
+        <v>7251305</v>
       </c>
       <c r="C366" t="s">
         <v>27</v>
@@ -31935,76 +31935,76 @@
         <v>45423.375</v>
       </c>
       <c r="E366" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F366" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G366">
+        <v>6</v>
+      </c>
+      <c r="H366">
         <v>1</v>
       </c>
-      <c r="H366">
-        <v>2</v>
-      </c>
       <c r="I366" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J366">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="K366">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L366">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="M366">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N366">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O366">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P366">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q366">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R366">
         <v>1.9</v>
       </c>
       <c r="S366">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T366">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U366">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V366">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W366">
         <v>-1</v>
       </c>
       <c r="X366">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z366">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB366">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:28">

--- a/Germany 3Liga/Germany 3Liga.xlsx
+++ b/Germany 3Liga/Germany 3Liga.xlsx
@@ -106,16 +106,16 @@
     <t>1860 Munich</t>
   </si>
   <si>
+    <t>SC Preussen Munster</t>
+  </si>
+  <si>
     <t>Vfb Lubeck</t>
   </si>
   <si>
-    <t>SC Preussen Munster</t>
+    <t>Jahn Regensburg</t>
   </si>
   <si>
     <t>FC Viktoria Kln</t>
-  </si>
-  <si>
-    <t>Jahn Regensburg</t>
   </si>
   <si>
     <t>Dynamo Dresden</t>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6881308</v>
+        <v>6881586</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -806,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -818,61 +818,61 @@
         <v>49</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
+        <v>3.2</v>
+      </c>
+      <c r="M4">
+        <v>1.85</v>
+      </c>
+      <c r="N4">
+        <v>3.6</v>
+      </c>
+      <c r="O4">
         <v>3.75</v>
       </c>
-      <c r="L4">
-        <v>1.8</v>
-      </c>
-      <c r="M4">
-        <v>3.1</v>
-      </c>
-      <c r="N4">
-        <v>3.5</v>
-      </c>
-      <c r="O4">
-        <v>2.1</v>
-      </c>
       <c r="P4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q4">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
         <v>2.75</v>
       </c>
       <c r="T4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6881586</v>
+        <v>6881308</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -892,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -904,61 +904,61 @@
         <v>49</v>
       </c>
       <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>3.75</v>
+      </c>
+      <c r="L5">
+        <v>1.8</v>
+      </c>
+      <c r="M5">
+        <v>3.1</v>
+      </c>
+      <c r="N5">
+        <v>3.5</v>
+      </c>
+      <c r="O5">
         <v>2.1</v>
       </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>3.2</v>
-      </c>
-      <c r="M5">
+      <c r="P5">
+        <v>0.25</v>
+      </c>
+      <c r="Q5">
+        <v>1.95</v>
+      </c>
+      <c r="R5">
         <v>1.85</v>
-      </c>
-      <c r="N5">
-        <v>3.6</v>
-      </c>
-      <c r="O5">
-        <v>3.75</v>
-      </c>
-      <c r="P5">
-        <v>-0.5</v>
-      </c>
-      <c r="Q5">
-        <v>1.875</v>
-      </c>
-      <c r="R5">
-        <v>1.925</v>
       </c>
       <c r="S5">
         <v>2.75</v>
       </c>
       <c r="T5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
         <v>-1</v>
       </c>
       <c r="W5">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6881307</v>
+        <v>6881588</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -978,73 +978,73 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K6">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T6">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6881588</v>
+        <v>6881307</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1064,73 +1064,73 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="K7">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1838,7 +1838,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2010,7 +2010,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6880508</v>
+        <v>6881596</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2351,76 +2351,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="K22">
+        <v>3.75</v>
+      </c>
+      <c r="L22">
+        <v>4.75</v>
+      </c>
+      <c r="M22">
+        <v>1.615</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>4.5</v>
+      </c>
+      <c r="P22">
+        <v>-0.75</v>
+      </c>
+      <c r="Q22">
+        <v>1.775</v>
+      </c>
+      <c r="R22">
+        <v>2.025</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>1.95</v>
+      </c>
+      <c r="U22">
+        <v>1.85</v>
+      </c>
+      <c r="V22">
+        <v>-1</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>3.5</v>
       </c>
-      <c r="L22">
-        <v>2.6</v>
-      </c>
-      <c r="M22">
-        <v>2.15</v>
-      </c>
-      <c r="N22">
-        <v>3.6</v>
-      </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>-0.25</v>
-      </c>
-      <c r="Q22">
-        <v>1.95</v>
-      </c>
-      <c r="R22">
-        <v>1.85</v>
-      </c>
-      <c r="S22">
-        <v>2.75</v>
-      </c>
-      <c r="T22">
-        <v>1.8</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>-1</v>
-      </c>
-      <c r="W22">
-        <v>2.6</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2428,7 +2428,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880353</v>
+        <v>6881313</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2437,58 +2437,58 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
       </c>
       <c r="J23">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="K23">
         <v>3.4</v>
       </c>
       <c r="L23">
+        <v>2.05</v>
+      </c>
+      <c r="M23">
         <v>2.8</v>
       </c>
-      <c r="M23">
+      <c r="N23">
+        <v>3.5</v>
+      </c>
+      <c r="O23">
         <v>2.25</v>
       </c>
-      <c r="N23">
-        <v>3.2</v>
-      </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
       <c r="P23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q23">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R23">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2497,16 +2497,16 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2514,7 +2514,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880327</v>
+        <v>6880353</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2523,13 +2523,13 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2538,43 +2538,43 @@
         <v>48</v>
       </c>
       <c r="J24">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="K24">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M24">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2583,16 +2583,16 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2600,7 +2600,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6881313</v>
+        <v>6880327</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2609,58 +2609,58 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
       </c>
       <c r="J25">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="K25">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L25">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="M25">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="N25">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O25">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q25">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <v>3</v>
       </c>
       <c r="T25">
+        <v>1.85</v>
+      </c>
+      <c r="U25">
         <v>1.95</v>
       </c>
-      <c r="U25">
-        <v>1.85</v>
-      </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2669,16 +2669,16 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2686,7 +2686,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6881596</v>
+        <v>6880508</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2695,76 +2695,76 @@
         <v>45160.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="K26">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="M26">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O26">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="P26">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q26">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R26">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T26">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X26">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z26">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2858,7 +2858,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6881593</v>
+        <v>6881594</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2867,76 +2867,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L28">
+        <v>4.75</v>
+      </c>
+      <c r="M28">
+        <v>1.75</v>
+      </c>
+      <c r="N28">
+        <v>3.8</v>
+      </c>
+      <c r="O28">
+        <v>3.8</v>
+      </c>
+      <c r="P28">
+        <v>-0.75</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>1.8</v>
+      </c>
+      <c r="S28">
         <v>3</v>
       </c>
-      <c r="M28">
-        <v>2.15</v>
-      </c>
-      <c r="N28">
-        <v>3.4</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="P28">
-        <v>-0.25</v>
-      </c>
-      <c r="Q28">
-        <v>1.875</v>
-      </c>
-      <c r="R28">
-        <v>1.925</v>
-      </c>
-      <c r="S28">
-        <v>2.75</v>
-      </c>
       <c r="T28">
+        <v>1.85</v>
+      </c>
+      <c r="U28">
         <v>1.95</v>
       </c>
-      <c r="U28">
-        <v>1.85</v>
-      </c>
       <c r="V28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W28">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
+        <v>0.5</v>
+      </c>
+      <c r="Z28">
         <v>-0.5</v>
       </c>
-      <c r="Z28">
-        <v>0.4625</v>
-      </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2944,7 +2944,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6881595</v>
+        <v>6881593</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2953,10 +2953,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2968,31 +2968,31 @@
         <v>49</v>
       </c>
       <c r="J29">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="K29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N29">
         <v>3.4</v>
       </c>
       <c r="O29">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
         <v>2.75</v>
@@ -3013,10 +3013,10 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3030,7 +3030,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6881597</v>
+        <v>6881595</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3039,10 +3039,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3054,25 +3054,25 @@
         <v>49</v>
       </c>
       <c r="J30">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="K30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>1.85</v>
@@ -3084,31 +3084,31 @@
         <v>2.75</v>
       </c>
       <c r="T30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3116,7 +3116,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6881594</v>
+        <v>6881597</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3125,76 +3125,76 @@
         <v>45161.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31">
+        <v>1.75</v>
+      </c>
+      <c r="K31">
+        <v>3.6</v>
+      </c>
+      <c r="L31">
         <v>4</v>
       </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31">
-        <v>1.6</v>
-      </c>
-      <c r="K31">
-        <v>3.8</v>
-      </c>
-      <c r="L31">
-        <v>4.75</v>
-      </c>
       <c r="M31">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="N31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T31">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3288,7 +3288,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6881601</v>
+        <v>6880464</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3297,76 +3297,76 @@
         <v>45164.375</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33">
+        <v>2.375</v>
+      </c>
+      <c r="K33">
+        <v>3.4</v>
+      </c>
+      <c r="L33">
+        <v>2.625</v>
+      </c>
+      <c r="M33">
+        <v>2.3</v>
+      </c>
+      <c r="N33">
+        <v>3.5</v>
+      </c>
+      <c r="O33">
+        <v>2.7</v>
+      </c>
+      <c r="P33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33">
-        <v>3.5</v>
-      </c>
-      <c r="K33">
-        <v>3.75</v>
-      </c>
-      <c r="L33">
-        <v>1.85</v>
-      </c>
-      <c r="M33">
-        <v>3.6</v>
-      </c>
-      <c r="N33">
-        <v>3.75</v>
-      </c>
-      <c r="O33">
-        <v>1.833</v>
-      </c>
-      <c r="P33">
-        <v>0.5</v>
-      </c>
       <c r="Q33">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S33">
         <v>2.75</v>
       </c>
       <c r="T33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
         <v>-1</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X33">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
         <v>0.825</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3374,7 +3374,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6880464</v>
+        <v>6881601</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3383,76 +3383,76 @@
         <v>45164.375</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="K34">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L34">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="M34">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O34">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q34">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R34">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
         <v>2.75</v>
       </c>
       <c r="T34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3644,7 +3644,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3816,7 +3816,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3988,7 +3988,7 @@
         <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4157,7 +4157,7 @@
         <v>45171.375</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
         <v>44</v>
@@ -4234,7 +4234,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6880355</v>
+        <v>6881604</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4243,76 +4243,76 @@
         <v>45171.375</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J44">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="K44">
+        <v>3.5</v>
+      </c>
+      <c r="L44">
+        <v>3.8</v>
+      </c>
+      <c r="M44">
+        <v>1.909</v>
+      </c>
+      <c r="N44">
+        <v>3.5</v>
+      </c>
+      <c r="O44">
         <v>3.75</v>
       </c>
-      <c r="L44">
-        <v>4.75</v>
-      </c>
-      <c r="M44">
-        <v>1.727</v>
-      </c>
-      <c r="N44">
-        <v>3.75</v>
-      </c>
-      <c r="O44">
-        <v>4.5</v>
-      </c>
       <c r="P44">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
         <v>3</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
+        <v>0.925</v>
+      </c>
+      <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z44">
-        <v>-1</v>
-      </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
-      <c r="AB44">
-        <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4332,7 +4332,7 @@
         <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4406,7 +4406,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6881604</v>
+        <v>6880355</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4415,76 +4415,76 @@
         <v>45171.375</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J46">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="K46">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M46">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N46">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P46">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q46">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
         <v>3</v>
       </c>
       <c r="T46">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4759,7 +4759,7 @@
         <v>45172.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -4845,7 +4845,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
         <v>43</v>
@@ -5020,7 +5020,7 @@
         <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5275,7 +5275,7 @@
         <v>45185.375</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
@@ -5364,7 +5364,7 @@
         <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5877,7 +5877,7 @@
         <v>45192.375</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
         <v>40</v>
@@ -6049,10 +6049,10 @@
         <v>45192.375</v>
       </c>
       <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
         <v>31</v>
-      </c>
-      <c r="F65" t="s">
-        <v>30</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6221,7 +6221,7 @@
         <v>45192.375</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
         <v>38</v>
@@ -6998,7 +6998,7 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7084,7 +7084,7 @@
         <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7253,7 +7253,7 @@
         <v>45199.47916666666</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
         <v>28</v>
@@ -7514,7 +7514,7 @@
         <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6881624</v>
+        <v>6881321</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7597,76 +7597,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J83">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="K83">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="M83">
+        <v>2.9</v>
+      </c>
+      <c r="N83">
+        <v>3.6</v>
+      </c>
+      <c r="O83">
         <v>2.1</v>
       </c>
-      <c r="N83">
-        <v>3.3</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q83">
+        <v>1.9</v>
+      </c>
+      <c r="R83">
+        <v>1.9</v>
+      </c>
+      <c r="S83">
+        <v>2.75</v>
+      </c>
+      <c r="T83">
+        <v>1.925</v>
+      </c>
+      <c r="U83">
         <v>1.875</v>
       </c>
-      <c r="R83">
-        <v>1.925</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
-      <c r="T83">
-        <v>1.95</v>
-      </c>
-      <c r="U83">
-        <v>1.85</v>
-      </c>
       <c r="V83">
+        <v>-1</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>1.1</v>
       </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>0.875</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>0.95</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7674,7 +7674,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6880358</v>
+        <v>6881624</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7683,55 +7683,55 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
         <v>1</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>48</v>
       </c>
       <c r="J84">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="K84">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L84">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
         <v>2.1</v>
       </c>
       <c r="N84">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O84">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
         <v>-0.25</v>
       </c>
       <c r="Q84">
+        <v>1.875</v>
+      </c>
+      <c r="R84">
         <v>1.925</v>
       </c>
-      <c r="R84">
-        <v>1.875</v>
-      </c>
       <c r="S84">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
         <v>1.1</v>
@@ -7743,16 +7743,16 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7760,7 +7760,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6881321</v>
+        <v>6881623</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7769,76 +7769,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J85">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L85">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="M85">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N85">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="P85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T85">
+        <v>1.875</v>
+      </c>
+      <c r="U85">
         <v>1.925</v>
       </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
       <c r="V85">
         <v>-1</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X85">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7846,7 +7846,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6881623</v>
+        <v>6881322</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7855,76 +7855,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J86">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="K86">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L86">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="M86">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O86">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="P86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S86">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W86">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7932,7 +7932,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6881322</v>
+        <v>6880358</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7941,10 +7941,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7956,43 +7956,43 @@
         <v>48</v>
       </c>
       <c r="J87">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K87">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L87">
+        <v>2.5</v>
+      </c>
+      <c r="M87">
+        <v>2.1</v>
+      </c>
+      <c r="N87">
+        <v>3.75</v>
+      </c>
+      <c r="O87">
         <v>2.875</v>
       </c>
-      <c r="M87">
-        <v>2.3</v>
-      </c>
-      <c r="N87">
-        <v>3.3</v>
-      </c>
-      <c r="O87">
+      <c r="P87">
+        <v>-0.25</v>
+      </c>
+      <c r="Q87">
+        <v>1.925</v>
+      </c>
+      <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
         <v>2.75</v>
       </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>1.75</v>
-      </c>
-      <c r="R87">
-        <v>2.05</v>
-      </c>
-      <c r="S87">
-        <v>2.5</v>
-      </c>
       <c r="T87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8001,7 +8001,7 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="Z87">
         <v>-1</v>
@@ -8010,7 +8010,7 @@
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8027,7 +8027,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
         <v>37</v>
@@ -8113,7 +8113,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
         <v>44</v>
@@ -8534,7 +8534,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6881625</v>
+        <v>6881626</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8543,40 +8543,40 @@
         <v>45206.375</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J94">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="K94">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L94">
+        <v>3.25</v>
+      </c>
+      <c r="M94">
         <v>2.2</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>3.2</v>
       </c>
-      <c r="N94">
-        <v>3.5</v>
-      </c>
       <c r="O94">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q94">
         <v>1.975</v>
@@ -8588,31 +8588,31 @@
         <v>2.75</v>
       </c>
       <c r="T94">
+        <v>1.85</v>
+      </c>
+      <c r="U94">
         <v>1.95</v>
       </c>
-      <c r="U94">
-        <v>1.85</v>
-      </c>
       <c r="V94">
         <v>-1</v>
       </c>
       <c r="W94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y94">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8718,7 +8718,7 @@
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6881626</v>
+        <v>6881625</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8801,40 +8801,40 @@
         <v>45206.375</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J97">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="K97">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="M97">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N97">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
   